--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>PART</t>
   </si>
@@ -25,10 +25,10 @@
     <t>PRICE</t>
   </si>
   <si>
-    <t>UI</t>
+    <t>QTY</t>
   </si>
   <si>
-    <t>QTY</t>
+    <t>UI</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -46,31 +46,82 @@
     <t>Steel Rods</t>
   </si>
   <si>
-    <t>M3 Nylon-Insert Locknut</t>
+    <t>M3 Hex Nut</t>
   </si>
   <si>
     <t>McMaster-CARR</t>
   </si>
   <si>
-    <t>90576A102</t>
+    <t>PK</t>
   </si>
   <si>
-    <t>PK</t>
+    <t>M3 Nylon-Insert Locknut</t>
   </si>
   <si>
     <t>M3 Flat Washer</t>
   </si>
   <si>
-    <t>91166A210</t>
-  </si>
-  <si>
-    <t>Coupler</t>
+    <t>Z Axes Coupler</t>
   </si>
   <si>
     <t>LM8UU Linear Bearings</t>
   </si>
   <si>
     <t>VXB</t>
+  </si>
+  <si>
+    <t>608ZZ Bearings</t>
+  </si>
+  <si>
+    <t>623ZZ Miniature Bearings</t>
+  </si>
+  <si>
+    <t>Azteeg X5 mini</t>
+  </si>
+  <si>
+    <t>Panucatt Devices LLC</t>
+  </si>
+  <si>
+    <t>Mini-B USB Cable w/Ferrit Core</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>4 GB Micro SD card</t>
+  </si>
+  <si>
+    <t>Mechanical Endstop</t>
+  </si>
+  <si>
+    <t>14 Gauge Black Wire</t>
+  </si>
+  <si>
+    <t>Homedepot</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>14 Guage Red Wire</t>
+  </si>
+  <si>
+    <t>Wei Hao S-400-24 power supply</t>
+  </si>
+  <si>
+    <t>3DMakerWorld</t>
+  </si>
+  <si>
+    <t>E3D V6 Full Kit</t>
+  </si>
+  <si>
+    <t>Kysan 1124090 NEMA17 Stepper Motor</t>
+  </si>
+  <si>
+    <t>GT2 Belts</t>
+  </si>
+  <si>
+    <t>Pulleys</t>
   </si>
 </sst>
 </file>
@@ -80,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -91,10 +142,18 @@
     </font>
     <font/>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF333333"/>
+    </font>
+    <font>
       <sz val="10.0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +164,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -119,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -157,6 +222,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -184,8 +255,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.14"/>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
+    <col customWidth="1" min="1" max="1" width="36.43"/>
+    <col customWidth="1" min="2" max="2" width="20.57"/>
     <col customWidth="1" min="3" max="3" width="21.29"/>
   </cols>
   <sheetData>
@@ -243,14 +314,14 @@
       <c r="D2" s="9">
         <v>41.44</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10">
-        <v>1.0</v>
-      </c>
       <c r="G2" s="11" t="str">
-        <f t="shared" ref="G2:G7" si="1">D2*F2</f>
+        <f t="shared" ref="G2:G21" si="1">D2*E2</f>
         <v>$41.44</v>
       </c>
     </row>
@@ -261,11 +332,11 @@
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="10">
-        <v>4.0</v>
       </c>
       <c r="G3" s="11" t="str">
         <f t="shared" si="1"/>
@@ -279,199 +350,365 @@
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="str">
+        <f>HYPERLINK("http://www.mcmaster.com/#90591a250/=xst4ec","90591A250")</f>
+        <v>90591A250</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2.06</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="9">
-        <v>3.27</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1.0</v>
       </c>
       <c r="G4" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>$3.27</v>
+        <v>$2.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
+      <c r="C5" s="12" t="str">
+        <f>HYPERLINK("http://www.mcmaster.com/#90576a102/=xsshuh","90576A102")</f>
+        <v>90576A102</v>
       </c>
       <c r="D5" s="9">
-        <v>1.61</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="10">
+        <v>3.27</v>
+      </c>
+      <c r="E5" s="10">
         <v>1.0</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>$1.61</v>
+        <v>$3.27</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10">
-        <v>2.0</v>
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12" t="str">
+        <f>HYPERLINK("http://www.mcmaster.com/#91166a210/=xsshhz","91166A210")</f>
+        <v>91166A210</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.61</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="G6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>$0.00</v>
+        <v>$1.61</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="15"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="9">
-        <v>22.37</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="10">
-        <v>3.0</v>
-      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="11" t="str">
         <f t="shared" si="1"/>
+        <v>$0.00</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9">
+        <v>22.37</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>$67.11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="13"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
     <row r="9">
-      <c r="B9" s="13"/>
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.00</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="13"/>
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.00</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" s="13"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12" t="str">
+        <f>HYPERLINK("http://www.panucatt.com/azteeg_X5_mini_reprap_3d_printer_controller_p/ax5mini.htm","AX5MINI")</f>
+        <v>AX5MINI</v>
+      </c>
+      <c r="D11" s="9">
+        <v>109.0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$109.00</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="13"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
+        <v>105447.0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5.39</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$5.39</v>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" s="13"/>
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.00</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="13"/>
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.00</v>
+      </c>
     </row>
     <row r="15">
-      <c r="B15" s="13"/>
+      <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="D15" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="E15" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$2.20</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="13"/>
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="D16" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="E16" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$2.20</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="13"/>
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="D17" s="9">
+        <v>46.0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$46.00</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18" s="13"/>
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="9">
+        <v>79.0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$79.00</v>
+      </c>
     </row>
     <row r="19">
-      <c r="B19" s="13"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="12" t="str">
+        <f>HYPERLINK("http://www.3dmakerworld.com/nema17-stepper-motor","1124090")</f>
+        <v>1124090</v>
+      </c>
+      <c r="D19" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="E19" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$72.50</v>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" s="13"/>
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="F20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.00</v>
+      </c>
     </row>
     <row r="21">
-      <c r="B21" s="13"/>
+      <c r="A21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="15"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="10">
+        <v>2.0</v>
+      </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.00</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="13"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="11"/>
       <c r="E22" s="8"/>
@@ -479,7 +716,7 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23">
-      <c r="B23" s="13"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="8"/>
       <c r="D23" s="11"/>
       <c r="E23" s="8"/>
@@ -487,7 +724,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24">
-      <c r="B24" s="13"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="8"/>
       <c r="D24" s="11"/>
       <c r="E24" s="8"/>
@@ -495,7 +732,7 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25">
-      <c r="B25" s="13"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="8"/>
       <c r="D25" s="11"/>
       <c r="E25" s="8"/>
@@ -503,7 +740,7 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26">
-      <c r="B26" s="13"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11"/>
       <c r="E26" s="8"/>
@@ -511,7 +748,7 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27">
-      <c r="B27" s="13"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="8"/>
@@ -519,7 +756,7 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28">
-      <c r="B28" s="13"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="8"/>
@@ -527,7 +764,7 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29">
-      <c r="B29" s="13"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11"/>
       <c r="E29" s="8"/>
@@ -535,7 +772,7 @@
       <c r="G29" s="8"/>
     </row>
     <row r="30">
-      <c r="B30" s="13"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11"/>
       <c r="E30" s="8"/>
@@ -543,7 +780,7 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31">
-      <c r="B31" s="13"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11"/>
       <c r="E31" s="8"/>
@@ -551,7 +788,7 @@
       <c r="G31" s="8"/>
     </row>
     <row r="32">
-      <c r="B32" s="13"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11"/>
       <c r="E32" s="8"/>
@@ -559,7 +796,7 @@
       <c r="G32" s="8"/>
     </row>
     <row r="33">
-      <c r="B33" s="13"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11"/>
       <c r="E33" s="8"/>
@@ -567,7 +804,7 @@
       <c r="G33" s="8"/>
     </row>
     <row r="34">
-      <c r="B34" s="13"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11"/>
       <c r="E34" s="8"/>
@@ -575,7 +812,7 @@
       <c r="G34" s="8"/>
     </row>
     <row r="35">
-      <c r="B35" s="13"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11"/>
       <c r="E35" s="8"/>
@@ -583,7 +820,7 @@
       <c r="G35" s="8"/>
     </row>
     <row r="36">
-      <c r="B36" s="13"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11"/>
       <c r="E36" s="8"/>
@@ -591,7 +828,7 @@
       <c r="G36" s="8"/>
     </row>
     <row r="37">
-      <c r="B37" s="13"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11"/>
       <c r="E37" s="8"/>
@@ -599,7 +836,7 @@
       <c r="G37" s="8"/>
     </row>
     <row r="38">
-      <c r="B38" s="13"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11"/>
       <c r="E38" s="8"/>
@@ -607,7 +844,7 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39">
-      <c r="B39" s="13"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11"/>
       <c r="E39" s="8"/>
@@ -615,7 +852,7 @@
       <c r="G39" s="8"/>
     </row>
     <row r="40">
-      <c r="B40" s="13"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11"/>
       <c r="E40" s="8"/>
@@ -623,7 +860,7 @@
       <c r="G40" s="8"/>
     </row>
     <row r="41">
-      <c r="B41" s="13"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11"/>
       <c r="E41" s="8"/>
@@ -631,7 +868,7 @@
       <c r="G41" s="8"/>
     </row>
     <row r="42">
-      <c r="B42" s="13"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11"/>
       <c r="E42" s="8"/>
@@ -639,7 +876,7 @@
       <c r="G42" s="8"/>
     </row>
     <row r="43">
-      <c r="B43" s="13"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11"/>
       <c r="E43" s="8"/>
@@ -647,7 +884,7 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44">
-      <c r="B44" s="13"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11"/>
       <c r="E44" s="8"/>
@@ -655,7 +892,7 @@
       <c r="G44" s="8"/>
     </row>
     <row r="45">
-      <c r="B45" s="13"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11"/>
       <c r="E45" s="8"/>
@@ -663,7 +900,7 @@
       <c r="G45" s="8"/>
     </row>
     <row r="46">
-      <c r="B46" s="13"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="8"/>
       <c r="D46" s="11"/>
       <c r="E46" s="8"/>
@@ -671,7 +908,7 @@
       <c r="G46" s="8"/>
     </row>
     <row r="47">
-      <c r="B47" s="13"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="8"/>
       <c r="D47" s="11"/>
       <c r="E47" s="8"/>
@@ -679,7 +916,7 @@
       <c r="G47" s="8"/>
     </row>
     <row r="48">
-      <c r="B48" s="13"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="8"/>
       <c r="D48" s="11"/>
       <c r="E48" s="8"/>
@@ -687,7 +924,7 @@
       <c r="G48" s="8"/>
     </row>
     <row r="49">
-      <c r="B49" s="13"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="8"/>
       <c r="D49" s="11"/>
       <c r="E49" s="8"/>
@@ -695,7 +932,7 @@
       <c r="G49" s="8"/>
     </row>
     <row r="50">
-      <c r="B50" s="13"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="8"/>
       <c r="D50" s="11"/>
       <c r="E50" s="8"/>
@@ -703,7 +940,7 @@
       <c r="G50" s="8"/>
     </row>
     <row r="51">
-      <c r="B51" s="13"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="8"/>
       <c r="D51" s="11"/>
       <c r="E51" s="8"/>
@@ -711,7 +948,7 @@
       <c r="G51" s="8"/>
     </row>
     <row r="52">
-      <c r="B52" s="13"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="8"/>
       <c r="D52" s="11"/>
       <c r="E52" s="8"/>
@@ -719,7 +956,7 @@
       <c r="G52" s="8"/>
     </row>
     <row r="53">
-      <c r="B53" s="13"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="8"/>
       <c r="D53" s="11"/>
       <c r="E53" s="8"/>
@@ -727,7 +964,7 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54">
-      <c r="B54" s="13"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="8"/>
       <c r="D54" s="11"/>
       <c r="E54" s="8"/>
@@ -735,7 +972,7 @@
       <c r="G54" s="8"/>
     </row>
     <row r="55">
-      <c r="B55" s="13"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="8"/>
       <c r="D55" s="11"/>
       <c r="E55" s="8"/>
@@ -743,7 +980,7 @@
       <c r="G55" s="8"/>
     </row>
     <row r="56">
-      <c r="B56" s="13"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="8"/>
       <c r="D56" s="11"/>
       <c r="E56" s="8"/>
@@ -751,7 +988,7 @@
       <c r="G56" s="8"/>
     </row>
     <row r="57">
-      <c r="B57" s="13"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="8"/>
       <c r="D57" s="11"/>
       <c r="E57" s="8"/>
@@ -759,7 +996,7 @@
       <c r="G57" s="8"/>
     </row>
     <row r="58">
-      <c r="B58" s="13"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="8"/>
       <c r="D58" s="11"/>
       <c r="E58" s="8"/>
@@ -767,7 +1004,7 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59">
-      <c r="B59" s="13"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="8"/>
       <c r="D59" s="11"/>
       <c r="E59" s="8"/>
@@ -775,7 +1012,7 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60">
-      <c r="B60" s="13"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="8"/>
       <c r="D60" s="11"/>
       <c r="E60" s="8"/>
@@ -783,7 +1020,7 @@
       <c r="G60" s="8"/>
     </row>
     <row r="61">
-      <c r="B61" s="13"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="8"/>
       <c r="D61" s="11"/>
       <c r="E61" s="8"/>
@@ -791,7 +1028,7 @@
       <c r="G61" s="8"/>
     </row>
     <row r="62">
-      <c r="B62" s="13"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="8"/>
       <c r="D62" s="11"/>
       <c r="E62" s="8"/>
@@ -799,7 +1036,7 @@
       <c r="G62" s="8"/>
     </row>
     <row r="63">
-      <c r="B63" s="13"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="8"/>
       <c r="D63" s="11"/>
       <c r="E63" s="8"/>
@@ -807,7 +1044,7 @@
       <c r="G63" s="8"/>
     </row>
     <row r="64">
-      <c r="B64" s="13"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="8"/>
       <c r="D64" s="11"/>
       <c r="E64" s="8"/>
@@ -815,7 +1052,7 @@
       <c r="G64" s="8"/>
     </row>
     <row r="65">
-      <c r="B65" s="13"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="8"/>
       <c r="D65" s="11"/>
       <c r="E65" s="8"/>
@@ -823,7 +1060,7 @@
       <c r="G65" s="8"/>
     </row>
     <row r="66">
-      <c r="B66" s="13"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="8"/>
       <c r="D66" s="11"/>
       <c r="E66" s="8"/>
@@ -831,7 +1068,7 @@
       <c r="G66" s="8"/>
     </row>
     <row r="67">
-      <c r="B67" s="13"/>
+      <c r="B67" s="15"/>
       <c r="C67" s="8"/>
       <c r="D67" s="11"/>
       <c r="E67" s="8"/>
@@ -839,7 +1076,7 @@
       <c r="G67" s="8"/>
     </row>
     <row r="68">
-      <c r="B68" s="13"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="8"/>
       <c r="D68" s="11"/>
       <c r="E68" s="8"/>
@@ -847,7 +1084,7 @@
       <c r="G68" s="8"/>
     </row>
     <row r="69">
-      <c r="B69" s="13"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="8"/>
       <c r="D69" s="11"/>
       <c r="E69" s="8"/>
@@ -855,7 +1092,7 @@
       <c r="G69" s="8"/>
     </row>
     <row r="70">
-      <c r="B70" s="13"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="8"/>
       <c r="D70" s="11"/>
       <c r="E70" s="8"/>
@@ -863,7 +1100,7 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71">
-      <c r="B71" s="13"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="8"/>
       <c r="D71" s="11"/>
       <c r="E71" s="8"/>
@@ -871,7 +1108,7 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72">
-      <c r="B72" s="13"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="8"/>
       <c r="D72" s="11"/>
       <c r="E72" s="8"/>
@@ -879,7 +1116,7 @@
       <c r="G72" s="8"/>
     </row>
     <row r="73">
-      <c r="B73" s="13"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="8"/>
       <c r="D73" s="11"/>
       <c r="E73" s="8"/>
@@ -887,7 +1124,7 @@
       <c r="G73" s="8"/>
     </row>
     <row r="74">
-      <c r="B74" s="13"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="8"/>
       <c r="D74" s="11"/>
       <c r="E74" s="8"/>
@@ -895,7 +1132,7 @@
       <c r="G74" s="8"/>
     </row>
     <row r="75">
-      <c r="B75" s="13"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="8"/>
       <c r="D75" s="11"/>
       <c r="E75" s="8"/>
@@ -903,7 +1140,7 @@
       <c r="G75" s="8"/>
     </row>
     <row r="76">
-      <c r="B76" s="13"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="8"/>
       <c r="D76" s="11"/>
       <c r="E76" s="8"/>
@@ -911,7 +1148,7 @@
       <c r="G76" s="8"/>
     </row>
     <row r="77">
-      <c r="B77" s="13"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="8"/>
       <c r="D77" s="11"/>
       <c r="E77" s="8"/>
@@ -919,7 +1156,7 @@
       <c r="G77" s="8"/>
     </row>
     <row r="78">
-      <c r="B78" s="13"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="8"/>
       <c r="D78" s="11"/>
       <c r="E78" s="8"/>
@@ -927,7 +1164,7 @@
       <c r="G78" s="8"/>
     </row>
     <row r="79">
-      <c r="B79" s="13"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="8"/>
       <c r="D79" s="11"/>
       <c r="E79" s="8"/>
@@ -935,7 +1172,7 @@
       <c r="G79" s="8"/>
     </row>
     <row r="80">
-      <c r="B80" s="13"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="8"/>
       <c r="D80" s="11"/>
       <c r="E80" s="8"/>
@@ -943,7 +1180,7 @@
       <c r="G80" s="8"/>
     </row>
     <row r="81">
-      <c r="B81" s="13"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="8"/>
       <c r="D81" s="11"/>
       <c r="E81" s="8"/>
@@ -951,7 +1188,7 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82">
-      <c r="B82" s="13"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="8"/>
       <c r="D82" s="11"/>
       <c r="E82" s="8"/>
@@ -959,7 +1196,7 @@
       <c r="G82" s="8"/>
     </row>
     <row r="83">
-      <c r="B83" s="13"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="8"/>
       <c r="D83" s="11"/>
       <c r="E83" s="8"/>
@@ -967,7 +1204,7 @@
       <c r="G83" s="8"/>
     </row>
     <row r="84">
-      <c r="B84" s="13"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="8"/>
       <c r="D84" s="11"/>
       <c r="E84" s="8"/>
@@ -975,7 +1212,7 @@
       <c r="G84" s="8"/>
     </row>
     <row r="85">
-      <c r="B85" s="13"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="8"/>
       <c r="D85" s="11"/>
       <c r="E85" s="8"/>
@@ -983,7 +1220,7 @@
       <c r="G85" s="8"/>
     </row>
     <row r="86">
-      <c r="B86" s="13"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="8"/>
       <c r="D86" s="11"/>
       <c r="E86" s="8"/>
@@ -991,7 +1228,7 @@
       <c r="G86" s="8"/>
     </row>
     <row r="87">
-      <c r="B87" s="13"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="8"/>
       <c r="D87" s="11"/>
       <c r="E87" s="8"/>
@@ -999,7 +1236,7 @@
       <c r="G87" s="8"/>
     </row>
     <row r="88">
-      <c r="B88" s="13"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="8"/>
       <c r="D88" s="11"/>
       <c r="E88" s="8"/>
@@ -1007,7 +1244,7 @@
       <c r="G88" s="8"/>
     </row>
     <row r="89">
-      <c r="B89" s="13"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="8"/>
       <c r="D89" s="11"/>
       <c r="E89" s="8"/>
@@ -1015,7 +1252,7 @@
       <c r="G89" s="8"/>
     </row>
     <row r="90">
-      <c r="B90" s="13"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="8"/>
       <c r="D90" s="11"/>
       <c r="E90" s="8"/>
@@ -1023,7 +1260,7 @@
       <c r="G90" s="8"/>
     </row>
     <row r="91">
-      <c r="B91" s="13"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="8"/>
       <c r="D91" s="11"/>
       <c r="E91" s="8"/>
@@ -1031,7 +1268,7 @@
       <c r="G91" s="8"/>
     </row>
     <row r="92">
-      <c r="B92" s="13"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="8"/>
       <c r="D92" s="11"/>
       <c r="E92" s="8"/>
@@ -1039,7 +1276,7 @@
       <c r="G92" s="8"/>
     </row>
     <row r="93">
-      <c r="B93" s="13"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="8"/>
       <c r="D93" s="11"/>
       <c r="E93" s="8"/>
@@ -1047,7 +1284,7 @@
       <c r="G93" s="8"/>
     </row>
     <row r="94">
-      <c r="B94" s="13"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="8"/>
       <c r="D94" s="11"/>
       <c r="E94" s="8"/>
@@ -1055,7 +1292,7 @@
       <c r="G94" s="8"/>
     </row>
     <row r="95">
-      <c r="B95" s="13"/>
+      <c r="B95" s="15"/>
       <c r="C95" s="8"/>
       <c r="D95" s="11"/>
       <c r="E95" s="8"/>
@@ -1063,7 +1300,7 @@
       <c r="G95" s="8"/>
     </row>
     <row r="96">
-      <c r="B96" s="13"/>
+      <c r="B96" s="15"/>
       <c r="C96" s="8"/>
       <c r="D96" s="11"/>
       <c r="E96" s="8"/>
@@ -1071,7 +1308,7 @@
       <c r="G96" s="8"/>
     </row>
     <row r="97">
-      <c r="B97" s="13"/>
+      <c r="B97" s="15"/>
       <c r="C97" s="8"/>
       <c r="D97" s="11"/>
       <c r="E97" s="8"/>
@@ -1079,7 +1316,7 @@
       <c r="G97" s="8"/>
     </row>
     <row r="98">
-      <c r="B98" s="13"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="8"/>
       <c r="D98" s="11"/>
       <c r="E98" s="8"/>
@@ -1087,7 +1324,7 @@
       <c r="G98" s="8"/>
     </row>
     <row r="99">
-      <c r="B99" s="13"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="8"/>
       <c r="D99" s="11"/>
       <c r="E99" s="8"/>
@@ -1095,7 +1332,7 @@
       <c r="G99" s="8"/>
     </row>
     <row r="100">
-      <c r="B100" s="13"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="8"/>
       <c r="D100" s="11"/>
       <c r="E100" s="8"/>
@@ -1103,7 +1340,7 @@
       <c r="G100" s="8"/>
     </row>
     <row r="101">
-      <c r="B101" s="13"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="8"/>
       <c r="D101" s="11"/>
       <c r="E101" s="8"/>
@@ -1111,7 +1348,7 @@
       <c r="G101" s="8"/>
     </row>
     <row r="102">
-      <c r="B102" s="13"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="8"/>
       <c r="D102" s="11"/>
       <c r="E102" s="8"/>
@@ -1119,7 +1356,7 @@
       <c r="G102" s="8"/>
     </row>
     <row r="103">
-      <c r="B103" s="13"/>
+      <c r="B103" s="15"/>
       <c r="C103" s="8"/>
       <c r="D103" s="11"/>
       <c r="E103" s="8"/>
@@ -1127,7 +1364,7 @@
       <c r="G103" s="8"/>
     </row>
     <row r="104">
-      <c r="B104" s="13"/>
+      <c r="B104" s="15"/>
       <c r="C104" s="8"/>
       <c r="D104" s="11"/>
       <c r="E104" s="8"/>
@@ -1135,7 +1372,7 @@
       <c r="G104" s="8"/>
     </row>
     <row r="105">
-      <c r="B105" s="13"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="8"/>
       <c r="D105" s="11"/>
       <c r="E105" s="8"/>
@@ -1143,7 +1380,7 @@
       <c r="G105" s="8"/>
     </row>
     <row r="106">
-      <c r="B106" s="13"/>
+      <c r="B106" s="15"/>
       <c r="C106" s="8"/>
       <c r="D106" s="11"/>
       <c r="E106" s="8"/>
@@ -1151,7 +1388,7 @@
       <c r="G106" s="8"/>
     </row>
     <row r="107">
-      <c r="B107" s="13"/>
+      <c r="B107" s="15"/>
       <c r="C107" s="8"/>
       <c r="D107" s="11"/>
       <c r="E107" s="8"/>
@@ -1159,7 +1396,7 @@
       <c r="G107" s="8"/>
     </row>
     <row r="108">
-      <c r="B108" s="13"/>
+      <c r="B108" s="15"/>
       <c r="C108" s="8"/>
       <c r="D108" s="11"/>
       <c r="E108" s="8"/>
@@ -1167,7 +1404,7 @@
       <c r="G108" s="8"/>
     </row>
     <row r="109">
-      <c r="B109" s="13"/>
+      <c r="B109" s="15"/>
       <c r="C109" s="8"/>
       <c r="D109" s="11"/>
       <c r="E109" s="8"/>
@@ -1175,7 +1412,7 @@
       <c r="G109" s="8"/>
     </row>
     <row r="110">
-      <c r="B110" s="13"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="8"/>
       <c r="D110" s="11"/>
       <c r="E110" s="8"/>
@@ -1183,7 +1420,7 @@
       <c r="G110" s="8"/>
     </row>
     <row r="111">
-      <c r="B111" s="13"/>
+      <c r="B111" s="15"/>
       <c r="C111" s="8"/>
       <c r="D111" s="11"/>
       <c r="E111" s="8"/>
@@ -1191,7 +1428,7 @@
       <c r="G111" s="8"/>
     </row>
     <row r="112">
-      <c r="B112" s="13"/>
+      <c r="B112" s="15"/>
       <c r="C112" s="8"/>
       <c r="D112" s="11"/>
       <c r="E112" s="8"/>
@@ -1199,7 +1436,7 @@
       <c r="G112" s="8"/>
     </row>
     <row r="113">
-      <c r="B113" s="13"/>
+      <c r="B113" s="15"/>
       <c r="C113" s="8"/>
       <c r="D113" s="11"/>
       <c r="E113" s="8"/>
@@ -1207,7 +1444,7 @@
       <c r="G113" s="8"/>
     </row>
     <row r="114">
-      <c r="B114" s="13"/>
+      <c r="B114" s="15"/>
       <c r="C114" s="8"/>
       <c r="D114" s="11"/>
       <c r="E114" s="8"/>
@@ -1215,7 +1452,7 @@
       <c r="G114" s="8"/>
     </row>
     <row r="115">
-      <c r="B115" s="13"/>
+      <c r="B115" s="15"/>
       <c r="C115" s="8"/>
       <c r="D115" s="11"/>
       <c r="E115" s="8"/>
@@ -1223,7 +1460,7 @@
       <c r="G115" s="8"/>
     </row>
     <row r="116">
-      <c r="B116" s="13"/>
+      <c r="B116" s="15"/>
       <c r="C116" s="8"/>
       <c r="D116" s="11"/>
       <c r="E116" s="8"/>
@@ -1231,7 +1468,7 @@
       <c r="G116" s="8"/>
     </row>
     <row r="117">
-      <c r="B117" s="13"/>
+      <c r="B117" s="15"/>
       <c r="C117" s="8"/>
       <c r="D117" s="11"/>
       <c r="E117" s="8"/>
@@ -1239,7 +1476,7 @@
       <c r="G117" s="8"/>
     </row>
     <row r="118">
-      <c r="B118" s="13"/>
+      <c r="B118" s="15"/>
       <c r="C118" s="8"/>
       <c r="D118" s="11"/>
       <c r="E118" s="8"/>
@@ -1247,7 +1484,7 @@
       <c r="G118" s="8"/>
     </row>
     <row r="119">
-      <c r="B119" s="13"/>
+      <c r="B119" s="15"/>
       <c r="C119" s="8"/>
       <c r="D119" s="11"/>
       <c r="E119" s="8"/>
@@ -1255,7 +1492,7 @@
       <c r="G119" s="8"/>
     </row>
     <row r="120">
-      <c r="B120" s="13"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="8"/>
       <c r="D120" s="11"/>
       <c r="E120" s="8"/>
@@ -1263,7 +1500,7 @@
       <c r="G120" s="8"/>
     </row>
     <row r="121">
-      <c r="B121" s="13"/>
+      <c r="B121" s="15"/>
       <c r="C121" s="8"/>
       <c r="D121" s="11"/>
       <c r="E121" s="8"/>
@@ -1271,7 +1508,7 @@
       <c r="G121" s="8"/>
     </row>
     <row r="122">
-      <c r="B122" s="13"/>
+      <c r="B122" s="15"/>
       <c r="C122" s="8"/>
       <c r="D122" s="11"/>
       <c r="E122" s="8"/>
@@ -1279,7 +1516,7 @@
       <c r="G122" s="8"/>
     </row>
     <row r="123">
-      <c r="B123" s="13"/>
+      <c r="B123" s="15"/>
       <c r="C123" s="8"/>
       <c r="D123" s="11"/>
       <c r="E123" s="8"/>
@@ -1287,7 +1524,7 @@
       <c r="G123" s="8"/>
     </row>
     <row r="124">
-      <c r="B124" s="13"/>
+      <c r="B124" s="15"/>
       <c r="C124" s="8"/>
       <c r="D124" s="11"/>
       <c r="E124" s="8"/>
@@ -1295,7 +1532,7 @@
       <c r="G124" s="8"/>
     </row>
     <row r="125">
-      <c r="B125" s="13"/>
+      <c r="B125" s="15"/>
       <c r="C125" s="8"/>
       <c r="D125" s="11"/>
       <c r="E125" s="8"/>
@@ -1303,7 +1540,7 @@
       <c r="G125" s="8"/>
     </row>
     <row r="126">
-      <c r="B126" s="13"/>
+      <c r="B126" s="15"/>
       <c r="C126" s="8"/>
       <c r="D126" s="11"/>
       <c r="E126" s="8"/>
@@ -1311,7 +1548,7 @@
       <c r="G126" s="8"/>
     </row>
     <row r="127">
-      <c r="B127" s="13"/>
+      <c r="B127" s="15"/>
       <c r="C127" s="8"/>
       <c r="D127" s="11"/>
       <c r="E127" s="8"/>
@@ -1319,7 +1556,7 @@
       <c r="G127" s="8"/>
     </row>
     <row r="128">
-      <c r="B128" s="13"/>
+      <c r="B128" s="15"/>
       <c r="C128" s="8"/>
       <c r="D128" s="11"/>
       <c r="E128" s="8"/>
@@ -1327,7 +1564,7 @@
       <c r="G128" s="8"/>
     </row>
     <row r="129">
-      <c r="B129" s="13"/>
+      <c r="B129" s="15"/>
       <c r="C129" s="8"/>
       <c r="D129" s="11"/>
       <c r="E129" s="8"/>
@@ -1335,7 +1572,7 @@
       <c r="G129" s="8"/>
     </row>
     <row r="130">
-      <c r="B130" s="13"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="8"/>
       <c r="D130" s="11"/>
       <c r="E130" s="8"/>
@@ -1343,7 +1580,7 @@
       <c r="G130" s="8"/>
     </row>
     <row r="131">
-      <c r="B131" s="13"/>
+      <c r="B131" s="15"/>
       <c r="C131" s="8"/>
       <c r="D131" s="11"/>
       <c r="E131" s="8"/>
@@ -1351,7 +1588,7 @@
       <c r="G131" s="8"/>
     </row>
     <row r="132">
-      <c r="B132" s="13"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="8"/>
       <c r="D132" s="11"/>
       <c r="E132" s="8"/>
@@ -1359,7 +1596,7 @@
       <c r="G132" s="8"/>
     </row>
     <row r="133">
-      <c r="B133" s="13"/>
+      <c r="B133" s="15"/>
       <c r="C133" s="8"/>
       <c r="D133" s="11"/>
       <c r="E133" s="8"/>
@@ -1367,7 +1604,7 @@
       <c r="G133" s="8"/>
     </row>
     <row r="134">
-      <c r="B134" s="13"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="8"/>
       <c r="D134" s="11"/>
       <c r="E134" s="8"/>
@@ -1375,7 +1612,7 @@
       <c r="G134" s="8"/>
     </row>
     <row r="135">
-      <c r="B135" s="13"/>
+      <c r="B135" s="15"/>
       <c r="C135" s="8"/>
       <c r="D135" s="11"/>
       <c r="E135" s="8"/>
@@ -1383,7 +1620,7 @@
       <c r="G135" s="8"/>
     </row>
     <row r="136">
-      <c r="B136" s="13"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="8"/>
       <c r="D136" s="11"/>
       <c r="E136" s="8"/>
@@ -1391,7 +1628,7 @@
       <c r="G136" s="8"/>
     </row>
     <row r="137">
-      <c r="B137" s="13"/>
+      <c r="B137" s="15"/>
       <c r="C137" s="8"/>
       <c r="D137" s="11"/>
       <c r="E137" s="8"/>
@@ -1399,7 +1636,7 @@
       <c r="G137" s="8"/>
     </row>
     <row r="138">
-      <c r="B138" s="13"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="8"/>
       <c r="D138" s="11"/>
       <c r="E138" s="8"/>
@@ -1407,7 +1644,7 @@
       <c r="G138" s="8"/>
     </row>
     <row r="139">
-      <c r="B139" s="13"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="8"/>
       <c r="D139" s="11"/>
       <c r="E139" s="8"/>
@@ -1415,7 +1652,7 @@
       <c r="G139" s="8"/>
     </row>
     <row r="140">
-      <c r="B140" s="13"/>
+      <c r="B140" s="15"/>
       <c r="C140" s="8"/>
       <c r="D140" s="11"/>
       <c r="E140" s="8"/>
@@ -1423,7 +1660,7 @@
       <c r="G140" s="8"/>
     </row>
     <row r="141">
-      <c r="B141" s="13"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="8"/>
       <c r="D141" s="11"/>
       <c r="E141" s="8"/>
@@ -1431,7 +1668,7 @@
       <c r="G141" s="8"/>
     </row>
     <row r="142">
-      <c r="B142" s="13"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="8"/>
       <c r="D142" s="11"/>
       <c r="E142" s="8"/>
@@ -1439,7 +1676,7 @@
       <c r="G142" s="8"/>
     </row>
     <row r="143">
-      <c r="B143" s="13"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="8"/>
       <c r="D143" s="11"/>
       <c r="E143" s="8"/>
@@ -1447,7 +1684,7 @@
       <c r="G143" s="8"/>
     </row>
     <row r="144">
-      <c r="B144" s="13"/>
+      <c r="B144" s="15"/>
       <c r="C144" s="8"/>
       <c r="D144" s="11"/>
       <c r="E144" s="8"/>
@@ -1455,7 +1692,7 @@
       <c r="G144" s="8"/>
     </row>
     <row r="145">
-      <c r="B145" s="13"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="8"/>
       <c r="D145" s="11"/>
       <c r="E145" s="8"/>
@@ -1463,7 +1700,7 @@
       <c r="G145" s="8"/>
     </row>
     <row r="146">
-      <c r="B146" s="13"/>
+      <c r="B146" s="15"/>
       <c r="C146" s="8"/>
       <c r="D146" s="11"/>
       <c r="E146" s="8"/>
@@ -1471,7 +1708,7 @@
       <c r="G146" s="8"/>
     </row>
     <row r="147">
-      <c r="B147" s="13"/>
+      <c r="B147" s="15"/>
       <c r="C147" s="8"/>
       <c r="D147" s="11"/>
       <c r="E147" s="8"/>
@@ -1479,7 +1716,7 @@
       <c r="G147" s="8"/>
     </row>
     <row r="148">
-      <c r="B148" s="13"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="8"/>
       <c r="D148" s="11"/>
       <c r="E148" s="8"/>
@@ -1487,7 +1724,7 @@
       <c r="G148" s="8"/>
     </row>
     <row r="149">
-      <c r="B149" s="13"/>
+      <c r="B149" s="15"/>
       <c r="C149" s="8"/>
       <c r="D149" s="11"/>
       <c r="E149" s="8"/>
@@ -1495,7 +1732,7 @@
       <c r="G149" s="8"/>
     </row>
     <row r="150">
-      <c r="B150" s="13"/>
+      <c r="B150" s="15"/>
       <c r="C150" s="8"/>
       <c r="D150" s="11"/>
       <c r="E150" s="8"/>
@@ -1503,7 +1740,7 @@
       <c r="G150" s="8"/>
     </row>
     <row r="151">
-      <c r="B151" s="13"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="8"/>
       <c r="D151" s="11"/>
       <c r="E151" s="8"/>
@@ -1511,7 +1748,7 @@
       <c r="G151" s="8"/>
     </row>
     <row r="152">
-      <c r="B152" s="13"/>
+      <c r="B152" s="15"/>
       <c r="C152" s="8"/>
       <c r="D152" s="11"/>
       <c r="E152" s="8"/>
@@ -1519,7 +1756,7 @@
       <c r="G152" s="8"/>
     </row>
     <row r="153">
-      <c r="B153" s="13"/>
+      <c r="B153" s="15"/>
       <c r="C153" s="8"/>
       <c r="D153" s="11"/>
       <c r="E153" s="8"/>
@@ -1527,7 +1764,7 @@
       <c r="G153" s="8"/>
     </row>
     <row r="154">
-      <c r="B154" s="13"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="8"/>
       <c r="D154" s="11"/>
       <c r="E154" s="8"/>
@@ -1535,7 +1772,7 @@
       <c r="G154" s="8"/>
     </row>
     <row r="155">
-      <c r="B155" s="13"/>
+      <c r="B155" s="15"/>
       <c r="C155" s="8"/>
       <c r="D155" s="11"/>
       <c r="E155" s="8"/>
@@ -1543,7 +1780,7 @@
       <c r="G155" s="8"/>
     </row>
     <row r="156">
-      <c r="B156" s="13"/>
+      <c r="B156" s="15"/>
       <c r="C156" s="8"/>
       <c r="D156" s="11"/>
       <c r="E156" s="8"/>
@@ -1551,7 +1788,7 @@
       <c r="G156" s="8"/>
     </row>
     <row r="157">
-      <c r="B157" s="13"/>
+      <c r="B157" s="15"/>
       <c r="C157" s="8"/>
       <c r="D157" s="11"/>
       <c r="E157" s="8"/>
@@ -1559,7 +1796,7 @@
       <c r="G157" s="8"/>
     </row>
     <row r="158">
-      <c r="B158" s="13"/>
+      <c r="B158" s="15"/>
       <c r="C158" s="8"/>
       <c r="D158" s="11"/>
       <c r="E158" s="8"/>
@@ -1567,7 +1804,7 @@
       <c r="G158" s="8"/>
     </row>
     <row r="159">
-      <c r="B159" s="13"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="8"/>
       <c r="D159" s="11"/>
       <c r="E159" s="8"/>
@@ -1575,7 +1812,7 @@
       <c r="G159" s="8"/>
     </row>
     <row r="160">
-      <c r="B160" s="13"/>
+      <c r="B160" s="15"/>
       <c r="C160" s="8"/>
       <c r="D160" s="11"/>
       <c r="E160" s="8"/>
@@ -1583,7 +1820,7 @@
       <c r="G160" s="8"/>
     </row>
     <row r="161">
-      <c r="B161" s="13"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="8"/>
       <c r="D161" s="11"/>
       <c r="E161" s="8"/>
@@ -1591,7 +1828,7 @@
       <c r="G161" s="8"/>
     </row>
     <row r="162">
-      <c r="B162" s="13"/>
+      <c r="B162" s="15"/>
       <c r="C162" s="8"/>
       <c r="D162" s="11"/>
       <c r="E162" s="8"/>
@@ -1599,7 +1836,7 @@
       <c r="G162" s="8"/>
     </row>
     <row r="163">
-      <c r="B163" s="13"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="8"/>
       <c r="D163" s="11"/>
       <c r="E163" s="8"/>
@@ -1607,7 +1844,7 @@
       <c r="G163" s="8"/>
     </row>
     <row r="164">
-      <c r="B164" s="13"/>
+      <c r="B164" s="15"/>
       <c r="C164" s="8"/>
       <c r="D164" s="11"/>
       <c r="E164" s="8"/>
@@ -1615,7 +1852,7 @@
       <c r="G164" s="8"/>
     </row>
     <row r="165">
-      <c r="B165" s="13"/>
+      <c r="B165" s="15"/>
       <c r="C165" s="8"/>
       <c r="D165" s="11"/>
       <c r="E165" s="8"/>
@@ -1623,7 +1860,7 @@
       <c r="G165" s="8"/>
     </row>
     <row r="166">
-      <c r="B166" s="13"/>
+      <c r="B166" s="15"/>
       <c r="C166" s="8"/>
       <c r="D166" s="11"/>
       <c r="E166" s="8"/>
@@ -1631,7 +1868,7 @@
       <c r="G166" s="8"/>
     </row>
     <row r="167">
-      <c r="B167" s="13"/>
+      <c r="B167" s="15"/>
       <c r="C167" s="8"/>
       <c r="D167" s="11"/>
       <c r="E167" s="8"/>
@@ -1639,7 +1876,7 @@
       <c r="G167" s="8"/>
     </row>
     <row r="168">
-      <c r="B168" s="13"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="8"/>
       <c r="D168" s="11"/>
       <c r="E168" s="8"/>
@@ -1647,7 +1884,7 @@
       <c r="G168" s="8"/>
     </row>
     <row r="169">
-      <c r="B169" s="13"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="8"/>
       <c r="D169" s="11"/>
       <c r="E169" s="8"/>
@@ -1655,7 +1892,7 @@
       <c r="G169" s="8"/>
     </row>
     <row r="170">
-      <c r="B170" s="13"/>
+      <c r="B170" s="15"/>
       <c r="C170" s="8"/>
       <c r="D170" s="11"/>
       <c r="E170" s="8"/>
@@ -1663,7 +1900,7 @@
       <c r="G170" s="8"/>
     </row>
     <row r="171">
-      <c r="B171" s="13"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="8"/>
       <c r="D171" s="11"/>
       <c r="E171" s="8"/>
@@ -1671,7 +1908,7 @@
       <c r="G171" s="8"/>
     </row>
     <row r="172">
-      <c r="B172" s="13"/>
+      <c r="B172" s="15"/>
       <c r="C172" s="8"/>
       <c r="D172" s="11"/>
       <c r="E172" s="8"/>
@@ -1679,7 +1916,7 @@
       <c r="G172" s="8"/>
     </row>
     <row r="173">
-      <c r="B173" s="13"/>
+      <c r="B173" s="15"/>
       <c r="C173" s="8"/>
       <c r="D173" s="11"/>
       <c r="E173" s="8"/>
@@ -1687,7 +1924,7 @@
       <c r="G173" s="8"/>
     </row>
     <row r="174">
-      <c r="B174" s="13"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="8"/>
       <c r="D174" s="11"/>
       <c r="E174" s="8"/>
@@ -1695,7 +1932,7 @@
       <c r="G174" s="8"/>
     </row>
     <row r="175">
-      <c r="B175" s="13"/>
+      <c r="B175" s="15"/>
       <c r="C175" s="8"/>
       <c r="D175" s="11"/>
       <c r="E175" s="8"/>
@@ -1703,7 +1940,7 @@
       <c r="G175" s="8"/>
     </row>
     <row r="176">
-      <c r="B176" s="13"/>
+      <c r="B176" s="15"/>
       <c r="C176" s="8"/>
       <c r="D176" s="11"/>
       <c r="E176" s="8"/>
@@ -1711,7 +1948,7 @@
       <c r="G176" s="8"/>
     </row>
     <row r="177">
-      <c r="B177" s="13"/>
+      <c r="B177" s="15"/>
       <c r="C177" s="8"/>
       <c r="D177" s="11"/>
       <c r="E177" s="8"/>
@@ -1719,7 +1956,7 @@
       <c r="G177" s="8"/>
     </row>
     <row r="178">
-      <c r="B178" s="13"/>
+      <c r="B178" s="15"/>
       <c r="C178" s="8"/>
       <c r="D178" s="11"/>
       <c r="E178" s="8"/>
@@ -1727,7 +1964,7 @@
       <c r="G178" s="8"/>
     </row>
     <row r="179">
-      <c r="B179" s="13"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="8"/>
       <c r="D179" s="11"/>
       <c r="E179" s="8"/>
@@ -1735,7 +1972,7 @@
       <c r="G179" s="8"/>
     </row>
     <row r="180">
-      <c r="B180" s="13"/>
+      <c r="B180" s="15"/>
       <c r="C180" s="8"/>
       <c r="D180" s="11"/>
       <c r="E180" s="8"/>
@@ -1743,7 +1980,7 @@
       <c r="G180" s="8"/>
     </row>
     <row r="181">
-      <c r="B181" s="13"/>
+      <c r="B181" s="15"/>
       <c r="C181" s="8"/>
       <c r="D181" s="11"/>
       <c r="E181" s="8"/>
@@ -1751,7 +1988,7 @@
       <c r="G181" s="8"/>
     </row>
     <row r="182">
-      <c r="B182" s="13"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="8"/>
       <c r="D182" s="11"/>
       <c r="E182" s="8"/>
@@ -1759,7 +1996,7 @@
       <c r="G182" s="8"/>
     </row>
     <row r="183">
-      <c r="B183" s="13"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="8"/>
       <c r="D183" s="11"/>
       <c r="E183" s="8"/>
@@ -1767,7 +2004,7 @@
       <c r="G183" s="8"/>
     </row>
     <row r="184">
-      <c r="B184" s="13"/>
+      <c r="B184" s="15"/>
       <c r="C184" s="8"/>
       <c r="D184" s="11"/>
       <c r="E184" s="8"/>
@@ -1775,7 +2012,7 @@
       <c r="G184" s="8"/>
     </row>
     <row r="185">
-      <c r="B185" s="13"/>
+      <c r="B185" s="15"/>
       <c r="C185" s="8"/>
       <c r="D185" s="11"/>
       <c r="E185" s="8"/>
@@ -1783,7 +2020,7 @@
       <c r="G185" s="8"/>
     </row>
     <row r="186">
-      <c r="B186" s="13"/>
+      <c r="B186" s="15"/>
       <c r="C186" s="8"/>
       <c r="D186" s="11"/>
       <c r="E186" s="8"/>
@@ -1791,7 +2028,7 @@
       <c r="G186" s="8"/>
     </row>
     <row r="187">
-      <c r="B187" s="13"/>
+      <c r="B187" s="15"/>
       <c r="C187" s="8"/>
       <c r="D187" s="11"/>
       <c r="E187" s="8"/>
@@ -1799,7 +2036,7 @@
       <c r="G187" s="8"/>
     </row>
     <row r="188">
-      <c r="B188" s="13"/>
+      <c r="B188" s="15"/>
       <c r="C188" s="8"/>
       <c r="D188" s="11"/>
       <c r="E188" s="8"/>
@@ -1807,7 +2044,7 @@
       <c r="G188" s="8"/>
     </row>
     <row r="189">
-      <c r="B189" s="13"/>
+      <c r="B189" s="15"/>
       <c r="C189" s="8"/>
       <c r="D189" s="11"/>
       <c r="E189" s="8"/>
@@ -1815,7 +2052,7 @@
       <c r="G189" s="8"/>
     </row>
     <row r="190">
-      <c r="B190" s="13"/>
+      <c r="B190" s="15"/>
       <c r="C190" s="8"/>
       <c r="D190" s="11"/>
       <c r="E190" s="8"/>
@@ -1823,7 +2060,7 @@
       <c r="G190" s="8"/>
     </row>
     <row r="191">
-      <c r="B191" s="13"/>
+      <c r="B191" s="15"/>
       <c r="C191" s="8"/>
       <c r="D191" s="11"/>
       <c r="E191" s="8"/>
@@ -1831,7 +2068,7 @@
       <c r="G191" s="8"/>
     </row>
     <row r="192">
-      <c r="B192" s="13"/>
+      <c r="B192" s="15"/>
       <c r="C192" s="8"/>
       <c r="D192" s="11"/>
       <c r="E192" s="8"/>
@@ -1839,7 +2076,7 @@
       <c r="G192" s="8"/>
     </row>
     <row r="193">
-      <c r="B193" s="13"/>
+      <c r="B193" s="15"/>
       <c r="C193" s="8"/>
       <c r="D193" s="11"/>
       <c r="E193" s="8"/>
@@ -1847,7 +2084,7 @@
       <c r="G193" s="8"/>
     </row>
     <row r="194">
-      <c r="B194" s="13"/>
+      <c r="B194" s="15"/>
       <c r="C194" s="8"/>
       <c r="D194" s="11"/>
       <c r="E194" s="8"/>
@@ -1855,7 +2092,7 @@
       <c r="G194" s="8"/>
     </row>
     <row r="195">
-      <c r="B195" s="13"/>
+      <c r="B195" s="15"/>
       <c r="C195" s="8"/>
       <c r="D195" s="11"/>
       <c r="E195" s="8"/>
@@ -1863,7 +2100,7 @@
       <c r="G195" s="8"/>
     </row>
     <row r="196">
-      <c r="B196" s="13"/>
+      <c r="B196" s="15"/>
       <c r="C196" s="8"/>
       <c r="D196" s="11"/>
       <c r="E196" s="8"/>
@@ -1871,7 +2108,7 @@
       <c r="G196" s="8"/>
     </row>
     <row r="197">
-      <c r="B197" s="13"/>
+      <c r="B197" s="15"/>
       <c r="C197" s="8"/>
       <c r="D197" s="11"/>
       <c r="E197" s="8"/>
@@ -1879,7 +2116,7 @@
       <c r="G197" s="8"/>
     </row>
     <row r="198">
-      <c r="B198" s="13"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="8"/>
       <c r="D198" s="11"/>
       <c r="E198" s="8"/>
@@ -1887,7 +2124,7 @@
       <c r="G198" s="8"/>
     </row>
     <row r="199">
-      <c r="B199" s="13"/>
+      <c r="B199" s="15"/>
       <c r="C199" s="8"/>
       <c r="D199" s="11"/>
       <c r="E199" s="8"/>
@@ -1895,7 +2132,7 @@
       <c r="G199" s="8"/>
     </row>
     <row r="200">
-      <c r="B200" s="13"/>
+      <c r="B200" s="15"/>
       <c r="C200" s="8"/>
       <c r="D200" s="11"/>
       <c r="E200" s="8"/>
@@ -1903,7 +2140,7 @@
       <c r="G200" s="8"/>
     </row>
     <row r="201">
-      <c r="B201" s="13"/>
+      <c r="B201" s="15"/>
       <c r="C201" s="8"/>
       <c r="D201" s="11"/>
       <c r="E201" s="8"/>
@@ -1911,7 +2148,7 @@
       <c r="G201" s="8"/>
     </row>
     <row r="202">
-      <c r="B202" s="13"/>
+      <c r="B202" s="15"/>
       <c r="C202" s="8"/>
       <c r="D202" s="11"/>
       <c r="E202" s="8"/>
@@ -1919,7 +2156,7 @@
       <c r="G202" s="8"/>
     </row>
     <row r="203">
-      <c r="B203" s="13"/>
+      <c r="B203" s="15"/>
       <c r="C203" s="8"/>
       <c r="D203" s="11"/>
       <c r="E203" s="8"/>
@@ -1927,7 +2164,7 @@
       <c r="G203" s="8"/>
     </row>
     <row r="204">
-      <c r="B204" s="13"/>
+      <c r="B204" s="15"/>
       <c r="C204" s="8"/>
       <c r="D204" s="11"/>
       <c r="E204" s="8"/>
@@ -1935,7 +2172,7 @@
       <c r="G204" s="8"/>
     </row>
     <row r="205">
-      <c r="B205" s="13"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="8"/>
       <c r="D205" s="11"/>
       <c r="E205" s="8"/>
@@ -1943,7 +2180,7 @@
       <c r="G205" s="8"/>
     </row>
     <row r="206">
-      <c r="B206" s="13"/>
+      <c r="B206" s="15"/>
       <c r="C206" s="8"/>
       <c r="D206" s="11"/>
       <c r="E206" s="8"/>
@@ -1951,7 +2188,7 @@
       <c r="G206" s="8"/>
     </row>
     <row r="207">
-      <c r="B207" s="13"/>
+      <c r="B207" s="15"/>
       <c r="C207" s="8"/>
       <c r="D207" s="11"/>
       <c r="E207" s="8"/>
@@ -1959,7 +2196,7 @@
       <c r="G207" s="8"/>
     </row>
     <row r="208">
-      <c r="B208" s="13"/>
+      <c r="B208" s="15"/>
       <c r="C208" s="8"/>
       <c r="D208" s="11"/>
       <c r="E208" s="8"/>
@@ -1967,7 +2204,7 @@
       <c r="G208" s="8"/>
     </row>
     <row r="209">
-      <c r="B209" s="13"/>
+      <c r="B209" s="15"/>
       <c r="C209" s="8"/>
       <c r="D209" s="11"/>
       <c r="E209" s="8"/>
@@ -1975,7 +2212,7 @@
       <c r="G209" s="8"/>
     </row>
     <row r="210">
-      <c r="B210" s="13"/>
+      <c r="B210" s="15"/>
       <c r="C210" s="8"/>
       <c r="D210" s="11"/>
       <c r="E210" s="8"/>
@@ -1983,7 +2220,7 @@
       <c r="G210" s="8"/>
     </row>
     <row r="211">
-      <c r="B211" s="13"/>
+      <c r="B211" s="15"/>
       <c r="C211" s="8"/>
       <c r="D211" s="11"/>
       <c r="E211" s="8"/>
@@ -1991,7 +2228,7 @@
       <c r="G211" s="8"/>
     </row>
     <row r="212">
-      <c r="B212" s="13"/>
+      <c r="B212" s="15"/>
       <c r="C212" s="8"/>
       <c r="D212" s="11"/>
       <c r="E212" s="8"/>
@@ -1999,7 +2236,7 @@
       <c r="G212" s="8"/>
     </row>
     <row r="213">
-      <c r="B213" s="13"/>
+      <c r="B213" s="15"/>
       <c r="C213" s="8"/>
       <c r="D213" s="11"/>
       <c r="E213" s="8"/>
@@ -2007,7 +2244,7 @@
       <c r="G213" s="8"/>
     </row>
     <row r="214">
-      <c r="B214" s="13"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="8"/>
       <c r="D214" s="11"/>
       <c r="E214" s="8"/>
@@ -2015,7 +2252,7 @@
       <c r="G214" s="8"/>
     </row>
     <row r="215">
-      <c r="B215" s="13"/>
+      <c r="B215" s="15"/>
       <c r="C215" s="8"/>
       <c r="D215" s="11"/>
       <c r="E215" s="8"/>
@@ -2023,7 +2260,7 @@
       <c r="G215" s="8"/>
     </row>
     <row r="216">
-      <c r="B216" s="13"/>
+      <c r="B216" s="15"/>
       <c r="C216" s="8"/>
       <c r="D216" s="11"/>
       <c r="E216" s="8"/>
@@ -2031,7 +2268,7 @@
       <c r="G216" s="8"/>
     </row>
     <row r="217">
-      <c r="B217" s="13"/>
+      <c r="B217" s="15"/>
       <c r="C217" s="8"/>
       <c r="D217" s="11"/>
       <c r="E217" s="8"/>
@@ -2039,7 +2276,7 @@
       <c r="G217" s="8"/>
     </row>
     <row r="218">
-      <c r="B218" s="13"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="8"/>
       <c r="D218" s="11"/>
       <c r="E218" s="8"/>
@@ -2047,7 +2284,7 @@
       <c r="G218" s="8"/>
     </row>
     <row r="219">
-      <c r="B219" s="13"/>
+      <c r="B219" s="15"/>
       <c r="C219" s="8"/>
       <c r="D219" s="11"/>
       <c r="E219" s="8"/>
@@ -2055,7 +2292,7 @@
       <c r="G219" s="8"/>
     </row>
     <row r="220">
-      <c r="B220" s="13"/>
+      <c r="B220" s="15"/>
       <c r="C220" s="8"/>
       <c r="D220" s="11"/>
       <c r="E220" s="8"/>
@@ -2063,7 +2300,7 @@
       <c r="G220" s="8"/>
     </row>
     <row r="221">
-      <c r="B221" s="13"/>
+      <c r="B221" s="15"/>
       <c r="C221" s="8"/>
       <c r="D221" s="11"/>
       <c r="E221" s="8"/>
@@ -2071,7 +2308,7 @@
       <c r="G221" s="8"/>
     </row>
     <row r="222">
-      <c r="B222" s="13"/>
+      <c r="B222" s="15"/>
       <c r="C222" s="8"/>
       <c r="D222" s="11"/>
       <c r="E222" s="8"/>
@@ -2079,7 +2316,7 @@
       <c r="G222" s="8"/>
     </row>
     <row r="223">
-      <c r="B223" s="13"/>
+      <c r="B223" s="15"/>
       <c r="C223" s="8"/>
       <c r="D223" s="11"/>
       <c r="E223" s="8"/>
@@ -2087,7 +2324,7 @@
       <c r="G223" s="8"/>
     </row>
     <row r="224">
-      <c r="B224" s="13"/>
+      <c r="B224" s="15"/>
       <c r="C224" s="8"/>
       <c r="D224" s="11"/>
       <c r="E224" s="8"/>
@@ -2095,7 +2332,7 @@
       <c r="G224" s="8"/>
     </row>
     <row r="225">
-      <c r="B225" s="13"/>
+      <c r="B225" s="15"/>
       <c r="C225" s="8"/>
       <c r="D225" s="11"/>
       <c r="E225" s="8"/>
@@ -2103,7 +2340,7 @@
       <c r="G225" s="8"/>
     </row>
     <row r="226">
-      <c r="B226" s="13"/>
+      <c r="B226" s="15"/>
       <c r="C226" s="8"/>
       <c r="D226" s="11"/>
       <c r="E226" s="8"/>
@@ -2111,7 +2348,7 @@
       <c r="G226" s="8"/>
     </row>
     <row r="227">
-      <c r="B227" s="13"/>
+      <c r="B227" s="15"/>
       <c r="C227" s="8"/>
       <c r="D227" s="11"/>
       <c r="E227" s="8"/>
@@ -2119,7 +2356,7 @@
       <c r="G227" s="8"/>
     </row>
     <row r="228">
-      <c r="B228" s="13"/>
+      <c r="B228" s="15"/>
       <c r="C228" s="8"/>
       <c r="D228" s="11"/>
       <c r="E228" s="8"/>
@@ -2127,7 +2364,7 @@
       <c r="G228" s="8"/>
     </row>
     <row r="229">
-      <c r="B229" s="13"/>
+      <c r="B229" s="15"/>
       <c r="C229" s="8"/>
       <c r="D229" s="11"/>
       <c r="E229" s="8"/>
@@ -2135,7 +2372,7 @@
       <c r="G229" s="8"/>
     </row>
     <row r="230">
-      <c r="B230" s="13"/>
+      <c r="B230" s="15"/>
       <c r="C230" s="8"/>
       <c r="D230" s="11"/>
       <c r="E230" s="8"/>
@@ -2143,7 +2380,7 @@
       <c r="G230" s="8"/>
     </row>
     <row r="231">
-      <c r="B231" s="13"/>
+      <c r="B231" s="15"/>
       <c r="C231" s="8"/>
       <c r="D231" s="11"/>
       <c r="E231" s="8"/>
@@ -2151,7 +2388,7 @@
       <c r="G231" s="8"/>
     </row>
     <row r="232">
-      <c r="B232" s="13"/>
+      <c r="B232" s="15"/>
       <c r="C232" s="8"/>
       <c r="D232" s="11"/>
       <c r="E232" s="8"/>
@@ -2159,7 +2396,7 @@
       <c r="G232" s="8"/>
     </row>
     <row r="233">
-      <c r="B233" s="13"/>
+      <c r="B233" s="15"/>
       <c r="C233" s="8"/>
       <c r="D233" s="11"/>
       <c r="E233" s="8"/>
@@ -2167,7 +2404,7 @@
       <c r="G233" s="8"/>
     </row>
     <row r="234">
-      <c r="B234" s="13"/>
+      <c r="B234" s="15"/>
       <c r="C234" s="8"/>
       <c r="D234" s="11"/>
       <c r="E234" s="8"/>
@@ -2175,7 +2412,7 @@
       <c r="G234" s="8"/>
     </row>
     <row r="235">
-      <c r="B235" s="13"/>
+      <c r="B235" s="15"/>
       <c r="C235" s="8"/>
       <c r="D235" s="11"/>
       <c r="E235" s="8"/>
@@ -2183,7 +2420,7 @@
       <c r="G235" s="8"/>
     </row>
     <row r="236">
-      <c r="B236" s="13"/>
+      <c r="B236" s="15"/>
       <c r="C236" s="8"/>
       <c r="D236" s="11"/>
       <c r="E236" s="8"/>
@@ -2191,7 +2428,7 @@
       <c r="G236" s="8"/>
     </row>
     <row r="237">
-      <c r="B237" s="13"/>
+      <c r="B237" s="15"/>
       <c r="C237" s="8"/>
       <c r="D237" s="11"/>
       <c r="E237" s="8"/>
@@ -2199,7 +2436,7 @@
       <c r="G237" s="8"/>
     </row>
     <row r="238">
-      <c r="B238" s="13"/>
+      <c r="B238" s="15"/>
       <c r="C238" s="8"/>
       <c r="D238" s="11"/>
       <c r="E238" s="8"/>
@@ -2207,7 +2444,7 @@
       <c r="G238" s="8"/>
     </row>
     <row r="239">
-      <c r="B239" s="13"/>
+      <c r="B239" s="15"/>
       <c r="C239" s="8"/>
       <c r="D239" s="11"/>
       <c r="E239" s="8"/>
@@ -2215,7 +2452,7 @@
       <c r="G239" s="8"/>
     </row>
     <row r="240">
-      <c r="B240" s="13"/>
+      <c r="B240" s="15"/>
       <c r="C240" s="8"/>
       <c r="D240" s="11"/>
       <c r="E240" s="8"/>
@@ -2223,7 +2460,7 @@
       <c r="G240" s="8"/>
     </row>
     <row r="241">
-      <c r="B241" s="13"/>
+      <c r="B241" s="15"/>
       <c r="C241" s="8"/>
       <c r="D241" s="11"/>
       <c r="E241" s="8"/>
@@ -2231,7 +2468,7 @@
       <c r="G241" s="8"/>
     </row>
     <row r="242">
-      <c r="B242" s="13"/>
+      <c r="B242" s="15"/>
       <c r="C242" s="8"/>
       <c r="D242" s="11"/>
       <c r="E242" s="8"/>
@@ -2239,7 +2476,7 @@
       <c r="G242" s="8"/>
     </row>
     <row r="243">
-      <c r="B243" s="13"/>
+      <c r="B243" s="15"/>
       <c r="C243" s="8"/>
       <c r="D243" s="11"/>
       <c r="E243" s="8"/>
@@ -2247,7 +2484,7 @@
       <c r="G243" s="8"/>
     </row>
     <row r="244">
-      <c r="B244" s="13"/>
+      <c r="B244" s="15"/>
       <c r="C244" s="8"/>
       <c r="D244" s="11"/>
       <c r="E244" s="8"/>
@@ -2255,7 +2492,7 @@
       <c r="G244" s="8"/>
     </row>
     <row r="245">
-      <c r="B245" s="13"/>
+      <c r="B245" s="15"/>
       <c r="C245" s="8"/>
       <c r="D245" s="11"/>
       <c r="E245" s="8"/>
@@ -2263,7 +2500,7 @@
       <c r="G245" s="8"/>
     </row>
     <row r="246">
-      <c r="B246" s="13"/>
+      <c r="B246" s="15"/>
       <c r="C246" s="8"/>
       <c r="D246" s="11"/>
       <c r="E246" s="8"/>
@@ -2271,7 +2508,7 @@
       <c r="G246" s="8"/>
     </row>
     <row r="247">
-      <c r="B247" s="13"/>
+      <c r="B247" s="15"/>
       <c r="C247" s="8"/>
       <c r="D247" s="11"/>
       <c r="E247" s="8"/>
@@ -2279,7 +2516,7 @@
       <c r="G247" s="8"/>
     </row>
     <row r="248">
-      <c r="B248" s="13"/>
+      <c r="B248" s="15"/>
       <c r="C248" s="8"/>
       <c r="D248" s="11"/>
       <c r="E248" s="8"/>
@@ -2287,7 +2524,7 @@
       <c r="G248" s="8"/>
     </row>
     <row r="249">
-      <c r="B249" s="13"/>
+      <c r="B249" s="15"/>
       <c r="C249" s="8"/>
       <c r="D249" s="11"/>
       <c r="E249" s="8"/>
@@ -2295,7 +2532,7 @@
       <c r="G249" s="8"/>
     </row>
     <row r="250">
-      <c r="B250" s="13"/>
+      <c r="B250" s="15"/>
       <c r="C250" s="8"/>
       <c r="D250" s="11"/>
       <c r="E250" s="8"/>
@@ -2303,7 +2540,7 @@
       <c r="G250" s="8"/>
     </row>
     <row r="251">
-      <c r="B251" s="13"/>
+      <c r="B251" s="15"/>
       <c r="C251" s="8"/>
       <c r="D251" s="11"/>
       <c r="E251" s="8"/>
@@ -2311,7 +2548,7 @@
       <c r="G251" s="8"/>
     </row>
     <row r="252">
-      <c r="B252" s="13"/>
+      <c r="B252" s="15"/>
       <c r="C252" s="8"/>
       <c r="D252" s="11"/>
       <c r="E252" s="8"/>
@@ -2319,7 +2556,7 @@
       <c r="G252" s="8"/>
     </row>
     <row r="253">
-      <c r="B253" s="13"/>
+      <c r="B253" s="15"/>
       <c r="C253" s="8"/>
       <c r="D253" s="11"/>
       <c r="E253" s="8"/>
@@ -2327,7 +2564,7 @@
       <c r="G253" s="8"/>
     </row>
     <row r="254">
-      <c r="B254" s="13"/>
+      <c r="B254" s="15"/>
       <c r="C254" s="8"/>
       <c r="D254" s="11"/>
       <c r="E254" s="8"/>
@@ -2335,7 +2572,7 @@
       <c r="G254" s="8"/>
     </row>
     <row r="255">
-      <c r="B255" s="13"/>
+      <c r="B255" s="15"/>
       <c r="C255" s="8"/>
       <c r="D255" s="11"/>
       <c r="E255" s="8"/>
@@ -2343,7 +2580,7 @@
       <c r="G255" s="8"/>
     </row>
     <row r="256">
-      <c r="B256" s="13"/>
+      <c r="B256" s="15"/>
       <c r="C256" s="8"/>
       <c r="D256" s="11"/>
       <c r="E256" s="8"/>
@@ -2351,7 +2588,7 @@
       <c r="G256" s="8"/>
     </row>
     <row r="257">
-      <c r="B257" s="13"/>
+      <c r="B257" s="15"/>
       <c r="C257" s="8"/>
       <c r="D257" s="11"/>
       <c r="E257" s="8"/>
@@ -2359,7 +2596,7 @@
       <c r="G257" s="8"/>
     </row>
     <row r="258">
-      <c r="B258" s="13"/>
+      <c r="B258" s="15"/>
       <c r="C258" s="8"/>
       <c r="D258" s="11"/>
       <c r="E258" s="8"/>
@@ -2367,7 +2604,7 @@
       <c r="G258" s="8"/>
     </row>
     <row r="259">
-      <c r="B259" s="13"/>
+      <c r="B259" s="15"/>
       <c r="C259" s="8"/>
       <c r="D259" s="11"/>
       <c r="E259" s="8"/>
@@ -2375,7 +2612,7 @@
       <c r="G259" s="8"/>
     </row>
     <row r="260">
-      <c r="B260" s="13"/>
+      <c r="B260" s="15"/>
       <c r="C260" s="8"/>
       <c r="D260" s="11"/>
       <c r="E260" s="8"/>
@@ -2383,7 +2620,7 @@
       <c r="G260" s="8"/>
     </row>
     <row r="261">
-      <c r="B261" s="13"/>
+      <c r="B261" s="15"/>
       <c r="C261" s="8"/>
       <c r="D261" s="11"/>
       <c r="E261" s="8"/>
@@ -2391,7 +2628,7 @@
       <c r="G261" s="8"/>
     </row>
     <row r="262">
-      <c r="B262" s="13"/>
+      <c r="B262" s="15"/>
       <c r="C262" s="8"/>
       <c r="D262" s="11"/>
       <c r="E262" s="8"/>
@@ -2399,7 +2636,7 @@
       <c r="G262" s="8"/>
     </row>
     <row r="263">
-      <c r="B263" s="13"/>
+      <c r="B263" s="15"/>
       <c r="C263" s="8"/>
       <c r="D263" s="11"/>
       <c r="E263" s="8"/>
@@ -2407,7 +2644,7 @@
       <c r="G263" s="8"/>
     </row>
     <row r="264">
-      <c r="B264" s="13"/>
+      <c r="B264" s="15"/>
       <c r="C264" s="8"/>
       <c r="D264" s="11"/>
       <c r="E264" s="8"/>
@@ -2415,7 +2652,7 @@
       <c r="G264" s="8"/>
     </row>
     <row r="265">
-      <c r="B265" s="13"/>
+      <c r="B265" s="15"/>
       <c r="C265" s="8"/>
       <c r="D265" s="11"/>
       <c r="E265" s="8"/>
@@ -2423,7 +2660,7 @@
       <c r="G265" s="8"/>
     </row>
     <row r="266">
-      <c r="B266" s="13"/>
+      <c r="B266" s="15"/>
       <c r="C266" s="8"/>
       <c r="D266" s="11"/>
       <c r="E266" s="8"/>
@@ -2431,7 +2668,7 @@
       <c r="G266" s="8"/>
     </row>
     <row r="267">
-      <c r="B267" s="13"/>
+      <c r="B267" s="15"/>
       <c r="C267" s="8"/>
       <c r="D267" s="11"/>
       <c r="E267" s="8"/>
@@ -2439,7 +2676,7 @@
       <c r="G267" s="8"/>
     </row>
     <row r="268">
-      <c r="B268" s="13"/>
+      <c r="B268" s="15"/>
       <c r="C268" s="8"/>
       <c r="D268" s="11"/>
       <c r="E268" s="8"/>
@@ -2447,7 +2684,7 @@
       <c r="G268" s="8"/>
     </row>
     <row r="269">
-      <c r="B269" s="13"/>
+      <c r="B269" s="15"/>
       <c r="C269" s="8"/>
       <c r="D269" s="11"/>
       <c r="E269" s="8"/>
@@ -2455,7 +2692,7 @@
       <c r="G269" s="8"/>
     </row>
     <row r="270">
-      <c r="B270" s="13"/>
+      <c r="B270" s="15"/>
       <c r="C270" s="8"/>
       <c r="D270" s="11"/>
       <c r="E270" s="8"/>
@@ -2463,7 +2700,7 @@
       <c r="G270" s="8"/>
     </row>
     <row r="271">
-      <c r="B271" s="13"/>
+      <c r="B271" s="15"/>
       <c r="C271" s="8"/>
       <c r="D271" s="11"/>
       <c r="E271" s="8"/>
@@ -2471,7 +2708,7 @@
       <c r="G271" s="8"/>
     </row>
     <row r="272">
-      <c r="B272" s="13"/>
+      <c r="B272" s="15"/>
       <c r="C272" s="8"/>
       <c r="D272" s="11"/>
       <c r="E272" s="8"/>
@@ -2479,7 +2716,7 @@
       <c r="G272" s="8"/>
     </row>
     <row r="273">
-      <c r="B273" s="13"/>
+      <c r="B273" s="15"/>
       <c r="C273" s="8"/>
       <c r="D273" s="11"/>
       <c r="E273" s="8"/>
@@ -2487,7 +2724,7 @@
       <c r="G273" s="8"/>
     </row>
     <row r="274">
-      <c r="B274" s="13"/>
+      <c r="B274" s="15"/>
       <c r="C274" s="8"/>
       <c r="D274" s="11"/>
       <c r="E274" s="8"/>
@@ -2495,7 +2732,7 @@
       <c r="G274" s="8"/>
     </row>
     <row r="275">
-      <c r="B275" s="13"/>
+      <c r="B275" s="15"/>
       <c r="C275" s="8"/>
       <c r="D275" s="11"/>
       <c r="E275" s="8"/>
@@ -2503,7 +2740,7 @@
       <c r="G275" s="8"/>
     </row>
     <row r="276">
-      <c r="B276" s="13"/>
+      <c r="B276" s="15"/>
       <c r="C276" s="8"/>
       <c r="D276" s="11"/>
       <c r="E276" s="8"/>
@@ -2511,7 +2748,7 @@
       <c r="G276" s="8"/>
     </row>
     <row r="277">
-      <c r="B277" s="13"/>
+      <c r="B277" s="15"/>
       <c r="C277" s="8"/>
       <c r="D277" s="11"/>
       <c r="E277" s="8"/>
@@ -2519,7 +2756,7 @@
       <c r="G277" s="8"/>
     </row>
     <row r="278">
-      <c r="B278" s="13"/>
+      <c r="B278" s="15"/>
       <c r="C278" s="8"/>
       <c r="D278" s="11"/>
       <c r="E278" s="8"/>
@@ -2527,7 +2764,7 @@
       <c r="G278" s="8"/>
     </row>
     <row r="279">
-      <c r="B279" s="13"/>
+      <c r="B279" s="15"/>
       <c r="C279" s="8"/>
       <c r="D279" s="11"/>
       <c r="E279" s="8"/>
@@ -2535,7 +2772,7 @@
       <c r="G279" s="8"/>
     </row>
     <row r="280">
-      <c r="B280" s="13"/>
+      <c r="B280" s="15"/>
       <c r="C280" s="8"/>
       <c r="D280" s="11"/>
       <c r="E280" s="8"/>
@@ -2543,7 +2780,7 @@
       <c r="G280" s="8"/>
     </row>
     <row r="281">
-      <c r="B281" s="13"/>
+      <c r="B281" s="15"/>
       <c r="C281" s="8"/>
       <c r="D281" s="11"/>
       <c r="E281" s="8"/>
@@ -2551,7 +2788,7 @@
       <c r="G281" s="8"/>
     </row>
     <row r="282">
-      <c r="B282" s="13"/>
+      <c r="B282" s="15"/>
       <c r="C282" s="8"/>
       <c r="D282" s="11"/>
       <c r="E282" s="8"/>
@@ -2559,7 +2796,7 @@
       <c r="G282" s="8"/>
     </row>
     <row r="283">
-      <c r="B283" s="13"/>
+      <c r="B283" s="15"/>
       <c r="C283" s="8"/>
       <c r="D283" s="11"/>
       <c r="E283" s="8"/>
@@ -2567,7 +2804,7 @@
       <c r="G283" s="8"/>
     </row>
     <row r="284">
-      <c r="B284" s="13"/>
+      <c r="B284" s="15"/>
       <c r="C284" s="8"/>
       <c r="D284" s="11"/>
       <c r="E284" s="8"/>
@@ -2575,7 +2812,7 @@
       <c r="G284" s="8"/>
     </row>
     <row r="285">
-      <c r="B285" s="13"/>
+      <c r="B285" s="15"/>
       <c r="C285" s="8"/>
       <c r="D285" s="11"/>
       <c r="E285" s="8"/>
@@ -2583,7 +2820,7 @@
       <c r="G285" s="8"/>
     </row>
     <row r="286">
-      <c r="B286" s="13"/>
+      <c r="B286" s="15"/>
       <c r="C286" s="8"/>
       <c r="D286" s="11"/>
       <c r="E286" s="8"/>
@@ -2591,7 +2828,7 @@
       <c r="G286" s="8"/>
     </row>
     <row r="287">
-      <c r="B287" s="13"/>
+      <c r="B287" s="15"/>
       <c r="C287" s="8"/>
       <c r="D287" s="11"/>
       <c r="E287" s="8"/>
@@ -2599,7 +2836,7 @@
       <c r="G287" s="8"/>
     </row>
     <row r="288">
-      <c r="B288" s="13"/>
+      <c r="B288" s="15"/>
       <c r="C288" s="8"/>
       <c r="D288" s="11"/>
       <c r="E288" s="8"/>
@@ -2607,7 +2844,7 @@
       <c r="G288" s="8"/>
     </row>
     <row r="289">
-      <c r="B289" s="13"/>
+      <c r="B289" s="15"/>
       <c r="C289" s="8"/>
       <c r="D289" s="11"/>
       <c r="E289" s="8"/>
@@ -2615,7 +2852,7 @@
       <c r="G289" s="8"/>
     </row>
     <row r="290">
-      <c r="B290" s="13"/>
+      <c r="B290" s="15"/>
       <c r="C290" s="8"/>
       <c r="D290" s="11"/>
       <c r="E290" s="8"/>
@@ -2623,7 +2860,7 @@
       <c r="G290" s="8"/>
     </row>
     <row r="291">
-      <c r="B291" s="13"/>
+      <c r="B291" s="15"/>
       <c r="C291" s="8"/>
       <c r="D291" s="11"/>
       <c r="E291" s="8"/>
@@ -2631,7 +2868,7 @@
       <c r="G291" s="8"/>
     </row>
     <row r="292">
-      <c r="B292" s="13"/>
+      <c r="B292" s="15"/>
       <c r="C292" s="8"/>
       <c r="D292" s="11"/>
       <c r="E292" s="8"/>
@@ -2639,7 +2876,7 @@
       <c r="G292" s="8"/>
     </row>
     <row r="293">
-      <c r="B293" s="13"/>
+      <c r="B293" s="15"/>
       <c r="C293" s="8"/>
       <c r="D293" s="11"/>
       <c r="E293" s="8"/>
@@ -2647,7 +2884,7 @@
       <c r="G293" s="8"/>
     </row>
     <row r="294">
-      <c r="B294" s="13"/>
+      <c r="B294" s="15"/>
       <c r="C294" s="8"/>
       <c r="D294" s="11"/>
       <c r="E294" s="8"/>
@@ -2655,7 +2892,7 @@
       <c r="G294" s="8"/>
     </row>
     <row r="295">
-      <c r="B295" s="13"/>
+      <c r="B295" s="15"/>
       <c r="C295" s="8"/>
       <c r="D295" s="11"/>
       <c r="E295" s="8"/>
@@ -2663,7 +2900,7 @@
       <c r="G295" s="8"/>
     </row>
     <row r="296">
-      <c r="B296" s="13"/>
+      <c r="B296" s="15"/>
       <c r="C296" s="8"/>
       <c r="D296" s="11"/>
       <c r="E296" s="8"/>
@@ -2671,7 +2908,7 @@
       <c r="G296" s="8"/>
     </row>
     <row r="297">
-      <c r="B297" s="13"/>
+      <c r="B297" s="15"/>
       <c r="C297" s="8"/>
       <c r="D297" s="11"/>
       <c r="E297" s="8"/>
@@ -2679,7 +2916,7 @@
       <c r="G297" s="8"/>
     </row>
     <row r="298">
-      <c r="B298" s="13"/>
+      <c r="B298" s="15"/>
       <c r="C298" s="8"/>
       <c r="D298" s="11"/>
       <c r="E298" s="8"/>
@@ -2687,7 +2924,7 @@
       <c r="G298" s="8"/>
     </row>
     <row r="299">
-      <c r="B299" s="13"/>
+      <c r="B299" s="15"/>
       <c r="C299" s="8"/>
       <c r="D299" s="11"/>
       <c r="E299" s="8"/>
@@ -2695,7 +2932,7 @@
       <c r="G299" s="8"/>
     </row>
     <row r="300">
-      <c r="B300" s="13"/>
+      <c r="B300" s="15"/>
       <c r="C300" s="8"/>
       <c r="D300" s="11"/>
       <c r="E300" s="8"/>
@@ -2703,7 +2940,7 @@
       <c r="G300" s="8"/>
     </row>
     <row r="301">
-      <c r="B301" s="13"/>
+      <c r="B301" s="15"/>
       <c r="C301" s="8"/>
       <c r="D301" s="11"/>
       <c r="E301" s="8"/>
@@ -2711,7 +2948,7 @@
       <c r="G301" s="8"/>
     </row>
     <row r="302">
-      <c r="B302" s="13"/>
+      <c r="B302" s="15"/>
       <c r="C302" s="8"/>
       <c r="D302" s="11"/>
       <c r="E302" s="8"/>
@@ -2719,7 +2956,7 @@
       <c r="G302" s="8"/>
     </row>
     <row r="303">
-      <c r="B303" s="13"/>
+      <c r="B303" s="15"/>
       <c r="C303" s="8"/>
       <c r="D303" s="11"/>
       <c r="E303" s="8"/>
@@ -2727,7 +2964,7 @@
       <c r="G303" s="8"/>
     </row>
     <row r="304">
-      <c r="B304" s="13"/>
+      <c r="B304" s="15"/>
       <c r="C304" s="8"/>
       <c r="D304" s="11"/>
       <c r="E304" s="8"/>
@@ -2735,7 +2972,7 @@
       <c r="G304" s="8"/>
     </row>
     <row r="305">
-      <c r="B305" s="13"/>
+      <c r="B305" s="15"/>
       <c r="C305" s="8"/>
       <c r="D305" s="11"/>
       <c r="E305" s="8"/>
@@ -2743,7 +2980,7 @@
       <c r="G305" s="8"/>
     </row>
     <row r="306">
-      <c r="B306" s="13"/>
+      <c r="B306" s="15"/>
       <c r="C306" s="8"/>
       <c r="D306" s="11"/>
       <c r="E306" s="8"/>
@@ -2751,7 +2988,7 @@
       <c r="G306" s="8"/>
     </row>
     <row r="307">
-      <c r="B307" s="13"/>
+      <c r="B307" s="15"/>
       <c r="C307" s="8"/>
       <c r="D307" s="11"/>
       <c r="E307" s="8"/>
@@ -2759,7 +2996,7 @@
       <c r="G307" s="8"/>
     </row>
     <row r="308">
-      <c r="B308" s="13"/>
+      <c r="B308" s="15"/>
       <c r="C308" s="8"/>
       <c r="D308" s="11"/>
       <c r="E308" s="8"/>
@@ -2767,7 +3004,7 @@
       <c r="G308" s="8"/>
     </row>
     <row r="309">
-      <c r="B309" s="13"/>
+      <c r="B309" s="15"/>
       <c r="C309" s="8"/>
       <c r="D309" s="11"/>
       <c r="E309" s="8"/>
@@ -2775,7 +3012,7 @@
       <c r="G309" s="8"/>
     </row>
     <row r="310">
-      <c r="B310" s="13"/>
+      <c r="B310" s="15"/>
       <c r="C310" s="8"/>
       <c r="D310" s="11"/>
       <c r="E310" s="8"/>
@@ -2783,7 +3020,7 @@
       <c r="G310" s="8"/>
     </row>
     <row r="311">
-      <c r="B311" s="13"/>
+      <c r="B311" s="15"/>
       <c r="C311" s="8"/>
       <c r="D311" s="11"/>
       <c r="E311" s="8"/>
@@ -2791,7 +3028,7 @@
       <c r="G311" s="8"/>
     </row>
     <row r="312">
-      <c r="B312" s="13"/>
+      <c r="B312" s="15"/>
       <c r="C312" s="8"/>
       <c r="D312" s="11"/>
       <c r="E312" s="8"/>
@@ -2799,7 +3036,7 @@
       <c r="G312" s="8"/>
     </row>
     <row r="313">
-      <c r="B313" s="13"/>
+      <c r="B313" s="15"/>
       <c r="C313" s="8"/>
       <c r="D313" s="11"/>
       <c r="E313" s="8"/>
@@ -2807,7 +3044,7 @@
       <c r="G313" s="8"/>
     </row>
     <row r="314">
-      <c r="B314" s="13"/>
+      <c r="B314" s="15"/>
       <c r="C314" s="8"/>
       <c r="D314" s="11"/>
       <c r="E314" s="8"/>
@@ -2815,7 +3052,7 @@
       <c r="G314" s="8"/>
     </row>
     <row r="315">
-      <c r="B315" s="13"/>
+      <c r="B315" s="15"/>
       <c r="C315" s="8"/>
       <c r="D315" s="11"/>
       <c r="E315" s="8"/>
@@ -2823,7 +3060,7 @@
       <c r="G315" s="8"/>
     </row>
     <row r="316">
-      <c r="B316" s="13"/>
+      <c r="B316" s="15"/>
       <c r="C316" s="8"/>
       <c r="D316" s="11"/>
       <c r="E316" s="8"/>
@@ -2831,7 +3068,7 @@
       <c r="G316" s="8"/>
     </row>
     <row r="317">
-      <c r="B317" s="13"/>
+      <c r="B317" s="15"/>
       <c r="C317" s="8"/>
       <c r="D317" s="11"/>
       <c r="E317" s="8"/>
@@ -2839,7 +3076,7 @@
       <c r="G317" s="8"/>
     </row>
     <row r="318">
-      <c r="B318" s="13"/>
+      <c r="B318" s="15"/>
       <c r="C318" s="8"/>
       <c r="D318" s="11"/>
       <c r="E318" s="8"/>
@@ -2847,7 +3084,7 @@
       <c r="G318" s="8"/>
     </row>
     <row r="319">
-      <c r="B319" s="13"/>
+      <c r="B319" s="15"/>
       <c r="C319" s="8"/>
       <c r="D319" s="11"/>
       <c r="E319" s="8"/>
@@ -2855,7 +3092,7 @@
       <c r="G319" s="8"/>
     </row>
     <row r="320">
-      <c r="B320" s="13"/>
+      <c r="B320" s="15"/>
       <c r="C320" s="8"/>
       <c r="D320" s="11"/>
       <c r="E320" s="8"/>
@@ -2863,7 +3100,7 @@
       <c r="G320" s="8"/>
     </row>
     <row r="321">
-      <c r="B321" s="13"/>
+      <c r="B321" s="15"/>
       <c r="C321" s="8"/>
       <c r="D321" s="11"/>
       <c r="E321" s="8"/>
@@ -2871,7 +3108,7 @@
       <c r="G321" s="8"/>
     </row>
     <row r="322">
-      <c r="B322" s="13"/>
+      <c r="B322" s="15"/>
       <c r="C322" s="8"/>
       <c r="D322" s="11"/>
       <c r="E322" s="8"/>
@@ -2879,7 +3116,7 @@
       <c r="G322" s="8"/>
     </row>
     <row r="323">
-      <c r="B323" s="13"/>
+      <c r="B323" s="15"/>
       <c r="C323" s="8"/>
       <c r="D323" s="11"/>
       <c r="E323" s="8"/>
@@ -2887,7 +3124,7 @@
       <c r="G323" s="8"/>
     </row>
     <row r="324">
-      <c r="B324" s="13"/>
+      <c r="B324" s="15"/>
       <c r="C324" s="8"/>
       <c r="D324" s="11"/>
       <c r="E324" s="8"/>
@@ -2895,7 +3132,7 @@
       <c r="G324" s="8"/>
     </row>
     <row r="325">
-      <c r="B325" s="13"/>
+      <c r="B325" s="15"/>
       <c r="C325" s="8"/>
       <c r="D325" s="11"/>
       <c r="E325" s="8"/>
@@ -2903,7 +3140,7 @@
       <c r="G325" s="8"/>
     </row>
     <row r="326">
-      <c r="B326" s="13"/>
+      <c r="B326" s="15"/>
       <c r="C326" s="8"/>
       <c r="D326" s="11"/>
       <c r="E326" s="8"/>
@@ -2911,7 +3148,7 @@
       <c r="G326" s="8"/>
     </row>
     <row r="327">
-      <c r="B327" s="13"/>
+      <c r="B327" s="15"/>
       <c r="C327" s="8"/>
       <c r="D327" s="11"/>
       <c r="E327" s="8"/>
@@ -2919,7 +3156,7 @@
       <c r="G327" s="8"/>
     </row>
     <row r="328">
-      <c r="B328" s="13"/>
+      <c r="B328" s="15"/>
       <c r="C328" s="8"/>
       <c r="D328" s="11"/>
       <c r="E328" s="8"/>
@@ -2927,7 +3164,7 @@
       <c r="G328" s="8"/>
     </row>
     <row r="329">
-      <c r="B329" s="13"/>
+      <c r="B329" s="15"/>
       <c r="C329" s="8"/>
       <c r="D329" s="11"/>
       <c r="E329" s="8"/>
@@ -2935,7 +3172,7 @@
       <c r="G329" s="8"/>
     </row>
     <row r="330">
-      <c r="B330" s="13"/>
+      <c r="B330" s="15"/>
       <c r="C330" s="8"/>
       <c r="D330" s="11"/>
       <c r="E330" s="8"/>
@@ -2943,7 +3180,7 @@
       <c r="G330" s="8"/>
     </row>
     <row r="331">
-      <c r="B331" s="13"/>
+      <c r="B331" s="15"/>
       <c r="C331" s="8"/>
       <c r="D331" s="11"/>
       <c r="E331" s="8"/>
@@ -2951,7 +3188,7 @@
       <c r="G331" s="8"/>
     </row>
     <row r="332">
-      <c r="B332" s="13"/>
+      <c r="B332" s="15"/>
       <c r="C332" s="8"/>
       <c r="D332" s="11"/>
       <c r="E332" s="8"/>
@@ -2959,7 +3196,7 @@
       <c r="G332" s="8"/>
     </row>
     <row r="333">
-      <c r="B333" s="13"/>
+      <c r="B333" s="15"/>
       <c r="C333" s="8"/>
       <c r="D333" s="11"/>
       <c r="E333" s="8"/>
@@ -2967,7 +3204,7 @@
       <c r="G333" s="8"/>
     </row>
     <row r="334">
-      <c r="B334" s="13"/>
+      <c r="B334" s="15"/>
       <c r="C334" s="8"/>
       <c r="D334" s="11"/>
       <c r="E334" s="8"/>
@@ -2975,7 +3212,7 @@
       <c r="G334" s="8"/>
     </row>
     <row r="335">
-      <c r="B335" s="13"/>
+      <c r="B335" s="15"/>
       <c r="C335" s="8"/>
       <c r="D335" s="11"/>
       <c r="E335" s="8"/>
@@ -2983,7 +3220,7 @@
       <c r="G335" s="8"/>
     </row>
     <row r="336">
-      <c r="B336" s="13"/>
+      <c r="B336" s="15"/>
       <c r="C336" s="8"/>
       <c r="D336" s="11"/>
       <c r="E336" s="8"/>
@@ -2991,7 +3228,7 @@
       <c r="G336" s="8"/>
     </row>
     <row r="337">
-      <c r="B337" s="13"/>
+      <c r="B337" s="15"/>
       <c r="C337" s="8"/>
       <c r="D337" s="11"/>
       <c r="E337" s="8"/>
@@ -2999,7 +3236,7 @@
       <c r="G337" s="8"/>
     </row>
     <row r="338">
-      <c r="B338" s="13"/>
+      <c r="B338" s="15"/>
       <c r="C338" s="8"/>
       <c r="D338" s="11"/>
       <c r="E338" s="8"/>
@@ -3007,7 +3244,7 @@
       <c r="G338" s="8"/>
     </row>
     <row r="339">
-      <c r="B339" s="13"/>
+      <c r="B339" s="15"/>
       <c r="C339" s="8"/>
       <c r="D339" s="11"/>
       <c r="E339" s="8"/>
@@ -3015,7 +3252,7 @@
       <c r="G339" s="8"/>
     </row>
     <row r="340">
-      <c r="B340" s="13"/>
+      <c r="B340" s="15"/>
       <c r="C340" s="8"/>
       <c r="D340" s="11"/>
       <c r="E340" s="8"/>
@@ -3023,7 +3260,7 @@
       <c r="G340" s="8"/>
     </row>
     <row r="341">
-      <c r="B341" s="13"/>
+      <c r="B341" s="15"/>
       <c r="C341" s="8"/>
       <c r="D341" s="11"/>
       <c r="E341" s="8"/>
@@ -3031,7 +3268,7 @@
       <c r="G341" s="8"/>
     </row>
     <row r="342">
-      <c r="B342" s="13"/>
+      <c r="B342" s="15"/>
       <c r="C342" s="8"/>
       <c r="D342" s="11"/>
       <c r="E342" s="8"/>
@@ -3039,7 +3276,7 @@
       <c r="G342" s="8"/>
     </row>
     <row r="343">
-      <c r="B343" s="13"/>
+      <c r="B343" s="15"/>
       <c r="C343" s="8"/>
       <c r="D343" s="11"/>
       <c r="E343" s="8"/>
@@ -3047,7 +3284,7 @@
       <c r="G343" s="8"/>
     </row>
     <row r="344">
-      <c r="B344" s="13"/>
+      <c r="B344" s="15"/>
       <c r="C344" s="8"/>
       <c r="D344" s="11"/>
       <c r="E344" s="8"/>
@@ -3055,7 +3292,7 @@
       <c r="G344" s="8"/>
     </row>
     <row r="345">
-      <c r="B345" s="13"/>
+      <c r="B345" s="15"/>
       <c r="C345" s="8"/>
       <c r="D345" s="11"/>
       <c r="E345" s="8"/>
@@ -3063,7 +3300,7 @@
       <c r="G345" s="8"/>
     </row>
     <row r="346">
-      <c r="B346" s="13"/>
+      <c r="B346" s="15"/>
       <c r="C346" s="8"/>
       <c r="D346" s="11"/>
       <c r="E346" s="8"/>
@@ -3071,7 +3308,7 @@
       <c r="G346" s="8"/>
     </row>
     <row r="347">
-      <c r="B347" s="13"/>
+      <c r="B347" s="15"/>
       <c r="C347" s="8"/>
       <c r="D347" s="11"/>
       <c r="E347" s="8"/>
@@ -3079,7 +3316,7 @@
       <c r="G347" s="8"/>
     </row>
     <row r="348">
-      <c r="B348" s="13"/>
+      <c r="B348" s="15"/>
       <c r="C348" s="8"/>
       <c r="D348" s="11"/>
       <c r="E348" s="8"/>
@@ -3087,7 +3324,7 @@
       <c r="G348" s="8"/>
     </row>
     <row r="349">
-      <c r="B349" s="13"/>
+      <c r="B349" s="15"/>
       <c r="C349" s="8"/>
       <c r="D349" s="11"/>
       <c r="E349" s="8"/>
@@ -3095,7 +3332,7 @@
       <c r="G349" s="8"/>
     </row>
     <row r="350">
-      <c r="B350" s="13"/>
+      <c r="B350" s="15"/>
       <c r="C350" s="8"/>
       <c r="D350" s="11"/>
       <c r="E350" s="8"/>
@@ -3103,7 +3340,7 @@
       <c r="G350" s="8"/>
     </row>
     <row r="351">
-      <c r="B351" s="13"/>
+      <c r="B351" s="15"/>
       <c r="C351" s="8"/>
       <c r="D351" s="11"/>
       <c r="E351" s="8"/>
@@ -3111,7 +3348,7 @@
       <c r="G351" s="8"/>
     </row>
     <row r="352">
-      <c r="B352" s="13"/>
+      <c r="B352" s="15"/>
       <c r="C352" s="8"/>
       <c r="D352" s="11"/>
       <c r="E352" s="8"/>
@@ -3119,7 +3356,7 @@
       <c r="G352" s="8"/>
     </row>
     <row r="353">
-      <c r="B353" s="13"/>
+      <c r="B353" s="15"/>
       <c r="C353" s="8"/>
       <c r="D353" s="11"/>
       <c r="E353" s="8"/>
@@ -3127,7 +3364,7 @@
       <c r="G353" s="8"/>
     </row>
     <row r="354">
-      <c r="B354" s="13"/>
+      <c r="B354" s="15"/>
       <c r="C354" s="8"/>
       <c r="D354" s="11"/>
       <c r="E354" s="8"/>
@@ -3135,7 +3372,7 @@
       <c r="G354" s="8"/>
     </row>
     <row r="355">
-      <c r="B355" s="13"/>
+      <c r="B355" s="15"/>
       <c r="C355" s="8"/>
       <c r="D355" s="11"/>
       <c r="E355" s="8"/>
@@ -3143,7 +3380,7 @@
       <c r="G355" s="8"/>
     </row>
     <row r="356">
-      <c r="B356" s="13"/>
+      <c r="B356" s="15"/>
       <c r="C356" s="8"/>
       <c r="D356" s="11"/>
       <c r="E356" s="8"/>
@@ -3151,7 +3388,7 @@
       <c r="G356" s="8"/>
     </row>
     <row r="357">
-      <c r="B357" s="13"/>
+      <c r="B357" s="15"/>
       <c r="C357" s="8"/>
       <c r="D357" s="11"/>
       <c r="E357" s="8"/>
@@ -3159,7 +3396,7 @@
       <c r="G357" s="8"/>
     </row>
     <row r="358">
-      <c r="B358" s="13"/>
+      <c r="B358" s="15"/>
       <c r="C358" s="8"/>
       <c r="D358" s="11"/>
       <c r="E358" s="8"/>
@@ -3167,7 +3404,7 @@
       <c r="G358" s="8"/>
     </row>
     <row r="359">
-      <c r="B359" s="13"/>
+      <c r="B359" s="15"/>
       <c r="C359" s="8"/>
       <c r="D359" s="11"/>
       <c r="E359" s="8"/>
@@ -3175,7 +3412,7 @@
       <c r="G359" s="8"/>
     </row>
     <row r="360">
-      <c r="B360" s="13"/>
+      <c r="B360" s="15"/>
       <c r="C360" s="8"/>
       <c r="D360" s="11"/>
       <c r="E360" s="8"/>
@@ -3183,7 +3420,7 @@
       <c r="G360" s="8"/>
     </row>
     <row r="361">
-      <c r="B361" s="13"/>
+      <c r="B361" s="15"/>
       <c r="C361" s="8"/>
       <c r="D361" s="11"/>
       <c r="E361" s="8"/>
@@ -3191,7 +3428,7 @@
       <c r="G361" s="8"/>
     </row>
     <row r="362">
-      <c r="B362" s="13"/>
+      <c r="B362" s="15"/>
       <c r="C362" s="8"/>
       <c r="D362" s="11"/>
       <c r="E362" s="8"/>
@@ -3199,7 +3436,7 @@
       <c r="G362" s="8"/>
     </row>
     <row r="363">
-      <c r="B363" s="13"/>
+      <c r="B363" s="15"/>
       <c r="C363" s="8"/>
       <c r="D363" s="11"/>
       <c r="E363" s="8"/>
@@ -3207,7 +3444,7 @@
       <c r="G363" s="8"/>
     </row>
     <row r="364">
-      <c r="B364" s="13"/>
+      <c r="B364" s="15"/>
       <c r="C364" s="8"/>
       <c r="D364" s="11"/>
       <c r="E364" s="8"/>
@@ -3215,7 +3452,7 @@
       <c r="G364" s="8"/>
     </row>
     <row r="365">
-      <c r="B365" s="13"/>
+      <c r="B365" s="15"/>
       <c r="C365" s="8"/>
       <c r="D365" s="11"/>
       <c r="E365" s="8"/>
@@ -3223,7 +3460,7 @@
       <c r="G365" s="8"/>
     </row>
     <row r="366">
-      <c r="B366" s="13"/>
+      <c r="B366" s="15"/>
       <c r="C366" s="8"/>
       <c r="D366" s="11"/>
       <c r="E366" s="8"/>
@@ -3231,7 +3468,7 @@
       <c r="G366" s="8"/>
     </row>
     <row r="367">
-      <c r="B367" s="13"/>
+      <c r="B367" s="15"/>
       <c r="C367" s="8"/>
       <c r="D367" s="11"/>
       <c r="E367" s="8"/>
@@ -3239,7 +3476,7 @@
       <c r="G367" s="8"/>
     </row>
     <row r="368">
-      <c r="B368" s="13"/>
+      <c r="B368" s="15"/>
       <c r="C368" s="8"/>
       <c r="D368" s="11"/>
       <c r="E368" s="8"/>
@@ -3247,7 +3484,7 @@
       <c r="G368" s="8"/>
     </row>
     <row r="369">
-      <c r="B369" s="13"/>
+      <c r="B369" s="15"/>
       <c r="C369" s="8"/>
       <c r="D369" s="11"/>
       <c r="E369" s="8"/>
@@ -3255,7 +3492,7 @@
       <c r="G369" s="8"/>
     </row>
     <row r="370">
-      <c r="B370" s="13"/>
+      <c r="B370" s="15"/>
       <c r="C370" s="8"/>
       <c r="D370" s="11"/>
       <c r="E370" s="8"/>
@@ -3263,7 +3500,7 @@
       <c r="G370" s="8"/>
     </row>
     <row r="371">
-      <c r="B371" s="13"/>
+      <c r="B371" s="15"/>
       <c r="C371" s="8"/>
       <c r="D371" s="11"/>
       <c r="E371" s="8"/>
@@ -3271,7 +3508,7 @@
       <c r="G371" s="8"/>
     </row>
     <row r="372">
-      <c r="B372" s="13"/>
+      <c r="B372" s="15"/>
       <c r="C372" s="8"/>
       <c r="D372" s="11"/>
       <c r="E372" s="8"/>
@@ -3279,7 +3516,7 @@
       <c r="G372" s="8"/>
     </row>
     <row r="373">
-      <c r="B373" s="13"/>
+      <c r="B373" s="15"/>
       <c r="C373" s="8"/>
       <c r="D373" s="11"/>
       <c r="E373" s="8"/>
@@ -3287,7 +3524,7 @@
       <c r="G373" s="8"/>
     </row>
     <row r="374">
-      <c r="B374" s="13"/>
+      <c r="B374" s="15"/>
       <c r="C374" s="8"/>
       <c r="D374" s="11"/>
       <c r="E374" s="8"/>
@@ -3295,7 +3532,7 @@
       <c r="G374" s="8"/>
     </row>
     <row r="375">
-      <c r="B375" s="13"/>
+      <c r="B375" s="15"/>
       <c r="C375" s="8"/>
       <c r="D375" s="11"/>
       <c r="E375" s="8"/>
@@ -3303,7 +3540,7 @@
       <c r="G375" s="8"/>
     </row>
     <row r="376">
-      <c r="B376" s="13"/>
+      <c r="B376" s="15"/>
       <c r="C376" s="8"/>
       <c r="D376" s="11"/>
       <c r="E376" s="8"/>
@@ -3311,7 +3548,7 @@
       <c r="G376" s="8"/>
     </row>
     <row r="377">
-      <c r="B377" s="13"/>
+      <c r="B377" s="15"/>
       <c r="C377" s="8"/>
       <c r="D377" s="11"/>
       <c r="E377" s="8"/>
@@ -3319,7 +3556,7 @@
       <c r="G377" s="8"/>
     </row>
     <row r="378">
-      <c r="B378" s="13"/>
+      <c r="B378" s="15"/>
       <c r="C378" s="8"/>
       <c r="D378" s="11"/>
       <c r="E378" s="8"/>
@@ -3327,7 +3564,7 @@
       <c r="G378" s="8"/>
     </row>
     <row r="379">
-      <c r="B379" s="13"/>
+      <c r="B379" s="15"/>
       <c r="C379" s="8"/>
       <c r="D379" s="11"/>
       <c r="E379" s="8"/>
@@ -3335,7 +3572,7 @@
       <c r="G379" s="8"/>
     </row>
     <row r="380">
-      <c r="B380" s="13"/>
+      <c r="B380" s="15"/>
       <c r="C380" s="8"/>
       <c r="D380" s="11"/>
       <c r="E380" s="8"/>
@@ -3343,7 +3580,7 @@
       <c r="G380" s="8"/>
     </row>
     <row r="381">
-      <c r="B381" s="13"/>
+      <c r="B381" s="15"/>
       <c r="C381" s="8"/>
       <c r="D381" s="11"/>
       <c r="E381" s="8"/>
@@ -3351,7 +3588,7 @@
       <c r="G381" s="8"/>
     </row>
     <row r="382">
-      <c r="B382" s="13"/>
+      <c r="B382" s="15"/>
       <c r="C382" s="8"/>
       <c r="D382" s="11"/>
       <c r="E382" s="8"/>
@@ -3359,7 +3596,7 @@
       <c r="G382" s="8"/>
     </row>
     <row r="383">
-      <c r="B383" s="13"/>
+      <c r="B383" s="15"/>
       <c r="C383" s="8"/>
       <c r="D383" s="11"/>
       <c r="E383" s="8"/>
@@ -3367,7 +3604,7 @@
       <c r="G383" s="8"/>
     </row>
     <row r="384">
-      <c r="B384" s="13"/>
+      <c r="B384" s="15"/>
       <c r="C384" s="8"/>
       <c r="D384" s="11"/>
       <c r="E384" s="8"/>
@@ -3375,7 +3612,7 @@
       <c r="G384" s="8"/>
     </row>
     <row r="385">
-      <c r="B385" s="13"/>
+      <c r="B385" s="15"/>
       <c r="C385" s="8"/>
       <c r="D385" s="11"/>
       <c r="E385" s="8"/>
@@ -3383,7 +3620,7 @@
       <c r="G385" s="8"/>
     </row>
     <row r="386">
-      <c r="B386" s="13"/>
+      <c r="B386" s="15"/>
       <c r="C386" s="8"/>
       <c r="D386" s="11"/>
       <c r="E386" s="8"/>
@@ -3391,7 +3628,7 @@
       <c r="G386" s="8"/>
     </row>
     <row r="387">
-      <c r="B387" s="13"/>
+      <c r="B387" s="15"/>
       <c r="C387" s="8"/>
       <c r="D387" s="11"/>
       <c r="E387" s="8"/>
@@ -3399,7 +3636,7 @@
       <c r="G387" s="8"/>
     </row>
     <row r="388">
-      <c r="B388" s="13"/>
+      <c r="B388" s="15"/>
       <c r="C388" s="8"/>
       <c r="D388" s="11"/>
       <c r="E388" s="8"/>
@@ -3407,7 +3644,7 @@
       <c r="G388" s="8"/>
     </row>
     <row r="389">
-      <c r="B389" s="13"/>
+      <c r="B389" s="15"/>
       <c r="C389" s="8"/>
       <c r="D389" s="11"/>
       <c r="E389" s="8"/>
@@ -3415,7 +3652,7 @@
       <c r="G389" s="8"/>
     </row>
     <row r="390">
-      <c r="B390" s="13"/>
+      <c r="B390" s="15"/>
       <c r="C390" s="8"/>
       <c r="D390" s="11"/>
       <c r="E390" s="8"/>
@@ -3423,7 +3660,7 @@
       <c r="G390" s="8"/>
     </row>
     <row r="391">
-      <c r="B391" s="13"/>
+      <c r="B391" s="15"/>
       <c r="C391" s="8"/>
       <c r="D391" s="11"/>
       <c r="E391" s="8"/>
@@ -3431,7 +3668,7 @@
       <c r="G391" s="8"/>
     </row>
     <row r="392">
-      <c r="B392" s="13"/>
+      <c r="B392" s="15"/>
       <c r="C392" s="8"/>
       <c r="D392" s="11"/>
       <c r="E392" s="8"/>
@@ -3439,7 +3676,7 @@
       <c r="G392" s="8"/>
     </row>
     <row r="393">
-      <c r="B393" s="13"/>
+      <c r="B393" s="15"/>
       <c r="C393" s="8"/>
       <c r="D393" s="11"/>
       <c r="E393" s="8"/>
@@ -3447,7 +3684,7 @@
       <c r="G393" s="8"/>
     </row>
     <row r="394">
-      <c r="B394" s="13"/>
+      <c r="B394" s="15"/>
       <c r="C394" s="8"/>
       <c r="D394" s="11"/>
       <c r="E394" s="8"/>
@@ -3455,7 +3692,7 @@
       <c r="G394" s="8"/>
     </row>
     <row r="395">
-      <c r="B395" s="13"/>
+      <c r="B395" s="15"/>
       <c r="C395" s="8"/>
       <c r="D395" s="11"/>
       <c r="E395" s="8"/>
@@ -3463,7 +3700,7 @@
       <c r="G395" s="8"/>
     </row>
     <row r="396">
-      <c r="B396" s="13"/>
+      <c r="B396" s="15"/>
       <c r="C396" s="8"/>
       <c r="D396" s="11"/>
       <c r="E396" s="8"/>
@@ -3471,7 +3708,7 @@
       <c r="G396" s="8"/>
     </row>
     <row r="397">
-      <c r="B397" s="13"/>
+      <c r="B397" s="15"/>
       <c r="C397" s="8"/>
       <c r="D397" s="11"/>
       <c r="E397" s="8"/>
@@ -3479,7 +3716,7 @@
       <c r="G397" s="8"/>
     </row>
     <row r="398">
-      <c r="B398" s="13"/>
+      <c r="B398" s="15"/>
       <c r="C398" s="8"/>
       <c r="D398" s="11"/>
       <c r="E398" s="8"/>
@@ -3487,7 +3724,7 @@
       <c r="G398" s="8"/>
     </row>
     <row r="399">
-      <c r="B399" s="13"/>
+      <c r="B399" s="15"/>
       <c r="C399" s="8"/>
       <c r="D399" s="11"/>
       <c r="E399" s="8"/>
@@ -3495,7 +3732,7 @@
       <c r="G399" s="8"/>
     </row>
     <row r="400">
-      <c r="B400" s="13"/>
+      <c r="B400" s="15"/>
       <c r="C400" s="8"/>
       <c r="D400" s="11"/>
       <c r="E400" s="8"/>
@@ -3503,7 +3740,7 @@
       <c r="G400" s="8"/>
     </row>
     <row r="401">
-      <c r="B401" s="13"/>
+      <c r="B401" s="15"/>
       <c r="C401" s="8"/>
       <c r="D401" s="11"/>
       <c r="E401" s="8"/>
@@ -3511,7 +3748,7 @@
       <c r="G401" s="8"/>
     </row>
     <row r="402">
-      <c r="B402" s="13"/>
+      <c r="B402" s="15"/>
       <c r="C402" s="8"/>
       <c r="D402" s="11"/>
       <c r="E402" s="8"/>
@@ -3519,7 +3756,7 @@
       <c r="G402" s="8"/>
     </row>
     <row r="403">
-      <c r="B403" s="13"/>
+      <c r="B403" s="15"/>
       <c r="C403" s="8"/>
       <c r="D403" s="11"/>
       <c r="E403" s="8"/>
@@ -3527,7 +3764,7 @@
       <c r="G403" s="8"/>
     </row>
     <row r="404">
-      <c r="B404" s="13"/>
+      <c r="B404" s="15"/>
       <c r="C404" s="8"/>
       <c r="D404" s="11"/>
       <c r="E404" s="8"/>
@@ -3535,7 +3772,7 @@
       <c r="G404" s="8"/>
     </row>
     <row r="405">
-      <c r="B405" s="13"/>
+      <c r="B405" s="15"/>
       <c r="C405" s="8"/>
       <c r="D405" s="11"/>
       <c r="E405" s="8"/>
@@ -3543,7 +3780,7 @@
       <c r="G405" s="8"/>
     </row>
     <row r="406">
-      <c r="B406" s="13"/>
+      <c r="B406" s="15"/>
       <c r="C406" s="8"/>
       <c r="D406" s="11"/>
       <c r="E406" s="8"/>
@@ -3551,7 +3788,7 @@
       <c r="G406" s="8"/>
     </row>
     <row r="407">
-      <c r="B407" s="13"/>
+      <c r="B407" s="15"/>
       <c r="C407" s="8"/>
       <c r="D407" s="11"/>
       <c r="E407" s="8"/>
@@ -3559,7 +3796,7 @@
       <c r="G407" s="8"/>
     </row>
     <row r="408">
-      <c r="B408" s="13"/>
+      <c r="B408" s="15"/>
       <c r="C408" s="8"/>
       <c r="D408" s="11"/>
       <c r="E408" s="8"/>
@@ -3567,7 +3804,7 @@
       <c r="G408" s="8"/>
     </row>
     <row r="409">
-      <c r="B409" s="13"/>
+      <c r="B409" s="15"/>
       <c r="C409" s="8"/>
       <c r="D409" s="11"/>
       <c r="E409" s="8"/>
@@ -3575,7 +3812,7 @@
       <c r="G409" s="8"/>
     </row>
     <row r="410">
-      <c r="B410" s="13"/>
+      <c r="B410" s="15"/>
       <c r="C410" s="8"/>
       <c r="D410" s="11"/>
       <c r="E410" s="8"/>
@@ -3583,7 +3820,7 @@
       <c r="G410" s="8"/>
     </row>
     <row r="411">
-      <c r="B411" s="13"/>
+      <c r="B411" s="15"/>
       <c r="C411" s="8"/>
       <c r="D411" s="11"/>
       <c r="E411" s="8"/>
@@ -3591,7 +3828,7 @@
       <c r="G411" s="8"/>
     </row>
     <row r="412">
-      <c r="B412" s="13"/>
+      <c r="B412" s="15"/>
       <c r="C412" s="8"/>
       <c r="D412" s="11"/>
       <c r="E412" s="8"/>
@@ -3599,7 +3836,7 @@
       <c r="G412" s="8"/>
     </row>
     <row r="413">
-      <c r="B413" s="13"/>
+      <c r="B413" s="15"/>
       <c r="C413" s="8"/>
       <c r="D413" s="11"/>
       <c r="E413" s="8"/>
@@ -3607,7 +3844,7 @@
       <c r="G413" s="8"/>
     </row>
     <row r="414">
-      <c r="B414" s="13"/>
+      <c r="B414" s="15"/>
       <c r="C414" s="8"/>
       <c r="D414" s="11"/>
       <c r="E414" s="8"/>
@@ -3615,7 +3852,7 @@
       <c r="G414" s="8"/>
     </row>
     <row r="415">
-      <c r="B415" s="13"/>
+      <c r="B415" s="15"/>
       <c r="C415" s="8"/>
       <c r="D415" s="11"/>
       <c r="E415" s="8"/>
@@ -3623,7 +3860,7 @@
       <c r="G415" s="8"/>
     </row>
     <row r="416">
-      <c r="B416" s="13"/>
+      <c r="B416" s="15"/>
       <c r="C416" s="8"/>
       <c r="D416" s="11"/>
       <c r="E416" s="8"/>
@@ -3631,7 +3868,7 @@
       <c r="G416" s="8"/>
     </row>
     <row r="417">
-      <c r="B417" s="13"/>
+      <c r="B417" s="15"/>
       <c r="C417" s="8"/>
       <c r="D417" s="11"/>
       <c r="E417" s="8"/>
@@ -3639,7 +3876,7 @@
       <c r="G417" s="8"/>
     </row>
     <row r="418">
-      <c r="B418" s="13"/>
+      <c r="B418" s="15"/>
       <c r="C418" s="8"/>
       <c r="D418" s="11"/>
       <c r="E418" s="8"/>
@@ -3647,7 +3884,7 @@
       <c r="G418" s="8"/>
     </row>
     <row r="419">
-      <c r="B419" s="13"/>
+      <c r="B419" s="15"/>
       <c r="C419" s="8"/>
       <c r="D419" s="11"/>
       <c r="E419" s="8"/>
@@ -3655,7 +3892,7 @@
       <c r="G419" s="8"/>
     </row>
     <row r="420">
-      <c r="B420" s="13"/>
+      <c r="B420" s="15"/>
       <c r="C420" s="8"/>
       <c r="D420" s="11"/>
       <c r="E420" s="8"/>
@@ -3663,7 +3900,7 @@
       <c r="G420" s="8"/>
     </row>
     <row r="421">
-      <c r="B421" s="13"/>
+      <c r="B421" s="15"/>
       <c r="C421" s="8"/>
       <c r="D421" s="11"/>
       <c r="E421" s="8"/>
@@ -3671,7 +3908,7 @@
       <c r="G421" s="8"/>
     </row>
     <row r="422">
-      <c r="B422" s="13"/>
+      <c r="B422" s="15"/>
       <c r="C422" s="8"/>
       <c r="D422" s="11"/>
       <c r="E422" s="8"/>
@@ -3679,7 +3916,7 @@
       <c r="G422" s="8"/>
     </row>
     <row r="423">
-      <c r="B423" s="13"/>
+      <c r="B423" s="15"/>
       <c r="C423" s="8"/>
       <c r="D423" s="11"/>
       <c r="E423" s="8"/>
@@ -3687,7 +3924,7 @@
       <c r="G423" s="8"/>
     </row>
     <row r="424">
-      <c r="B424" s="13"/>
+      <c r="B424" s="15"/>
       <c r="C424" s="8"/>
       <c r="D424" s="11"/>
       <c r="E424" s="8"/>
@@ -3695,7 +3932,7 @@
       <c r="G424" s="8"/>
     </row>
     <row r="425">
-      <c r="B425" s="13"/>
+      <c r="B425" s="15"/>
       <c r="C425" s="8"/>
       <c r="D425" s="11"/>
       <c r="E425" s="8"/>
@@ -3703,7 +3940,7 @@
       <c r="G425" s="8"/>
     </row>
     <row r="426">
-      <c r="B426" s="13"/>
+      <c r="B426" s="15"/>
       <c r="C426" s="8"/>
       <c r="D426" s="11"/>
       <c r="E426" s="8"/>
@@ -3711,7 +3948,7 @@
       <c r="G426" s="8"/>
     </row>
     <row r="427">
-      <c r="B427" s="13"/>
+      <c r="B427" s="15"/>
       <c r="C427" s="8"/>
       <c r="D427" s="11"/>
       <c r="E427" s="8"/>
@@ -3719,7 +3956,7 @@
       <c r="G427" s="8"/>
     </row>
     <row r="428">
-      <c r="B428" s="13"/>
+      <c r="B428" s="15"/>
       <c r="C428" s="8"/>
       <c r="D428" s="11"/>
       <c r="E428" s="8"/>
@@ -3727,7 +3964,7 @@
       <c r="G428" s="8"/>
     </row>
     <row r="429">
-      <c r="B429" s="13"/>
+      <c r="B429" s="15"/>
       <c r="C429" s="8"/>
       <c r="D429" s="11"/>
       <c r="E429" s="8"/>
@@ -3735,7 +3972,7 @@
       <c r="G429" s="8"/>
     </row>
     <row r="430">
-      <c r="B430" s="13"/>
+      <c r="B430" s="15"/>
       <c r="C430" s="8"/>
       <c r="D430" s="11"/>
       <c r="E430" s="8"/>
@@ -3743,7 +3980,7 @@
       <c r="G430" s="8"/>
     </row>
     <row r="431">
-      <c r="B431" s="13"/>
+      <c r="B431" s="15"/>
       <c r="C431" s="8"/>
       <c r="D431" s="11"/>
       <c r="E431" s="8"/>
@@ -3751,7 +3988,7 @@
       <c r="G431" s="8"/>
     </row>
     <row r="432">
-      <c r="B432" s="13"/>
+      <c r="B432" s="15"/>
       <c r="C432" s="8"/>
       <c r="D432" s="11"/>
       <c r="E432" s="8"/>
@@ -3759,7 +3996,7 @@
       <c r="G432" s="8"/>
     </row>
     <row r="433">
-      <c r="B433" s="13"/>
+      <c r="B433" s="15"/>
       <c r="C433" s="8"/>
       <c r="D433" s="11"/>
       <c r="E433" s="8"/>
@@ -3767,7 +4004,7 @@
       <c r="G433" s="8"/>
     </row>
     <row r="434">
-      <c r="B434" s="13"/>
+      <c r="B434" s="15"/>
       <c r="C434" s="8"/>
       <c r="D434" s="11"/>
       <c r="E434" s="8"/>
@@ -3775,7 +4012,7 @@
       <c r="G434" s="8"/>
     </row>
     <row r="435">
-      <c r="B435" s="13"/>
+      <c r="B435" s="15"/>
       <c r="C435" s="8"/>
       <c r="D435" s="11"/>
       <c r="E435" s="8"/>
@@ -3783,7 +4020,7 @@
       <c r="G435" s="8"/>
     </row>
     <row r="436">
-      <c r="B436" s="13"/>
+      <c r="B436" s="15"/>
       <c r="C436" s="8"/>
       <c r="D436" s="11"/>
       <c r="E436" s="8"/>
@@ -3791,7 +4028,7 @@
       <c r="G436" s="8"/>
     </row>
     <row r="437">
-      <c r="B437" s="13"/>
+      <c r="B437" s="15"/>
       <c r="C437" s="8"/>
       <c r="D437" s="11"/>
       <c r="E437" s="8"/>
@@ -3799,7 +4036,7 @@
       <c r="G437" s="8"/>
     </row>
     <row r="438">
-      <c r="B438" s="13"/>
+      <c r="B438" s="15"/>
       <c r="C438" s="8"/>
       <c r="D438" s="11"/>
       <c r="E438" s="8"/>
@@ -3807,7 +4044,7 @@
       <c r="G438" s="8"/>
     </row>
     <row r="439">
-      <c r="B439" s="13"/>
+      <c r="B439" s="15"/>
       <c r="C439" s="8"/>
       <c r="D439" s="11"/>
       <c r="E439" s="8"/>
@@ -3815,7 +4052,7 @@
       <c r="G439" s="8"/>
     </row>
     <row r="440">
-      <c r="B440" s="13"/>
+      <c r="B440" s="15"/>
       <c r="C440" s="8"/>
       <c r="D440" s="11"/>
       <c r="E440" s="8"/>
@@ -3823,7 +4060,7 @@
       <c r="G440" s="8"/>
     </row>
     <row r="441">
-      <c r="B441" s="13"/>
+      <c r="B441" s="15"/>
       <c r="C441" s="8"/>
       <c r="D441" s="11"/>
       <c r="E441" s="8"/>
@@ -3831,7 +4068,7 @@
       <c r="G441" s="8"/>
     </row>
     <row r="442">
-      <c r="B442" s="13"/>
+      <c r="B442" s="15"/>
       <c r="C442" s="8"/>
       <c r="D442" s="11"/>
       <c r="E442" s="8"/>
@@ -3839,7 +4076,7 @@
       <c r="G442" s="8"/>
     </row>
     <row r="443">
-      <c r="B443" s="13"/>
+      <c r="B443" s="15"/>
       <c r="C443" s="8"/>
       <c r="D443" s="11"/>
       <c r="E443" s="8"/>
@@ -3847,7 +4084,7 @@
       <c r="G443" s="8"/>
     </row>
     <row r="444">
-      <c r="B444" s="13"/>
+      <c r="B444" s="15"/>
       <c r="C444" s="8"/>
       <c r="D444" s="11"/>
       <c r="E444" s="8"/>
@@ -3855,7 +4092,7 @@
       <c r="G444" s="8"/>
     </row>
     <row r="445">
-      <c r="B445" s="13"/>
+      <c r="B445" s="15"/>
       <c r="C445" s="8"/>
       <c r="D445" s="11"/>
       <c r="E445" s="8"/>
@@ -3863,7 +4100,7 @@
       <c r="G445" s="8"/>
     </row>
     <row r="446">
-      <c r="B446" s="13"/>
+      <c r="B446" s="15"/>
       <c r="C446" s="8"/>
       <c r="D446" s="11"/>
       <c r="E446" s="8"/>
@@ -3871,7 +4108,7 @@
       <c r="G446" s="8"/>
     </row>
     <row r="447">
-      <c r="B447" s="13"/>
+      <c r="B447" s="15"/>
       <c r="C447" s="8"/>
       <c r="D447" s="11"/>
       <c r="E447" s="8"/>
@@ -3879,7 +4116,7 @@
       <c r="G447" s="8"/>
     </row>
     <row r="448">
-      <c r="B448" s="13"/>
+      <c r="B448" s="15"/>
       <c r="C448" s="8"/>
       <c r="D448" s="11"/>
       <c r="E448" s="8"/>
@@ -3887,7 +4124,7 @@
       <c r="G448" s="8"/>
     </row>
     <row r="449">
-      <c r="B449" s="13"/>
+      <c r="B449" s="15"/>
       <c r="C449" s="8"/>
       <c r="D449" s="11"/>
       <c r="E449" s="8"/>
@@ -3895,7 +4132,7 @@
       <c r="G449" s="8"/>
     </row>
     <row r="450">
-      <c r="B450" s="13"/>
+      <c r="B450" s="15"/>
       <c r="C450" s="8"/>
       <c r="D450" s="11"/>
       <c r="E450" s="8"/>
@@ -3903,7 +4140,7 @@
       <c r="G450" s="8"/>
     </row>
     <row r="451">
-      <c r="B451" s="13"/>
+      <c r="B451" s="15"/>
       <c r="C451" s="8"/>
       <c r="D451" s="11"/>
       <c r="E451" s="8"/>
@@ -3911,7 +4148,7 @@
       <c r="G451" s="8"/>
     </row>
     <row r="452">
-      <c r="B452" s="13"/>
+      <c r="B452" s="15"/>
       <c r="C452" s="8"/>
       <c r="D452" s="11"/>
       <c r="E452" s="8"/>
@@ -3919,7 +4156,7 @@
       <c r="G452" s="8"/>
     </row>
     <row r="453">
-      <c r="B453" s="13"/>
+      <c r="B453" s="15"/>
       <c r="C453" s="8"/>
       <c r="D453" s="11"/>
       <c r="E453" s="8"/>
@@ -3927,7 +4164,7 @@
       <c r="G453" s="8"/>
     </row>
     <row r="454">
-      <c r="B454" s="13"/>
+      <c r="B454" s="15"/>
       <c r="C454" s="8"/>
       <c r="D454" s="11"/>
       <c r="E454" s="8"/>
@@ -3935,7 +4172,7 @@
       <c r="G454" s="8"/>
     </row>
     <row r="455">
-      <c r="B455" s="13"/>
+      <c r="B455" s="15"/>
       <c r="C455" s="8"/>
       <c r="D455" s="11"/>
       <c r="E455" s="8"/>
@@ -3943,7 +4180,7 @@
       <c r="G455" s="8"/>
     </row>
     <row r="456">
-      <c r="B456" s="13"/>
+      <c r="B456" s="15"/>
       <c r="C456" s="8"/>
       <c r="D456" s="11"/>
       <c r="E456" s="8"/>
@@ -3951,7 +4188,7 @@
       <c r="G456" s="8"/>
     </row>
     <row r="457">
-      <c r="B457" s="13"/>
+      <c r="B457" s="15"/>
       <c r="C457" s="8"/>
       <c r="D457" s="11"/>
       <c r="E457" s="8"/>
@@ -3959,7 +4196,7 @@
       <c r="G457" s="8"/>
     </row>
     <row r="458">
-      <c r="B458" s="13"/>
+      <c r="B458" s="15"/>
       <c r="C458" s="8"/>
       <c r="D458" s="11"/>
       <c r="E458" s="8"/>
@@ -3967,7 +4204,7 @@
       <c r="G458" s="8"/>
     </row>
     <row r="459">
-      <c r="B459" s="13"/>
+      <c r="B459" s="15"/>
       <c r="C459" s="8"/>
       <c r="D459" s="11"/>
       <c r="E459" s="8"/>
@@ -3975,7 +4212,7 @@
       <c r="G459" s="8"/>
     </row>
     <row r="460">
-      <c r="B460" s="13"/>
+      <c r="B460" s="15"/>
       <c r="C460" s="8"/>
       <c r="D460" s="11"/>
       <c r="E460" s="8"/>
@@ -3983,7 +4220,7 @@
       <c r="G460" s="8"/>
     </row>
     <row r="461">
-      <c r="B461" s="13"/>
+      <c r="B461" s="15"/>
       <c r="C461" s="8"/>
       <c r="D461" s="11"/>
       <c r="E461" s="8"/>
@@ -3991,7 +4228,7 @@
       <c r="G461" s="8"/>
     </row>
     <row r="462">
-      <c r="B462" s="13"/>
+      <c r="B462" s="15"/>
       <c r="C462" s="8"/>
       <c r="D462" s="11"/>
       <c r="E462" s="8"/>
@@ -3999,7 +4236,7 @@
       <c r="G462" s="8"/>
     </row>
     <row r="463">
-      <c r="B463" s="13"/>
+      <c r="B463" s="15"/>
       <c r="C463" s="8"/>
       <c r="D463" s="11"/>
       <c r="E463" s="8"/>
@@ -4007,7 +4244,7 @@
       <c r="G463" s="8"/>
     </row>
     <row r="464">
-      <c r="B464" s="13"/>
+      <c r="B464" s="15"/>
       <c r="C464" s="8"/>
       <c r="D464" s="11"/>
       <c r="E464" s="8"/>
@@ -4015,7 +4252,7 @@
       <c r="G464" s="8"/>
     </row>
     <row r="465">
-      <c r="B465" s="13"/>
+      <c r="B465" s="15"/>
       <c r="C465" s="8"/>
       <c r="D465" s="11"/>
       <c r="E465" s="8"/>
@@ -4023,7 +4260,7 @@
       <c r="G465" s="8"/>
     </row>
     <row r="466">
-      <c r="B466" s="13"/>
+      <c r="B466" s="15"/>
       <c r="C466" s="8"/>
       <c r="D466" s="11"/>
       <c r="E466" s="8"/>
@@ -4031,7 +4268,7 @@
       <c r="G466" s="8"/>
     </row>
     <row r="467">
-      <c r="B467" s="13"/>
+      <c r="B467" s="15"/>
       <c r="C467" s="8"/>
       <c r="D467" s="11"/>
       <c r="E467" s="8"/>
@@ -4039,7 +4276,7 @@
       <c r="G467" s="8"/>
     </row>
     <row r="468">
-      <c r="B468" s="13"/>
+      <c r="B468" s="15"/>
       <c r="C468" s="8"/>
       <c r="D468" s="11"/>
       <c r="E468" s="8"/>
@@ -4047,7 +4284,7 @@
       <c r="G468" s="8"/>
     </row>
     <row r="469">
-      <c r="B469" s="13"/>
+      <c r="B469" s="15"/>
       <c r="C469" s="8"/>
       <c r="D469" s="11"/>
       <c r="E469" s="8"/>
@@ -4055,7 +4292,7 @@
       <c r="G469" s="8"/>
     </row>
     <row r="470">
-      <c r="B470" s="13"/>
+      <c r="B470" s="15"/>
       <c r="C470" s="8"/>
       <c r="D470" s="11"/>
       <c r="E470" s="8"/>
@@ -4063,7 +4300,7 @@
       <c r="G470" s="8"/>
     </row>
     <row r="471">
-      <c r="B471" s="13"/>
+      <c r="B471" s="15"/>
       <c r="C471" s="8"/>
       <c r="D471" s="11"/>
       <c r="E471" s="8"/>
@@ -4071,7 +4308,7 @@
       <c r="G471" s="8"/>
     </row>
     <row r="472">
-      <c r="B472" s="13"/>
+      <c r="B472" s="15"/>
       <c r="C472" s="8"/>
       <c r="D472" s="11"/>
       <c r="E472" s="8"/>
@@ -4079,7 +4316,7 @@
       <c r="G472" s="8"/>
     </row>
     <row r="473">
-      <c r="B473" s="13"/>
+      <c r="B473" s="15"/>
       <c r="C473" s="8"/>
       <c r="D473" s="11"/>
       <c r="E473" s="8"/>
@@ -4087,7 +4324,7 @@
       <c r="G473" s="8"/>
     </row>
     <row r="474">
-      <c r="B474" s="13"/>
+      <c r="B474" s="15"/>
       <c r="C474" s="8"/>
       <c r="D474" s="11"/>
       <c r="E474" s="8"/>
@@ -4095,7 +4332,7 @@
       <c r="G474" s="8"/>
     </row>
     <row r="475">
-      <c r="B475" s="13"/>
+      <c r="B475" s="15"/>
       <c r="C475" s="8"/>
       <c r="D475" s="11"/>
       <c r="E475" s="8"/>
@@ -4103,7 +4340,7 @@
       <c r="G475" s="8"/>
     </row>
     <row r="476">
-      <c r="B476" s="13"/>
+      <c r="B476" s="15"/>
       <c r="C476" s="8"/>
       <c r="D476" s="11"/>
       <c r="E476" s="8"/>
@@ -4111,7 +4348,7 @@
       <c r="G476" s="8"/>
     </row>
     <row r="477">
-      <c r="B477" s="13"/>
+      <c r="B477" s="15"/>
       <c r="C477" s="8"/>
       <c r="D477" s="11"/>
       <c r="E477" s="8"/>
@@ -4119,7 +4356,7 @@
       <c r="G477" s="8"/>
     </row>
     <row r="478">
-      <c r="B478" s="13"/>
+      <c r="B478" s="15"/>
       <c r="C478" s="8"/>
       <c r="D478" s="11"/>
       <c r="E478" s="8"/>
@@ -4127,7 +4364,7 @@
       <c r="G478" s="8"/>
     </row>
     <row r="479">
-      <c r="B479" s="13"/>
+      <c r="B479" s="15"/>
       <c r="C479" s="8"/>
       <c r="D479" s="11"/>
       <c r="E479" s="8"/>
@@ -4135,7 +4372,7 @@
       <c r="G479" s="8"/>
     </row>
     <row r="480">
-      <c r="B480" s="13"/>
+      <c r="B480" s="15"/>
       <c r="C480" s="8"/>
       <c r="D480" s="11"/>
       <c r="E480" s="8"/>
@@ -4143,7 +4380,7 @@
       <c r="G480" s="8"/>
     </row>
     <row r="481">
-      <c r="B481" s="13"/>
+      <c r="B481" s="15"/>
       <c r="C481" s="8"/>
       <c r="D481" s="11"/>
       <c r="E481" s="8"/>
@@ -4151,7 +4388,7 @@
       <c r="G481" s="8"/>
     </row>
     <row r="482">
-      <c r="B482" s="13"/>
+      <c r="B482" s="15"/>
       <c r="C482" s="8"/>
       <c r="D482" s="11"/>
       <c r="E482" s="8"/>
@@ -4159,7 +4396,7 @@
       <c r="G482" s="8"/>
     </row>
     <row r="483">
-      <c r="B483" s="13"/>
+      <c r="B483" s="15"/>
       <c r="C483" s="8"/>
       <c r="D483" s="11"/>
       <c r="E483" s="8"/>
@@ -4167,7 +4404,7 @@
       <c r="G483" s="8"/>
     </row>
     <row r="484">
-      <c r="B484" s="13"/>
+      <c r="B484" s="15"/>
       <c r="C484" s="8"/>
       <c r="D484" s="11"/>
       <c r="E484" s="8"/>
@@ -4175,7 +4412,7 @@
       <c r="G484" s="8"/>
     </row>
     <row r="485">
-      <c r="B485" s="13"/>
+      <c r="B485" s="15"/>
       <c r="C485" s="8"/>
       <c r="D485" s="11"/>
       <c r="E485" s="8"/>
@@ -4183,7 +4420,7 @@
       <c r="G485" s="8"/>
     </row>
     <row r="486">
-      <c r="B486" s="13"/>
+      <c r="B486" s="15"/>
       <c r="C486" s="8"/>
       <c r="D486" s="11"/>
       <c r="E486" s="8"/>
@@ -4191,7 +4428,7 @@
       <c r="G486" s="8"/>
     </row>
     <row r="487">
-      <c r="B487" s="13"/>
+      <c r="B487" s="15"/>
       <c r="C487" s="8"/>
       <c r="D487" s="11"/>
       <c r="E487" s="8"/>
@@ -4199,7 +4436,7 @@
       <c r="G487" s="8"/>
     </row>
     <row r="488">
-      <c r="B488" s="13"/>
+      <c r="B488" s="15"/>
       <c r="C488" s="8"/>
       <c r="D488" s="11"/>
       <c r="E488" s="8"/>
@@ -4207,7 +4444,7 @@
       <c r="G488" s="8"/>
     </row>
     <row r="489">
-      <c r="B489" s="13"/>
+      <c r="B489" s="15"/>
       <c r="C489" s="8"/>
       <c r="D489" s="11"/>
       <c r="E489" s="8"/>
@@ -4215,7 +4452,7 @@
       <c r="G489" s="8"/>
     </row>
     <row r="490">
-      <c r="B490" s="13"/>
+      <c r="B490" s="15"/>
       <c r="C490" s="8"/>
       <c r="D490" s="11"/>
       <c r="E490" s="8"/>
@@ -4223,7 +4460,7 @@
       <c r="G490" s="8"/>
     </row>
     <row r="491">
-      <c r="B491" s="13"/>
+      <c r="B491" s="15"/>
       <c r="C491" s="8"/>
       <c r="D491" s="11"/>
       <c r="E491" s="8"/>
@@ -4231,7 +4468,7 @@
       <c r="G491" s="8"/>
     </row>
     <row r="492">
-      <c r="B492" s="13"/>
+      <c r="B492" s="15"/>
       <c r="C492" s="8"/>
       <c r="D492" s="11"/>
       <c r="E492" s="8"/>
@@ -4239,7 +4476,7 @@
       <c r="G492" s="8"/>
     </row>
     <row r="493">
-      <c r="B493" s="13"/>
+      <c r="B493" s="15"/>
       <c r="C493" s="8"/>
       <c r="D493" s="11"/>
       <c r="E493" s="8"/>
@@ -4247,7 +4484,7 @@
       <c r="G493" s="8"/>
     </row>
     <row r="494">
-      <c r="B494" s="13"/>
+      <c r="B494" s="15"/>
       <c r="C494" s="8"/>
       <c r="D494" s="11"/>
       <c r="E494" s="8"/>
@@ -4255,7 +4492,7 @@
       <c r="G494" s="8"/>
     </row>
     <row r="495">
-      <c r="B495" s="13"/>
+      <c r="B495" s="15"/>
       <c r="C495" s="8"/>
       <c r="D495" s="11"/>
       <c r="E495" s="8"/>
@@ -4263,7 +4500,7 @@
       <c r="G495" s="8"/>
     </row>
     <row r="496">
-      <c r="B496" s="13"/>
+      <c r="B496" s="15"/>
       <c r="C496" s="8"/>
       <c r="D496" s="11"/>
       <c r="E496" s="8"/>
@@ -4271,7 +4508,7 @@
       <c r="G496" s="8"/>
     </row>
     <row r="497">
-      <c r="B497" s="13"/>
+      <c r="B497" s="15"/>
       <c r="C497" s="8"/>
       <c r="D497" s="11"/>
       <c r="E497" s="8"/>
@@ -4279,7 +4516,7 @@
       <c r="G497" s="8"/>
     </row>
     <row r="498">
-      <c r="B498" s="13"/>
+      <c r="B498" s="15"/>
       <c r="C498" s="8"/>
       <c r="D498" s="11"/>
       <c r="E498" s="8"/>
@@ -4287,7 +4524,7 @@
       <c r="G498" s="8"/>
     </row>
     <row r="499">
-      <c r="B499" s="13"/>
+      <c r="B499" s="15"/>
       <c r="C499" s="8"/>
       <c r="D499" s="11"/>
       <c r="E499" s="8"/>
@@ -4295,7 +4532,7 @@
       <c r="G499" s="8"/>
     </row>
     <row r="500">
-      <c r="B500" s="13"/>
+      <c r="B500" s="15"/>
       <c r="C500" s="8"/>
       <c r="D500" s="11"/>
       <c r="E500" s="8"/>
@@ -4303,7 +4540,7 @@
       <c r="G500" s="8"/>
     </row>
     <row r="501">
-      <c r="B501" s="13"/>
+      <c r="B501" s="15"/>
       <c r="C501" s="8"/>
       <c r="D501" s="11"/>
       <c r="E501" s="8"/>
@@ -4311,7 +4548,7 @@
       <c r="G501" s="8"/>
     </row>
     <row r="502">
-      <c r="B502" s="13"/>
+      <c r="B502" s="15"/>
       <c r="C502" s="8"/>
       <c r="D502" s="11"/>
       <c r="E502" s="8"/>
@@ -4319,7 +4556,7 @@
       <c r="G502" s="8"/>
     </row>
     <row r="503">
-      <c r="B503" s="13"/>
+      <c r="B503" s="15"/>
       <c r="C503" s="8"/>
       <c r="D503" s="11"/>
       <c r="E503" s="8"/>
@@ -4327,7 +4564,7 @@
       <c r="G503" s="8"/>
     </row>
     <row r="504">
-      <c r="B504" s="13"/>
+      <c r="B504" s="15"/>
       <c r="C504" s="8"/>
       <c r="D504" s="11"/>
       <c r="E504" s="8"/>
@@ -4335,7 +4572,7 @@
       <c r="G504" s="8"/>
     </row>
     <row r="505">
-      <c r="B505" s="13"/>
+      <c r="B505" s="15"/>
       <c r="C505" s="8"/>
       <c r="D505" s="11"/>
       <c r="E505" s="8"/>
@@ -4343,7 +4580,7 @@
       <c r="G505" s="8"/>
     </row>
     <row r="506">
-      <c r="B506" s="13"/>
+      <c r="B506" s="15"/>
       <c r="C506" s="8"/>
       <c r="D506" s="11"/>
       <c r="E506" s="8"/>
@@ -4351,7 +4588,7 @@
       <c r="G506" s="8"/>
     </row>
     <row r="507">
-      <c r="B507" s="13"/>
+      <c r="B507" s="15"/>
       <c r="C507" s="8"/>
       <c r="D507" s="11"/>
       <c r="E507" s="8"/>
@@ -4359,7 +4596,7 @@
       <c r="G507" s="8"/>
     </row>
     <row r="508">
-      <c r="B508" s="13"/>
+      <c r="B508" s="15"/>
       <c r="C508" s="8"/>
       <c r="D508" s="11"/>
       <c r="E508" s="8"/>
@@ -4367,7 +4604,7 @@
       <c r="G508" s="8"/>
     </row>
     <row r="509">
-      <c r="B509" s="13"/>
+      <c r="B509" s="15"/>
       <c r="C509" s="8"/>
       <c r="D509" s="11"/>
       <c r="E509" s="8"/>
@@ -4375,7 +4612,7 @@
       <c r="G509" s="8"/>
     </row>
     <row r="510">
-      <c r="B510" s="13"/>
+      <c r="B510" s="15"/>
       <c r="C510" s="8"/>
       <c r="D510" s="11"/>
       <c r="E510" s="8"/>
@@ -4383,7 +4620,7 @@
       <c r="G510" s="8"/>
     </row>
     <row r="511">
-      <c r="B511" s="13"/>
+      <c r="B511" s="15"/>
       <c r="C511" s="8"/>
       <c r="D511" s="11"/>
       <c r="E511" s="8"/>
@@ -4391,7 +4628,7 @@
       <c r="G511" s="8"/>
     </row>
     <row r="512">
-      <c r="B512" s="13"/>
+      <c r="B512" s="15"/>
       <c r="C512" s="8"/>
       <c r="D512" s="11"/>
       <c r="E512" s="8"/>
@@ -4399,7 +4636,7 @@
       <c r="G512" s="8"/>
     </row>
     <row r="513">
-      <c r="B513" s="13"/>
+      <c r="B513" s="15"/>
       <c r="C513" s="8"/>
       <c r="D513" s="11"/>
       <c r="E513" s="8"/>
@@ -4407,7 +4644,7 @@
       <c r="G513" s="8"/>
     </row>
     <row r="514">
-      <c r="B514" s="13"/>
+      <c r="B514" s="15"/>
       <c r="C514" s="8"/>
       <c r="D514" s="11"/>
       <c r="E514" s="8"/>
@@ -4415,7 +4652,7 @@
       <c r="G514" s="8"/>
     </row>
     <row r="515">
-      <c r="B515" s="13"/>
+      <c r="B515" s="15"/>
       <c r="C515" s="8"/>
       <c r="D515" s="11"/>
       <c r="E515" s="8"/>
@@ -4423,7 +4660,7 @@
       <c r="G515" s="8"/>
     </row>
     <row r="516">
-      <c r="B516" s="13"/>
+      <c r="B516" s="15"/>
       <c r="C516" s="8"/>
       <c r="D516" s="11"/>
       <c r="E516" s="8"/>
@@ -4431,7 +4668,7 @@
       <c r="G516" s="8"/>
     </row>
     <row r="517">
-      <c r="B517" s="13"/>
+      <c r="B517" s="15"/>
       <c r="C517" s="8"/>
       <c r="D517" s="11"/>
       <c r="E517" s="8"/>
@@ -4439,7 +4676,7 @@
       <c r="G517" s="8"/>
     </row>
     <row r="518">
-      <c r="B518" s="13"/>
+      <c r="B518" s="15"/>
       <c r="C518" s="8"/>
       <c r="D518" s="11"/>
       <c r="E518" s="8"/>
@@ -4447,7 +4684,7 @@
       <c r="G518" s="8"/>
     </row>
     <row r="519">
-      <c r="B519" s="13"/>
+      <c r="B519" s="15"/>
       <c r="C519" s="8"/>
       <c r="D519" s="11"/>
       <c r="E519" s="8"/>
@@ -4455,7 +4692,7 @@
       <c r="G519" s="8"/>
     </row>
     <row r="520">
-      <c r="B520" s="13"/>
+      <c r="B520" s="15"/>
       <c r="C520" s="8"/>
       <c r="D520" s="11"/>
       <c r="E520" s="8"/>
@@ -4463,7 +4700,7 @@
       <c r="G520" s="8"/>
     </row>
     <row r="521">
-      <c r="B521" s="13"/>
+      <c r="B521" s="15"/>
       <c r="C521" s="8"/>
       <c r="D521" s="11"/>
       <c r="E521" s="8"/>
@@ -4471,7 +4708,7 @@
       <c r="G521" s="8"/>
     </row>
     <row r="522">
-      <c r="B522" s="13"/>
+      <c r="B522" s="15"/>
       <c r="C522" s="8"/>
       <c r="D522" s="11"/>
       <c r="E522" s="8"/>
@@ -4479,7 +4716,7 @@
       <c r="G522" s="8"/>
     </row>
     <row r="523">
-      <c r="B523" s="13"/>
+      <c r="B523" s="15"/>
       <c r="C523" s="8"/>
       <c r="D523" s="11"/>
       <c r="E523" s="8"/>
@@ -4487,7 +4724,7 @@
       <c r="G523" s="8"/>
     </row>
     <row r="524">
-      <c r="B524" s="13"/>
+      <c r="B524" s="15"/>
       <c r="C524" s="8"/>
       <c r="D524" s="11"/>
       <c r="E524" s="8"/>
@@ -4495,7 +4732,7 @@
       <c r="G524" s="8"/>
     </row>
     <row r="525">
-      <c r="B525" s="13"/>
+      <c r="B525" s="15"/>
       <c r="C525" s="8"/>
       <c r="D525" s="11"/>
       <c r="E525" s="8"/>
@@ -4503,7 +4740,7 @@
       <c r="G525" s="8"/>
     </row>
     <row r="526">
-      <c r="B526" s="13"/>
+      <c r="B526" s="15"/>
       <c r="C526" s="8"/>
       <c r="D526" s="11"/>
       <c r="E526" s="8"/>
@@ -4511,7 +4748,7 @@
       <c r="G526" s="8"/>
     </row>
     <row r="527">
-      <c r="B527" s="13"/>
+      <c r="B527" s="15"/>
       <c r="C527" s="8"/>
       <c r="D527" s="11"/>
       <c r="E527" s="8"/>
@@ -4519,7 +4756,7 @@
       <c r="G527" s="8"/>
     </row>
     <row r="528">
-      <c r="B528" s="13"/>
+      <c r="B528" s="15"/>
       <c r="C528" s="8"/>
       <c r="D528" s="11"/>
       <c r="E528" s="8"/>
@@ -4527,7 +4764,7 @@
       <c r="G528" s="8"/>
     </row>
     <row r="529">
-      <c r="B529" s="13"/>
+      <c r="B529" s="15"/>
       <c r="C529" s="8"/>
       <c r="D529" s="11"/>
       <c r="E529" s="8"/>
@@ -4535,7 +4772,7 @@
       <c r="G529" s="8"/>
     </row>
     <row r="530">
-      <c r="B530" s="13"/>
+      <c r="B530" s="15"/>
       <c r="C530" s="8"/>
       <c r="D530" s="11"/>
       <c r="E530" s="8"/>
@@ -4543,7 +4780,7 @@
       <c r="G530" s="8"/>
     </row>
     <row r="531">
-      <c r="B531" s="13"/>
+      <c r="B531" s="15"/>
       <c r="C531" s="8"/>
       <c r="D531" s="11"/>
       <c r="E531" s="8"/>
@@ -4551,7 +4788,7 @@
       <c r="G531" s="8"/>
     </row>
     <row r="532">
-      <c r="B532" s="13"/>
+      <c r="B532" s="15"/>
       <c r="C532" s="8"/>
       <c r="D532" s="11"/>
       <c r="E532" s="8"/>
@@ -4559,7 +4796,7 @@
       <c r="G532" s="8"/>
     </row>
     <row r="533">
-      <c r="B533" s="13"/>
+      <c r="B533" s="15"/>
       <c r="C533" s="8"/>
       <c r="D533" s="11"/>
       <c r="E533" s="8"/>
@@ -4567,7 +4804,7 @@
       <c r="G533" s="8"/>
     </row>
     <row r="534">
-      <c r="B534" s="13"/>
+      <c r="B534" s="15"/>
       <c r="C534" s="8"/>
       <c r="D534" s="11"/>
       <c r="E534" s="8"/>
@@ -4575,7 +4812,7 @@
       <c r="G534" s="8"/>
     </row>
     <row r="535">
-      <c r="B535" s="13"/>
+      <c r="B535" s="15"/>
       <c r="C535" s="8"/>
       <c r="D535" s="11"/>
       <c r="E535" s="8"/>
@@ -4583,7 +4820,7 @@
       <c r="G535" s="8"/>
     </row>
     <row r="536">
-      <c r="B536" s="13"/>
+      <c r="B536" s="15"/>
       <c r="C536" s="8"/>
       <c r="D536" s="11"/>
       <c r="E536" s="8"/>
@@ -4591,7 +4828,7 @@
       <c r="G536" s="8"/>
     </row>
     <row r="537">
-      <c r="B537" s="13"/>
+      <c r="B537" s="15"/>
       <c r="C537" s="8"/>
       <c r="D537" s="11"/>
       <c r="E537" s="8"/>
@@ -4599,7 +4836,7 @@
       <c r="G537" s="8"/>
     </row>
     <row r="538">
-      <c r="B538" s="13"/>
+      <c r="B538" s="15"/>
       <c r="C538" s="8"/>
       <c r="D538" s="11"/>
       <c r="E538" s="8"/>
@@ -4607,7 +4844,7 @@
       <c r="G538" s="8"/>
     </row>
     <row r="539">
-      <c r="B539" s="13"/>
+      <c r="B539" s="15"/>
       <c r="C539" s="8"/>
       <c r="D539" s="11"/>
       <c r="E539" s="8"/>
@@ -4615,7 +4852,7 @@
       <c r="G539" s="8"/>
     </row>
     <row r="540">
-      <c r="B540" s="13"/>
+      <c r="B540" s="15"/>
       <c r="C540" s="8"/>
       <c r="D540" s="11"/>
       <c r="E540" s="8"/>
@@ -4623,7 +4860,7 @@
       <c r="G540" s="8"/>
     </row>
     <row r="541">
-      <c r="B541" s="13"/>
+      <c r="B541" s="15"/>
       <c r="C541" s="8"/>
       <c r="D541" s="11"/>
       <c r="E541" s="8"/>
@@ -4631,7 +4868,7 @@
       <c r="G541" s="8"/>
     </row>
     <row r="542">
-      <c r="B542" s="13"/>
+      <c r="B542" s="15"/>
       <c r="C542" s="8"/>
       <c r="D542" s="11"/>
       <c r="E542" s="8"/>
@@ -4639,7 +4876,7 @@
       <c r="G542" s="8"/>
     </row>
     <row r="543">
-      <c r="B543" s="13"/>
+      <c r="B543" s="15"/>
       <c r="C543" s="8"/>
       <c r="D543" s="11"/>
       <c r="E543" s="8"/>
@@ -4647,7 +4884,7 @@
       <c r="G543" s="8"/>
     </row>
     <row r="544">
-      <c r="B544" s="13"/>
+      <c r="B544" s="15"/>
       <c r="C544" s="8"/>
       <c r="D544" s="11"/>
       <c r="E544" s="8"/>
@@ -4655,7 +4892,7 @@
       <c r="G544" s="8"/>
     </row>
     <row r="545">
-      <c r="B545" s="13"/>
+      <c r="B545" s="15"/>
       <c r="C545" s="8"/>
       <c r="D545" s="11"/>
       <c r="E545" s="8"/>
@@ -4663,7 +4900,7 @@
       <c r="G545" s="8"/>
     </row>
     <row r="546">
-      <c r="B546" s="13"/>
+      <c r="B546" s="15"/>
       <c r="C546" s="8"/>
       <c r="D546" s="11"/>
       <c r="E546" s="8"/>
@@ -4671,7 +4908,7 @@
       <c r="G546" s="8"/>
     </row>
     <row r="547">
-      <c r="B547" s="13"/>
+      <c r="B547" s="15"/>
       <c r="C547" s="8"/>
       <c r="D547" s="11"/>
       <c r="E547" s="8"/>
@@ -4679,7 +4916,7 @@
       <c r="G547" s="8"/>
     </row>
     <row r="548">
-      <c r="B548" s="13"/>
+      <c r="B548" s="15"/>
       <c r="C548" s="8"/>
       <c r="D548" s="11"/>
       <c r="E548" s="8"/>
@@ -4687,7 +4924,7 @@
       <c r="G548" s="8"/>
     </row>
     <row r="549">
-      <c r="B549" s="13"/>
+      <c r="B549" s="15"/>
       <c r="C549" s="8"/>
       <c r="D549" s="11"/>
       <c r="E549" s="8"/>
@@ -4695,7 +4932,7 @@
       <c r="G549" s="8"/>
     </row>
     <row r="550">
-      <c r="B550" s="13"/>
+      <c r="B550" s="15"/>
       <c r="C550" s="8"/>
       <c r="D550" s="11"/>
       <c r="E550" s="8"/>
@@ -4703,7 +4940,7 @@
       <c r="G550" s="8"/>
     </row>
     <row r="551">
-      <c r="B551" s="13"/>
+      <c r="B551" s="15"/>
       <c r="C551" s="8"/>
       <c r="D551" s="11"/>
       <c r="E551" s="8"/>
@@ -4711,7 +4948,7 @@
       <c r="G551" s="8"/>
     </row>
     <row r="552">
-      <c r="B552" s="13"/>
+      <c r="B552" s="15"/>
       <c r="C552" s="8"/>
       <c r="D552" s="11"/>
       <c r="E552" s="8"/>
@@ -4719,7 +4956,7 @@
       <c r="G552" s="8"/>
     </row>
     <row r="553">
-      <c r="B553" s="13"/>
+      <c r="B553" s="15"/>
       <c r="C553" s="8"/>
       <c r="D553" s="11"/>
       <c r="E553" s="8"/>
@@ -4727,7 +4964,7 @@
       <c r="G553" s="8"/>
     </row>
     <row r="554">
-      <c r="B554" s="13"/>
+      <c r="B554" s="15"/>
       <c r="C554" s="8"/>
       <c r="D554" s="11"/>
       <c r="E554" s="8"/>
@@ -4735,7 +4972,7 @@
       <c r="G554" s="8"/>
     </row>
     <row r="555">
-      <c r="B555" s="13"/>
+      <c r="B555" s="15"/>
       <c r="C555" s="8"/>
       <c r="D555" s="11"/>
       <c r="E555" s="8"/>
@@ -4743,7 +4980,7 @@
       <c r="G555" s="8"/>
     </row>
     <row r="556">
-      <c r="B556" s="13"/>
+      <c r="B556" s="15"/>
       <c r="C556" s="8"/>
       <c r="D556" s="11"/>
       <c r="E556" s="8"/>
@@ -4751,7 +4988,7 @@
       <c r="G556" s="8"/>
     </row>
     <row r="557">
-      <c r="B557" s="13"/>
+      <c r="B557" s="15"/>
       <c r="C557" s="8"/>
       <c r="D557" s="11"/>
       <c r="E557" s="8"/>
@@ -4759,7 +4996,7 @@
       <c r="G557" s="8"/>
     </row>
     <row r="558">
-      <c r="B558" s="13"/>
+      <c r="B558" s="15"/>
       <c r="C558" s="8"/>
       <c r="D558" s="11"/>
       <c r="E558" s="8"/>
@@ -4767,7 +5004,7 @@
       <c r="G558" s="8"/>
     </row>
     <row r="559">
-      <c r="B559" s="13"/>
+      <c r="B559" s="15"/>
       <c r="C559" s="8"/>
       <c r="D559" s="11"/>
       <c r="E559" s="8"/>
@@ -4775,7 +5012,7 @@
       <c r="G559" s="8"/>
     </row>
     <row r="560">
-      <c r="B560" s="13"/>
+      <c r="B560" s="15"/>
       <c r="C560" s="8"/>
       <c r="D560" s="11"/>
       <c r="E560" s="8"/>
@@ -4783,7 +5020,7 @@
       <c r="G560" s="8"/>
     </row>
     <row r="561">
-      <c r="B561" s="13"/>
+      <c r="B561" s="15"/>
       <c r="C561" s="8"/>
       <c r="D561" s="11"/>
       <c r="E561" s="8"/>
@@ -4791,7 +5028,7 @@
       <c r="G561" s="8"/>
     </row>
     <row r="562">
-      <c r="B562" s="13"/>
+      <c r="B562" s="15"/>
       <c r="C562" s="8"/>
       <c r="D562" s="11"/>
       <c r="E562" s="8"/>
@@ -4799,7 +5036,7 @@
       <c r="G562" s="8"/>
     </row>
     <row r="563">
-      <c r="B563" s="13"/>
+      <c r="B563" s="15"/>
       <c r="C563" s="8"/>
       <c r="D563" s="11"/>
       <c r="E563" s="8"/>
@@ -4807,7 +5044,7 @@
       <c r="G563" s="8"/>
     </row>
     <row r="564">
-      <c r="B564" s="13"/>
+      <c r="B564" s="15"/>
       <c r="C564" s="8"/>
       <c r="D564" s="11"/>
       <c r="E564" s="8"/>
@@ -4815,7 +5052,7 @@
       <c r="G564" s="8"/>
     </row>
     <row r="565">
-      <c r="B565" s="13"/>
+      <c r="B565" s="15"/>
       <c r="C565" s="8"/>
       <c r="D565" s="11"/>
       <c r="E565" s="8"/>
@@ -4823,7 +5060,7 @@
       <c r="G565" s="8"/>
     </row>
     <row r="566">
-      <c r="B566" s="13"/>
+      <c r="B566" s="15"/>
       <c r="C566" s="8"/>
       <c r="D566" s="11"/>
       <c r="E566" s="8"/>
@@ -4831,7 +5068,7 @@
       <c r="G566" s="8"/>
     </row>
     <row r="567">
-      <c r="B567" s="13"/>
+      <c r="B567" s="15"/>
       <c r="C567" s="8"/>
       <c r="D567" s="11"/>
       <c r="E567" s="8"/>
@@ -4839,7 +5076,7 @@
       <c r="G567" s="8"/>
     </row>
     <row r="568">
-      <c r="B568" s="13"/>
+      <c r="B568" s="15"/>
       <c r="C568" s="8"/>
       <c r="D568" s="11"/>
       <c r="E568" s="8"/>
@@ -4847,7 +5084,7 @@
       <c r="G568" s="8"/>
     </row>
     <row r="569">
-      <c r="B569" s="13"/>
+      <c r="B569" s="15"/>
       <c r="C569" s="8"/>
       <c r="D569" s="11"/>
       <c r="E569" s="8"/>
@@ -4855,7 +5092,7 @@
       <c r="G569" s="8"/>
     </row>
     <row r="570">
-      <c r="B570" s="13"/>
+      <c r="B570" s="15"/>
       <c r="C570" s="8"/>
       <c r="D570" s="11"/>
       <c r="E570" s="8"/>
@@ -4863,7 +5100,7 @@
       <c r="G570" s="8"/>
     </row>
     <row r="571">
-      <c r="B571" s="13"/>
+      <c r="B571" s="15"/>
       <c r="C571" s="8"/>
       <c r="D571" s="11"/>
       <c r="E571" s="8"/>
@@ -4871,7 +5108,7 @@
       <c r="G571" s="8"/>
     </row>
     <row r="572">
-      <c r="B572" s="13"/>
+      <c r="B572" s="15"/>
       <c r="C572" s="8"/>
       <c r="D572" s="11"/>
       <c r="E572" s="8"/>
@@ -4879,7 +5116,7 @@
       <c r="G572" s="8"/>
     </row>
     <row r="573">
-      <c r="B573" s="13"/>
+      <c r="B573" s="15"/>
       <c r="C573" s="8"/>
       <c r="D573" s="11"/>
       <c r="E573" s="8"/>
@@ -4887,7 +5124,7 @@
       <c r="G573" s="8"/>
     </row>
     <row r="574">
-      <c r="B574" s="13"/>
+      <c r="B574" s="15"/>
       <c r="C574" s="8"/>
       <c r="D574" s="11"/>
       <c r="E574" s="8"/>
@@ -4895,7 +5132,7 @@
       <c r="G574" s="8"/>
     </row>
     <row r="575">
-      <c r="B575" s="13"/>
+      <c r="B575" s="15"/>
       <c r="C575" s="8"/>
       <c r="D575" s="11"/>
       <c r="E575" s="8"/>
@@ -4903,7 +5140,7 @@
       <c r="G575" s="8"/>
     </row>
     <row r="576">
-      <c r="B576" s="13"/>
+      <c r="B576" s="15"/>
       <c r="C576" s="8"/>
       <c r="D576" s="11"/>
       <c r="E576" s="8"/>
@@ -4911,7 +5148,7 @@
       <c r="G576" s="8"/>
     </row>
     <row r="577">
-      <c r="B577" s="13"/>
+      <c r="B577" s="15"/>
       <c r="C577" s="8"/>
       <c r="D577" s="11"/>
       <c r="E577" s="8"/>
@@ -4919,7 +5156,7 @@
       <c r="G577" s="8"/>
     </row>
     <row r="578">
-      <c r="B578" s="13"/>
+      <c r="B578" s="15"/>
       <c r="C578" s="8"/>
       <c r="D578" s="11"/>
       <c r="E578" s="8"/>
@@ -4927,7 +5164,7 @@
       <c r="G578" s="8"/>
     </row>
     <row r="579">
-      <c r="B579" s="13"/>
+      <c r="B579" s="15"/>
       <c r="C579" s="8"/>
       <c r="D579" s="11"/>
       <c r="E579" s="8"/>
@@ -4935,7 +5172,7 @@
       <c r="G579" s="8"/>
     </row>
     <row r="580">
-      <c r="B580" s="13"/>
+      <c r="B580" s="15"/>
       <c r="C580" s="8"/>
       <c r="D580" s="11"/>
       <c r="E580" s="8"/>
@@ -4943,7 +5180,7 @@
       <c r="G580" s="8"/>
     </row>
     <row r="581">
-      <c r="B581" s="13"/>
+      <c r="B581" s="15"/>
       <c r="C581" s="8"/>
       <c r="D581" s="11"/>
       <c r="E581" s="8"/>
@@ -4951,7 +5188,7 @@
       <c r="G581" s="8"/>
     </row>
     <row r="582">
-      <c r="B582" s="13"/>
+      <c r="B582" s="15"/>
       <c r="C582" s="8"/>
       <c r="D582" s="11"/>
       <c r="E582" s="8"/>
@@ -4959,7 +5196,7 @@
       <c r="G582" s="8"/>
     </row>
     <row r="583">
-      <c r="B583" s="13"/>
+      <c r="B583" s="15"/>
       <c r="C583" s="8"/>
       <c r="D583" s="11"/>
       <c r="E583" s="8"/>
@@ -4967,7 +5204,7 @@
       <c r="G583" s="8"/>
     </row>
     <row r="584">
-      <c r="B584" s="13"/>
+      <c r="B584" s="15"/>
       <c r="C584" s="8"/>
       <c r="D584" s="11"/>
       <c r="E584" s="8"/>
@@ -4975,7 +5212,7 @@
       <c r="G584" s="8"/>
     </row>
     <row r="585">
-      <c r="B585" s="13"/>
+      <c r="B585" s="15"/>
       <c r="C585" s="8"/>
       <c r="D585" s="11"/>
       <c r="E585" s="8"/>
@@ -4983,7 +5220,7 @@
       <c r="G585" s="8"/>
     </row>
     <row r="586">
-      <c r="B586" s="13"/>
+      <c r="B586" s="15"/>
       <c r="C586" s="8"/>
       <c r="D586" s="11"/>
       <c r="E586" s="8"/>
@@ -4991,7 +5228,7 @@
       <c r="G586" s="8"/>
     </row>
     <row r="587">
-      <c r="B587" s="13"/>
+      <c r="B587" s="15"/>
       <c r="C587" s="8"/>
       <c r="D587" s="11"/>
       <c r="E587" s="8"/>
@@ -4999,7 +5236,7 @@
       <c r="G587" s="8"/>
     </row>
     <row r="588">
-      <c r="B588" s="13"/>
+      <c r="B588" s="15"/>
       <c r="C588" s="8"/>
       <c r="D588" s="11"/>
       <c r="E588" s="8"/>
@@ -5007,7 +5244,7 @@
       <c r="G588" s="8"/>
     </row>
     <row r="589">
-      <c r="B589" s="13"/>
+      <c r="B589" s="15"/>
       <c r="C589" s="8"/>
       <c r="D589" s="11"/>
       <c r="E589" s="8"/>
@@ -5015,7 +5252,7 @@
       <c r="G589" s="8"/>
     </row>
     <row r="590">
-      <c r="B590" s="13"/>
+      <c r="B590" s="15"/>
       <c r="C590" s="8"/>
       <c r="D590" s="11"/>
       <c r="E590" s="8"/>
@@ -5023,7 +5260,7 @@
       <c r="G590" s="8"/>
     </row>
     <row r="591">
-      <c r="B591" s="13"/>
+      <c r="B591" s="15"/>
       <c r="C591" s="8"/>
       <c r="D591" s="11"/>
       <c r="E591" s="8"/>
@@ -5031,7 +5268,7 @@
       <c r="G591" s="8"/>
     </row>
     <row r="592">
-      <c r="B592" s="13"/>
+      <c r="B592" s="15"/>
       <c r="C592" s="8"/>
       <c r="D592" s="11"/>
       <c r="E592" s="8"/>
@@ -5039,7 +5276,7 @@
       <c r="G592" s="8"/>
     </row>
     <row r="593">
-      <c r="B593" s="13"/>
+      <c r="B593" s="15"/>
       <c r="C593" s="8"/>
       <c r="D593" s="11"/>
       <c r="E593" s="8"/>
@@ -5047,7 +5284,7 @@
       <c r="G593" s="8"/>
     </row>
     <row r="594">
-      <c r="B594" s="13"/>
+      <c r="B594" s="15"/>
       <c r="C594" s="8"/>
       <c r="D594" s="11"/>
       <c r="E594" s="8"/>
@@ -5055,7 +5292,7 @@
       <c r="G594" s="8"/>
     </row>
     <row r="595">
-      <c r="B595" s="13"/>
+      <c r="B595" s="15"/>
       <c r="C595" s="8"/>
       <c r="D595" s="11"/>
       <c r="E595" s="8"/>
@@ -5063,7 +5300,7 @@
       <c r="G595" s="8"/>
     </row>
     <row r="596">
-      <c r="B596" s="13"/>
+      <c r="B596" s="15"/>
       <c r="C596" s="8"/>
       <c r="D596" s="11"/>
       <c r="E596" s="8"/>
@@ -5071,7 +5308,7 @@
       <c r="G596" s="8"/>
     </row>
     <row r="597">
-      <c r="B597" s="13"/>
+      <c r="B597" s="15"/>
       <c r="C597" s="8"/>
       <c r="D597" s="11"/>
       <c r="E597" s="8"/>
@@ -5079,7 +5316,7 @@
       <c r="G597" s="8"/>
     </row>
     <row r="598">
-      <c r="B598" s="13"/>
+      <c r="B598" s="15"/>
       <c r="C598" s="8"/>
       <c r="D598" s="11"/>
       <c r="E598" s="8"/>
@@ -5087,7 +5324,7 @@
       <c r="G598" s="8"/>
     </row>
     <row r="599">
-      <c r="B599" s="13"/>
+      <c r="B599" s="15"/>
       <c r="C599" s="8"/>
       <c r="D599" s="11"/>
       <c r="E599" s="8"/>
@@ -5095,7 +5332,7 @@
       <c r="G599" s="8"/>
     </row>
     <row r="600">
-      <c r="B600" s="13"/>
+      <c r="B600" s="15"/>
       <c r="C600" s="8"/>
       <c r="D600" s="11"/>
       <c r="E600" s="8"/>
@@ -5103,7 +5340,7 @@
       <c r="G600" s="8"/>
     </row>
     <row r="601">
-      <c r="B601" s="13"/>
+      <c r="B601" s="15"/>
       <c r="C601" s="8"/>
       <c r="D601" s="11"/>
       <c r="E601" s="8"/>
@@ -5111,7 +5348,7 @@
       <c r="G601" s="8"/>
     </row>
     <row r="602">
-      <c r="B602" s="13"/>
+      <c r="B602" s="15"/>
       <c r="C602" s="8"/>
       <c r="D602" s="11"/>
       <c r="E602" s="8"/>
@@ -5119,7 +5356,7 @@
       <c r="G602" s="8"/>
     </row>
     <row r="603">
-      <c r="B603" s="13"/>
+      <c r="B603" s="15"/>
       <c r="C603" s="8"/>
       <c r="D603" s="11"/>
       <c r="E603" s="8"/>
@@ -5127,7 +5364,7 @@
       <c r="G603" s="8"/>
     </row>
     <row r="604">
-      <c r="B604" s="13"/>
+      <c r="B604" s="15"/>
       <c r="C604" s="8"/>
       <c r="D604" s="11"/>
       <c r="E604" s="8"/>
@@ -5135,7 +5372,7 @@
       <c r="G604" s="8"/>
     </row>
     <row r="605">
-      <c r="B605" s="13"/>
+      <c r="B605" s="15"/>
       <c r="C605" s="8"/>
       <c r="D605" s="11"/>
       <c r="E605" s="8"/>
@@ -5143,7 +5380,7 @@
       <c r="G605" s="8"/>
     </row>
     <row r="606">
-      <c r="B606" s="13"/>
+      <c r="B606" s="15"/>
       <c r="C606" s="8"/>
       <c r="D606" s="11"/>
       <c r="E606" s="8"/>
@@ -5151,7 +5388,7 @@
       <c r="G606" s="8"/>
     </row>
     <row r="607">
-      <c r="B607" s="13"/>
+      <c r="B607" s="15"/>
       <c r="C607" s="8"/>
       <c r="D607" s="11"/>
       <c r="E607" s="8"/>
@@ -5159,7 +5396,7 @@
       <c r="G607" s="8"/>
     </row>
     <row r="608">
-      <c r="B608" s="13"/>
+      <c r="B608" s="15"/>
       <c r="C608" s="8"/>
       <c r="D608" s="11"/>
       <c r="E608" s="8"/>
@@ -5167,7 +5404,7 @@
       <c r="G608" s="8"/>
     </row>
     <row r="609">
-      <c r="B609" s="13"/>
+      <c r="B609" s="15"/>
       <c r="C609" s="8"/>
       <c r="D609" s="11"/>
       <c r="E609" s="8"/>
@@ -5175,7 +5412,7 @@
       <c r="G609" s="8"/>
     </row>
     <row r="610">
-      <c r="B610" s="13"/>
+      <c r="B610" s="15"/>
       <c r="C610" s="8"/>
       <c r="D610" s="11"/>
       <c r="E610" s="8"/>
@@ -5183,7 +5420,7 @@
       <c r="G610" s="8"/>
     </row>
     <row r="611">
-      <c r="B611" s="13"/>
+      <c r="B611" s="15"/>
       <c r="C611" s="8"/>
       <c r="D611" s="11"/>
       <c r="E611" s="8"/>
@@ -5191,7 +5428,7 @@
       <c r="G611" s="8"/>
     </row>
     <row r="612">
-      <c r="B612" s="13"/>
+      <c r="B612" s="15"/>
       <c r="C612" s="8"/>
       <c r="D612" s="11"/>
       <c r="E612" s="8"/>
@@ -5199,7 +5436,7 @@
       <c r="G612" s="8"/>
     </row>
     <row r="613">
-      <c r="B613" s="13"/>
+      <c r="B613" s="15"/>
       <c r="C613" s="8"/>
       <c r="D613" s="11"/>
       <c r="E613" s="8"/>
@@ -5207,7 +5444,7 @@
       <c r="G613" s="8"/>
     </row>
     <row r="614">
-      <c r="B614" s="13"/>
+      <c r="B614" s="15"/>
       <c r="C614" s="8"/>
       <c r="D614" s="11"/>
       <c r="E614" s="8"/>
@@ -5215,7 +5452,7 @@
       <c r="G614" s="8"/>
     </row>
     <row r="615">
-      <c r="B615" s="13"/>
+      <c r="B615" s="15"/>
       <c r="C615" s="8"/>
       <c r="D615" s="11"/>
       <c r="E615" s="8"/>
@@ -5223,7 +5460,7 @@
       <c r="G615" s="8"/>
     </row>
     <row r="616">
-      <c r="B616" s="13"/>
+      <c r="B616" s="15"/>
       <c r="C616" s="8"/>
       <c r="D616" s="11"/>
       <c r="E616" s="8"/>
@@ -5231,7 +5468,7 @@
       <c r="G616" s="8"/>
     </row>
     <row r="617">
-      <c r="B617" s="13"/>
+      <c r="B617" s="15"/>
       <c r="C617" s="8"/>
       <c r="D617" s="11"/>
       <c r="E617" s="8"/>
@@ -5239,7 +5476,7 @@
       <c r="G617" s="8"/>
     </row>
     <row r="618">
-      <c r="B618" s="13"/>
+      <c r="B618" s="15"/>
       <c r="C618" s="8"/>
       <c r="D618" s="11"/>
       <c r="E618" s="8"/>
@@ -5247,7 +5484,7 @@
       <c r="G618" s="8"/>
     </row>
     <row r="619">
-      <c r="B619" s="13"/>
+      <c r="B619" s="15"/>
       <c r="C619" s="8"/>
       <c r="D619" s="11"/>
       <c r="E619" s="8"/>
@@ -5255,7 +5492,7 @@
       <c r="G619" s="8"/>
     </row>
     <row r="620">
-      <c r="B620" s="13"/>
+      <c r="B620" s="15"/>
       <c r="C620" s="8"/>
       <c r="D620" s="11"/>
       <c r="E620" s="8"/>
@@ -5263,7 +5500,7 @@
       <c r="G620" s="8"/>
     </row>
     <row r="621">
-      <c r="B621" s="13"/>
+      <c r="B621" s="15"/>
       <c r="C621" s="8"/>
       <c r="D621" s="11"/>
       <c r="E621" s="8"/>
@@ -5271,7 +5508,7 @@
       <c r="G621" s="8"/>
     </row>
     <row r="622">
-      <c r="B622" s="13"/>
+      <c r="B622" s="15"/>
       <c r="C622" s="8"/>
       <c r="D622" s="11"/>
       <c r="E622" s="8"/>
@@ -5279,7 +5516,7 @@
       <c r="G622" s="8"/>
     </row>
     <row r="623">
-      <c r="B623" s="13"/>
+      <c r="B623" s="15"/>
       <c r="C623" s="8"/>
       <c r="D623" s="11"/>
       <c r="E623" s="8"/>
@@ -5287,7 +5524,7 @@
       <c r="G623" s="8"/>
     </row>
     <row r="624">
-      <c r="B624" s="13"/>
+      <c r="B624" s="15"/>
       <c r="C624" s="8"/>
       <c r="D624" s="11"/>
       <c r="E624" s="8"/>
@@ -5295,7 +5532,7 @@
       <c r="G624" s="8"/>
     </row>
     <row r="625">
-      <c r="B625" s="13"/>
+      <c r="B625" s="15"/>
       <c r="C625" s="8"/>
       <c r="D625" s="11"/>
       <c r="E625" s="8"/>
@@ -5303,7 +5540,7 @@
       <c r="G625" s="8"/>
     </row>
     <row r="626">
-      <c r="B626" s="13"/>
+      <c r="B626" s="15"/>
       <c r="C626" s="8"/>
       <c r="D626" s="11"/>
       <c r="E626" s="8"/>
@@ -5311,7 +5548,7 @@
       <c r="G626" s="8"/>
     </row>
     <row r="627">
-      <c r="B627" s="13"/>
+      <c r="B627" s="15"/>
       <c r="C627" s="8"/>
       <c r="D627" s="11"/>
       <c r="E627" s="8"/>
@@ -5319,7 +5556,7 @@
       <c r="G627" s="8"/>
     </row>
     <row r="628">
-      <c r="B628" s="13"/>
+      <c r="B628" s="15"/>
       <c r="C628" s="8"/>
       <c r="D628" s="11"/>
       <c r="E628" s="8"/>
@@ -5327,7 +5564,7 @@
       <c r="G628" s="8"/>
     </row>
     <row r="629">
-      <c r="B629" s="13"/>
+      <c r="B629" s="15"/>
       <c r="C629" s="8"/>
       <c r="D629" s="11"/>
       <c r="E629" s="8"/>
@@ -5335,7 +5572,7 @@
       <c r="G629" s="8"/>
     </row>
     <row r="630">
-      <c r="B630" s="13"/>
+      <c r="B630" s="15"/>
       <c r="C630" s="8"/>
       <c r="D630" s="11"/>
       <c r="E630" s="8"/>
@@ -5343,7 +5580,7 @@
       <c r="G630" s="8"/>
     </row>
     <row r="631">
-      <c r="B631" s="13"/>
+      <c r="B631" s="15"/>
       <c r="C631" s="8"/>
       <c r="D631" s="11"/>
       <c r="E631" s="8"/>
@@ -5351,7 +5588,7 @@
       <c r="G631" s="8"/>
     </row>
     <row r="632">
-      <c r="B632" s="13"/>
+      <c r="B632" s="15"/>
       <c r="C632" s="8"/>
       <c r="D632" s="11"/>
       <c r="E632" s="8"/>
@@ -5359,7 +5596,7 @@
       <c r="G632" s="8"/>
     </row>
     <row r="633">
-      <c r="B633" s="13"/>
+      <c r="B633" s="15"/>
       <c r="C633" s="8"/>
       <c r="D633" s="11"/>
       <c r="E633" s="8"/>
@@ -5367,7 +5604,7 @@
       <c r="G633" s="8"/>
     </row>
     <row r="634">
-      <c r="B634" s="13"/>
+      <c r="B634" s="15"/>
       <c r="C634" s="8"/>
       <c r="D634" s="11"/>
       <c r="E634" s="8"/>
@@ -5375,7 +5612,7 @@
       <c r="G634" s="8"/>
     </row>
     <row r="635">
-      <c r="B635" s="13"/>
+      <c r="B635" s="15"/>
       <c r="C635" s="8"/>
       <c r="D635" s="11"/>
       <c r="E635" s="8"/>
@@ -5383,7 +5620,7 @@
       <c r="G635" s="8"/>
     </row>
     <row r="636">
-      <c r="B636" s="13"/>
+      <c r="B636" s="15"/>
       <c r="C636" s="8"/>
       <c r="D636" s="11"/>
       <c r="E636" s="8"/>
@@ -5391,7 +5628,7 @@
       <c r="G636" s="8"/>
     </row>
     <row r="637">
-      <c r="B637" s="13"/>
+      <c r="B637" s="15"/>
       <c r="C637" s="8"/>
       <c r="D637" s="11"/>
       <c r="E637" s="8"/>
@@ -5399,7 +5636,7 @@
       <c r="G637" s="8"/>
     </row>
     <row r="638">
-      <c r="B638" s="13"/>
+      <c r="B638" s="15"/>
       <c r="C638" s="8"/>
       <c r="D638" s="11"/>
       <c r="E638" s="8"/>
@@ -5407,7 +5644,7 @@
       <c r="G638" s="8"/>
     </row>
     <row r="639">
-      <c r="B639" s="13"/>
+      <c r="B639" s="15"/>
       <c r="C639" s="8"/>
       <c r="D639" s="11"/>
       <c r="E639" s="8"/>
@@ -5415,7 +5652,7 @@
       <c r="G639" s="8"/>
     </row>
     <row r="640">
-      <c r="B640" s="13"/>
+      <c r="B640" s="15"/>
       <c r="C640" s="8"/>
       <c r="D640" s="11"/>
       <c r="E640" s="8"/>
@@ -5423,7 +5660,7 @@
       <c r="G640" s="8"/>
     </row>
     <row r="641">
-      <c r="B641" s="13"/>
+      <c r="B641" s="15"/>
       <c r="C641" s="8"/>
       <c r="D641" s="11"/>
       <c r="E641" s="8"/>
@@ -5431,7 +5668,7 @@
       <c r="G641" s="8"/>
     </row>
     <row r="642">
-      <c r="B642" s="13"/>
+      <c r="B642" s="15"/>
       <c r="C642" s="8"/>
       <c r="D642" s="11"/>
       <c r="E642" s="8"/>
@@ -5439,7 +5676,7 @@
       <c r="G642" s="8"/>
     </row>
     <row r="643">
-      <c r="B643" s="13"/>
+      <c r="B643" s="15"/>
       <c r="C643" s="8"/>
       <c r="D643" s="11"/>
       <c r="E643" s="8"/>
@@ -5447,7 +5684,7 @@
       <c r="G643" s="8"/>
     </row>
     <row r="644">
-      <c r="B644" s="13"/>
+      <c r="B644" s="15"/>
       <c r="C644" s="8"/>
       <c r="D644" s="11"/>
       <c r="E644" s="8"/>
@@ -5455,7 +5692,7 @@
       <c r="G644" s="8"/>
     </row>
     <row r="645">
-      <c r="B645" s="13"/>
+      <c r="B645" s="15"/>
       <c r="C645" s="8"/>
       <c r="D645" s="11"/>
       <c r="E645" s="8"/>
@@ -5463,7 +5700,7 @@
       <c r="G645" s="8"/>
     </row>
     <row r="646">
-      <c r="B646" s="13"/>
+      <c r="B646" s="15"/>
       <c r="C646" s="8"/>
       <c r="D646" s="11"/>
       <c r="E646" s="8"/>
@@ -5471,7 +5708,7 @@
       <c r="G646" s="8"/>
     </row>
     <row r="647">
-      <c r="B647" s="13"/>
+      <c r="B647" s="15"/>
       <c r="C647" s="8"/>
       <c r="D647" s="11"/>
       <c r="E647" s="8"/>
@@ -5479,7 +5716,7 @@
       <c r="G647" s="8"/>
     </row>
     <row r="648">
-      <c r="B648" s="13"/>
+      <c r="B648" s="15"/>
       <c r="C648" s="8"/>
       <c r="D648" s="11"/>
       <c r="E648" s="8"/>
@@ -5487,7 +5724,7 @@
       <c r="G648" s="8"/>
     </row>
     <row r="649">
-      <c r="B649" s="13"/>
+      <c r="B649" s="15"/>
       <c r="C649" s="8"/>
       <c r="D649" s="11"/>
       <c r="E649" s="8"/>
@@ -5495,7 +5732,7 @@
       <c r="G649" s="8"/>
     </row>
     <row r="650">
-      <c r="B650" s="13"/>
+      <c r="B650" s="15"/>
       <c r="C650" s="8"/>
       <c r="D650" s="11"/>
       <c r="E650" s="8"/>
@@ -5503,7 +5740,7 @@
       <c r="G650" s="8"/>
     </row>
     <row r="651">
-      <c r="B651" s="13"/>
+      <c r="B651" s="15"/>
       <c r="C651" s="8"/>
       <c r="D651" s="11"/>
       <c r="E651" s="8"/>
@@ -5511,7 +5748,7 @@
       <c r="G651" s="8"/>
     </row>
     <row r="652">
-      <c r="B652" s="13"/>
+      <c r="B652" s="15"/>
       <c r="C652" s="8"/>
       <c r="D652" s="11"/>
       <c r="E652" s="8"/>
@@ -5519,7 +5756,7 @@
       <c r="G652" s="8"/>
     </row>
     <row r="653">
-      <c r="B653" s="13"/>
+      <c r="B653" s="15"/>
       <c r="C653" s="8"/>
       <c r="D653" s="11"/>
       <c r="E653" s="8"/>
@@ -5527,7 +5764,7 @@
       <c r="G653" s="8"/>
     </row>
     <row r="654">
-      <c r="B654" s="13"/>
+      <c r="B654" s="15"/>
       <c r="C654" s="8"/>
       <c r="D654" s="11"/>
       <c r="E654" s="8"/>
@@ -5535,7 +5772,7 @@
       <c r="G654" s="8"/>
     </row>
     <row r="655">
-      <c r="B655" s="13"/>
+      <c r="B655" s="15"/>
       <c r="C655" s="8"/>
       <c r="D655" s="11"/>
       <c r="E655" s="8"/>
@@ -5543,7 +5780,7 @@
       <c r="G655" s="8"/>
     </row>
     <row r="656">
-      <c r="B656" s="13"/>
+      <c r="B656" s="15"/>
       <c r="C656" s="8"/>
       <c r="D656" s="11"/>
       <c r="E656" s="8"/>
@@ -5551,7 +5788,7 @@
       <c r="G656" s="8"/>
     </row>
     <row r="657">
-      <c r="B657" s="13"/>
+      <c r="B657" s="15"/>
       <c r="C657" s="8"/>
       <c r="D657" s="11"/>
       <c r="E657" s="8"/>
@@ -5559,7 +5796,7 @@
       <c r="G657" s="8"/>
     </row>
     <row r="658">
-      <c r="B658" s="13"/>
+      <c r="B658" s="15"/>
       <c r="C658" s="8"/>
       <c r="D658" s="11"/>
       <c r="E658" s="8"/>
@@ -5567,7 +5804,7 @@
       <c r="G658" s="8"/>
     </row>
     <row r="659">
-      <c r="B659" s="13"/>
+      <c r="B659" s="15"/>
       <c r="C659" s="8"/>
       <c r="D659" s="11"/>
       <c r="E659" s="8"/>
@@ -5575,7 +5812,7 @@
       <c r="G659" s="8"/>
     </row>
     <row r="660">
-      <c r="B660" s="13"/>
+      <c r="B660" s="15"/>
       <c r="C660" s="8"/>
       <c r="D660" s="11"/>
       <c r="E660" s="8"/>
@@ -5583,7 +5820,7 @@
       <c r="G660" s="8"/>
     </row>
     <row r="661">
-      <c r="B661" s="13"/>
+      <c r="B661" s="15"/>
       <c r="C661" s="8"/>
       <c r="D661" s="11"/>
       <c r="E661" s="8"/>
@@ -5591,7 +5828,7 @@
       <c r="G661" s="8"/>
     </row>
     <row r="662">
-      <c r="B662" s="13"/>
+      <c r="B662" s="15"/>
       <c r="C662" s="8"/>
       <c r="D662" s="11"/>
       <c r="E662" s="8"/>
@@ -5599,7 +5836,7 @@
       <c r="G662" s="8"/>
     </row>
     <row r="663">
-      <c r="B663" s="13"/>
+      <c r="B663" s="15"/>
       <c r="C663" s="8"/>
       <c r="D663" s="11"/>
       <c r="E663" s="8"/>
@@ -5607,7 +5844,7 @@
       <c r="G663" s="8"/>
     </row>
     <row r="664">
-      <c r="B664" s="13"/>
+      <c r="B664" s="15"/>
       <c r="C664" s="8"/>
       <c r="D664" s="11"/>
       <c r="E664" s="8"/>
@@ -5615,7 +5852,7 @@
       <c r="G664" s="8"/>
     </row>
     <row r="665">
-      <c r="B665" s="13"/>
+      <c r="B665" s="15"/>
       <c r="C665" s="8"/>
       <c r="D665" s="11"/>
       <c r="E665" s="8"/>
@@ -5623,7 +5860,7 @@
       <c r="G665" s="8"/>
     </row>
     <row r="666">
-      <c r="B666" s="13"/>
+      <c r="B666" s="15"/>
       <c r="C666" s="8"/>
       <c r="D666" s="11"/>
       <c r="E666" s="8"/>
@@ -5631,7 +5868,7 @@
       <c r="G666" s="8"/>
     </row>
     <row r="667">
-      <c r="B667" s="13"/>
+      <c r="B667" s="15"/>
       <c r="C667" s="8"/>
       <c r="D667" s="11"/>
       <c r="E667" s="8"/>
@@ -5639,7 +5876,7 @@
       <c r="G667" s="8"/>
     </row>
     <row r="668">
-      <c r="B668" s="13"/>
+      <c r="B668" s="15"/>
       <c r="C668" s="8"/>
       <c r="D668" s="11"/>
       <c r="E668" s="8"/>
@@ -5647,7 +5884,7 @@
       <c r="G668" s="8"/>
     </row>
     <row r="669">
-      <c r="B669" s="13"/>
+      <c r="B669" s="15"/>
       <c r="C669" s="8"/>
       <c r="D669" s="11"/>
       <c r="E669" s="8"/>
@@ -5655,7 +5892,7 @@
       <c r="G669" s="8"/>
     </row>
     <row r="670">
-      <c r="B670" s="13"/>
+      <c r="B670" s="15"/>
       <c r="C670" s="8"/>
       <c r="D670" s="11"/>
       <c r="E670" s="8"/>
@@ -5663,7 +5900,7 @@
       <c r="G670" s="8"/>
     </row>
     <row r="671">
-      <c r="B671" s="13"/>
+      <c r="B671" s="15"/>
       <c r="C671" s="8"/>
       <c r="D671" s="11"/>
       <c r="E671" s="8"/>
@@ -5671,7 +5908,7 @@
       <c r="G671" s="8"/>
     </row>
     <row r="672">
-      <c r="B672" s="13"/>
+      <c r="B672" s="15"/>
       <c r="C672" s="8"/>
       <c r="D672" s="11"/>
       <c r="E672" s="8"/>
@@ -5679,7 +5916,7 @@
       <c r="G672" s="8"/>
     </row>
     <row r="673">
-      <c r="B673" s="13"/>
+      <c r="B673" s="15"/>
       <c r="C673" s="8"/>
       <c r="D673" s="11"/>
       <c r="E673" s="8"/>
@@ -5687,7 +5924,7 @@
       <c r="G673" s="8"/>
     </row>
     <row r="674">
-      <c r="B674" s="13"/>
+      <c r="B674" s="15"/>
       <c r="C674" s="8"/>
       <c r="D674" s="11"/>
       <c r="E674" s="8"/>
@@ -5695,7 +5932,7 @@
       <c r="G674" s="8"/>
     </row>
     <row r="675">
-      <c r="B675" s="13"/>
+      <c r="B675" s="15"/>
       <c r="C675" s="8"/>
       <c r="D675" s="11"/>
       <c r="E675" s="8"/>
@@ -5703,7 +5940,7 @@
       <c r="G675" s="8"/>
     </row>
     <row r="676">
-      <c r="B676" s="13"/>
+      <c r="B676" s="15"/>
       <c r="C676" s="8"/>
       <c r="D676" s="11"/>
       <c r="E676" s="8"/>
@@ -5711,7 +5948,7 @@
       <c r="G676" s="8"/>
     </row>
     <row r="677">
-      <c r="B677" s="13"/>
+      <c r="B677" s="15"/>
       <c r="C677" s="8"/>
       <c r="D677" s="11"/>
       <c r="E677" s="8"/>
@@ -5719,7 +5956,7 @@
       <c r="G677" s="8"/>
     </row>
     <row r="678">
-      <c r="B678" s="13"/>
+      <c r="B678" s="15"/>
       <c r="C678" s="8"/>
       <c r="D678" s="11"/>
       <c r="E678" s="8"/>
@@ -5727,7 +5964,7 @@
       <c r="G678" s="8"/>
     </row>
     <row r="679">
-      <c r="B679" s="13"/>
+      <c r="B679" s="15"/>
       <c r="C679" s="8"/>
       <c r="D679" s="11"/>
       <c r="E679" s="8"/>
@@ -5735,7 +5972,7 @@
       <c r="G679" s="8"/>
     </row>
     <row r="680">
-      <c r="B680" s="13"/>
+      <c r="B680" s="15"/>
       <c r="C680" s="8"/>
       <c r="D680" s="11"/>
       <c r="E680" s="8"/>
@@ -5743,7 +5980,7 @@
       <c r="G680" s="8"/>
     </row>
     <row r="681">
-      <c r="B681" s="13"/>
+      <c r="B681" s="15"/>
       <c r="C681" s="8"/>
       <c r="D681" s="11"/>
       <c r="E681" s="8"/>
@@ -5751,7 +5988,7 @@
       <c r="G681" s="8"/>
     </row>
     <row r="682">
-      <c r="B682" s="13"/>
+      <c r="B682" s="15"/>
       <c r="C682" s="8"/>
       <c r="D682" s="11"/>
       <c r="E682" s="8"/>
@@ -5759,7 +5996,7 @@
       <c r="G682" s="8"/>
     </row>
     <row r="683">
-      <c r="B683" s="13"/>
+      <c r="B683" s="15"/>
       <c r="C683" s="8"/>
       <c r="D683" s="11"/>
       <c r="E683" s="8"/>
@@ -5767,7 +6004,7 @@
       <c r="G683" s="8"/>
     </row>
     <row r="684">
-      <c r="B684" s="13"/>
+      <c r="B684" s="15"/>
       <c r="C684" s="8"/>
       <c r="D684" s="11"/>
       <c r="E684" s="8"/>
@@ -5775,7 +6012,7 @@
       <c r="G684" s="8"/>
     </row>
     <row r="685">
-      <c r="B685" s="13"/>
+      <c r="B685" s="15"/>
       <c r="C685" s="8"/>
       <c r="D685" s="11"/>
       <c r="E685" s="8"/>
@@ -5783,7 +6020,7 @@
       <c r="G685" s="8"/>
     </row>
     <row r="686">
-      <c r="B686" s="13"/>
+      <c r="B686" s="15"/>
       <c r="C686" s="8"/>
       <c r="D686" s="11"/>
       <c r="E686" s="8"/>
@@ -5791,7 +6028,7 @@
       <c r="G686" s="8"/>
     </row>
     <row r="687">
-      <c r="B687" s="13"/>
+      <c r="B687" s="15"/>
       <c r="C687" s="8"/>
       <c r="D687" s="11"/>
       <c r="E687" s="8"/>
@@ -5799,7 +6036,7 @@
       <c r="G687" s="8"/>
     </row>
     <row r="688">
-      <c r="B688" s="13"/>
+      <c r="B688" s="15"/>
       <c r="C688" s="8"/>
       <c r="D688" s="11"/>
       <c r="E688" s="8"/>
@@ -5807,7 +6044,7 @@
       <c r="G688" s="8"/>
     </row>
     <row r="689">
-      <c r="B689" s="13"/>
+      <c r="B689" s="15"/>
       <c r="C689" s="8"/>
       <c r="D689" s="11"/>
       <c r="E689" s="8"/>
@@ -5815,7 +6052,7 @@
       <c r="G689" s="8"/>
     </row>
     <row r="690">
-      <c r="B690" s="13"/>
+      <c r="B690" s="15"/>
       <c r="C690" s="8"/>
       <c r="D690" s="11"/>
       <c r="E690" s="8"/>
@@ -5823,7 +6060,7 @@
       <c r="G690" s="8"/>
     </row>
     <row r="691">
-      <c r="B691" s="13"/>
+      <c r="B691" s="15"/>
       <c r="C691" s="8"/>
       <c r="D691" s="11"/>
       <c r="E691" s="8"/>
@@ -5831,7 +6068,7 @@
       <c r="G691" s="8"/>
     </row>
     <row r="692">
-      <c r="B692" s="13"/>
+      <c r="B692" s="15"/>
       <c r="C692" s="8"/>
       <c r="D692" s="11"/>
       <c r="E692" s="8"/>
@@ -5839,7 +6076,7 @@
       <c r="G692" s="8"/>
     </row>
     <row r="693">
-      <c r="B693" s="13"/>
+      <c r="B693" s="15"/>
       <c r="C693" s="8"/>
       <c r="D693" s="11"/>
       <c r="E693" s="8"/>
@@ -5847,7 +6084,7 @@
       <c r="G693" s="8"/>
     </row>
     <row r="694">
-      <c r="B694" s="13"/>
+      <c r="B694" s="15"/>
       <c r="C694" s="8"/>
       <c r="D694" s="11"/>
       <c r="E694" s="8"/>
@@ -5855,7 +6092,7 @@
       <c r="G694" s="8"/>
     </row>
     <row r="695">
-      <c r="B695" s="13"/>
+      <c r="B695" s="15"/>
       <c r="C695" s="8"/>
       <c r="D695" s="11"/>
       <c r="E695" s="8"/>
@@ -5863,7 +6100,7 @@
       <c r="G695" s="8"/>
     </row>
     <row r="696">
-      <c r="B696" s="13"/>
+      <c r="B696" s="15"/>
       <c r="C696" s="8"/>
       <c r="D696" s="11"/>
       <c r="E696" s="8"/>
@@ -5871,7 +6108,7 @@
       <c r="G696" s="8"/>
     </row>
     <row r="697">
-      <c r="B697" s="13"/>
+      <c r="B697" s="15"/>
       <c r="C697" s="8"/>
       <c r="D697" s="11"/>
       <c r="E697" s="8"/>
@@ -5879,7 +6116,7 @@
       <c r="G697" s="8"/>
     </row>
     <row r="698">
-      <c r="B698" s="13"/>
+      <c r="B698" s="15"/>
       <c r="C698" s="8"/>
       <c r="D698" s="11"/>
       <c r="E698" s="8"/>
@@ -5887,7 +6124,7 @@
       <c r="G698" s="8"/>
     </row>
     <row r="699">
-      <c r="B699" s="13"/>
+      <c r="B699" s="15"/>
       <c r="C699" s="8"/>
       <c r="D699" s="11"/>
       <c r="E699" s="8"/>
@@ -5895,7 +6132,7 @@
       <c r="G699" s="8"/>
     </row>
     <row r="700">
-      <c r="B700" s="13"/>
+      <c r="B700" s="15"/>
       <c r="C700" s="8"/>
       <c r="D700" s="11"/>
       <c r="E700" s="8"/>
@@ -5903,7 +6140,7 @@
       <c r="G700" s="8"/>
     </row>
     <row r="701">
-      <c r="B701" s="13"/>
+      <c r="B701" s="15"/>
       <c r="C701" s="8"/>
       <c r="D701" s="11"/>
       <c r="E701" s="8"/>
@@ -5911,7 +6148,7 @@
       <c r="G701" s="8"/>
     </row>
     <row r="702">
-      <c r="B702" s="13"/>
+      <c r="B702" s="15"/>
       <c r="C702" s="8"/>
       <c r="D702" s="11"/>
       <c r="E702" s="8"/>
@@ -5919,7 +6156,7 @@
       <c r="G702" s="8"/>
     </row>
     <row r="703">
-      <c r="B703" s="13"/>
+      <c r="B703" s="15"/>
       <c r="C703" s="8"/>
       <c r="D703" s="11"/>
       <c r="E703" s="8"/>
@@ -5927,7 +6164,7 @@
       <c r="G703" s="8"/>
     </row>
     <row r="704">
-      <c r="B704" s="13"/>
+      <c r="B704" s="15"/>
       <c r="C704" s="8"/>
       <c r="D704" s="11"/>
       <c r="E704" s="8"/>
@@ -5935,7 +6172,7 @@
       <c r="G704" s="8"/>
     </row>
     <row r="705">
-      <c r="B705" s="13"/>
+      <c r="B705" s="15"/>
       <c r="C705" s="8"/>
       <c r="D705" s="11"/>
       <c r="E705" s="8"/>
@@ -5943,7 +6180,7 @@
       <c r="G705" s="8"/>
     </row>
     <row r="706">
-      <c r="B706" s="13"/>
+      <c r="B706" s="15"/>
       <c r="C706" s="8"/>
       <c r="D706" s="11"/>
       <c r="E706" s="8"/>
@@ -5951,7 +6188,7 @@
       <c r="G706" s="8"/>
     </row>
     <row r="707">
-      <c r="B707" s="13"/>
+      <c r="B707" s="15"/>
       <c r="C707" s="8"/>
       <c r="D707" s="11"/>
       <c r="E707" s="8"/>
@@ -5959,7 +6196,7 @@
       <c r="G707" s="8"/>
     </row>
     <row r="708">
-      <c r="B708" s="13"/>
+      <c r="B708" s="15"/>
       <c r="C708" s="8"/>
       <c r="D708" s="11"/>
       <c r="E708" s="8"/>
@@ -5967,7 +6204,7 @@
       <c r="G708" s="8"/>
     </row>
     <row r="709">
-      <c r="B709" s="13"/>
+      <c r="B709" s="15"/>
       <c r="C709" s="8"/>
       <c r="D709" s="11"/>
       <c r="E709" s="8"/>
@@ -5975,7 +6212,7 @@
       <c r="G709" s="8"/>
     </row>
     <row r="710">
-      <c r="B710" s="13"/>
+      <c r="B710" s="15"/>
       <c r="C710" s="8"/>
       <c r="D710" s="11"/>
       <c r="E710" s="8"/>
@@ -5983,7 +6220,7 @@
       <c r="G710" s="8"/>
     </row>
     <row r="711">
-      <c r="B711" s="13"/>
+      <c r="B711" s="15"/>
       <c r="C711" s="8"/>
       <c r="D711" s="11"/>
       <c r="E711" s="8"/>
@@ -5991,7 +6228,7 @@
       <c r="G711" s="8"/>
     </row>
     <row r="712">
-      <c r="B712" s="13"/>
+      <c r="B712" s="15"/>
       <c r="C712" s="8"/>
       <c r="D712" s="11"/>
       <c r="E712" s="8"/>
@@ -5999,7 +6236,7 @@
       <c r="G712" s="8"/>
     </row>
     <row r="713">
-      <c r="B713" s="13"/>
+      <c r="B713" s="15"/>
       <c r="C713" s="8"/>
       <c r="D713" s="11"/>
       <c r="E713" s="8"/>
@@ -6007,7 +6244,7 @@
       <c r="G713" s="8"/>
     </row>
     <row r="714">
-      <c r="B714" s="13"/>
+      <c r="B714" s="15"/>
       <c r="C714" s="8"/>
       <c r="D714" s="11"/>
       <c r="E714" s="8"/>
@@ -6015,7 +6252,7 @@
       <c r="G714" s="8"/>
     </row>
     <row r="715">
-      <c r="B715" s="13"/>
+      <c r="B715" s="15"/>
       <c r="C715" s="8"/>
       <c r="D715" s="11"/>
       <c r="E715" s="8"/>
@@ -6023,7 +6260,7 @@
       <c r="G715" s="8"/>
     </row>
     <row r="716">
-      <c r="B716" s="13"/>
+      <c r="B716" s="15"/>
       <c r="C716" s="8"/>
       <c r="D716" s="11"/>
       <c r="E716" s="8"/>
@@ -6031,7 +6268,7 @@
       <c r="G716" s="8"/>
     </row>
     <row r="717">
-      <c r="B717" s="13"/>
+      <c r="B717" s="15"/>
       <c r="C717" s="8"/>
       <c r="D717" s="11"/>
       <c r="E717" s="8"/>
@@ -6039,7 +6276,7 @@
       <c r="G717" s="8"/>
     </row>
     <row r="718">
-      <c r="B718" s="13"/>
+      <c r="B718" s="15"/>
       <c r="C718" s="8"/>
       <c r="D718" s="11"/>
       <c r="E718" s="8"/>
@@ -6047,7 +6284,7 @@
       <c r="G718" s="8"/>
     </row>
     <row r="719">
-      <c r="B719" s="13"/>
+      <c r="B719" s="15"/>
       <c r="C719" s="8"/>
       <c r="D719" s="11"/>
       <c r="E719" s="8"/>
@@ -6055,7 +6292,7 @@
       <c r="G719" s="8"/>
     </row>
     <row r="720">
-      <c r="B720" s="13"/>
+      <c r="B720" s="15"/>
       <c r="C720" s="8"/>
       <c r="D720" s="11"/>
       <c r="E720" s="8"/>
@@ -6063,7 +6300,7 @@
       <c r="G720" s="8"/>
     </row>
     <row r="721">
-      <c r="B721" s="13"/>
+      <c r="B721" s="15"/>
       <c r="C721" s="8"/>
       <c r="D721" s="11"/>
       <c r="E721" s="8"/>
@@ -6071,7 +6308,7 @@
       <c r="G721" s="8"/>
     </row>
     <row r="722">
-      <c r="B722" s="13"/>
+      <c r="B722" s="15"/>
       <c r="C722" s="8"/>
       <c r="D722" s="11"/>
       <c r="E722" s="8"/>
@@ -6079,7 +6316,7 @@
       <c r="G722" s="8"/>
     </row>
     <row r="723">
-      <c r="B723" s="13"/>
+      <c r="B723" s="15"/>
       <c r="C723" s="8"/>
       <c r="D723" s="11"/>
       <c r="E723" s="8"/>
@@ -6087,7 +6324,7 @@
       <c r="G723" s="8"/>
     </row>
     <row r="724">
-      <c r="B724" s="13"/>
+      <c r="B724" s="15"/>
       <c r="C724" s="8"/>
       <c r="D724" s="11"/>
       <c r="E724" s="8"/>
@@ -6095,7 +6332,7 @@
       <c r="G724" s="8"/>
     </row>
     <row r="725">
-      <c r="B725" s="13"/>
+      <c r="B725" s="15"/>
       <c r="C725" s="8"/>
       <c r="D725" s="11"/>
       <c r="E725" s="8"/>
@@ -6103,7 +6340,7 @@
       <c r="G725" s="8"/>
     </row>
     <row r="726">
-      <c r="B726" s="13"/>
+      <c r="B726" s="15"/>
       <c r="C726" s="8"/>
       <c r="D726" s="11"/>
       <c r="E726" s="8"/>
@@ -6111,7 +6348,7 @@
       <c r="G726" s="8"/>
     </row>
     <row r="727">
-      <c r="B727" s="13"/>
+      <c r="B727" s="15"/>
       <c r="C727" s="8"/>
       <c r="D727" s="11"/>
       <c r="E727" s="8"/>
@@ -6119,7 +6356,7 @@
       <c r="G727" s="8"/>
     </row>
     <row r="728">
-      <c r="B728" s="13"/>
+      <c r="B728" s="15"/>
       <c r="C728" s="8"/>
       <c r="D728" s="11"/>
       <c r="E728" s="8"/>
@@ -6127,7 +6364,7 @@
       <c r="G728" s="8"/>
     </row>
     <row r="729">
-      <c r="B729" s="13"/>
+      <c r="B729" s="15"/>
       <c r="C729" s="8"/>
       <c r="D729" s="11"/>
       <c r="E729" s="8"/>
@@ -6135,7 +6372,7 @@
       <c r="G729" s="8"/>
     </row>
     <row r="730">
-      <c r="B730" s="13"/>
+      <c r="B730" s="15"/>
       <c r="C730" s="8"/>
       <c r="D730" s="11"/>
       <c r="E730" s="8"/>
@@ -6143,7 +6380,7 @@
       <c r="G730" s="8"/>
     </row>
     <row r="731">
-      <c r="B731" s="13"/>
+      <c r="B731" s="15"/>
       <c r="C731" s="8"/>
       <c r="D731" s="11"/>
       <c r="E731" s="8"/>
@@ -6151,7 +6388,7 @@
       <c r="G731" s="8"/>
     </row>
     <row r="732">
-      <c r="B732" s="13"/>
+      <c r="B732" s="15"/>
       <c r="C732" s="8"/>
       <c r="D732" s="11"/>
       <c r="E732" s="8"/>
@@ -6159,7 +6396,7 @@
       <c r="G732" s="8"/>
     </row>
     <row r="733">
-      <c r="B733" s="13"/>
+      <c r="B733" s="15"/>
       <c r="C733" s="8"/>
       <c r="D733" s="11"/>
       <c r="E733" s="8"/>
@@ -6167,7 +6404,7 @@
       <c r="G733" s="8"/>
     </row>
     <row r="734">
-      <c r="B734" s="13"/>
+      <c r="B734" s="15"/>
       <c r="C734" s="8"/>
       <c r="D734" s="11"/>
       <c r="E734" s="8"/>
@@ -6175,7 +6412,7 @@
       <c r="G734" s="8"/>
     </row>
     <row r="735">
-      <c r="B735" s="13"/>
+      <c r="B735" s="15"/>
       <c r="C735" s="8"/>
       <c r="D735" s="11"/>
       <c r="E735" s="8"/>
@@ -6183,7 +6420,7 @@
       <c r="G735" s="8"/>
     </row>
     <row r="736">
-      <c r="B736" s="13"/>
+      <c r="B736" s="15"/>
       <c r="C736" s="8"/>
       <c r="D736" s="11"/>
       <c r="E736" s="8"/>
@@ -6191,7 +6428,7 @@
       <c r="G736" s="8"/>
     </row>
     <row r="737">
-      <c r="B737" s="13"/>
+      <c r="B737" s="15"/>
       <c r="C737" s="8"/>
       <c r="D737" s="11"/>
       <c r="E737" s="8"/>
@@ -6199,7 +6436,7 @@
       <c r="G737" s="8"/>
     </row>
     <row r="738">
-      <c r="B738" s="13"/>
+      <c r="B738" s="15"/>
       <c r="C738" s="8"/>
       <c r="D738" s="11"/>
       <c r="E738" s="8"/>
@@ -6207,7 +6444,7 @@
       <c r="G738" s="8"/>
     </row>
     <row r="739">
-      <c r="B739" s="13"/>
+      <c r="B739" s="15"/>
       <c r="C739" s="8"/>
       <c r="D739" s="11"/>
       <c r="E739" s="8"/>
@@ -6215,7 +6452,7 @@
       <c r="G739" s="8"/>
     </row>
     <row r="740">
-      <c r="B740" s="13"/>
+      <c r="B740" s="15"/>
       <c r="C740" s="8"/>
       <c r="D740" s="11"/>
       <c r="E740" s="8"/>
@@ -6223,7 +6460,7 @@
       <c r="G740" s="8"/>
     </row>
     <row r="741">
-      <c r="B741" s="13"/>
+      <c r="B741" s="15"/>
       <c r="C741" s="8"/>
       <c r="D741" s="11"/>
       <c r="E741" s="8"/>
@@ -6231,7 +6468,7 @@
       <c r="G741" s="8"/>
     </row>
     <row r="742">
-      <c r="B742" s="13"/>
+      <c r="B742" s="15"/>
       <c r="C742" s="8"/>
       <c r="D742" s="11"/>
       <c r="E742" s="8"/>
@@ -6239,7 +6476,7 @@
       <c r="G742" s="8"/>
     </row>
     <row r="743">
-      <c r="B743" s="13"/>
+      <c r="B743" s="15"/>
       <c r="C743" s="8"/>
       <c r="D743" s="11"/>
       <c r="E743" s="8"/>
@@ -6247,7 +6484,7 @@
       <c r="G743" s="8"/>
     </row>
     <row r="744">
-      <c r="B744" s="13"/>
+      <c r="B744" s="15"/>
       <c r="C744" s="8"/>
       <c r="D744" s="11"/>
       <c r="E744" s="8"/>
@@ -6255,7 +6492,7 @@
       <c r="G744" s="8"/>
     </row>
     <row r="745">
-      <c r="B745" s="13"/>
+      <c r="B745" s="15"/>
       <c r="C745" s="8"/>
       <c r="D745" s="11"/>
       <c r="E745" s="8"/>
@@ -6263,7 +6500,7 @@
       <c r="G745" s="8"/>
     </row>
     <row r="746">
-      <c r="B746" s="13"/>
+      <c r="B746" s="15"/>
       <c r="C746" s="8"/>
       <c r="D746" s="11"/>
       <c r="E746" s="8"/>
@@ -6271,7 +6508,7 @@
       <c r="G746" s="8"/>
     </row>
     <row r="747">
-      <c r="B747" s="13"/>
+      <c r="B747" s="15"/>
       <c r="C747" s="8"/>
       <c r="D747" s="11"/>
       <c r="E747" s="8"/>
@@ -6279,7 +6516,7 @@
       <c r="G747" s="8"/>
     </row>
     <row r="748">
-      <c r="B748" s="13"/>
+      <c r="B748" s="15"/>
       <c r="C748" s="8"/>
       <c r="D748" s="11"/>
       <c r="E748" s="8"/>
@@ -6287,7 +6524,7 @@
       <c r="G748" s="8"/>
     </row>
     <row r="749">
-      <c r="B749" s="13"/>
+      <c r="B749" s="15"/>
       <c r="C749" s="8"/>
       <c r="D749" s="11"/>
       <c r="E749" s="8"/>
@@ -6295,7 +6532,7 @@
       <c r="G749" s="8"/>
     </row>
     <row r="750">
-      <c r="B750" s="13"/>
+      <c r="B750" s="15"/>
       <c r="C750" s="8"/>
       <c r="D750" s="11"/>
       <c r="E750" s="8"/>
@@ -6303,7 +6540,7 @@
       <c r="G750" s="8"/>
     </row>
     <row r="751">
-      <c r="B751" s="13"/>
+      <c r="B751" s="15"/>
       <c r="C751" s="8"/>
       <c r="D751" s="11"/>
       <c r="E751" s="8"/>
@@ -6311,7 +6548,7 @@
       <c r="G751" s="8"/>
     </row>
     <row r="752">
-      <c r="B752" s="13"/>
+      <c r="B752" s="15"/>
       <c r="C752" s="8"/>
       <c r="D752" s="11"/>
       <c r="E752" s="8"/>
@@ -6319,7 +6556,7 @@
       <c r="G752" s="8"/>
     </row>
     <row r="753">
-      <c r="B753" s="13"/>
+      <c r="B753" s="15"/>
       <c r="C753" s="8"/>
       <c r="D753" s="11"/>
       <c r="E753" s="8"/>
@@ -6327,7 +6564,7 @@
       <c r="G753" s="8"/>
     </row>
     <row r="754">
-      <c r="B754" s="13"/>
+      <c r="B754" s="15"/>
       <c r="C754" s="8"/>
       <c r="D754" s="11"/>
       <c r="E754" s="8"/>
@@ -6335,7 +6572,7 @@
       <c r="G754" s="8"/>
     </row>
     <row r="755">
-      <c r="B755" s="13"/>
+      <c r="B755" s="15"/>
       <c r="C755" s="8"/>
       <c r="D755" s="11"/>
       <c r="E755" s="8"/>
@@ -6343,7 +6580,7 @@
       <c r="G755" s="8"/>
     </row>
     <row r="756">
-      <c r="B756" s="13"/>
+      <c r="B756" s="15"/>
       <c r="C756" s="8"/>
       <c r="D756" s="11"/>
       <c r="E756" s="8"/>
@@ -6351,7 +6588,7 @@
       <c r="G756" s="8"/>
     </row>
     <row r="757">
-      <c r="B757" s="13"/>
+      <c r="B757" s="15"/>
       <c r="C757" s="8"/>
       <c r="D757" s="11"/>
       <c r="E757" s="8"/>
@@ -6359,7 +6596,7 @@
       <c r="G757" s="8"/>
     </row>
     <row r="758">
-      <c r="B758" s="13"/>
+      <c r="B758" s="15"/>
       <c r="C758" s="8"/>
       <c r="D758" s="11"/>
       <c r="E758" s="8"/>
@@ -6367,7 +6604,7 @@
       <c r="G758" s="8"/>
     </row>
     <row r="759">
-      <c r="B759" s="13"/>
+      <c r="B759" s="15"/>
       <c r="C759" s="8"/>
       <c r="D759" s="11"/>
       <c r="E759" s="8"/>
@@ -6375,7 +6612,7 @@
       <c r="G759" s="8"/>
     </row>
     <row r="760">
-      <c r="B760" s="13"/>
+      <c r="B760" s="15"/>
       <c r="C760" s="8"/>
       <c r="D760" s="11"/>
       <c r="E760" s="8"/>
@@ -6383,7 +6620,7 @@
       <c r="G760" s="8"/>
     </row>
     <row r="761">
-      <c r="B761" s="13"/>
+      <c r="B761" s="15"/>
       <c r="C761" s="8"/>
       <c r="D761" s="11"/>
       <c r="E761" s="8"/>
@@ -6391,7 +6628,7 @@
       <c r="G761" s="8"/>
     </row>
     <row r="762">
-      <c r="B762" s="13"/>
+      <c r="B762" s="15"/>
       <c r="C762" s="8"/>
       <c r="D762" s="11"/>
       <c r="E762" s="8"/>
@@ -6399,7 +6636,7 @@
       <c r="G762" s="8"/>
     </row>
     <row r="763">
-      <c r="B763" s="13"/>
+      <c r="B763" s="15"/>
       <c r="C763" s="8"/>
       <c r="D763" s="11"/>
       <c r="E763" s="8"/>
@@ -6407,7 +6644,7 @@
       <c r="G763" s="8"/>
     </row>
     <row r="764">
-      <c r="B764" s="13"/>
+      <c r="B764" s="15"/>
       <c r="C764" s="8"/>
       <c r="D764" s="11"/>
       <c r="E764" s="8"/>
@@ -6415,7 +6652,7 @@
       <c r="G764" s="8"/>
     </row>
     <row r="765">
-      <c r="B765" s="13"/>
+      <c r="B765" s="15"/>
       <c r="C765" s="8"/>
       <c r="D765" s="11"/>
       <c r="E765" s="8"/>
@@ -6423,7 +6660,7 @@
       <c r="G765" s="8"/>
     </row>
     <row r="766">
-      <c r="B766" s="13"/>
+      <c r="B766" s="15"/>
       <c r="C766" s="8"/>
       <c r="D766" s="11"/>
       <c r="E766" s="8"/>
@@ -6431,7 +6668,7 @@
       <c r="G766" s="8"/>
     </row>
     <row r="767">
-      <c r="B767" s="13"/>
+      <c r="B767" s="15"/>
       <c r="C767" s="8"/>
       <c r="D767" s="11"/>
       <c r="E767" s="8"/>
@@ -6439,7 +6676,7 @@
       <c r="G767" s="8"/>
     </row>
     <row r="768">
-      <c r="B768" s="13"/>
+      <c r="B768" s="15"/>
       <c r="C768" s="8"/>
       <c r="D768" s="11"/>
       <c r="E768" s="8"/>
@@ -6447,7 +6684,7 @@
       <c r="G768" s="8"/>
     </row>
     <row r="769">
-      <c r="B769" s="13"/>
+      <c r="B769" s="15"/>
       <c r="C769" s="8"/>
       <c r="D769" s="11"/>
       <c r="E769" s="8"/>
@@ -6455,7 +6692,7 @@
       <c r="G769" s="8"/>
     </row>
     <row r="770">
-      <c r="B770" s="13"/>
+      <c r="B770" s="15"/>
       <c r="C770" s="8"/>
       <c r="D770" s="11"/>
       <c r="E770" s="8"/>
@@ -6463,7 +6700,7 @@
       <c r="G770" s="8"/>
     </row>
     <row r="771">
-      <c r="B771" s="13"/>
+      <c r="B771" s="15"/>
       <c r="C771" s="8"/>
       <c r="D771" s="11"/>
       <c r="E771" s="8"/>
@@ -6471,7 +6708,7 @@
       <c r="G771" s="8"/>
     </row>
     <row r="772">
-      <c r="B772" s="13"/>
+      <c r="B772" s="15"/>
       <c r="C772" s="8"/>
       <c r="D772" s="11"/>
       <c r="E772" s="8"/>
@@ -6479,7 +6716,7 @@
       <c r="G772" s="8"/>
     </row>
     <row r="773">
-      <c r="B773" s="13"/>
+      <c r="B773" s="15"/>
       <c r="C773" s="8"/>
       <c r="D773" s="11"/>
       <c r="E773" s="8"/>
@@ -6487,7 +6724,7 @@
       <c r="G773" s="8"/>
     </row>
     <row r="774">
-      <c r="B774" s="13"/>
+      <c r="B774" s="15"/>
       <c r="C774" s="8"/>
       <c r="D774" s="11"/>
       <c r="E774" s="8"/>
@@ -6495,7 +6732,7 @@
       <c r="G774" s="8"/>
     </row>
     <row r="775">
-      <c r="B775" s="13"/>
+      <c r="B775" s="15"/>
       <c r="C775" s="8"/>
       <c r="D775" s="11"/>
       <c r="E775" s="8"/>
@@ -6503,7 +6740,7 @@
       <c r="G775" s="8"/>
     </row>
     <row r="776">
-      <c r="B776" s="13"/>
+      <c r="B776" s="15"/>
       <c r="C776" s="8"/>
       <c r="D776" s="11"/>
       <c r="E776" s="8"/>
@@ -6511,7 +6748,7 @@
       <c r="G776" s="8"/>
     </row>
     <row r="777">
-      <c r="B777" s="13"/>
+      <c r="B777" s="15"/>
       <c r="C777" s="8"/>
       <c r="D777" s="11"/>
       <c r="E777" s="8"/>
@@ -6519,7 +6756,7 @@
       <c r="G777" s="8"/>
     </row>
     <row r="778">
-      <c r="B778" s="13"/>
+      <c r="B778" s="15"/>
       <c r="C778" s="8"/>
       <c r="D778" s="11"/>
       <c r="E778" s="8"/>
@@ -6527,7 +6764,7 @@
       <c r="G778" s="8"/>
     </row>
     <row r="779">
-      <c r="B779" s="13"/>
+      <c r="B779" s="15"/>
       <c r="C779" s="8"/>
       <c r="D779" s="11"/>
       <c r="E779" s="8"/>
@@ -6535,7 +6772,7 @@
       <c r="G779" s="8"/>
     </row>
     <row r="780">
-      <c r="B780" s="13"/>
+      <c r="B780" s="15"/>
       <c r="C780" s="8"/>
       <c r="D780" s="11"/>
       <c r="E780" s="8"/>
@@ -6543,7 +6780,7 @@
       <c r="G780" s="8"/>
     </row>
     <row r="781">
-      <c r="B781" s="13"/>
+      <c r="B781" s="15"/>
       <c r="C781" s="8"/>
       <c r="D781" s="11"/>
       <c r="E781" s="8"/>
@@ -6551,7 +6788,7 @@
       <c r="G781" s="8"/>
     </row>
     <row r="782">
-      <c r="B782" s="13"/>
+      <c r="B782" s="15"/>
       <c r="C782" s="8"/>
       <c r="D782" s="11"/>
       <c r="E782" s="8"/>
@@ -6559,7 +6796,7 @@
       <c r="G782" s="8"/>
     </row>
     <row r="783">
-      <c r="B783" s="13"/>
+      <c r="B783" s="15"/>
       <c r="C783" s="8"/>
       <c r="D783" s="11"/>
       <c r="E783" s="8"/>
@@ -6567,7 +6804,7 @@
       <c r="G783" s="8"/>
     </row>
     <row r="784">
-      <c r="B784" s="13"/>
+      <c r="B784" s="15"/>
       <c r="C784" s="8"/>
       <c r="D784" s="11"/>
       <c r="E784" s="8"/>
@@ -6575,7 +6812,7 @@
       <c r="G784" s="8"/>
     </row>
     <row r="785">
-      <c r="B785" s="13"/>
+      <c r="B785" s="15"/>
       <c r="C785" s="8"/>
       <c r="D785" s="11"/>
       <c r="E785" s="8"/>
@@ -6583,7 +6820,7 @@
       <c r="G785" s="8"/>
     </row>
     <row r="786">
-      <c r="B786" s="13"/>
+      <c r="B786" s="15"/>
       <c r="C786" s="8"/>
       <c r="D786" s="11"/>
       <c r="E786" s="8"/>
@@ -6591,7 +6828,7 @@
       <c r="G786" s="8"/>
     </row>
     <row r="787">
-      <c r="B787" s="13"/>
+      <c r="B787" s="15"/>
       <c r="C787" s="8"/>
       <c r="D787" s="11"/>
       <c r="E787" s="8"/>
@@ -6599,7 +6836,7 @@
       <c r="G787" s="8"/>
     </row>
     <row r="788">
-      <c r="B788" s="13"/>
+      <c r="B788" s="15"/>
       <c r="C788" s="8"/>
       <c r="D788" s="11"/>
       <c r="E788" s="8"/>
@@ -6607,7 +6844,7 @@
       <c r="G788" s="8"/>
     </row>
     <row r="789">
-      <c r="B789" s="13"/>
+      <c r="B789" s="15"/>
       <c r="C789" s="8"/>
       <c r="D789" s="11"/>
       <c r="E789" s="8"/>
@@ -6615,7 +6852,7 @@
       <c r="G789" s="8"/>
     </row>
     <row r="790">
-      <c r="B790" s="13"/>
+      <c r="B790" s="15"/>
       <c r="C790" s="8"/>
       <c r="D790" s="11"/>
       <c r="E790" s="8"/>
@@ -6623,7 +6860,7 @@
       <c r="G790" s="8"/>
     </row>
     <row r="791">
-      <c r="B791" s="13"/>
+      <c r="B791" s="15"/>
       <c r="C791" s="8"/>
       <c r="D791" s="11"/>
       <c r="E791" s="8"/>
@@ -6631,7 +6868,7 @@
       <c r="G791" s="8"/>
     </row>
     <row r="792">
-      <c r="B792" s="13"/>
+      <c r="B792" s="15"/>
       <c r="C792" s="8"/>
       <c r="D792" s="11"/>
       <c r="E792" s="8"/>
@@ -6639,7 +6876,7 @@
       <c r="G792" s="8"/>
     </row>
     <row r="793">
-      <c r="B793" s="13"/>
+      <c r="B793" s="15"/>
       <c r="C793" s="8"/>
       <c r="D793" s="11"/>
       <c r="E793" s="8"/>
@@ -6647,7 +6884,7 @@
       <c r="G793" s="8"/>
     </row>
     <row r="794">
-      <c r="B794" s="13"/>
+      <c r="B794" s="15"/>
       <c r="C794" s="8"/>
       <c r="D794" s="11"/>
       <c r="E794" s="8"/>
@@ -6655,7 +6892,7 @@
       <c r="G794" s="8"/>
     </row>
     <row r="795">
-      <c r="B795" s="13"/>
+      <c r="B795" s="15"/>
       <c r="C795" s="8"/>
       <c r="D795" s="11"/>
       <c r="E795" s="8"/>
@@ -6663,7 +6900,7 @@
       <c r="G795" s="8"/>
     </row>
     <row r="796">
-      <c r="B796" s="13"/>
+      <c r="B796" s="15"/>
       <c r="C796" s="8"/>
       <c r="D796" s="11"/>
       <c r="E796" s="8"/>
@@ -6671,7 +6908,7 @@
       <c r="G796" s="8"/>
     </row>
     <row r="797">
-      <c r="B797" s="13"/>
+      <c r="B797" s="15"/>
       <c r="C797" s="8"/>
       <c r="D797" s="11"/>
       <c r="E797" s="8"/>
@@ -6679,7 +6916,7 @@
       <c r="G797" s="8"/>
     </row>
     <row r="798">
-      <c r="B798" s="13"/>
+      <c r="B798" s="15"/>
       <c r="C798" s="8"/>
       <c r="D798" s="11"/>
       <c r="E798" s="8"/>
@@ -6687,7 +6924,7 @@
       <c r="G798" s="8"/>
     </row>
     <row r="799">
-      <c r="B799" s="13"/>
+      <c r="B799" s="15"/>
       <c r="C799" s="8"/>
       <c r="D799" s="11"/>
       <c r="E799" s="8"/>
@@ -6695,7 +6932,7 @@
       <c r="G799" s="8"/>
     </row>
     <row r="800">
-      <c r="B800" s="13"/>
+      <c r="B800" s="15"/>
       <c r="C800" s="8"/>
       <c r="D800" s="11"/>
       <c r="E800" s="8"/>
@@ -6703,7 +6940,7 @@
       <c r="G800" s="8"/>
     </row>
     <row r="801">
-      <c r="B801" s="13"/>
+      <c r="B801" s="15"/>
       <c r="C801" s="8"/>
       <c r="D801" s="11"/>
       <c r="E801" s="8"/>
@@ -6711,7 +6948,7 @@
       <c r="G801" s="8"/>
     </row>
     <row r="802">
-      <c r="B802" s="13"/>
+      <c r="B802" s="15"/>
       <c r="C802" s="8"/>
       <c r="D802" s="11"/>
       <c r="E802" s="8"/>
@@ -6719,7 +6956,7 @@
       <c r="G802" s="8"/>
     </row>
     <row r="803">
-      <c r="B803" s="13"/>
+      <c r="B803" s="15"/>
       <c r="C803" s="8"/>
       <c r="D803" s="11"/>
       <c r="E803" s="8"/>
@@ -6727,7 +6964,7 @@
       <c r="G803" s="8"/>
     </row>
     <row r="804">
-      <c r="B804" s="13"/>
+      <c r="B804" s="15"/>
       <c r="C804" s="8"/>
       <c r="D804" s="11"/>
       <c r="E804" s="8"/>
@@ -6735,7 +6972,7 @@
       <c r="G804" s="8"/>
     </row>
     <row r="805">
-      <c r="B805" s="13"/>
+      <c r="B805" s="15"/>
       <c r="C805" s="8"/>
       <c r="D805" s="11"/>
       <c r="E805" s="8"/>
@@ -6743,7 +6980,7 @@
       <c r="G805" s="8"/>
     </row>
     <row r="806">
-      <c r="B806" s="13"/>
+      <c r="B806" s="15"/>
       <c r="C806" s="8"/>
       <c r="D806" s="11"/>
       <c r="E806" s="8"/>
@@ -6751,7 +6988,7 @@
       <c r="G806" s="8"/>
     </row>
     <row r="807">
-      <c r="B807" s="13"/>
+      <c r="B807" s="15"/>
       <c r="C807" s="8"/>
       <c r="D807" s="11"/>
       <c r="E807" s="8"/>
@@ -6759,7 +6996,7 @@
       <c r="G807" s="8"/>
     </row>
     <row r="808">
-      <c r="B808" s="13"/>
+      <c r="B808" s="15"/>
       <c r="C808" s="8"/>
       <c r="D808" s="11"/>
       <c r="E808" s="8"/>
@@ -6767,7 +7004,7 @@
       <c r="G808" s="8"/>
     </row>
     <row r="809">
-      <c r="B809" s="13"/>
+      <c r="B809" s="15"/>
       <c r="C809" s="8"/>
       <c r="D809" s="11"/>
       <c r="E809" s="8"/>
@@ -6775,7 +7012,7 @@
       <c r="G809" s="8"/>
     </row>
     <row r="810">
-      <c r="B810" s="13"/>
+      <c r="B810" s="15"/>
       <c r="C810" s="8"/>
       <c r="D810" s="11"/>
       <c r="E810" s="8"/>
@@ -6783,7 +7020,7 @@
       <c r="G810" s="8"/>
     </row>
     <row r="811">
-      <c r="B811" s="13"/>
+      <c r="B811" s="15"/>
       <c r="C811" s="8"/>
       <c r="D811" s="11"/>
       <c r="E811" s="8"/>
@@ -6791,7 +7028,7 @@
       <c r="G811" s="8"/>
     </row>
     <row r="812">
-      <c r="B812" s="13"/>
+      <c r="B812" s="15"/>
       <c r="C812" s="8"/>
       <c r="D812" s="11"/>
       <c r="E812" s="8"/>
@@ -6799,7 +7036,7 @@
       <c r="G812" s="8"/>
     </row>
     <row r="813">
-      <c r="B813" s="13"/>
+      <c r="B813" s="15"/>
       <c r="C813" s="8"/>
       <c r="D813" s="11"/>
       <c r="E813" s="8"/>
@@ -6807,7 +7044,7 @@
       <c r="G813" s="8"/>
     </row>
     <row r="814">
-      <c r="B814" s="13"/>
+      <c r="B814" s="15"/>
       <c r="C814" s="8"/>
       <c r="D814" s="11"/>
       <c r="E814" s="8"/>
@@ -6815,7 +7052,7 @@
       <c r="G814" s="8"/>
     </row>
     <row r="815">
-      <c r="B815" s="13"/>
+      <c r="B815" s="15"/>
       <c r="C815" s="8"/>
       <c r="D815" s="11"/>
       <c r="E815" s="8"/>
@@ -6823,7 +7060,7 @@
       <c r="G815" s="8"/>
     </row>
     <row r="816">
-      <c r="B816" s="13"/>
+      <c r="B816" s="15"/>
       <c r="C816" s="8"/>
       <c r="D816" s="11"/>
       <c r="E816" s="8"/>
@@ -6831,7 +7068,7 @@
       <c r="G816" s="8"/>
     </row>
     <row r="817">
-      <c r="B817" s="13"/>
+      <c r="B817" s="15"/>
       <c r="C817" s="8"/>
       <c r="D817" s="11"/>
       <c r="E817" s="8"/>
@@ -6839,7 +7076,7 @@
       <c r="G817" s="8"/>
     </row>
     <row r="818">
-      <c r="B818" s="13"/>
+      <c r="B818" s="15"/>
       <c r="C818" s="8"/>
       <c r="D818" s="11"/>
       <c r="E818" s="8"/>
@@ -6847,7 +7084,7 @@
       <c r="G818" s="8"/>
     </row>
     <row r="819">
-      <c r="B819" s="13"/>
+      <c r="B819" s="15"/>
       <c r="C819" s="8"/>
       <c r="D819" s="11"/>
       <c r="E819" s="8"/>
@@ -6855,7 +7092,7 @@
       <c r="G819" s="8"/>
     </row>
     <row r="820">
-      <c r="B820" s="13"/>
+      <c r="B820" s="15"/>
       <c r="C820" s="8"/>
       <c r="D820" s="11"/>
       <c r="E820" s="8"/>
@@ -6863,7 +7100,7 @@
       <c r="G820" s="8"/>
     </row>
     <row r="821">
-      <c r="B821" s="13"/>
+      <c r="B821" s="15"/>
       <c r="C821" s="8"/>
       <c r="D821" s="11"/>
       <c r="E821" s="8"/>
@@ -6871,7 +7108,7 @@
       <c r="G821" s="8"/>
     </row>
     <row r="822">
-      <c r="B822" s="13"/>
+      <c r="B822" s="15"/>
       <c r="C822" s="8"/>
       <c r="D822" s="11"/>
       <c r="E822" s="8"/>
@@ -6879,7 +7116,7 @@
       <c r="G822" s="8"/>
     </row>
     <row r="823">
-      <c r="B823" s="13"/>
+      <c r="B823" s="15"/>
       <c r="C823" s="8"/>
       <c r="D823" s="11"/>
       <c r="E823" s="8"/>
@@ -6887,7 +7124,7 @@
       <c r="G823" s="8"/>
     </row>
     <row r="824">
-      <c r="B824" s="13"/>
+      <c r="B824" s="15"/>
       <c r="C824" s="8"/>
       <c r="D824" s="11"/>
       <c r="E824" s="8"/>
@@ -6895,7 +7132,7 @@
       <c r="G824" s="8"/>
     </row>
     <row r="825">
-      <c r="B825" s="13"/>
+      <c r="B825" s="15"/>
       <c r="C825" s="8"/>
       <c r="D825" s="11"/>
       <c r="E825" s="8"/>
@@ -6903,7 +7140,7 @@
       <c r="G825" s="8"/>
     </row>
     <row r="826">
-      <c r="B826" s="13"/>
+      <c r="B826" s="15"/>
       <c r="C826" s="8"/>
       <c r="D826" s="11"/>
       <c r="E826" s="8"/>
@@ -6911,7 +7148,7 @@
       <c r="G826" s="8"/>
     </row>
     <row r="827">
-      <c r="B827" s="13"/>
+      <c r="B827" s="15"/>
       <c r="C827" s="8"/>
       <c r="D827" s="11"/>
       <c r="E827" s="8"/>
@@ -6919,7 +7156,7 @@
       <c r="G827" s="8"/>
     </row>
     <row r="828">
-      <c r="B828" s="13"/>
+      <c r="B828" s="15"/>
       <c r="C828" s="8"/>
       <c r="D828" s="11"/>
       <c r="E828" s="8"/>
@@ -6927,7 +7164,7 @@
       <c r="G828" s="8"/>
     </row>
     <row r="829">
-      <c r="B829" s="13"/>
+      <c r="B829" s="15"/>
       <c r="C829" s="8"/>
       <c r="D829" s="11"/>
       <c r="E829" s="8"/>
@@ -6935,7 +7172,7 @@
       <c r="G829" s="8"/>
     </row>
     <row r="830">
-      <c r="B830" s="13"/>
+      <c r="B830" s="15"/>
       <c r="C830" s="8"/>
       <c r="D830" s="11"/>
       <c r="E830" s="8"/>
@@ -6943,7 +7180,7 @@
       <c r="G830" s="8"/>
     </row>
     <row r="831">
-      <c r="B831" s="13"/>
+      <c r="B831" s="15"/>
       <c r="C831" s="8"/>
       <c r="D831" s="11"/>
       <c r="E831" s="8"/>
@@ -6951,7 +7188,7 @@
       <c r="G831" s="8"/>
     </row>
     <row r="832">
-      <c r="B832" s="13"/>
+      <c r="B832" s="15"/>
       <c r="C832" s="8"/>
       <c r="D832" s="11"/>
       <c r="E832" s="8"/>
@@ -6959,7 +7196,7 @@
       <c r="G832" s="8"/>
     </row>
     <row r="833">
-      <c r="B833" s="13"/>
+      <c r="B833" s="15"/>
       <c r="C833" s="8"/>
       <c r="D833" s="11"/>
       <c r="E833" s="8"/>
@@ -6967,7 +7204,7 @@
       <c r="G833" s="8"/>
     </row>
     <row r="834">
-      <c r="B834" s="13"/>
+      <c r="B834" s="15"/>
       <c r="C834" s="8"/>
       <c r="D834" s="11"/>
       <c r="E834" s="8"/>
@@ -6975,7 +7212,7 @@
       <c r="G834" s="8"/>
     </row>
     <row r="835">
-      <c r="B835" s="13"/>
+      <c r="B835" s="15"/>
       <c r="C835" s="8"/>
       <c r="D835" s="11"/>
       <c r="E835" s="8"/>
@@ -6983,7 +7220,7 @@
       <c r="G835" s="8"/>
     </row>
     <row r="836">
-      <c r="B836" s="13"/>
+      <c r="B836" s="15"/>
       <c r="C836" s="8"/>
       <c r="D836" s="11"/>
       <c r="E836" s="8"/>
@@ -6991,7 +7228,7 @@
       <c r="G836" s="8"/>
     </row>
     <row r="837">
-      <c r="B837" s="13"/>
+      <c r="B837" s="15"/>
       <c r="C837" s="8"/>
       <c r="D837" s="11"/>
       <c r="E837" s="8"/>
@@ -6999,7 +7236,7 @@
       <c r="G837" s="8"/>
     </row>
     <row r="838">
-      <c r="B838" s="13"/>
+      <c r="B838" s="15"/>
       <c r="C838" s="8"/>
       <c r="D838" s="11"/>
       <c r="E838" s="8"/>
@@ -7007,7 +7244,7 @@
       <c r="G838" s="8"/>
     </row>
     <row r="839">
-      <c r="B839" s="13"/>
+      <c r="B839" s="15"/>
       <c r="C839" s="8"/>
       <c r="D839" s="11"/>
       <c r="E839" s="8"/>
@@ -7015,7 +7252,7 @@
       <c r="G839" s="8"/>
     </row>
     <row r="840">
-      <c r="B840" s="13"/>
+      <c r="B840" s="15"/>
       <c r="C840" s="8"/>
       <c r="D840" s="11"/>
       <c r="E840" s="8"/>
@@ -7023,7 +7260,7 @@
       <c r="G840" s="8"/>
     </row>
     <row r="841">
-      <c r="B841" s="13"/>
+      <c r="B841" s="15"/>
       <c r="C841" s="8"/>
       <c r="D841" s="11"/>
       <c r="E841" s="8"/>
@@ -7031,7 +7268,7 @@
       <c r="G841" s="8"/>
     </row>
     <row r="842">
-      <c r="B842" s="13"/>
+      <c r="B842" s="15"/>
       <c r="C842" s="8"/>
       <c r="D842" s="11"/>
       <c r="E842" s="8"/>
@@ -7039,7 +7276,7 @@
       <c r="G842" s="8"/>
     </row>
     <row r="843">
-      <c r="B843" s="13"/>
+      <c r="B843" s="15"/>
       <c r="C843" s="8"/>
       <c r="D843" s="11"/>
       <c r="E843" s="8"/>
@@ -7047,7 +7284,7 @@
       <c r="G843" s="8"/>
     </row>
     <row r="844">
-      <c r="B844" s="13"/>
+      <c r="B844" s="15"/>
       <c r="C844" s="8"/>
       <c r="D844" s="11"/>
       <c r="E844" s="8"/>
@@ -7055,7 +7292,7 @@
       <c r="G844" s="8"/>
     </row>
     <row r="845">
-      <c r="B845" s="13"/>
+      <c r="B845" s="15"/>
       <c r="C845" s="8"/>
       <c r="D845" s="11"/>
       <c r="E845" s="8"/>
@@ -7063,7 +7300,7 @@
       <c r="G845" s="8"/>
     </row>
     <row r="846">
-      <c r="B846" s="13"/>
+      <c r="B846" s="15"/>
       <c r="C846" s="8"/>
       <c r="D846" s="11"/>
       <c r="E846" s="8"/>
@@ -7071,7 +7308,7 @@
       <c r="G846" s="8"/>
     </row>
     <row r="847">
-      <c r="B847" s="13"/>
+      <c r="B847" s="15"/>
       <c r="C847" s="8"/>
       <c r="D847" s="11"/>
       <c r="E847" s="8"/>
@@ -7079,7 +7316,7 @@
       <c r="G847" s="8"/>
     </row>
     <row r="848">
-      <c r="B848" s="13"/>
+      <c r="B848" s="15"/>
       <c r="C848" s="8"/>
       <c r="D848" s="11"/>
       <c r="E848" s="8"/>
@@ -7087,7 +7324,7 @@
       <c r="G848" s="8"/>
     </row>
     <row r="849">
-      <c r="B849" s="13"/>
+      <c r="B849" s="15"/>
       <c r="C849" s="8"/>
       <c r="D849" s="11"/>
       <c r="E849" s="8"/>
@@ -7095,7 +7332,7 @@
       <c r="G849" s="8"/>
     </row>
     <row r="850">
-      <c r="B850" s="13"/>
+      <c r="B850" s="15"/>
       <c r="C850" s="8"/>
       <c r="D850" s="11"/>
       <c r="E850" s="8"/>
@@ -7103,7 +7340,7 @@
       <c r="G850" s="8"/>
     </row>
     <row r="851">
-      <c r="B851" s="13"/>
+      <c r="B851" s="15"/>
       <c r="C851" s="8"/>
       <c r="D851" s="11"/>
       <c r="E851" s="8"/>
@@ -7111,7 +7348,7 @@
       <c r="G851" s="8"/>
     </row>
     <row r="852">
-      <c r="B852" s="13"/>
+      <c r="B852" s="15"/>
       <c r="C852" s="8"/>
       <c r="D852" s="11"/>
       <c r="E852" s="8"/>
@@ -7119,7 +7356,7 @@
       <c r="G852" s="8"/>
     </row>
     <row r="853">
-      <c r="B853" s="13"/>
+      <c r="B853" s="15"/>
       <c r="C853" s="8"/>
       <c r="D853" s="11"/>
       <c r="E853" s="8"/>
@@ -7127,7 +7364,7 @@
       <c r="G853" s="8"/>
     </row>
     <row r="854">
-      <c r="B854" s="13"/>
+      <c r="B854" s="15"/>
       <c r="C854" s="8"/>
       <c r="D854" s="11"/>
       <c r="E854" s="8"/>
@@ -7135,7 +7372,7 @@
       <c r="G854" s="8"/>
     </row>
     <row r="855">
-      <c r="B855" s="13"/>
+      <c r="B855" s="15"/>
       <c r="C855" s="8"/>
       <c r="D855" s="11"/>
       <c r="E855" s="8"/>
@@ -7143,7 +7380,7 @@
       <c r="G855" s="8"/>
     </row>
     <row r="856">
-      <c r="B856" s="13"/>
+      <c r="B856" s="15"/>
       <c r="C856" s="8"/>
       <c r="D856" s="11"/>
       <c r="E856" s="8"/>
@@ -7151,7 +7388,7 @@
       <c r="G856" s="8"/>
     </row>
     <row r="857">
-      <c r="B857" s="13"/>
+      <c r="B857" s="15"/>
       <c r="C857" s="8"/>
       <c r="D857" s="11"/>
       <c r="E857" s="8"/>
@@ -7159,7 +7396,7 @@
       <c r="G857" s="8"/>
     </row>
     <row r="858">
-      <c r="B858" s="13"/>
+      <c r="B858" s="15"/>
       <c r="C858" s="8"/>
       <c r="D858" s="11"/>
       <c r="E858" s="8"/>
@@ -7167,7 +7404,7 @@
       <c r="G858" s="8"/>
     </row>
     <row r="859">
-      <c r="B859" s="13"/>
+      <c r="B859" s="15"/>
       <c r="C859" s="8"/>
       <c r="D859" s="11"/>
       <c r="E859" s="8"/>
@@ -7175,7 +7412,7 @@
       <c r="G859" s="8"/>
     </row>
     <row r="860">
-      <c r="B860" s="13"/>
+      <c r="B860" s="15"/>
       <c r="C860" s="8"/>
       <c r="D860" s="11"/>
       <c r="E860" s="8"/>
@@ -7183,7 +7420,7 @@
       <c r="G860" s="8"/>
     </row>
     <row r="861">
-      <c r="B861" s="13"/>
+      <c r="B861" s="15"/>
       <c r="C861" s="8"/>
       <c r="D861" s="11"/>
       <c r="E861" s="8"/>
@@ -7191,7 +7428,7 @@
       <c r="G861" s="8"/>
     </row>
     <row r="862">
-      <c r="B862" s="13"/>
+      <c r="B862" s="15"/>
       <c r="C862" s="8"/>
       <c r="D862" s="11"/>
       <c r="E862" s="8"/>
@@ -7199,7 +7436,7 @@
       <c r="G862" s="8"/>
     </row>
     <row r="863">
-      <c r="B863" s="13"/>
+      <c r="B863" s="15"/>
       <c r="C863" s="8"/>
       <c r="D863" s="11"/>
       <c r="E863" s="8"/>
@@ -7207,7 +7444,7 @@
       <c r="G863" s="8"/>
     </row>
     <row r="864">
-      <c r="B864" s="13"/>
+      <c r="B864" s="15"/>
       <c r="C864" s="8"/>
       <c r="D864" s="11"/>
       <c r="E864" s="8"/>
@@ -7215,7 +7452,7 @@
       <c r="G864" s="8"/>
     </row>
     <row r="865">
-      <c r="B865" s="13"/>
+      <c r="B865" s="15"/>
       <c r="C865" s="8"/>
       <c r="D865" s="11"/>
       <c r="E865" s="8"/>
@@ -7223,7 +7460,7 @@
       <c r="G865" s="8"/>
     </row>
     <row r="866">
-      <c r="B866" s="13"/>
+      <c r="B866" s="15"/>
       <c r="C866" s="8"/>
       <c r="D866" s="11"/>
       <c r="E866" s="8"/>
@@ -7231,7 +7468,7 @@
       <c r="G866" s="8"/>
     </row>
     <row r="867">
-      <c r="B867" s="13"/>
+      <c r="B867" s="15"/>
       <c r="C867" s="8"/>
       <c r="D867" s="11"/>
       <c r="E867" s="8"/>
@@ -7239,7 +7476,7 @@
       <c r="G867" s="8"/>
     </row>
     <row r="868">
-      <c r="B868" s="13"/>
+      <c r="B868" s="15"/>
       <c r="C868" s="8"/>
       <c r="D868" s="11"/>
       <c r="E868" s="8"/>
@@ -7247,7 +7484,7 @@
       <c r="G868" s="8"/>
     </row>
     <row r="869">
-      <c r="B869" s="13"/>
+      <c r="B869" s="15"/>
       <c r="C869" s="8"/>
       <c r="D869" s="11"/>
       <c r="E869" s="8"/>
@@ -7255,7 +7492,7 @@
       <c r="G869" s="8"/>
     </row>
     <row r="870">
-      <c r="B870" s="13"/>
+      <c r="B870" s="15"/>
       <c r="C870" s="8"/>
       <c r="D870" s="11"/>
       <c r="E870" s="8"/>
@@ -7263,7 +7500,7 @@
       <c r="G870" s="8"/>
     </row>
     <row r="871">
-      <c r="B871" s="13"/>
+      <c r="B871" s="15"/>
       <c r="C871" s="8"/>
       <c r="D871" s="11"/>
       <c r="E871" s="8"/>
@@ -7271,7 +7508,7 @@
       <c r="G871" s="8"/>
     </row>
     <row r="872">
-      <c r="B872" s="13"/>
+      <c r="B872" s="15"/>
       <c r="C872" s="8"/>
       <c r="D872" s="11"/>
       <c r="E872" s="8"/>
@@ -7279,7 +7516,7 @@
       <c r="G872" s="8"/>
     </row>
     <row r="873">
-      <c r="B873" s="13"/>
+      <c r="B873" s="15"/>
       <c r="C873" s="8"/>
       <c r="D873" s="11"/>
       <c r="E873" s="8"/>
@@ -7287,7 +7524,7 @@
       <c r="G873" s="8"/>
     </row>
     <row r="874">
-      <c r="B874" s="13"/>
+      <c r="B874" s="15"/>
       <c r="C874" s="8"/>
       <c r="D874" s="11"/>
       <c r="E874" s="8"/>
@@ -7295,7 +7532,7 @@
       <c r="G874" s="8"/>
     </row>
     <row r="875">
-      <c r="B875" s="13"/>
+      <c r="B875" s="15"/>
       <c r="C875" s="8"/>
       <c r="D875" s="11"/>
       <c r="E875" s="8"/>
@@ -7303,7 +7540,7 @@
       <c r="G875" s="8"/>
     </row>
     <row r="876">
-      <c r="B876" s="13"/>
+      <c r="B876" s="15"/>
       <c r="C876" s="8"/>
       <c r="D876" s="11"/>
       <c r="E876" s="8"/>
@@ -7311,7 +7548,7 @@
       <c r="G876" s="8"/>
     </row>
     <row r="877">
-      <c r="B877" s="13"/>
+      <c r="B877" s="15"/>
       <c r="C877" s="8"/>
       <c r="D877" s="11"/>
       <c r="E877" s="8"/>
@@ -7319,7 +7556,7 @@
       <c r="G877" s="8"/>
     </row>
     <row r="878">
-      <c r="B878" s="13"/>
+      <c r="B878" s="15"/>
       <c r="C878" s="8"/>
       <c r="D878" s="11"/>
       <c r="E878" s="8"/>
@@ -7327,7 +7564,7 @@
       <c r="G878" s="8"/>
     </row>
     <row r="879">
-      <c r="B879" s="13"/>
+      <c r="B879" s="15"/>
       <c r="C879" s="8"/>
       <c r="D879" s="11"/>
       <c r="E879" s="8"/>
@@ -7335,7 +7572,7 @@
       <c r="G879" s="8"/>
     </row>
     <row r="880">
-      <c r="B880" s="13"/>
+      <c r="B880" s="15"/>
       <c r="C880" s="8"/>
       <c r="D880" s="11"/>
       <c r="E880" s="8"/>
@@ -7343,7 +7580,7 @@
       <c r="G880" s="8"/>
     </row>
     <row r="881">
-      <c r="B881" s="13"/>
+      <c r="B881" s="15"/>
       <c r="C881" s="8"/>
       <c r="D881" s="11"/>
       <c r="E881" s="8"/>
@@ -7351,7 +7588,7 @@
       <c r="G881" s="8"/>
     </row>
     <row r="882">
-      <c r="B882" s="13"/>
+      <c r="B882" s="15"/>
       <c r="C882" s="8"/>
       <c r="D882" s="11"/>
       <c r="E882" s="8"/>
@@ -7359,7 +7596,7 @@
       <c r="G882" s="8"/>
     </row>
     <row r="883">
-      <c r="B883" s="13"/>
+      <c r="B883" s="15"/>
       <c r="C883" s="8"/>
       <c r="D883" s="11"/>
       <c r="E883" s="8"/>
@@ -7367,7 +7604,7 @@
       <c r="G883" s="8"/>
     </row>
     <row r="884">
-      <c r="B884" s="13"/>
+      <c r="B884" s="15"/>
       <c r="C884" s="8"/>
       <c r="D884" s="11"/>
       <c r="E884" s="8"/>
@@ -7375,7 +7612,7 @@
       <c r="G884" s="8"/>
     </row>
     <row r="885">
-      <c r="B885" s="13"/>
+      <c r="B885" s="15"/>
       <c r="C885" s="8"/>
       <c r="D885" s="11"/>
       <c r="E885" s="8"/>
@@ -7383,7 +7620,7 @@
       <c r="G885" s="8"/>
     </row>
     <row r="886">
-      <c r="B886" s="13"/>
+      <c r="B886" s="15"/>
       <c r="C886" s="8"/>
       <c r="D886" s="11"/>
       <c r="E886" s="8"/>
@@ -7391,7 +7628,7 @@
       <c r="G886" s="8"/>
     </row>
     <row r="887">
-      <c r="B887" s="13"/>
+      <c r="B887" s="15"/>
       <c r="C887" s="8"/>
       <c r="D887" s="11"/>
       <c r="E887" s="8"/>
@@ -7399,7 +7636,7 @@
       <c r="G887" s="8"/>
     </row>
     <row r="888">
-      <c r="B888" s="13"/>
+      <c r="B888" s="15"/>
       <c r="C888" s="8"/>
       <c r="D888" s="11"/>
       <c r="E888" s="8"/>
@@ -7407,7 +7644,7 @@
       <c r="G888" s="8"/>
     </row>
     <row r="889">
-      <c r="B889" s="13"/>
+      <c r="B889" s="15"/>
       <c r="C889" s="8"/>
       <c r="D889" s="11"/>
       <c r="E889" s="8"/>
@@ -7415,7 +7652,7 @@
       <c r="G889" s="8"/>
     </row>
     <row r="890">
-      <c r="B890" s="13"/>
+      <c r="B890" s="15"/>
       <c r="C890" s="8"/>
       <c r="D890" s="11"/>
       <c r="E890" s="8"/>
@@ -7423,7 +7660,7 @@
       <c r="G890" s="8"/>
     </row>
     <row r="891">
-      <c r="B891" s="13"/>
+      <c r="B891" s="15"/>
       <c r="C891" s="8"/>
       <c r="D891" s="11"/>
       <c r="E891" s="8"/>
@@ -7431,7 +7668,7 @@
       <c r="G891" s="8"/>
     </row>
     <row r="892">
-      <c r="B892" s="13"/>
+      <c r="B892" s="15"/>
       <c r="C892" s="8"/>
       <c r="D892" s="11"/>
       <c r="E892" s="8"/>
@@ -7439,7 +7676,7 @@
       <c r="G892" s="8"/>
     </row>
     <row r="893">
-      <c r="B893" s="13"/>
+      <c r="B893" s="15"/>
       <c r="C893" s="8"/>
       <c r="D893" s="11"/>
       <c r="E893" s="8"/>
@@ -7447,7 +7684,7 @@
       <c r="G893" s="8"/>
     </row>
     <row r="894">
-      <c r="B894" s="13"/>
+      <c r="B894" s="15"/>
       <c r="C894" s="8"/>
       <c r="D894" s="11"/>
       <c r="E894" s="8"/>
@@ -7455,7 +7692,7 @@
       <c r="G894" s="8"/>
     </row>
     <row r="895">
-      <c r="B895" s="13"/>
+      <c r="B895" s="15"/>
       <c r="C895" s="8"/>
       <c r="D895" s="11"/>
       <c r="E895" s="8"/>
@@ -7463,7 +7700,7 @@
       <c r="G895" s="8"/>
     </row>
     <row r="896">
-      <c r="B896" s="13"/>
+      <c r="B896" s="15"/>
       <c r="C896" s="8"/>
       <c r="D896" s="11"/>
       <c r="E896" s="8"/>
@@ -7471,7 +7708,7 @@
       <c r="G896" s="8"/>
     </row>
     <row r="897">
-      <c r="B897" s="13"/>
+      <c r="B897" s="15"/>
       <c r="C897" s="8"/>
       <c r="D897" s="11"/>
       <c r="E897" s="8"/>
@@ -7479,7 +7716,7 @@
       <c r="G897" s="8"/>
     </row>
     <row r="898">
-      <c r="B898" s="13"/>
+      <c r="B898" s="15"/>
       <c r="C898" s="8"/>
       <c r="D898" s="11"/>
       <c r="E898" s="8"/>
@@ -7487,7 +7724,7 @@
       <c r="G898" s="8"/>
     </row>
     <row r="899">
-      <c r="B899" s="13"/>
+      <c r="B899" s="15"/>
       <c r="C899" s="8"/>
       <c r="D899" s="11"/>
       <c r="E899" s="8"/>
@@ -7495,7 +7732,7 @@
       <c r="G899" s="8"/>
     </row>
     <row r="900">
-      <c r="B900" s="13"/>
+      <c r="B900" s="15"/>
       <c r="C900" s="8"/>
       <c r="D900" s="11"/>
       <c r="E900" s="8"/>
@@ -7503,7 +7740,7 @@
       <c r="G900" s="8"/>
     </row>
     <row r="901">
-      <c r="B901" s="13"/>
+      <c r="B901" s="15"/>
       <c r="C901" s="8"/>
       <c r="D901" s="11"/>
       <c r="E901" s="8"/>
@@ -7511,7 +7748,7 @@
       <c r="G901" s="8"/>
     </row>
     <row r="902">
-      <c r="B902" s="13"/>
+      <c r="B902" s="15"/>
       <c r="C902" s="8"/>
       <c r="D902" s="11"/>
       <c r="E902" s="8"/>
@@ -7519,7 +7756,7 @@
       <c r="G902" s="8"/>
     </row>
     <row r="903">
-      <c r="B903" s="13"/>
+      <c r="B903" s="15"/>
       <c r="C903" s="8"/>
       <c r="D903" s="11"/>
       <c r="E903" s="8"/>
@@ -7527,7 +7764,7 @@
       <c r="G903" s="8"/>
     </row>
     <row r="904">
-      <c r="B904" s="13"/>
+      <c r="B904" s="15"/>
       <c r="C904" s="8"/>
       <c r="D904" s="11"/>
       <c r="E904" s="8"/>
@@ -7535,7 +7772,7 @@
       <c r="G904" s="8"/>
     </row>
     <row r="905">
-      <c r="B905" s="13"/>
+      <c r="B905" s="15"/>
       <c r="C905" s="8"/>
       <c r="D905" s="11"/>
       <c r="E905" s="8"/>
@@ -7543,7 +7780,7 @@
       <c r="G905" s="8"/>
     </row>
     <row r="906">
-      <c r="B906" s="13"/>
+      <c r="B906" s="15"/>
       <c r="C906" s="8"/>
       <c r="D906" s="11"/>
       <c r="E906" s="8"/>
@@ -7551,7 +7788,7 @@
       <c r="G906" s="8"/>
     </row>
     <row r="907">
-      <c r="B907" s="13"/>
+      <c r="B907" s="15"/>
       <c r="C907" s="8"/>
       <c r="D907" s="11"/>
       <c r="E907" s="8"/>
@@ -7559,7 +7796,7 @@
       <c r="G907" s="8"/>
     </row>
     <row r="908">
-      <c r="B908" s="13"/>
+      <c r="B908" s="15"/>
       <c r="C908" s="8"/>
       <c r="D908" s="11"/>
       <c r="E908" s="8"/>
@@ -7567,7 +7804,7 @@
       <c r="G908" s="8"/>
     </row>
     <row r="909">
-      <c r="B909" s="13"/>
+      <c r="B909" s="15"/>
       <c r="C909" s="8"/>
       <c r="D909" s="11"/>
       <c r="E909" s="8"/>
@@ -7575,7 +7812,7 @@
       <c r="G909" s="8"/>
     </row>
     <row r="910">
-      <c r="B910" s="13"/>
+      <c r="B910" s="15"/>
       <c r="C910" s="8"/>
       <c r="D910" s="11"/>
       <c r="E910" s="8"/>
@@ -7583,7 +7820,7 @@
       <c r="G910" s="8"/>
     </row>
     <row r="911">
-      <c r="B911" s="13"/>
+      <c r="B911" s="15"/>
       <c r="C911" s="8"/>
       <c r="D911" s="11"/>
       <c r="E911" s="8"/>
@@ -7591,7 +7828,7 @@
       <c r="G911" s="8"/>
     </row>
     <row r="912">
-      <c r="B912" s="13"/>
+      <c r="B912" s="15"/>
       <c r="C912" s="8"/>
       <c r="D912" s="11"/>
       <c r="E912" s="8"/>
@@ -7599,7 +7836,7 @@
       <c r="G912" s="8"/>
     </row>
     <row r="913">
-      <c r="B913" s="13"/>
+      <c r="B913" s="15"/>
       <c r="C913" s="8"/>
       <c r="D913" s="11"/>
       <c r="E913" s="8"/>
@@ -7607,7 +7844,7 @@
       <c r="G913" s="8"/>
     </row>
     <row r="914">
-      <c r="B914" s="13"/>
+      <c r="B914" s="15"/>
       <c r="C914" s="8"/>
       <c r="D914" s="11"/>
       <c r="E914" s="8"/>
@@ -7615,7 +7852,7 @@
       <c r="G914" s="8"/>
     </row>
     <row r="915">
-      <c r="B915" s="13"/>
+      <c r="B915" s="15"/>
       <c r="C915" s="8"/>
       <c r="D915" s="11"/>
       <c r="E915" s="8"/>
@@ -7623,7 +7860,7 @@
       <c r="G915" s="8"/>
     </row>
     <row r="916">
-      <c r="B916" s="13"/>
+      <c r="B916" s="15"/>
       <c r="C916" s="8"/>
       <c r="D916" s="11"/>
       <c r="E916" s="8"/>
@@ -7631,7 +7868,7 @@
       <c r="G916" s="8"/>
     </row>
     <row r="917">
-      <c r="B917" s="13"/>
+      <c r="B917" s="15"/>
       <c r="C917" s="8"/>
       <c r="D917" s="11"/>
       <c r="E917" s="8"/>
@@ -7639,7 +7876,7 @@
       <c r="G917" s="8"/>
     </row>
     <row r="918">
-      <c r="B918" s="13"/>
+      <c r="B918" s="15"/>
       <c r="C918" s="8"/>
       <c r="D918" s="11"/>
       <c r="E918" s="8"/>
@@ -7647,7 +7884,7 @@
       <c r="G918" s="8"/>
     </row>
     <row r="919">
-      <c r="B919" s="13"/>
+      <c r="B919" s="15"/>
       <c r="C919" s="8"/>
       <c r="D919" s="11"/>
       <c r="E919" s="8"/>
@@ -7655,7 +7892,7 @@
       <c r="G919" s="8"/>
     </row>
     <row r="920">
-      <c r="B920" s="13"/>
+      <c r="B920" s="15"/>
       <c r="C920" s="8"/>
       <c r="D920" s="11"/>
       <c r="E920" s="8"/>
@@ -7663,7 +7900,7 @@
       <c r="G920" s="8"/>
     </row>
     <row r="921">
-      <c r="B921" s="13"/>
+      <c r="B921" s="15"/>
       <c r="C921" s="8"/>
       <c r="D921" s="11"/>
       <c r="E921" s="8"/>
@@ -7671,7 +7908,7 @@
       <c r="G921" s="8"/>
     </row>
     <row r="922">
-      <c r="B922" s="13"/>
+      <c r="B922" s="15"/>
       <c r="C922" s="8"/>
       <c r="D922" s="11"/>
       <c r="E922" s="8"/>
@@ -7679,7 +7916,7 @@
       <c r="G922" s="8"/>
     </row>
     <row r="923">
-      <c r="B923" s="13"/>
+      <c r="B923" s="15"/>
       <c r="C923" s="8"/>
       <c r="D923" s="11"/>
       <c r="E923" s="8"/>
@@ -7687,7 +7924,7 @@
       <c r="G923" s="8"/>
     </row>
     <row r="924">
-      <c r="B924" s="13"/>
+      <c r="B924" s="15"/>
       <c r="C924" s="8"/>
       <c r="D924" s="11"/>
       <c r="E924" s="8"/>
@@ -7695,7 +7932,7 @@
       <c r="G924" s="8"/>
     </row>
     <row r="925">
-      <c r="B925" s="13"/>
+      <c r="B925" s="15"/>
       <c r="C925" s="8"/>
       <c r="D925" s="11"/>
       <c r="E925" s="8"/>
@@ -7703,7 +7940,7 @@
       <c r="G925" s="8"/>
     </row>
     <row r="926">
-      <c r="B926" s="13"/>
+      <c r="B926" s="15"/>
       <c r="C926" s="8"/>
       <c r="D926" s="11"/>
       <c r="E926" s="8"/>
@@ -7711,7 +7948,7 @@
       <c r="G926" s="8"/>
     </row>
     <row r="927">
-      <c r="B927" s="13"/>
+      <c r="B927" s="15"/>
       <c r="C927" s="8"/>
       <c r="D927" s="11"/>
       <c r="E927" s="8"/>
@@ -7719,7 +7956,7 @@
       <c r="G927" s="8"/>
     </row>
     <row r="928">
-      <c r="B928" s="13"/>
+      <c r="B928" s="15"/>
       <c r="C928" s="8"/>
       <c r="D928" s="11"/>
       <c r="E928" s="8"/>
@@ -7727,7 +7964,7 @@
       <c r="G928" s="8"/>
     </row>
     <row r="929">
-      <c r="B929" s="13"/>
+      <c r="B929" s="15"/>
       <c r="C929" s="8"/>
       <c r="D929" s="11"/>
       <c r="E929" s="8"/>
@@ -7735,7 +7972,7 @@
       <c r="G929" s="8"/>
     </row>
     <row r="930">
-      <c r="B930" s="13"/>
+      <c r="B930" s="15"/>
       <c r="C930" s="8"/>
       <c r="D930" s="11"/>
       <c r="E930" s="8"/>
@@ -7743,7 +7980,7 @@
       <c r="G930" s="8"/>
     </row>
     <row r="931">
-      <c r="B931" s="13"/>
+      <c r="B931" s="15"/>
       <c r="C931" s="8"/>
       <c r="D931" s="11"/>
       <c r="E931" s="8"/>
@@ -7751,7 +7988,7 @@
       <c r="G931" s="8"/>
     </row>
     <row r="932">
-      <c r="B932" s="13"/>
+      <c r="B932" s="15"/>
       <c r="C932" s="8"/>
       <c r="D932" s="11"/>
       <c r="E932" s="8"/>
@@ -7759,7 +7996,7 @@
       <c r="G932" s="8"/>
     </row>
     <row r="933">
-      <c r="B933" s="13"/>
+      <c r="B933" s="15"/>
       <c r="C933" s="8"/>
       <c r="D933" s="11"/>
       <c r="E933" s="8"/>
@@ -7767,7 +8004,7 @@
       <c r="G933" s="8"/>
     </row>
     <row r="934">
-      <c r="B934" s="13"/>
+      <c r="B934" s="15"/>
       <c r="C934" s="8"/>
       <c r="D934" s="11"/>
       <c r="E934" s="8"/>
@@ -7775,7 +8012,7 @@
       <c r="G934" s="8"/>
     </row>
     <row r="935">
-      <c r="B935" s="13"/>
+      <c r="B935" s="15"/>
       <c r="C935" s="8"/>
       <c r="D935" s="11"/>
       <c r="E935" s="8"/>
@@ -7783,7 +8020,7 @@
       <c r="G935" s="8"/>
     </row>
     <row r="936">
-      <c r="B936" s="13"/>
+      <c r="B936" s="15"/>
       <c r="C936" s="8"/>
       <c r="D936" s="11"/>
       <c r="E936" s="8"/>
@@ -7791,7 +8028,7 @@
       <c r="G936" s="8"/>
     </row>
     <row r="937">
-      <c r="B937" s="13"/>
+      <c r="B937" s="15"/>
       <c r="C937" s="8"/>
       <c r="D937" s="11"/>
       <c r="E937" s="8"/>
@@ -7799,7 +8036,7 @@
       <c r="G937" s="8"/>
     </row>
     <row r="938">
-      <c r="B938" s="13"/>
+      <c r="B938" s="15"/>
       <c r="C938" s="8"/>
       <c r="D938" s="11"/>
       <c r="E938" s="8"/>
@@ -7807,7 +8044,7 @@
       <c r="G938" s="8"/>
     </row>
     <row r="939">
-      <c r="B939" s="13"/>
+      <c r="B939" s="15"/>
       <c r="C939" s="8"/>
       <c r="D939" s="11"/>
       <c r="E939" s="8"/>
@@ -7815,7 +8052,7 @@
       <c r="G939" s="8"/>
     </row>
     <row r="940">
-      <c r="B940" s="13"/>
+      <c r="B940" s="15"/>
       <c r="C940" s="8"/>
       <c r="D940" s="11"/>
       <c r="E940" s="8"/>
@@ -7823,7 +8060,7 @@
       <c r="G940" s="8"/>
     </row>
     <row r="941">
-      <c r="B941" s="13"/>
+      <c r="B941" s="15"/>
       <c r="C941" s="8"/>
       <c r="D941" s="11"/>
       <c r="E941" s="8"/>
@@ -7831,7 +8068,7 @@
       <c r="G941" s="8"/>
     </row>
     <row r="942">
-      <c r="B942" s="13"/>
+      <c r="B942" s="15"/>
       <c r="C942" s="8"/>
       <c r="D942" s="11"/>
       <c r="E942" s="8"/>
@@ -7839,7 +8076,7 @@
       <c r="G942" s="8"/>
     </row>
     <row r="943">
-      <c r="B943" s="13"/>
+      <c r="B943" s="15"/>
       <c r="C943" s="8"/>
       <c r="D943" s="11"/>
       <c r="E943" s="8"/>
@@ -7847,7 +8084,7 @@
       <c r="G943" s="8"/>
     </row>
     <row r="944">
-      <c r="B944" s="13"/>
+      <c r="B944" s="15"/>
       <c r="C944" s="8"/>
       <c r="D944" s="11"/>
       <c r="E944" s="8"/>
@@ -7855,7 +8092,7 @@
       <c r="G944" s="8"/>
     </row>
     <row r="945">
-      <c r="B945" s="13"/>
+      <c r="B945" s="15"/>
       <c r="C945" s="8"/>
       <c r="D945" s="11"/>
       <c r="E945" s="8"/>
@@ -7863,7 +8100,7 @@
       <c r="G945" s="8"/>
     </row>
     <row r="946">
-      <c r="B946" s="13"/>
+      <c r="B946" s="15"/>
       <c r="C946" s="8"/>
       <c r="D946" s="11"/>
       <c r="E946" s="8"/>
@@ -7871,7 +8108,7 @@
       <c r="G946" s="8"/>
     </row>
     <row r="947">
-      <c r="B947" s="13"/>
+      <c r="B947" s="15"/>
       <c r="C947" s="8"/>
       <c r="D947" s="11"/>
       <c r="E947" s="8"/>
@@ -7879,7 +8116,7 @@
       <c r="G947" s="8"/>
     </row>
     <row r="948">
-      <c r="B948" s="13"/>
+      <c r="B948" s="15"/>
       <c r="C948" s="8"/>
       <c r="D948" s="11"/>
       <c r="E948" s="8"/>
@@ -7887,7 +8124,7 @@
       <c r="G948" s="8"/>
     </row>
     <row r="949">
-      <c r="B949" s="13"/>
+      <c r="B949" s="15"/>
       <c r="C949" s="8"/>
       <c r="D949" s="11"/>
       <c r="E949" s="8"/>
@@ -7895,7 +8132,7 @@
       <c r="G949" s="8"/>
     </row>
     <row r="950">
-      <c r="B950" s="13"/>
+      <c r="B950" s="15"/>
       <c r="C950" s="8"/>
       <c r="D950" s="11"/>
       <c r="E950" s="8"/>
@@ -7903,7 +8140,7 @@
       <c r="G950" s="8"/>
     </row>
     <row r="951">
-      <c r="B951" s="13"/>
+      <c r="B951" s="15"/>
       <c r="C951" s="8"/>
       <c r="D951" s="11"/>
       <c r="E951" s="8"/>
@@ -7911,7 +8148,7 @@
       <c r="G951" s="8"/>
     </row>
     <row r="952">
-      <c r="B952" s="13"/>
+      <c r="B952" s="15"/>
       <c r="C952" s="8"/>
       <c r="D952" s="11"/>
       <c r="E952" s="8"/>
@@ -7919,7 +8156,7 @@
       <c r="G952" s="8"/>
     </row>
     <row r="953">
-      <c r="B953" s="13"/>
+      <c r="B953" s="15"/>
       <c r="C953" s="8"/>
       <c r="D953" s="11"/>
       <c r="E953" s="8"/>
@@ -7927,7 +8164,7 @@
       <c r="G953" s="8"/>
     </row>
     <row r="954">
-      <c r="B954" s="13"/>
+      <c r="B954" s="15"/>
       <c r="C954" s="8"/>
       <c r="D954" s="11"/>
       <c r="E954" s="8"/>
@@ -7935,7 +8172,7 @@
       <c r="G954" s="8"/>
     </row>
     <row r="955">
-      <c r="B955" s="13"/>
+      <c r="B955" s="15"/>
       <c r="C955" s="8"/>
       <c r="D955" s="11"/>
       <c r="E955" s="8"/>
@@ -7943,7 +8180,7 @@
       <c r="G955" s="8"/>
     </row>
     <row r="956">
-      <c r="B956" s="13"/>
+      <c r="B956" s="15"/>
       <c r="C956" s="8"/>
       <c r="D956" s="11"/>
       <c r="E956" s="8"/>
@@ -7951,7 +8188,7 @@
       <c r="G956" s="8"/>
     </row>
     <row r="957">
-      <c r="B957" s="13"/>
+      <c r="B957" s="15"/>
       <c r="C957" s="8"/>
       <c r="D957" s="11"/>
       <c r="E957" s="8"/>
@@ -7959,7 +8196,7 @@
       <c r="G957" s="8"/>
     </row>
     <row r="958">
-      <c r="B958" s="13"/>
+      <c r="B958" s="15"/>
       <c r="C958" s="8"/>
       <c r="D958" s="11"/>
       <c r="E958" s="8"/>
@@ -7967,7 +8204,7 @@
       <c r="G958" s="8"/>
     </row>
     <row r="959">
-      <c r="B959" s="13"/>
+      <c r="B959" s="15"/>
       <c r="C959" s="8"/>
       <c r="D959" s="11"/>
       <c r="E959" s="8"/>
@@ -7975,7 +8212,7 @@
       <c r="G959" s="8"/>
     </row>
     <row r="960">
-      <c r="B960" s="13"/>
+      <c r="B960" s="15"/>
       <c r="C960" s="8"/>
       <c r="D960" s="11"/>
       <c r="E960" s="8"/>
@@ -7983,7 +8220,7 @@
       <c r="G960" s="8"/>
     </row>
     <row r="961">
-      <c r="B961" s="13"/>
+      <c r="B961" s="15"/>
       <c r="C961" s="8"/>
       <c r="D961" s="11"/>
       <c r="E961" s="8"/>
@@ -7991,7 +8228,7 @@
       <c r="G961" s="8"/>
     </row>
     <row r="962">
-      <c r="B962" s="13"/>
+      <c r="B962" s="15"/>
       <c r="C962" s="8"/>
       <c r="D962" s="11"/>
       <c r="E962" s="8"/>
@@ -7999,7 +8236,7 @@
       <c r="G962" s="8"/>
     </row>
     <row r="963">
-      <c r="B963" s="13"/>
+      <c r="B963" s="15"/>
       <c r="C963" s="8"/>
       <c r="D963" s="11"/>
       <c r="E963" s="8"/>
@@ -8007,7 +8244,7 @@
       <c r="G963" s="8"/>
     </row>
     <row r="964">
-      <c r="B964" s="13"/>
+      <c r="B964" s="15"/>
       <c r="C964" s="8"/>
       <c r="D964" s="11"/>
       <c r="E964" s="8"/>
@@ -8015,7 +8252,7 @@
       <c r="G964" s="8"/>
     </row>
     <row r="965">
-      <c r="B965" s="13"/>
+      <c r="B965" s="15"/>
       <c r="C965" s="8"/>
       <c r="D965" s="11"/>
       <c r="E965" s="8"/>
@@ -8023,7 +8260,7 @@
       <c r="G965" s="8"/>
     </row>
     <row r="966">
-      <c r="B966" s="13"/>
+      <c r="B966" s="15"/>
       <c r="C966" s="8"/>
       <c r="D966" s="11"/>
       <c r="E966" s="8"/>
@@ -8031,7 +8268,7 @@
       <c r="G966" s="8"/>
     </row>
     <row r="967">
-      <c r="B967" s="13"/>
+      <c r="B967" s="15"/>
       <c r="C967" s="8"/>
       <c r="D967" s="11"/>
       <c r="E967" s="8"/>
@@ -8039,7 +8276,7 @@
       <c r="G967" s="8"/>
     </row>
     <row r="968">
-      <c r="B968" s="13"/>
+      <c r="B968" s="15"/>
       <c r="C968" s="8"/>
       <c r="D968" s="11"/>
       <c r="E968" s="8"/>
@@ -8047,7 +8284,7 @@
       <c r="G968" s="8"/>
     </row>
     <row r="969">
-      <c r="B969" s="13"/>
+      <c r="B969" s="15"/>
       <c r="C969" s="8"/>
       <c r="D969" s="11"/>
       <c r="E969" s="8"/>
@@ -8055,7 +8292,7 @@
       <c r="G969" s="8"/>
     </row>
     <row r="970">
-      <c r="B970" s="13"/>
+      <c r="B970" s="15"/>
       <c r="C970" s="8"/>
       <c r="D970" s="11"/>
       <c r="E970" s="8"/>
@@ -8063,7 +8300,7 @@
       <c r="G970" s="8"/>
     </row>
     <row r="971">
-      <c r="B971" s="13"/>
+      <c r="B971" s="15"/>
       <c r="C971" s="8"/>
       <c r="D971" s="11"/>
       <c r="E971" s="8"/>
@@ -8071,7 +8308,7 @@
       <c r="G971" s="8"/>
     </row>
     <row r="972">
-      <c r="B972" s="13"/>
+      <c r="B972" s="15"/>
       <c r="C972" s="8"/>
       <c r="D972" s="11"/>
       <c r="E972" s="8"/>
@@ -8079,7 +8316,7 @@
       <c r="G972" s="8"/>
     </row>
     <row r="973">
-      <c r="B973" s="13"/>
+      <c r="B973" s="15"/>
       <c r="C973" s="8"/>
       <c r="D973" s="11"/>
       <c r="E973" s="8"/>
@@ -8087,7 +8324,7 @@
       <c r="G973" s="8"/>
     </row>
     <row r="974">
-      <c r="B974" s="13"/>
+      <c r="B974" s="15"/>
       <c r="C974" s="8"/>
       <c r="D974" s="11"/>
       <c r="E974" s="8"/>
@@ -8095,7 +8332,7 @@
       <c r="G974" s="8"/>
     </row>
     <row r="975">
-      <c r="B975" s="13"/>
+      <c r="B975" s="15"/>
       <c r="C975" s="8"/>
       <c r="D975" s="11"/>
       <c r="E975" s="8"/>
@@ -8103,7 +8340,7 @@
       <c r="G975" s="8"/>
     </row>
     <row r="976">
-      <c r="B976" s="13"/>
+      <c r="B976" s="15"/>
       <c r="C976" s="8"/>
       <c r="D976" s="11"/>
       <c r="E976" s="8"/>
@@ -8111,7 +8348,7 @@
       <c r="G976" s="8"/>
     </row>
     <row r="977">
-      <c r="B977" s="13"/>
+      <c r="B977" s="15"/>
       <c r="C977" s="8"/>
       <c r="D977" s="11"/>
       <c r="E977" s="8"/>
@@ -8119,7 +8356,7 @@
       <c r="G977" s="8"/>
     </row>
     <row r="978">
-      <c r="B978" s="13"/>
+      <c r="B978" s="15"/>
       <c r="C978" s="8"/>
       <c r="D978" s="11"/>
       <c r="E978" s="8"/>
@@ -8127,7 +8364,7 @@
       <c r="G978" s="8"/>
     </row>
     <row r="979">
-      <c r="B979" s="13"/>
+      <c r="B979" s="15"/>
       <c r="C979" s="8"/>
       <c r="D979" s="11"/>
       <c r="E979" s="8"/>
@@ -8135,7 +8372,7 @@
       <c r="G979" s="8"/>
     </row>
     <row r="980">
-      <c r="B980" s="13"/>
+      <c r="B980" s="15"/>
       <c r="C980" s="8"/>
       <c r="D980" s="11"/>
       <c r="E980" s="8"/>
@@ -8143,7 +8380,7 @@
       <c r="G980" s="8"/>
     </row>
     <row r="981">
-      <c r="B981" s="13"/>
+      <c r="B981" s="15"/>
       <c r="C981" s="8"/>
       <c r="D981" s="11"/>
       <c r="E981" s="8"/>
@@ -8151,7 +8388,7 @@
       <c r="G981" s="8"/>
     </row>
     <row r="982">
-      <c r="B982" s="13"/>
+      <c r="B982" s="15"/>
       <c r="C982" s="8"/>
       <c r="D982" s="11"/>
       <c r="E982" s="8"/>
@@ -8159,7 +8396,7 @@
       <c r="G982" s="8"/>
     </row>
     <row r="983">
-      <c r="B983" s="13"/>
+      <c r="B983" s="15"/>
       <c r="C983" s="8"/>
       <c r="D983" s="11"/>
       <c r="E983" s="8"/>
@@ -8167,7 +8404,7 @@
       <c r="G983" s="8"/>
     </row>
     <row r="984">
-      <c r="B984" s="13"/>
+      <c r="B984" s="15"/>
       <c r="C984" s="8"/>
       <c r="D984" s="11"/>
       <c r="E984" s="8"/>
@@ -8175,7 +8412,7 @@
       <c r="G984" s="8"/>
     </row>
     <row r="985">
-      <c r="B985" s="13"/>
+      <c r="B985" s="15"/>
       <c r="C985" s="8"/>
       <c r="D985" s="11"/>
       <c r="E985" s="8"/>
@@ -8183,7 +8420,7 @@
       <c r="G985" s="8"/>
     </row>
     <row r="986">
-      <c r="B986" s="13"/>
+      <c r="B986" s="15"/>
       <c r="C986" s="8"/>
       <c r="D986" s="11"/>
       <c r="E986" s="8"/>
@@ -8191,7 +8428,7 @@
       <c r="G986" s="8"/>
     </row>
     <row r="987">
-      <c r="B987" s="13"/>
+      <c r="B987" s="15"/>
       <c r="C987" s="8"/>
       <c r="D987" s="11"/>
       <c r="E987" s="8"/>
@@ -8199,7 +8436,7 @@
       <c r="G987" s="8"/>
     </row>
     <row r="988">
-      <c r="B988" s="13"/>
+      <c r="B988" s="15"/>
       <c r="C988" s="8"/>
       <c r="D988" s="11"/>
       <c r="E988" s="8"/>
@@ -8207,7 +8444,7 @@
       <c r="G988" s="8"/>
     </row>
     <row r="989">
-      <c r="B989" s="13"/>
+      <c r="B989" s="15"/>
       <c r="C989" s="8"/>
       <c r="D989" s="11"/>
       <c r="E989" s="8"/>
@@ -8215,7 +8452,7 @@
       <c r="G989" s="8"/>
     </row>
     <row r="990">
-      <c r="B990" s="13"/>
+      <c r="B990" s="15"/>
       <c r="C990" s="8"/>
       <c r="D990" s="11"/>
       <c r="E990" s="8"/>
@@ -8223,7 +8460,7 @@
       <c r="G990" s="8"/>
     </row>
     <row r="991">
-      <c r="B991" s="13"/>
+      <c r="B991" s="15"/>
       <c r="C991" s="8"/>
       <c r="D991" s="11"/>
       <c r="E991" s="8"/>
@@ -8231,7 +8468,7 @@
       <c r="G991" s="8"/>
     </row>
     <row r="992">
-      <c r="B992" s="13"/>
+      <c r="B992" s="15"/>
       <c r="C992" s="8"/>
       <c r="D992" s="11"/>
       <c r="E992" s="8"/>
@@ -8239,7 +8476,7 @@
       <c r="G992" s="8"/>
     </row>
     <row r="993">
-      <c r="B993" s="13"/>
+      <c r="B993" s="15"/>
       <c r="C993" s="8"/>
       <c r="D993" s="11"/>
       <c r="E993" s="8"/>
@@ -8247,7 +8484,7 @@
       <c r="G993" s="8"/>
     </row>
     <row r="994">
-      <c r="B994" s="13"/>
+      <c r="B994" s="15"/>
       <c r="C994" s="8"/>
       <c r="D994" s="11"/>
       <c r="E994" s="8"/>
@@ -8255,7 +8492,7 @@
       <c r="G994" s="8"/>
     </row>
     <row r="995">
-      <c r="B995" s="13"/>
+      <c r="B995" s="15"/>
       <c r="C995" s="8"/>
       <c r="D995" s="11"/>
       <c r="E995" s="8"/>
@@ -8263,7 +8500,7 @@
       <c r="G995" s="8"/>
     </row>
     <row r="996">
-      <c r="B996" s="13"/>
+      <c r="B996" s="15"/>
       <c r="C996" s="8"/>
       <c r="D996" s="11"/>
       <c r="E996" s="8"/>
@@ -8271,7 +8508,7 @@
       <c r="G996" s="8"/>
     </row>
     <row r="997">
-      <c r="B997" s="13"/>
+      <c r="B997" s="15"/>
       <c r="C997" s="8"/>
       <c r="D997" s="11"/>
       <c r="E997" s="8"/>
@@ -8279,7 +8516,7 @@
       <c r="G997" s="8"/>
     </row>
     <row r="998">
-      <c r="B998" s="13"/>
+      <c r="B998" s="15"/>
       <c r="C998" s="8"/>
       <c r="D998" s="11"/>
       <c r="E998" s="8"/>
@@ -8287,7 +8524,7 @@
       <c r="G998" s="8"/>
     </row>
     <row r="999">
-      <c r="B999" s="13"/>
+      <c r="B999" s="15"/>
       <c r="C999" s="8"/>
       <c r="D999" s="11"/>
       <c r="E999" s="8"/>
@@ -8295,14 +8532,45 @@
       <c r="G999" s="8"/>
     </row>
     <row r="1000">
-      <c r="B1000" s="13"/>
+      <c r="B1000" s="15"/>
       <c r="C1000" s="8"/>
       <c r="D1000" s="11"/>
       <c r="E1000" s="8"/>
       <c r="F1000" s="8"/>
       <c r="G1000" s="8"/>
     </row>
+    <row r="1001">
+      <c r="B1001" s="15"/>
+      <c r="C1001" s="8"/>
+      <c r="D1001" s="11"/>
+      <c r="E1001" s="8"/>
+      <c r="F1001" s="8"/>
+      <c r="G1001" s="8"/>
+    </row>
+    <row r="1002">
+      <c r="B1002" s="15"/>
+      <c r="C1002" s="8"/>
+      <c r="D1002" s="11"/>
+      <c r="E1002" s="8"/>
+      <c r="F1002" s="8"/>
+      <c r="G1002" s="8"/>
+    </row>
+    <row r="1003">
+      <c r="B1003" s="15"/>
+      <c r="C1003" s="8"/>
+      <c r="D1003" s="11"/>
+      <c r="E1003" s="8"/>
+      <c r="F1003" s="8"/>
+      <c r="G1003" s="8"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="90591a250/=xst4ec" ref="C4"/>
+    <hyperlink r:id="rId2" location="90576a102/=xsshuh" ref="C5"/>
+    <hyperlink r:id="rId3" location="91166a210/=xsshhz" ref="C6"/>
+    <hyperlink r:id="rId4" ref="C11"/>
+    <hyperlink r:id="rId5" ref="C19"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>PART</t>
   </si>
@@ -34,7 +34,7 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Frame</t>
+    <t>Steel Frame</t>
   </si>
   <si>
     <t>Orballo Printing</t>
@@ -46,10 +46,13 @@
     <t>Steel Rods</t>
   </si>
   <si>
-    <t>M3 Hex Nut</t>
+    <t>McMaster-CARR</t>
   </si>
   <si>
-    <t>McMaster-CARR</t>
+    <t>Threaded Rods</t>
+  </si>
+  <si>
+    <t>M3 Hex Nut</t>
   </si>
   <si>
     <t>PK</t>
@@ -61,7 +64,10 @@
     <t>M3 Flat Washer</t>
   </si>
   <si>
-    <t>Z Axes Coupler</t>
+    <t>Z Axis Coupler</t>
+  </si>
+  <si>
+    <t>RepRap Discount</t>
   </si>
   <si>
     <t>LM8UU Linear Bearings</t>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Amazon</t>
-  </si>
-  <si>
-    <t>4 GB Micro SD card</t>
   </si>
   <si>
     <t>Mechanical Endstop</t>
@@ -118,10 +121,28 @@
     <t>Kysan 1124090 NEMA17 Stepper Motor</t>
   </si>
   <si>
-    <t>GT2 Belts</t>
+    <t>GT2 belt and pulley set</t>
   </si>
   <si>
-    <t>Pulleys</t>
+    <t>Easy RepRap</t>
+  </si>
+  <si>
+    <t>MK8 Drive Gear</t>
+  </si>
+  <si>
+    <t>3D CAM</t>
+  </si>
+  <si>
+    <t>Aluminum Anodized Heated Build Plate Full kit</t>
+  </si>
+  <si>
+    <t>Heavy-Duty Computer Power Cord 10-ft.</t>
+  </si>
+  <si>
+    <t>3-IN-ONE 10038 Multi-Purpose Oil, 8 oz.</t>
+  </si>
+  <si>
+    <t>SE 784EC Digital Caliper</t>
   </si>
 </sst>
 </file>
@@ -142,12 +163,12 @@
     </font>
     <font/>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF333333"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF333333"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -184,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -221,10 +242,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -255,7 +279,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.43"/>
+    <col customWidth="1" min="1" max="1" width="39.71"/>
     <col customWidth="1" min="2" max="2" width="20.57"/>
     <col customWidth="1" min="3" max="3" width="21.29"/>
   </cols>
@@ -321,7 +345,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="11" t="str">
-        <f t="shared" ref="G2:G21" si="1">D2*E2</f>
+        <f t="shared" ref="G2:G3" si="1">D2*E2</f>
         <v>$41.44</v>
       </c>
     </row>
@@ -329,7 +353,9 @@
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="11"/>
       <c r="E3" s="10">
@@ -345,52 +371,38 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="12" t="str">
+      <c r="C5" s="14" t="str">
         <f>HYPERLINK("http://www.mcmaster.com/#90591a250/=xst4ec","90591A250")</f>
         <v>90591A250</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D5" s="13">
         <v>2.06</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>$2.06</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="str">
-        <f>HYPERLINK("http://www.mcmaster.com/#90576a102/=xsshuh","90576A102")</f>
-        <v>90576A102</v>
-      </c>
-      <c r="D5" s="9">
-        <v>3.27</v>
       </c>
       <c r="E5" s="10">
         <v>1.0</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>$3.27</v>
+        <f t="shared" ref="G5:G25" si="2">D5*E5</f>
+        <v>$2.06</v>
       </c>
     </row>
     <row r="6">
@@ -398,44 +410,53 @@
         <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12" t="str">
+        <v>11</v>
+      </c>
+      <c r="C6" s="14" t="str">
+        <f>HYPERLINK("http://www.mcmaster.com/#90576a102/=xsshuh","90576A102")</f>
+        <v>90576A102</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.27</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>$3.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="14" t="str">
         <f>HYPERLINK("http://www.mcmaster.com/#91166a210/=xsshhz","91166A210")</f>
         <v>91166A210</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>1.61</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="10">
         <v>1.0</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="F7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>$1.61</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>$0.00</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -443,70 +464,70 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9">
-        <v>22.37</v>
+        <v>8.0</v>
       </c>
       <c r="E8" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G8" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>$67.11</v>
+        <f t="shared" si="2"/>
+        <v>$16.00</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14" t="str">
+        <f>HYPERLINK("http://www.vxb.com/page/bearings/PROD/8mmLinearMotionSystems/Kit179960","Kit179960")</f>
+        <v>Kit179960</v>
+      </c>
+      <c r="D9" s="9">
+        <v>24.95</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>$0.00</v>
+        <f t="shared" si="2"/>
+        <v>$24.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="B10" s="16"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>$0.00</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="12" t="str">
-        <f>HYPERLINK("http://www.panucatt.com/azteeg_X5_mini_reprap_3d_printer_controller_p/ax5mini.htm","AX5MINI")</f>
-        <v>AX5MINI</v>
-      </c>
-      <c r="D11" s="9">
-        <v>109.0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>$109.00</v>
+        <f t="shared" si="2"/>
+        <v>$0.00</v>
       </c>
     </row>
     <row r="12">
@@ -516,11 +537,12 @@
       <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
-        <v>105447.0</v>
+      <c r="C12" s="14" t="str">
+        <f>HYPERLINK("http://www.panucatt.com/azteeg_X5_mini_reprap_3d_printer_controller_p/ax5mini.htm","AX5MINI")</f>
+        <v>AX5MINI</v>
       </c>
       <c r="D12" s="9">
-        <v>5.39</v>
+        <v>109.0</v>
       </c>
       <c r="E12" s="10">
         <v>1.0</v>
@@ -529,44 +551,54 @@
         <v>9</v>
       </c>
       <c r="G12" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>$5.39</v>
+        <f t="shared" si="2"/>
+        <v>$109.00</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9">
+        <v>5.39</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>$0.00</v>
+        <f t="shared" si="2"/>
+        <v>$5.39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="10">
+        <v>4.0</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>$0.00</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9">
@@ -576,19 +608,19 @@
         <v>10.0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>$2.20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9">
@@ -598,19 +630,19 @@
         <v>10.0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>$2.20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9">
@@ -623,16 +655,16 @@
         <v>9</v>
       </c>
       <c r="G17" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>$46.00</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
@@ -645,18 +677,18 @@
         <v>9</v>
       </c>
       <c r="G18" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>$79.00</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="12" t="str">
+        <v>33</v>
+      </c>
+      <c r="C19" s="14" t="str">
         <f>HYPERLINK("http://www.3dmakerworld.com/nema17-stepper-motor","1124090")</f>
         <v>1124090</v>
       </c>
@@ -670,85 +702,169 @@
         <v>9</v>
       </c>
       <c r="G19" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>$72.50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="14" t="str">
+        <f>HYPERLINK("http://www.amazon.com/Easy-RepRap-Pulley-Printers-MendelMax/dp/B00ICM8ATG/ref=sr_1_2?s=industrial&amp;ie=UTF8&amp;qid=1435992613&amp;sr=1-2&amp;keywords=GT2+Belt+Pulley#product-description-iframe","GT2-20T")</f>
+        <v>GT2-20T</v>
+      </c>
+      <c r="D20" s="9">
+        <v>17.99</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1.0</v>
+      </c>
       <c r="F20" s="10" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G20" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>$0.00</v>
+        <f t="shared" si="2"/>
+        <v>$17.99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="14" t="str">
+        <f>HYPERLINK("http://www.amazon.com/gp/product/B00THZK97I?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o01_s00","MK8GEAR")</f>
+        <v>MK8GEAR</v>
+      </c>
+      <c r="D21" s="9">
+        <v>7.95</v>
+      </c>
       <c r="E21" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="F21" s="8"/>
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="G21" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>$0.00</v>
+        <f t="shared" si="2"/>
+        <v>$7.95</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="14" t="str">
+        <f>HYPERLINK("http://www.amazon.com/gp/product/B00THZJE8S?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o01_s00","ABP01KIT2")</f>
+        <v>ABP01KIT2</v>
+      </c>
+      <c r="D22" s="9">
+        <v>45.95</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>$45.95</v>
+      </c>
     </row>
     <row r="23">
-      <c r="B23" s="15"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="14" t="str">
+        <f>HYPERLINK("http://www.amazon.com/gp/product/B0012EI6KE?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o04_s00","P007-010")</f>
+        <v>P007-010</v>
+      </c>
+      <c r="D23" s="9">
+        <v>11.81</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>$11.81</v>
+      </c>
     </row>
     <row r="24">
-      <c r="B24" s="15"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="14" t="str">
+        <f>HYPERLINK("http://www.homedepot.com/p/WD-40-3-in-1-3-oz-Multi-Purpose-Precision-Lubricant-Liquid-Oil-100353/203732387?keyword=3+in+1+multipurpose+oil","203732387")</f>
+        <v>203732387</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2.28</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>$2.28</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="14" t="str">
+        <f>HYPERLINK("http://www.amazon.com/gp/product/B0002JFMIO?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o08_s02","784EC")</f>
+        <v>784EC</v>
+      </c>
+      <c r="D25" s="9">
+        <v>11.75</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>$11.75</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
     </row>
     <row r="27">
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="8"/>
@@ -756,7 +872,7 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28">
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="8"/>
@@ -764,7 +880,7 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29">
-      <c r="B29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="8"/>
       <c r="D29" s="11"/>
       <c r="E29" s="8"/>
@@ -772,7 +888,7 @@
       <c r="G29" s="8"/>
     </row>
     <row r="30">
-      <c r="B30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="8"/>
       <c r="D30" s="11"/>
       <c r="E30" s="8"/>
@@ -780,15 +896,18 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31">
-      <c r="B31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="11" t="str">
+        <f>SUM(G2:G30)</f>
+        <v>$503.35</v>
+      </c>
     </row>
     <row r="32">
-      <c r="B32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11"/>
       <c r="E32" s="8"/>
@@ -796,7 +915,7 @@
       <c r="G32" s="8"/>
     </row>
     <row r="33">
-      <c r="B33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="8"/>
       <c r="D33" s="11"/>
       <c r="E33" s="8"/>
@@ -804,7 +923,7 @@
       <c r="G33" s="8"/>
     </row>
     <row r="34">
-      <c r="B34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11"/>
       <c r="E34" s="8"/>
@@ -812,7 +931,7 @@
       <c r="G34" s="8"/>
     </row>
     <row r="35">
-      <c r="B35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="8"/>
       <c r="D35" s="11"/>
       <c r="E35" s="8"/>
@@ -820,7 +939,7 @@
       <c r="G35" s="8"/>
     </row>
     <row r="36">
-      <c r="B36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="8"/>
       <c r="D36" s="11"/>
       <c r="E36" s="8"/>
@@ -828,7 +947,7 @@
       <c r="G36" s="8"/>
     </row>
     <row r="37">
-      <c r="B37" s="15"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="8"/>
       <c r="D37" s="11"/>
       <c r="E37" s="8"/>
@@ -836,7 +955,7 @@
       <c r="G37" s="8"/>
     </row>
     <row r="38">
-      <c r="B38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11"/>
       <c r="E38" s="8"/>
@@ -844,7 +963,7 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39">
-      <c r="B39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="8"/>
       <c r="D39" s="11"/>
       <c r="E39" s="8"/>
@@ -852,7 +971,7 @@
       <c r="G39" s="8"/>
     </row>
     <row r="40">
-      <c r="B40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="8"/>
       <c r="D40" s="11"/>
       <c r="E40" s="8"/>
@@ -860,7 +979,7 @@
       <c r="G40" s="8"/>
     </row>
     <row r="41">
-      <c r="B41" s="15"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="8"/>
       <c r="D41" s="11"/>
       <c r="E41" s="8"/>
@@ -868,7 +987,7 @@
       <c r="G41" s="8"/>
     </row>
     <row r="42">
-      <c r="B42" s="15"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="8"/>
       <c r="D42" s="11"/>
       <c r="E42" s="8"/>
@@ -876,7 +995,7 @@
       <c r="G42" s="8"/>
     </row>
     <row r="43">
-      <c r="B43" s="15"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="8"/>
       <c r="D43" s="11"/>
       <c r="E43" s="8"/>
@@ -884,7 +1003,7 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44">
-      <c r="B44" s="15"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="8"/>
       <c r="D44" s="11"/>
       <c r="E44" s="8"/>
@@ -892,7 +1011,7 @@
       <c r="G44" s="8"/>
     </row>
     <row r="45">
-      <c r="B45" s="15"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="8"/>
       <c r="D45" s="11"/>
       <c r="E45" s="8"/>
@@ -900,7 +1019,7 @@
       <c r="G45" s="8"/>
     </row>
     <row r="46">
-      <c r="B46" s="15"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="8"/>
       <c r="D46" s="11"/>
       <c r="E46" s="8"/>
@@ -908,7 +1027,7 @@
       <c r="G46" s="8"/>
     </row>
     <row r="47">
-      <c r="B47" s="15"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="8"/>
       <c r="D47" s="11"/>
       <c r="E47" s="8"/>
@@ -916,7 +1035,7 @@
       <c r="G47" s="8"/>
     </row>
     <row r="48">
-      <c r="B48" s="15"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="8"/>
       <c r="D48" s="11"/>
       <c r="E48" s="8"/>
@@ -924,7 +1043,7 @@
       <c r="G48" s="8"/>
     </row>
     <row r="49">
-      <c r="B49" s="15"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="8"/>
       <c r="D49" s="11"/>
       <c r="E49" s="8"/>
@@ -932,7 +1051,7 @@
       <c r="G49" s="8"/>
     </row>
     <row r="50">
-      <c r="B50" s="15"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="8"/>
       <c r="D50" s="11"/>
       <c r="E50" s="8"/>
@@ -940,7 +1059,7 @@
       <c r="G50" s="8"/>
     </row>
     <row r="51">
-      <c r="B51" s="15"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="8"/>
       <c r="D51" s="11"/>
       <c r="E51" s="8"/>
@@ -948,7 +1067,7 @@
       <c r="G51" s="8"/>
     </row>
     <row r="52">
-      <c r="B52" s="15"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="8"/>
       <c r="D52" s="11"/>
       <c r="E52" s="8"/>
@@ -956,7 +1075,7 @@
       <c r="G52" s="8"/>
     </row>
     <row r="53">
-      <c r="B53" s="15"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="8"/>
       <c r="D53" s="11"/>
       <c r="E53" s="8"/>
@@ -964,7 +1083,7 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54">
-      <c r="B54" s="15"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="8"/>
       <c r="D54" s="11"/>
       <c r="E54" s="8"/>
@@ -972,7 +1091,7 @@
       <c r="G54" s="8"/>
     </row>
     <row r="55">
-      <c r="B55" s="15"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="8"/>
       <c r="D55" s="11"/>
       <c r="E55" s="8"/>
@@ -980,7 +1099,7 @@
       <c r="G55" s="8"/>
     </row>
     <row r="56">
-      <c r="B56" s="15"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="8"/>
       <c r="D56" s="11"/>
       <c r="E56" s="8"/>
@@ -988,7 +1107,7 @@
       <c r="G56" s="8"/>
     </row>
     <row r="57">
-      <c r="B57" s="15"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="8"/>
       <c r="D57" s="11"/>
       <c r="E57" s="8"/>
@@ -996,7 +1115,7 @@
       <c r="G57" s="8"/>
     </row>
     <row r="58">
-      <c r="B58" s="15"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="8"/>
       <c r="D58" s="11"/>
       <c r="E58" s="8"/>
@@ -1004,7 +1123,7 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59">
-      <c r="B59" s="15"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="8"/>
       <c r="D59" s="11"/>
       <c r="E59" s="8"/>
@@ -1012,7 +1131,7 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60">
-      <c r="B60" s="15"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="8"/>
       <c r="D60" s="11"/>
       <c r="E60" s="8"/>
@@ -1020,7 +1139,7 @@
       <c r="G60" s="8"/>
     </row>
     <row r="61">
-      <c r="B61" s="15"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="8"/>
       <c r="D61" s="11"/>
       <c r="E61" s="8"/>
@@ -1028,7 +1147,7 @@
       <c r="G61" s="8"/>
     </row>
     <row r="62">
-      <c r="B62" s="15"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="8"/>
       <c r="D62" s="11"/>
       <c r="E62" s="8"/>
@@ -1036,7 +1155,7 @@
       <c r="G62" s="8"/>
     </row>
     <row r="63">
-      <c r="B63" s="15"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="8"/>
       <c r="D63" s="11"/>
       <c r="E63" s="8"/>
@@ -1044,7 +1163,7 @@
       <c r="G63" s="8"/>
     </row>
     <row r="64">
-      <c r="B64" s="15"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="8"/>
       <c r="D64" s="11"/>
       <c r="E64" s="8"/>
@@ -1052,7 +1171,7 @@
       <c r="G64" s="8"/>
     </row>
     <row r="65">
-      <c r="B65" s="15"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="8"/>
       <c r="D65" s="11"/>
       <c r="E65" s="8"/>
@@ -1060,7 +1179,7 @@
       <c r="G65" s="8"/>
     </row>
     <row r="66">
-      <c r="B66" s="15"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="8"/>
       <c r="D66" s="11"/>
       <c r="E66" s="8"/>
@@ -1068,7 +1187,7 @@
       <c r="G66" s="8"/>
     </row>
     <row r="67">
-      <c r="B67" s="15"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="8"/>
       <c r="D67" s="11"/>
       <c r="E67" s="8"/>
@@ -1076,7 +1195,7 @@
       <c r="G67" s="8"/>
     </row>
     <row r="68">
-      <c r="B68" s="15"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="8"/>
       <c r="D68" s="11"/>
       <c r="E68" s="8"/>
@@ -1084,7 +1203,7 @@
       <c r="G68" s="8"/>
     </row>
     <row r="69">
-      <c r="B69" s="15"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="8"/>
       <c r="D69" s="11"/>
       <c r="E69" s="8"/>
@@ -1092,7 +1211,7 @@
       <c r="G69" s="8"/>
     </row>
     <row r="70">
-      <c r="B70" s="15"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="8"/>
       <c r="D70" s="11"/>
       <c r="E70" s="8"/>
@@ -1100,7 +1219,7 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71">
-      <c r="B71" s="15"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="8"/>
       <c r="D71" s="11"/>
       <c r="E71" s="8"/>
@@ -1108,7 +1227,7 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72">
-      <c r="B72" s="15"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="8"/>
       <c r="D72" s="11"/>
       <c r="E72" s="8"/>
@@ -1116,7 +1235,7 @@
       <c r="G72" s="8"/>
     </row>
     <row r="73">
-      <c r="B73" s="15"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="8"/>
       <c r="D73" s="11"/>
       <c r="E73" s="8"/>
@@ -1124,7 +1243,7 @@
       <c r="G73" s="8"/>
     </row>
     <row r="74">
-      <c r="B74" s="15"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="8"/>
       <c r="D74" s="11"/>
       <c r="E74" s="8"/>
@@ -1132,7 +1251,7 @@
       <c r="G74" s="8"/>
     </row>
     <row r="75">
-      <c r="B75" s="15"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="8"/>
       <c r="D75" s="11"/>
       <c r="E75" s="8"/>
@@ -1140,7 +1259,7 @@
       <c r="G75" s="8"/>
     </row>
     <row r="76">
-      <c r="B76" s="15"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="8"/>
       <c r="D76" s="11"/>
       <c r="E76" s="8"/>
@@ -1148,7 +1267,7 @@
       <c r="G76" s="8"/>
     </row>
     <row r="77">
-      <c r="B77" s="15"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="8"/>
       <c r="D77" s="11"/>
       <c r="E77" s="8"/>
@@ -1156,7 +1275,7 @@
       <c r="G77" s="8"/>
     </row>
     <row r="78">
-      <c r="B78" s="15"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="8"/>
       <c r="D78" s="11"/>
       <c r="E78" s="8"/>
@@ -1164,7 +1283,7 @@
       <c r="G78" s="8"/>
     </row>
     <row r="79">
-      <c r="B79" s="15"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="8"/>
       <c r="D79" s="11"/>
       <c r="E79" s="8"/>
@@ -1172,7 +1291,7 @@
       <c r="G79" s="8"/>
     </row>
     <row r="80">
-      <c r="B80" s="15"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="8"/>
       <c r="D80" s="11"/>
       <c r="E80" s="8"/>
@@ -1180,7 +1299,7 @@
       <c r="G80" s="8"/>
     </row>
     <row r="81">
-      <c r="B81" s="15"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="8"/>
       <c r="D81" s="11"/>
       <c r="E81" s="8"/>
@@ -1188,7 +1307,7 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82">
-      <c r="B82" s="15"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="8"/>
       <c r="D82" s="11"/>
       <c r="E82" s="8"/>
@@ -1196,7 +1315,7 @@
       <c r="G82" s="8"/>
     </row>
     <row r="83">
-      <c r="B83" s="15"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="8"/>
       <c r="D83" s="11"/>
       <c r="E83" s="8"/>
@@ -1204,7 +1323,7 @@
       <c r="G83" s="8"/>
     </row>
     <row r="84">
-      <c r="B84" s="15"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="8"/>
       <c r="D84" s="11"/>
       <c r="E84" s="8"/>
@@ -1212,7 +1331,7 @@
       <c r="G84" s="8"/>
     </row>
     <row r="85">
-      <c r="B85" s="15"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="8"/>
       <c r="D85" s="11"/>
       <c r="E85" s="8"/>
@@ -1220,7 +1339,7 @@
       <c r="G85" s="8"/>
     </row>
     <row r="86">
-      <c r="B86" s="15"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="8"/>
       <c r="D86" s="11"/>
       <c r="E86" s="8"/>
@@ -1228,7 +1347,7 @@
       <c r="G86" s="8"/>
     </row>
     <row r="87">
-      <c r="B87" s="15"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="8"/>
       <c r="D87" s="11"/>
       <c r="E87" s="8"/>
@@ -1236,7 +1355,7 @@
       <c r="G87" s="8"/>
     </row>
     <row r="88">
-      <c r="B88" s="15"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="8"/>
       <c r="D88" s="11"/>
       <c r="E88" s="8"/>
@@ -1244,7 +1363,7 @@
       <c r="G88" s="8"/>
     </row>
     <row r="89">
-      <c r="B89" s="15"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="8"/>
       <c r="D89" s="11"/>
       <c r="E89" s="8"/>
@@ -1252,7 +1371,7 @@
       <c r="G89" s="8"/>
     </row>
     <row r="90">
-      <c r="B90" s="15"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="8"/>
       <c r="D90" s="11"/>
       <c r="E90" s="8"/>
@@ -1260,7 +1379,7 @@
       <c r="G90" s="8"/>
     </row>
     <row r="91">
-      <c r="B91" s="15"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="8"/>
       <c r="D91" s="11"/>
       <c r="E91" s="8"/>
@@ -1268,7 +1387,7 @@
       <c r="G91" s="8"/>
     </row>
     <row r="92">
-      <c r="B92" s="15"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="8"/>
       <c r="D92" s="11"/>
       <c r="E92" s="8"/>
@@ -1276,7 +1395,7 @@
       <c r="G92" s="8"/>
     </row>
     <row r="93">
-      <c r="B93" s="15"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="8"/>
       <c r="D93" s="11"/>
       <c r="E93" s="8"/>
@@ -1284,7 +1403,7 @@
       <c r="G93" s="8"/>
     </row>
     <row r="94">
-      <c r="B94" s="15"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="8"/>
       <c r="D94" s="11"/>
       <c r="E94" s="8"/>
@@ -1292,7 +1411,7 @@
       <c r="G94" s="8"/>
     </row>
     <row r="95">
-      <c r="B95" s="15"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="8"/>
       <c r="D95" s="11"/>
       <c r="E95" s="8"/>
@@ -1300,7 +1419,7 @@
       <c r="G95" s="8"/>
     </row>
     <row r="96">
-      <c r="B96" s="15"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="8"/>
       <c r="D96" s="11"/>
       <c r="E96" s="8"/>
@@ -1308,7 +1427,7 @@
       <c r="G96" s="8"/>
     </row>
     <row r="97">
-      <c r="B97" s="15"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="8"/>
       <c r="D97" s="11"/>
       <c r="E97" s="8"/>
@@ -1316,7 +1435,7 @@
       <c r="G97" s="8"/>
     </row>
     <row r="98">
-      <c r="B98" s="15"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="8"/>
       <c r="D98" s="11"/>
       <c r="E98" s="8"/>
@@ -1324,7 +1443,7 @@
       <c r="G98" s="8"/>
     </row>
     <row r="99">
-      <c r="B99" s="15"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="8"/>
       <c r="D99" s="11"/>
       <c r="E99" s="8"/>
@@ -1332,7 +1451,7 @@
       <c r="G99" s="8"/>
     </row>
     <row r="100">
-      <c r="B100" s="15"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="8"/>
       <c r="D100" s="11"/>
       <c r="E100" s="8"/>
@@ -1340,7 +1459,7 @@
       <c r="G100" s="8"/>
     </row>
     <row r="101">
-      <c r="B101" s="15"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="8"/>
       <c r="D101" s="11"/>
       <c r="E101" s="8"/>
@@ -1348,7 +1467,7 @@
       <c r="G101" s="8"/>
     </row>
     <row r="102">
-      <c r="B102" s="15"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="8"/>
       <c r="D102" s="11"/>
       <c r="E102" s="8"/>
@@ -1356,7 +1475,7 @@
       <c r="G102" s="8"/>
     </row>
     <row r="103">
-      <c r="B103" s="15"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="8"/>
       <c r="D103" s="11"/>
       <c r="E103" s="8"/>
@@ -1364,7 +1483,7 @@
       <c r="G103" s="8"/>
     </row>
     <row r="104">
-      <c r="B104" s="15"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="8"/>
       <c r="D104" s="11"/>
       <c r="E104" s="8"/>
@@ -1372,7 +1491,7 @@
       <c r="G104" s="8"/>
     </row>
     <row r="105">
-      <c r="B105" s="15"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="8"/>
       <c r="D105" s="11"/>
       <c r="E105" s="8"/>
@@ -1380,7 +1499,7 @@
       <c r="G105" s="8"/>
     </row>
     <row r="106">
-      <c r="B106" s="15"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="8"/>
       <c r="D106" s="11"/>
       <c r="E106" s="8"/>
@@ -1388,7 +1507,7 @@
       <c r="G106" s="8"/>
     </row>
     <row r="107">
-      <c r="B107" s="15"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="8"/>
       <c r="D107" s="11"/>
       <c r="E107" s="8"/>
@@ -1396,7 +1515,7 @@
       <c r="G107" s="8"/>
     </row>
     <row r="108">
-      <c r="B108" s="15"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="8"/>
       <c r="D108" s="11"/>
       <c r="E108" s="8"/>
@@ -1404,7 +1523,7 @@
       <c r="G108" s="8"/>
     </row>
     <row r="109">
-      <c r="B109" s="15"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="8"/>
       <c r="D109" s="11"/>
       <c r="E109" s="8"/>
@@ -1412,7 +1531,7 @@
       <c r="G109" s="8"/>
     </row>
     <row r="110">
-      <c r="B110" s="15"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="8"/>
       <c r="D110" s="11"/>
       <c r="E110" s="8"/>
@@ -1420,7 +1539,7 @@
       <c r="G110" s="8"/>
     </row>
     <row r="111">
-      <c r="B111" s="15"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="8"/>
       <c r="D111" s="11"/>
       <c r="E111" s="8"/>
@@ -1428,7 +1547,7 @@
       <c r="G111" s="8"/>
     </row>
     <row r="112">
-      <c r="B112" s="15"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="8"/>
       <c r="D112" s="11"/>
       <c r="E112" s="8"/>
@@ -1436,7 +1555,7 @@
       <c r="G112" s="8"/>
     </row>
     <row r="113">
-      <c r="B113" s="15"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="8"/>
       <c r="D113" s="11"/>
       <c r="E113" s="8"/>
@@ -1444,7 +1563,7 @@
       <c r="G113" s="8"/>
     </row>
     <row r="114">
-      <c r="B114" s="15"/>
+      <c r="B114" s="16"/>
       <c r="C114" s="8"/>
       <c r="D114" s="11"/>
       <c r="E114" s="8"/>
@@ -1452,7 +1571,7 @@
       <c r="G114" s="8"/>
     </row>
     <row r="115">
-      <c r="B115" s="15"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="8"/>
       <c r="D115" s="11"/>
       <c r="E115" s="8"/>
@@ -1460,7 +1579,7 @@
       <c r="G115" s="8"/>
     </row>
     <row r="116">
-      <c r="B116" s="15"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="8"/>
       <c r="D116" s="11"/>
       <c r="E116" s="8"/>
@@ -1468,7 +1587,7 @@
       <c r="G116" s="8"/>
     </row>
     <row r="117">
-      <c r="B117" s="15"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="8"/>
       <c r="D117" s="11"/>
       <c r="E117" s="8"/>
@@ -1476,7 +1595,7 @@
       <c r="G117" s="8"/>
     </row>
     <row r="118">
-      <c r="B118" s="15"/>
+      <c r="B118" s="16"/>
       <c r="C118" s="8"/>
       <c r="D118" s="11"/>
       <c r="E118" s="8"/>
@@ -1484,7 +1603,7 @@
       <c r="G118" s="8"/>
     </row>
     <row r="119">
-      <c r="B119" s="15"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="8"/>
       <c r="D119" s="11"/>
       <c r="E119" s="8"/>
@@ -1492,7 +1611,7 @@
       <c r="G119" s="8"/>
     </row>
     <row r="120">
-      <c r="B120" s="15"/>
+      <c r="B120" s="16"/>
       <c r="C120" s="8"/>
       <c r="D120" s="11"/>
       <c r="E120" s="8"/>
@@ -1500,7 +1619,7 @@
       <c r="G120" s="8"/>
     </row>
     <row r="121">
-      <c r="B121" s="15"/>
+      <c r="B121" s="16"/>
       <c r="C121" s="8"/>
       <c r="D121" s="11"/>
       <c r="E121" s="8"/>
@@ -1508,7 +1627,7 @@
       <c r="G121" s="8"/>
     </row>
     <row r="122">
-      <c r="B122" s="15"/>
+      <c r="B122" s="16"/>
       <c r="C122" s="8"/>
       <c r="D122" s="11"/>
       <c r="E122" s="8"/>
@@ -1516,7 +1635,7 @@
       <c r="G122" s="8"/>
     </row>
     <row r="123">
-      <c r="B123" s="15"/>
+      <c r="B123" s="16"/>
       <c r="C123" s="8"/>
       <c r="D123" s="11"/>
       <c r="E123" s="8"/>
@@ -1524,7 +1643,7 @@
       <c r="G123" s="8"/>
     </row>
     <row r="124">
-      <c r="B124" s="15"/>
+      <c r="B124" s="16"/>
       <c r="C124" s="8"/>
       <c r="D124" s="11"/>
       <c r="E124" s="8"/>
@@ -1532,7 +1651,7 @@
       <c r="G124" s="8"/>
     </row>
     <row r="125">
-      <c r="B125" s="15"/>
+      <c r="B125" s="16"/>
       <c r="C125" s="8"/>
       <c r="D125" s="11"/>
       <c r="E125" s="8"/>
@@ -1540,7 +1659,7 @@
       <c r="G125" s="8"/>
     </row>
     <row r="126">
-      <c r="B126" s="15"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="8"/>
       <c r="D126" s="11"/>
       <c r="E126" s="8"/>
@@ -1548,7 +1667,7 @@
       <c r="G126" s="8"/>
     </row>
     <row r="127">
-      <c r="B127" s="15"/>
+      <c r="B127" s="16"/>
       <c r="C127" s="8"/>
       <c r="D127" s="11"/>
       <c r="E127" s="8"/>
@@ -1556,7 +1675,7 @@
       <c r="G127" s="8"/>
     </row>
     <row r="128">
-      <c r="B128" s="15"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="8"/>
       <c r="D128" s="11"/>
       <c r="E128" s="8"/>
@@ -1564,7 +1683,7 @@
       <c r="G128" s="8"/>
     </row>
     <row r="129">
-      <c r="B129" s="15"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="8"/>
       <c r="D129" s="11"/>
       <c r="E129" s="8"/>
@@ -1572,7 +1691,7 @@
       <c r="G129" s="8"/>
     </row>
     <row r="130">
-      <c r="B130" s="15"/>
+      <c r="B130" s="16"/>
       <c r="C130" s="8"/>
       <c r="D130" s="11"/>
       <c r="E130" s="8"/>
@@ -1580,7 +1699,7 @@
       <c r="G130" s="8"/>
     </row>
     <row r="131">
-      <c r="B131" s="15"/>
+      <c r="B131" s="16"/>
       <c r="C131" s="8"/>
       <c r="D131" s="11"/>
       <c r="E131" s="8"/>
@@ -1588,7 +1707,7 @@
       <c r="G131" s="8"/>
     </row>
     <row r="132">
-      <c r="B132" s="15"/>
+      <c r="B132" s="16"/>
       <c r="C132" s="8"/>
       <c r="D132" s="11"/>
       <c r="E132" s="8"/>
@@ -1596,7 +1715,7 @@
       <c r="G132" s="8"/>
     </row>
     <row r="133">
-      <c r="B133" s="15"/>
+      <c r="B133" s="16"/>
       <c r="C133" s="8"/>
       <c r="D133" s="11"/>
       <c r="E133" s="8"/>
@@ -1604,7 +1723,7 @@
       <c r="G133" s="8"/>
     </row>
     <row r="134">
-      <c r="B134" s="15"/>
+      <c r="B134" s="16"/>
       <c r="C134" s="8"/>
       <c r="D134" s="11"/>
       <c r="E134" s="8"/>
@@ -1612,7 +1731,7 @@
       <c r="G134" s="8"/>
     </row>
     <row r="135">
-      <c r="B135" s="15"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="8"/>
       <c r="D135" s="11"/>
       <c r="E135" s="8"/>
@@ -1620,7 +1739,7 @@
       <c r="G135" s="8"/>
     </row>
     <row r="136">
-      <c r="B136" s="15"/>
+      <c r="B136" s="16"/>
       <c r="C136" s="8"/>
       <c r="D136" s="11"/>
       <c r="E136" s="8"/>
@@ -1628,7 +1747,7 @@
       <c r="G136" s="8"/>
     </row>
     <row r="137">
-      <c r="B137" s="15"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="8"/>
       <c r="D137" s="11"/>
       <c r="E137" s="8"/>
@@ -1636,7 +1755,7 @@
       <c r="G137" s="8"/>
     </row>
     <row r="138">
-      <c r="B138" s="15"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="8"/>
       <c r="D138" s="11"/>
       <c r="E138" s="8"/>
@@ -1644,7 +1763,7 @@
       <c r="G138" s="8"/>
     </row>
     <row r="139">
-      <c r="B139" s="15"/>
+      <c r="B139" s="16"/>
       <c r="C139" s="8"/>
       <c r="D139" s="11"/>
       <c r="E139" s="8"/>
@@ -1652,7 +1771,7 @@
       <c r="G139" s="8"/>
     </row>
     <row r="140">
-      <c r="B140" s="15"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="8"/>
       <c r="D140" s="11"/>
       <c r="E140" s="8"/>
@@ -1660,7 +1779,7 @@
       <c r="G140" s="8"/>
     </row>
     <row r="141">
-      <c r="B141" s="15"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="8"/>
       <c r="D141" s="11"/>
       <c r="E141" s="8"/>
@@ -1668,7 +1787,7 @@
       <c r="G141" s="8"/>
     </row>
     <row r="142">
-      <c r="B142" s="15"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="8"/>
       <c r="D142" s="11"/>
       <c r="E142" s="8"/>
@@ -1676,7 +1795,7 @@
       <c r="G142" s="8"/>
     </row>
     <row r="143">
-      <c r="B143" s="15"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="8"/>
       <c r="D143" s="11"/>
       <c r="E143" s="8"/>
@@ -1684,7 +1803,7 @@
       <c r="G143" s="8"/>
     </row>
     <row r="144">
-      <c r="B144" s="15"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="8"/>
       <c r="D144" s="11"/>
       <c r="E144" s="8"/>
@@ -1692,7 +1811,7 @@
       <c r="G144" s="8"/>
     </row>
     <row r="145">
-      <c r="B145" s="15"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="8"/>
       <c r="D145" s="11"/>
       <c r="E145" s="8"/>
@@ -1700,7 +1819,7 @@
       <c r="G145" s="8"/>
     </row>
     <row r="146">
-      <c r="B146" s="15"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="8"/>
       <c r="D146" s="11"/>
       <c r="E146" s="8"/>
@@ -1708,7 +1827,7 @@
       <c r="G146" s="8"/>
     </row>
     <row r="147">
-      <c r="B147" s="15"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="8"/>
       <c r="D147" s="11"/>
       <c r="E147" s="8"/>
@@ -1716,7 +1835,7 @@
       <c r="G147" s="8"/>
     </row>
     <row r="148">
-      <c r="B148" s="15"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="8"/>
       <c r="D148" s="11"/>
       <c r="E148" s="8"/>
@@ -1724,7 +1843,7 @@
       <c r="G148" s="8"/>
     </row>
     <row r="149">
-      <c r="B149" s="15"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="8"/>
       <c r="D149" s="11"/>
       <c r="E149" s="8"/>
@@ -1732,7 +1851,7 @@
       <c r="G149" s="8"/>
     </row>
     <row r="150">
-      <c r="B150" s="15"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="8"/>
       <c r="D150" s="11"/>
       <c r="E150" s="8"/>
@@ -1740,7 +1859,7 @@
       <c r="G150" s="8"/>
     </row>
     <row r="151">
-      <c r="B151" s="15"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="8"/>
       <c r="D151" s="11"/>
       <c r="E151" s="8"/>
@@ -1748,7 +1867,7 @@
       <c r="G151" s="8"/>
     </row>
     <row r="152">
-      <c r="B152" s="15"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="8"/>
       <c r="D152" s="11"/>
       <c r="E152" s="8"/>
@@ -1756,7 +1875,7 @@
       <c r="G152" s="8"/>
     </row>
     <row r="153">
-      <c r="B153" s="15"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="8"/>
       <c r="D153" s="11"/>
       <c r="E153" s="8"/>
@@ -1764,7 +1883,7 @@
       <c r="G153" s="8"/>
     </row>
     <row r="154">
-      <c r="B154" s="15"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="8"/>
       <c r="D154" s="11"/>
       <c r="E154" s="8"/>
@@ -1772,7 +1891,7 @@
       <c r="G154" s="8"/>
     </row>
     <row r="155">
-      <c r="B155" s="15"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="8"/>
       <c r="D155" s="11"/>
       <c r="E155" s="8"/>
@@ -1780,7 +1899,7 @@
       <c r="G155" s="8"/>
     </row>
     <row r="156">
-      <c r="B156" s="15"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="8"/>
       <c r="D156" s="11"/>
       <c r="E156" s="8"/>
@@ -1788,7 +1907,7 @@
       <c r="G156" s="8"/>
     </row>
     <row r="157">
-      <c r="B157" s="15"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="8"/>
       <c r="D157" s="11"/>
       <c r="E157" s="8"/>
@@ -1796,7 +1915,7 @@
       <c r="G157" s="8"/>
     </row>
     <row r="158">
-      <c r="B158" s="15"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="8"/>
       <c r="D158" s="11"/>
       <c r="E158" s="8"/>
@@ -1804,7 +1923,7 @@
       <c r="G158" s="8"/>
     </row>
     <row r="159">
-      <c r="B159" s="15"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="8"/>
       <c r="D159" s="11"/>
       <c r="E159" s="8"/>
@@ -1812,7 +1931,7 @@
       <c r="G159" s="8"/>
     </row>
     <row r="160">
-      <c r="B160" s="15"/>
+      <c r="B160" s="16"/>
       <c r="C160" s="8"/>
       <c r="D160" s="11"/>
       <c r="E160" s="8"/>
@@ -1820,7 +1939,7 @@
       <c r="G160" s="8"/>
     </row>
     <row r="161">
-      <c r="B161" s="15"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="8"/>
       <c r="D161" s="11"/>
       <c r="E161" s="8"/>
@@ -1828,7 +1947,7 @@
       <c r="G161" s="8"/>
     </row>
     <row r="162">
-      <c r="B162" s="15"/>
+      <c r="B162" s="16"/>
       <c r="C162" s="8"/>
       <c r="D162" s="11"/>
       <c r="E162" s="8"/>
@@ -1836,7 +1955,7 @@
       <c r="G162" s="8"/>
     </row>
     <row r="163">
-      <c r="B163" s="15"/>
+      <c r="B163" s="16"/>
       <c r="C163" s="8"/>
       <c r="D163" s="11"/>
       <c r="E163" s="8"/>
@@ -1844,7 +1963,7 @@
       <c r="G163" s="8"/>
     </row>
     <row r="164">
-      <c r="B164" s="15"/>
+      <c r="B164" s="16"/>
       <c r="C164" s="8"/>
       <c r="D164" s="11"/>
       <c r="E164" s="8"/>
@@ -1852,7 +1971,7 @@
       <c r="G164" s="8"/>
     </row>
     <row r="165">
-      <c r="B165" s="15"/>
+      <c r="B165" s="16"/>
       <c r="C165" s="8"/>
       <c r="D165" s="11"/>
       <c r="E165" s="8"/>
@@ -1860,7 +1979,7 @@
       <c r="G165" s="8"/>
     </row>
     <row r="166">
-      <c r="B166" s="15"/>
+      <c r="B166" s="16"/>
       <c r="C166" s="8"/>
       <c r="D166" s="11"/>
       <c r="E166" s="8"/>
@@ -1868,7 +1987,7 @@
       <c r="G166" s="8"/>
     </row>
     <row r="167">
-      <c r="B167" s="15"/>
+      <c r="B167" s="16"/>
       <c r="C167" s="8"/>
       <c r="D167" s="11"/>
       <c r="E167" s="8"/>
@@ -1876,7 +1995,7 @@
       <c r="G167" s="8"/>
     </row>
     <row r="168">
-      <c r="B168" s="15"/>
+      <c r="B168" s="16"/>
       <c r="C168" s="8"/>
       <c r="D168" s="11"/>
       <c r="E168" s="8"/>
@@ -1884,7 +2003,7 @@
       <c r="G168" s="8"/>
     </row>
     <row r="169">
-      <c r="B169" s="15"/>
+      <c r="B169" s="16"/>
       <c r="C169" s="8"/>
       <c r="D169" s="11"/>
       <c r="E169" s="8"/>
@@ -1892,7 +2011,7 @@
       <c r="G169" s="8"/>
     </row>
     <row r="170">
-      <c r="B170" s="15"/>
+      <c r="B170" s="16"/>
       <c r="C170" s="8"/>
       <c r="D170" s="11"/>
       <c r="E170" s="8"/>
@@ -1900,7 +2019,7 @@
       <c r="G170" s="8"/>
     </row>
     <row r="171">
-      <c r="B171" s="15"/>
+      <c r="B171" s="16"/>
       <c r="C171" s="8"/>
       <c r="D171" s="11"/>
       <c r="E171" s="8"/>
@@ -1908,7 +2027,7 @@
       <c r="G171" s="8"/>
     </row>
     <row r="172">
-      <c r="B172" s="15"/>
+      <c r="B172" s="16"/>
       <c r="C172" s="8"/>
       <c r="D172" s="11"/>
       <c r="E172" s="8"/>
@@ -1916,7 +2035,7 @@
       <c r="G172" s="8"/>
     </row>
     <row r="173">
-      <c r="B173" s="15"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="8"/>
       <c r="D173" s="11"/>
       <c r="E173" s="8"/>
@@ -1924,7 +2043,7 @@
       <c r="G173" s="8"/>
     </row>
     <row r="174">
-      <c r="B174" s="15"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="8"/>
       <c r="D174" s="11"/>
       <c r="E174" s="8"/>
@@ -1932,7 +2051,7 @@
       <c r="G174" s="8"/>
     </row>
     <row r="175">
-      <c r="B175" s="15"/>
+      <c r="B175" s="16"/>
       <c r="C175" s="8"/>
       <c r="D175" s="11"/>
       <c r="E175" s="8"/>
@@ -1940,7 +2059,7 @@
       <c r="G175" s="8"/>
     </row>
     <row r="176">
-      <c r="B176" s="15"/>
+      <c r="B176" s="16"/>
       <c r="C176" s="8"/>
       <c r="D176" s="11"/>
       <c r="E176" s="8"/>
@@ -1948,7 +2067,7 @@
       <c r="G176" s="8"/>
     </row>
     <row r="177">
-      <c r="B177" s="15"/>
+      <c r="B177" s="16"/>
       <c r="C177" s="8"/>
       <c r="D177" s="11"/>
       <c r="E177" s="8"/>
@@ -1956,7 +2075,7 @@
       <c r="G177" s="8"/>
     </row>
     <row r="178">
-      <c r="B178" s="15"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="8"/>
       <c r="D178" s="11"/>
       <c r="E178" s="8"/>
@@ -1964,7 +2083,7 @@
       <c r="G178" s="8"/>
     </row>
     <row r="179">
-      <c r="B179" s="15"/>
+      <c r="B179" s="16"/>
       <c r="C179" s="8"/>
       <c r="D179" s="11"/>
       <c r="E179" s="8"/>
@@ -1972,7 +2091,7 @@
       <c r="G179" s="8"/>
     </row>
     <row r="180">
-      <c r="B180" s="15"/>
+      <c r="B180" s="16"/>
       <c r="C180" s="8"/>
       <c r="D180" s="11"/>
       <c r="E180" s="8"/>
@@ -1980,7 +2099,7 @@
       <c r="G180" s="8"/>
     </row>
     <row r="181">
-      <c r="B181" s="15"/>
+      <c r="B181" s="16"/>
       <c r="C181" s="8"/>
       <c r="D181" s="11"/>
       <c r="E181" s="8"/>
@@ -1988,7 +2107,7 @@
       <c r="G181" s="8"/>
     </row>
     <row r="182">
-      <c r="B182" s="15"/>
+      <c r="B182" s="16"/>
       <c r="C182" s="8"/>
       <c r="D182" s="11"/>
       <c r="E182" s="8"/>
@@ -1996,7 +2115,7 @@
       <c r="G182" s="8"/>
     </row>
     <row r="183">
-      <c r="B183" s="15"/>
+      <c r="B183" s="16"/>
       <c r="C183" s="8"/>
       <c r="D183" s="11"/>
       <c r="E183" s="8"/>
@@ -2004,7 +2123,7 @@
       <c r="G183" s="8"/>
     </row>
     <row r="184">
-      <c r="B184" s="15"/>
+      <c r="B184" s="16"/>
       <c r="C184" s="8"/>
       <c r="D184" s="11"/>
       <c r="E184" s="8"/>
@@ -2012,7 +2131,7 @@
       <c r="G184" s="8"/>
     </row>
     <row r="185">
-      <c r="B185" s="15"/>
+      <c r="B185" s="16"/>
       <c r="C185" s="8"/>
       <c r="D185" s="11"/>
       <c r="E185" s="8"/>
@@ -2020,7 +2139,7 @@
       <c r="G185" s="8"/>
     </row>
     <row r="186">
-      <c r="B186" s="15"/>
+      <c r="B186" s="16"/>
       <c r="C186" s="8"/>
       <c r="D186" s="11"/>
       <c r="E186" s="8"/>
@@ -2028,7 +2147,7 @@
       <c r="G186" s="8"/>
     </row>
     <row r="187">
-      <c r="B187" s="15"/>
+      <c r="B187" s="16"/>
       <c r="C187" s="8"/>
       <c r="D187" s="11"/>
       <c r="E187" s="8"/>
@@ -2036,7 +2155,7 @@
       <c r="G187" s="8"/>
     </row>
     <row r="188">
-      <c r="B188" s="15"/>
+      <c r="B188" s="16"/>
       <c r="C188" s="8"/>
       <c r="D188" s="11"/>
       <c r="E188" s="8"/>
@@ -2044,7 +2163,7 @@
       <c r="G188" s="8"/>
     </row>
     <row r="189">
-      <c r="B189" s="15"/>
+      <c r="B189" s="16"/>
       <c r="C189" s="8"/>
       <c r="D189" s="11"/>
       <c r="E189" s="8"/>
@@ -2052,7 +2171,7 @@
       <c r="G189" s="8"/>
     </row>
     <row r="190">
-      <c r="B190" s="15"/>
+      <c r="B190" s="16"/>
       <c r="C190" s="8"/>
       <c r="D190" s="11"/>
       <c r="E190" s="8"/>
@@ -2060,7 +2179,7 @@
       <c r="G190" s="8"/>
     </row>
     <row r="191">
-      <c r="B191" s="15"/>
+      <c r="B191" s="16"/>
       <c r="C191" s="8"/>
       <c r="D191" s="11"/>
       <c r="E191" s="8"/>
@@ -2068,7 +2187,7 @@
       <c r="G191" s="8"/>
     </row>
     <row r="192">
-      <c r="B192" s="15"/>
+      <c r="B192" s="16"/>
       <c r="C192" s="8"/>
       <c r="D192" s="11"/>
       <c r="E192" s="8"/>
@@ -2076,7 +2195,7 @@
       <c r="G192" s="8"/>
     </row>
     <row r="193">
-      <c r="B193" s="15"/>
+      <c r="B193" s="16"/>
       <c r="C193" s="8"/>
       <c r="D193" s="11"/>
       <c r="E193" s="8"/>
@@ -2084,7 +2203,7 @@
       <c r="G193" s="8"/>
     </row>
     <row r="194">
-      <c r="B194" s="15"/>
+      <c r="B194" s="16"/>
       <c r="C194" s="8"/>
       <c r="D194" s="11"/>
       <c r="E194" s="8"/>
@@ -2092,7 +2211,7 @@
       <c r="G194" s="8"/>
     </row>
     <row r="195">
-      <c r="B195" s="15"/>
+      <c r="B195" s="16"/>
       <c r="C195" s="8"/>
       <c r="D195" s="11"/>
       <c r="E195" s="8"/>
@@ -2100,7 +2219,7 @@
       <c r="G195" s="8"/>
     </row>
     <row r="196">
-      <c r="B196" s="15"/>
+      <c r="B196" s="16"/>
       <c r="C196" s="8"/>
       <c r="D196" s="11"/>
       <c r="E196" s="8"/>
@@ -2108,7 +2227,7 @@
       <c r="G196" s="8"/>
     </row>
     <row r="197">
-      <c r="B197" s="15"/>
+      <c r="B197" s="16"/>
       <c r="C197" s="8"/>
       <c r="D197" s="11"/>
       <c r="E197" s="8"/>
@@ -2116,7 +2235,7 @@
       <c r="G197" s="8"/>
     </row>
     <row r="198">
-      <c r="B198" s="15"/>
+      <c r="B198" s="16"/>
       <c r="C198" s="8"/>
       <c r="D198" s="11"/>
       <c r="E198" s="8"/>
@@ -2124,7 +2243,7 @@
       <c r="G198" s="8"/>
     </row>
     <row r="199">
-      <c r="B199" s="15"/>
+      <c r="B199" s="16"/>
       <c r="C199" s="8"/>
       <c r="D199" s="11"/>
       <c r="E199" s="8"/>
@@ -2132,7 +2251,7 @@
       <c r="G199" s="8"/>
     </row>
     <row r="200">
-      <c r="B200" s="15"/>
+      <c r="B200" s="16"/>
       <c r="C200" s="8"/>
       <c r="D200" s="11"/>
       <c r="E200" s="8"/>
@@ -2140,7 +2259,7 @@
       <c r="G200" s="8"/>
     </row>
     <row r="201">
-      <c r="B201" s="15"/>
+      <c r="B201" s="16"/>
       <c r="C201" s="8"/>
       <c r="D201" s="11"/>
       <c r="E201" s="8"/>
@@ -2148,7 +2267,7 @@
       <c r="G201" s="8"/>
     </row>
     <row r="202">
-      <c r="B202" s="15"/>
+      <c r="B202" s="16"/>
       <c r="C202" s="8"/>
       <c r="D202" s="11"/>
       <c r="E202" s="8"/>
@@ -2156,7 +2275,7 @@
       <c r="G202" s="8"/>
     </row>
     <row r="203">
-      <c r="B203" s="15"/>
+      <c r="B203" s="16"/>
       <c r="C203" s="8"/>
       <c r="D203" s="11"/>
       <c r="E203" s="8"/>
@@ -2164,7 +2283,7 @@
       <c r="G203" s="8"/>
     </row>
     <row r="204">
-      <c r="B204" s="15"/>
+      <c r="B204" s="16"/>
       <c r="C204" s="8"/>
       <c r="D204" s="11"/>
       <c r="E204" s="8"/>
@@ -2172,7 +2291,7 @@
       <c r="G204" s="8"/>
     </row>
     <row r="205">
-      <c r="B205" s="15"/>
+      <c r="B205" s="16"/>
       <c r="C205" s="8"/>
       <c r="D205" s="11"/>
       <c r="E205" s="8"/>
@@ -2180,7 +2299,7 @@
       <c r="G205" s="8"/>
     </row>
     <row r="206">
-      <c r="B206" s="15"/>
+      <c r="B206" s="16"/>
       <c r="C206" s="8"/>
       <c r="D206" s="11"/>
       <c r="E206" s="8"/>
@@ -2188,7 +2307,7 @@
       <c r="G206" s="8"/>
     </row>
     <row r="207">
-      <c r="B207" s="15"/>
+      <c r="B207" s="16"/>
       <c r="C207" s="8"/>
       <c r="D207" s="11"/>
       <c r="E207" s="8"/>
@@ -2196,7 +2315,7 @@
       <c r="G207" s="8"/>
     </row>
     <row r="208">
-      <c r="B208" s="15"/>
+      <c r="B208" s="16"/>
       <c r="C208" s="8"/>
       <c r="D208" s="11"/>
       <c r="E208" s="8"/>
@@ -2204,7 +2323,7 @@
       <c r="G208" s="8"/>
     </row>
     <row r="209">
-      <c r="B209" s="15"/>
+      <c r="B209" s="16"/>
       <c r="C209" s="8"/>
       <c r="D209" s="11"/>
       <c r="E209" s="8"/>
@@ -2212,7 +2331,7 @@
       <c r="G209" s="8"/>
     </row>
     <row r="210">
-      <c r="B210" s="15"/>
+      <c r="B210" s="16"/>
       <c r="C210" s="8"/>
       <c r="D210" s="11"/>
       <c r="E210" s="8"/>
@@ -2220,7 +2339,7 @@
       <c r="G210" s="8"/>
     </row>
     <row r="211">
-      <c r="B211" s="15"/>
+      <c r="B211" s="16"/>
       <c r="C211" s="8"/>
       <c r="D211" s="11"/>
       <c r="E211" s="8"/>
@@ -2228,7 +2347,7 @@
       <c r="G211" s="8"/>
     </row>
     <row r="212">
-      <c r="B212" s="15"/>
+      <c r="B212" s="16"/>
       <c r="C212" s="8"/>
       <c r="D212" s="11"/>
       <c r="E212" s="8"/>
@@ -2236,7 +2355,7 @@
       <c r="G212" s="8"/>
     </row>
     <row r="213">
-      <c r="B213" s="15"/>
+      <c r="B213" s="16"/>
       <c r="C213" s="8"/>
       <c r="D213" s="11"/>
       <c r="E213" s="8"/>
@@ -2244,7 +2363,7 @@
       <c r="G213" s="8"/>
     </row>
     <row r="214">
-      <c r="B214" s="15"/>
+      <c r="B214" s="16"/>
       <c r="C214" s="8"/>
       <c r="D214" s="11"/>
       <c r="E214" s="8"/>
@@ -2252,7 +2371,7 @@
       <c r="G214" s="8"/>
     </row>
     <row r="215">
-      <c r="B215" s="15"/>
+      <c r="B215" s="16"/>
       <c r="C215" s="8"/>
       <c r="D215" s="11"/>
       <c r="E215" s="8"/>
@@ -2260,7 +2379,7 @@
       <c r="G215" s="8"/>
     </row>
     <row r="216">
-      <c r="B216" s="15"/>
+      <c r="B216" s="16"/>
       <c r="C216" s="8"/>
       <c r="D216" s="11"/>
       <c r="E216" s="8"/>
@@ -2268,7 +2387,7 @@
       <c r="G216" s="8"/>
     </row>
     <row r="217">
-      <c r="B217" s="15"/>
+      <c r="B217" s="16"/>
       <c r="C217" s="8"/>
       <c r="D217" s="11"/>
       <c r="E217" s="8"/>
@@ -2276,7 +2395,7 @@
       <c r="G217" s="8"/>
     </row>
     <row r="218">
-      <c r="B218" s="15"/>
+      <c r="B218" s="16"/>
       <c r="C218" s="8"/>
       <c r="D218" s="11"/>
       <c r="E218" s="8"/>
@@ -2284,7 +2403,7 @@
       <c r="G218" s="8"/>
     </row>
     <row r="219">
-      <c r="B219" s="15"/>
+      <c r="B219" s="16"/>
       <c r="C219" s="8"/>
       <c r="D219" s="11"/>
       <c r="E219" s="8"/>
@@ -2292,7 +2411,7 @@
       <c r="G219" s="8"/>
     </row>
     <row r="220">
-      <c r="B220" s="15"/>
+      <c r="B220" s="16"/>
       <c r="C220" s="8"/>
       <c r="D220" s="11"/>
       <c r="E220" s="8"/>
@@ -2300,7 +2419,7 @@
       <c r="G220" s="8"/>
     </row>
     <row r="221">
-      <c r="B221" s="15"/>
+      <c r="B221" s="16"/>
       <c r="C221" s="8"/>
       <c r="D221" s="11"/>
       <c r="E221" s="8"/>
@@ -2308,7 +2427,7 @@
       <c r="G221" s="8"/>
     </row>
     <row r="222">
-      <c r="B222" s="15"/>
+      <c r="B222" s="16"/>
       <c r="C222" s="8"/>
       <c r="D222" s="11"/>
       <c r="E222" s="8"/>
@@ -2316,7 +2435,7 @@
       <c r="G222" s="8"/>
     </row>
     <row r="223">
-      <c r="B223" s="15"/>
+      <c r="B223" s="16"/>
       <c r="C223" s="8"/>
       <c r="D223" s="11"/>
       <c r="E223" s="8"/>
@@ -2324,7 +2443,7 @@
       <c r="G223" s="8"/>
     </row>
     <row r="224">
-      <c r="B224" s="15"/>
+      <c r="B224" s="16"/>
       <c r="C224" s="8"/>
       <c r="D224" s="11"/>
       <c r="E224" s="8"/>
@@ -2332,7 +2451,7 @@
       <c r="G224" s="8"/>
     </row>
     <row r="225">
-      <c r="B225" s="15"/>
+      <c r="B225" s="16"/>
       <c r="C225" s="8"/>
       <c r="D225" s="11"/>
       <c r="E225" s="8"/>
@@ -2340,7 +2459,7 @@
       <c r="G225" s="8"/>
     </row>
     <row r="226">
-      <c r="B226" s="15"/>
+      <c r="B226" s="16"/>
       <c r="C226" s="8"/>
       <c r="D226" s="11"/>
       <c r="E226" s="8"/>
@@ -2348,7 +2467,7 @@
       <c r="G226" s="8"/>
     </row>
     <row r="227">
-      <c r="B227" s="15"/>
+      <c r="B227" s="16"/>
       <c r="C227" s="8"/>
       <c r="D227" s="11"/>
       <c r="E227" s="8"/>
@@ -2356,7 +2475,7 @@
       <c r="G227" s="8"/>
     </row>
     <row r="228">
-      <c r="B228" s="15"/>
+      <c r="B228" s="16"/>
       <c r="C228" s="8"/>
       <c r="D228" s="11"/>
       <c r="E228" s="8"/>
@@ -2364,7 +2483,7 @@
       <c r="G228" s="8"/>
     </row>
     <row r="229">
-      <c r="B229" s="15"/>
+      <c r="B229" s="16"/>
       <c r="C229" s="8"/>
       <c r="D229" s="11"/>
       <c r="E229" s="8"/>
@@ -2372,7 +2491,7 @@
       <c r="G229" s="8"/>
     </row>
     <row r="230">
-      <c r="B230" s="15"/>
+      <c r="B230" s="16"/>
       <c r="C230" s="8"/>
       <c r="D230" s="11"/>
       <c r="E230" s="8"/>
@@ -2380,7 +2499,7 @@
       <c r="G230" s="8"/>
     </row>
     <row r="231">
-      <c r="B231" s="15"/>
+      <c r="B231" s="16"/>
       <c r="C231" s="8"/>
       <c r="D231" s="11"/>
       <c r="E231" s="8"/>
@@ -2388,7 +2507,7 @@
       <c r="G231" s="8"/>
     </row>
     <row r="232">
-      <c r="B232" s="15"/>
+      <c r="B232" s="16"/>
       <c r="C232" s="8"/>
       <c r="D232" s="11"/>
       <c r="E232" s="8"/>
@@ -2396,7 +2515,7 @@
       <c r="G232" s="8"/>
     </row>
     <row r="233">
-      <c r="B233" s="15"/>
+      <c r="B233" s="16"/>
       <c r="C233" s="8"/>
       <c r="D233" s="11"/>
       <c r="E233" s="8"/>
@@ -2404,7 +2523,7 @@
       <c r="G233" s="8"/>
     </row>
     <row r="234">
-      <c r="B234" s="15"/>
+      <c r="B234" s="16"/>
       <c r="C234" s="8"/>
       <c r="D234" s="11"/>
       <c r="E234" s="8"/>
@@ -2412,7 +2531,7 @@
       <c r="G234" s="8"/>
     </row>
     <row r="235">
-      <c r="B235" s="15"/>
+      <c r="B235" s="16"/>
       <c r="C235" s="8"/>
       <c r="D235" s="11"/>
       <c r="E235" s="8"/>
@@ -2420,7 +2539,7 @@
       <c r="G235" s="8"/>
     </row>
     <row r="236">
-      <c r="B236" s="15"/>
+      <c r="B236" s="16"/>
       <c r="C236" s="8"/>
       <c r="D236" s="11"/>
       <c r="E236" s="8"/>
@@ -2428,7 +2547,7 @@
       <c r="G236" s="8"/>
     </row>
     <row r="237">
-      <c r="B237" s="15"/>
+      <c r="B237" s="16"/>
       <c r="C237" s="8"/>
       <c r="D237" s="11"/>
       <c r="E237" s="8"/>
@@ -2436,7 +2555,7 @@
       <c r="G237" s="8"/>
     </row>
     <row r="238">
-      <c r="B238" s="15"/>
+      <c r="B238" s="16"/>
       <c r="C238" s="8"/>
       <c r="D238" s="11"/>
       <c r="E238" s="8"/>
@@ -2444,7 +2563,7 @@
       <c r="G238" s="8"/>
     </row>
     <row r="239">
-      <c r="B239" s="15"/>
+      <c r="B239" s="16"/>
       <c r="C239" s="8"/>
       <c r="D239" s="11"/>
       <c r="E239" s="8"/>
@@ -2452,7 +2571,7 @@
       <c r="G239" s="8"/>
     </row>
     <row r="240">
-      <c r="B240" s="15"/>
+      <c r="B240" s="16"/>
       <c r="C240" s="8"/>
       <c r="D240" s="11"/>
       <c r="E240" s="8"/>
@@ -2460,7 +2579,7 @@
       <c r="G240" s="8"/>
     </row>
     <row r="241">
-      <c r="B241" s="15"/>
+      <c r="B241" s="16"/>
       <c r="C241" s="8"/>
       <c r="D241" s="11"/>
       <c r="E241" s="8"/>
@@ -2468,7 +2587,7 @@
       <c r="G241" s="8"/>
     </row>
     <row r="242">
-      <c r="B242" s="15"/>
+      <c r="B242" s="16"/>
       <c r="C242" s="8"/>
       <c r="D242" s="11"/>
       <c r="E242" s="8"/>
@@ -2476,7 +2595,7 @@
       <c r="G242" s="8"/>
     </row>
     <row r="243">
-      <c r="B243" s="15"/>
+      <c r="B243" s="16"/>
       <c r="C243" s="8"/>
       <c r="D243" s="11"/>
       <c r="E243" s="8"/>
@@ -2484,7 +2603,7 @@
       <c r="G243" s="8"/>
     </row>
     <row r="244">
-      <c r="B244" s="15"/>
+      <c r="B244" s="16"/>
       <c r="C244" s="8"/>
       <c r="D244" s="11"/>
       <c r="E244" s="8"/>
@@ -2492,7 +2611,7 @@
       <c r="G244" s="8"/>
     </row>
     <row r="245">
-      <c r="B245" s="15"/>
+      <c r="B245" s="16"/>
       <c r="C245" s="8"/>
       <c r="D245" s="11"/>
       <c r="E245" s="8"/>
@@ -2500,7 +2619,7 @@
       <c r="G245" s="8"/>
     </row>
     <row r="246">
-      <c r="B246" s="15"/>
+      <c r="B246" s="16"/>
       <c r="C246" s="8"/>
       <c r="D246" s="11"/>
       <c r="E246" s="8"/>
@@ -2508,7 +2627,7 @@
       <c r="G246" s="8"/>
     </row>
     <row r="247">
-      <c r="B247" s="15"/>
+      <c r="B247" s="16"/>
       <c r="C247" s="8"/>
       <c r="D247" s="11"/>
       <c r="E247" s="8"/>
@@ -2516,7 +2635,7 @@
       <c r="G247" s="8"/>
     </row>
     <row r="248">
-      <c r="B248" s="15"/>
+      <c r="B248" s="16"/>
       <c r="C248" s="8"/>
       <c r="D248" s="11"/>
       <c r="E248" s="8"/>
@@ -2524,7 +2643,7 @@
       <c r="G248" s="8"/>
     </row>
     <row r="249">
-      <c r="B249" s="15"/>
+      <c r="B249" s="16"/>
       <c r="C249" s="8"/>
       <c r="D249" s="11"/>
       <c r="E249" s="8"/>
@@ -2532,7 +2651,7 @@
       <c r="G249" s="8"/>
     </row>
     <row r="250">
-      <c r="B250" s="15"/>
+      <c r="B250" s="16"/>
       <c r="C250" s="8"/>
       <c r="D250" s="11"/>
       <c r="E250" s="8"/>
@@ -2540,7 +2659,7 @@
       <c r="G250" s="8"/>
     </row>
     <row r="251">
-      <c r="B251" s="15"/>
+      <c r="B251" s="16"/>
       <c r="C251" s="8"/>
       <c r="D251" s="11"/>
       <c r="E251" s="8"/>
@@ -2548,7 +2667,7 @@
       <c r="G251" s="8"/>
     </row>
     <row r="252">
-      <c r="B252" s="15"/>
+      <c r="B252" s="16"/>
       <c r="C252" s="8"/>
       <c r="D252" s="11"/>
       <c r="E252" s="8"/>
@@ -2556,7 +2675,7 @@
       <c r="G252" s="8"/>
     </row>
     <row r="253">
-      <c r="B253" s="15"/>
+      <c r="B253" s="16"/>
       <c r="C253" s="8"/>
       <c r="D253" s="11"/>
       <c r="E253" s="8"/>
@@ -2564,7 +2683,7 @@
       <c r="G253" s="8"/>
     </row>
     <row r="254">
-      <c r="B254" s="15"/>
+      <c r="B254" s="16"/>
       <c r="C254" s="8"/>
       <c r="D254" s="11"/>
       <c r="E254" s="8"/>
@@ -2572,7 +2691,7 @@
       <c r="G254" s="8"/>
     </row>
     <row r="255">
-      <c r="B255" s="15"/>
+      <c r="B255" s="16"/>
       <c r="C255" s="8"/>
       <c r="D255" s="11"/>
       <c r="E255" s="8"/>
@@ -2580,7 +2699,7 @@
       <c r="G255" s="8"/>
     </row>
     <row r="256">
-      <c r="B256" s="15"/>
+      <c r="B256" s="16"/>
       <c r="C256" s="8"/>
       <c r="D256" s="11"/>
       <c r="E256" s="8"/>
@@ -2588,7 +2707,7 @@
       <c r="G256" s="8"/>
     </row>
     <row r="257">
-      <c r="B257" s="15"/>
+      <c r="B257" s="16"/>
       <c r="C257" s="8"/>
       <c r="D257" s="11"/>
       <c r="E257" s="8"/>
@@ -2596,7 +2715,7 @@
       <c r="G257" s="8"/>
     </row>
     <row r="258">
-      <c r="B258" s="15"/>
+      <c r="B258" s="16"/>
       <c r="C258" s="8"/>
       <c r="D258" s="11"/>
       <c r="E258" s="8"/>
@@ -2604,7 +2723,7 @@
       <c r="G258" s="8"/>
     </row>
     <row r="259">
-      <c r="B259" s="15"/>
+      <c r="B259" s="16"/>
       <c r="C259" s="8"/>
       <c r="D259" s="11"/>
       <c r="E259" s="8"/>
@@ -2612,7 +2731,7 @@
       <c r="G259" s="8"/>
     </row>
     <row r="260">
-      <c r="B260" s="15"/>
+      <c r="B260" s="16"/>
       <c r="C260" s="8"/>
       <c r="D260" s="11"/>
       <c r="E260" s="8"/>
@@ -2620,7 +2739,7 @@
       <c r="G260" s="8"/>
     </row>
     <row r="261">
-      <c r="B261" s="15"/>
+      <c r="B261" s="16"/>
       <c r="C261" s="8"/>
       <c r="D261" s="11"/>
       <c r="E261" s="8"/>
@@ -2628,7 +2747,7 @@
       <c r="G261" s="8"/>
     </row>
     <row r="262">
-      <c r="B262" s="15"/>
+      <c r="B262" s="16"/>
       <c r="C262" s="8"/>
       <c r="D262" s="11"/>
       <c r="E262" s="8"/>
@@ -2636,7 +2755,7 @@
       <c r="G262" s="8"/>
     </row>
     <row r="263">
-      <c r="B263" s="15"/>
+      <c r="B263" s="16"/>
       <c r="C263" s="8"/>
       <c r="D263" s="11"/>
       <c r="E263" s="8"/>
@@ -2644,7 +2763,7 @@
       <c r="G263" s="8"/>
     </row>
     <row r="264">
-      <c r="B264" s="15"/>
+      <c r="B264" s="16"/>
       <c r="C264" s="8"/>
       <c r="D264" s="11"/>
       <c r="E264" s="8"/>
@@ -2652,7 +2771,7 @@
       <c r="G264" s="8"/>
     </row>
     <row r="265">
-      <c r="B265" s="15"/>
+      <c r="B265" s="16"/>
       <c r="C265" s="8"/>
       <c r="D265" s="11"/>
       <c r="E265" s="8"/>
@@ -2660,7 +2779,7 @@
       <c r="G265" s="8"/>
     </row>
     <row r="266">
-      <c r="B266" s="15"/>
+      <c r="B266" s="16"/>
       <c r="C266" s="8"/>
       <c r="D266" s="11"/>
       <c r="E266" s="8"/>
@@ -2668,7 +2787,7 @@
       <c r="G266" s="8"/>
     </row>
     <row r="267">
-      <c r="B267" s="15"/>
+      <c r="B267" s="16"/>
       <c r="C267" s="8"/>
       <c r="D267" s="11"/>
       <c r="E267" s="8"/>
@@ -2676,7 +2795,7 @@
       <c r="G267" s="8"/>
     </row>
     <row r="268">
-      <c r="B268" s="15"/>
+      <c r="B268" s="16"/>
       <c r="C268" s="8"/>
       <c r="D268" s="11"/>
       <c r="E268" s="8"/>
@@ -2684,7 +2803,7 @@
       <c r="G268" s="8"/>
     </row>
     <row r="269">
-      <c r="B269" s="15"/>
+      <c r="B269" s="16"/>
       <c r="C269" s="8"/>
       <c r="D269" s="11"/>
       <c r="E269" s="8"/>
@@ -2692,7 +2811,7 @@
       <c r="G269" s="8"/>
     </row>
     <row r="270">
-      <c r="B270" s="15"/>
+      <c r="B270" s="16"/>
       <c r="C270" s="8"/>
       <c r="D270" s="11"/>
       <c r="E270" s="8"/>
@@ -2700,7 +2819,7 @@
       <c r="G270" s="8"/>
     </row>
     <row r="271">
-      <c r="B271" s="15"/>
+      <c r="B271" s="16"/>
       <c r="C271" s="8"/>
       <c r="D271" s="11"/>
       <c r="E271" s="8"/>
@@ -2708,7 +2827,7 @@
       <c r="G271" s="8"/>
     </row>
     <row r="272">
-      <c r="B272" s="15"/>
+      <c r="B272" s="16"/>
       <c r="C272" s="8"/>
       <c r="D272" s="11"/>
       <c r="E272" s="8"/>
@@ -2716,7 +2835,7 @@
       <c r="G272" s="8"/>
     </row>
     <row r="273">
-      <c r="B273" s="15"/>
+      <c r="B273" s="16"/>
       <c r="C273" s="8"/>
       <c r="D273" s="11"/>
       <c r="E273" s="8"/>
@@ -2724,7 +2843,7 @@
       <c r="G273" s="8"/>
     </row>
     <row r="274">
-      <c r="B274" s="15"/>
+      <c r="B274" s="16"/>
       <c r="C274" s="8"/>
       <c r="D274" s="11"/>
       <c r="E274" s="8"/>
@@ -2732,7 +2851,7 @@
       <c r="G274" s="8"/>
     </row>
     <row r="275">
-      <c r="B275" s="15"/>
+      <c r="B275" s="16"/>
       <c r="C275" s="8"/>
       <c r="D275" s="11"/>
       <c r="E275" s="8"/>
@@ -2740,7 +2859,7 @@
       <c r="G275" s="8"/>
     </row>
     <row r="276">
-      <c r="B276" s="15"/>
+      <c r="B276" s="16"/>
       <c r="C276" s="8"/>
       <c r="D276" s="11"/>
       <c r="E276" s="8"/>
@@ -2748,7 +2867,7 @@
       <c r="G276" s="8"/>
     </row>
     <row r="277">
-      <c r="B277" s="15"/>
+      <c r="B277" s="16"/>
       <c r="C277" s="8"/>
       <c r="D277" s="11"/>
       <c r="E277" s="8"/>
@@ -2756,7 +2875,7 @@
       <c r="G277" s="8"/>
     </row>
     <row r="278">
-      <c r="B278" s="15"/>
+      <c r="B278" s="16"/>
       <c r="C278" s="8"/>
       <c r="D278" s="11"/>
       <c r="E278" s="8"/>
@@ -2764,7 +2883,7 @@
       <c r="G278" s="8"/>
     </row>
     <row r="279">
-      <c r="B279" s="15"/>
+      <c r="B279" s="16"/>
       <c r="C279" s="8"/>
       <c r="D279" s="11"/>
       <c r="E279" s="8"/>
@@ -2772,7 +2891,7 @@
       <c r="G279" s="8"/>
     </row>
     <row r="280">
-      <c r="B280" s="15"/>
+      <c r="B280" s="16"/>
       <c r="C280" s="8"/>
       <c r="D280" s="11"/>
       <c r="E280" s="8"/>
@@ -2780,7 +2899,7 @@
       <c r="G280" s="8"/>
     </row>
     <row r="281">
-      <c r="B281" s="15"/>
+      <c r="B281" s="16"/>
       <c r="C281" s="8"/>
       <c r="D281" s="11"/>
       <c r="E281" s="8"/>
@@ -2788,7 +2907,7 @@
       <c r="G281" s="8"/>
     </row>
     <row r="282">
-      <c r="B282" s="15"/>
+      <c r="B282" s="16"/>
       <c r="C282" s="8"/>
       <c r="D282" s="11"/>
       <c r="E282" s="8"/>
@@ -2796,7 +2915,7 @@
       <c r="G282" s="8"/>
     </row>
     <row r="283">
-      <c r="B283" s="15"/>
+      <c r="B283" s="16"/>
       <c r="C283" s="8"/>
       <c r="D283" s="11"/>
       <c r="E283" s="8"/>
@@ -2804,7 +2923,7 @@
       <c r="G283" s="8"/>
     </row>
     <row r="284">
-      <c r="B284" s="15"/>
+      <c r="B284" s="16"/>
       <c r="C284" s="8"/>
       <c r="D284" s="11"/>
       <c r="E284" s="8"/>
@@ -2812,7 +2931,7 @@
       <c r="G284" s="8"/>
     </row>
     <row r="285">
-      <c r="B285" s="15"/>
+      <c r="B285" s="16"/>
       <c r="C285" s="8"/>
       <c r="D285" s="11"/>
       <c r="E285" s="8"/>
@@ -2820,7 +2939,7 @@
       <c r="G285" s="8"/>
     </row>
     <row r="286">
-      <c r="B286" s="15"/>
+      <c r="B286" s="16"/>
       <c r="C286" s="8"/>
       <c r="D286" s="11"/>
       <c r="E286" s="8"/>
@@ -2828,7 +2947,7 @@
       <c r="G286" s="8"/>
     </row>
     <row r="287">
-      <c r="B287" s="15"/>
+      <c r="B287" s="16"/>
       <c r="C287" s="8"/>
       <c r="D287" s="11"/>
       <c r="E287" s="8"/>
@@ -2836,7 +2955,7 @@
       <c r="G287" s="8"/>
     </row>
     <row r="288">
-      <c r="B288" s="15"/>
+      <c r="B288" s="16"/>
       <c r="C288" s="8"/>
       <c r="D288" s="11"/>
       <c r="E288" s="8"/>
@@ -2844,7 +2963,7 @@
       <c r="G288" s="8"/>
     </row>
     <row r="289">
-      <c r="B289" s="15"/>
+      <c r="B289" s="16"/>
       <c r="C289" s="8"/>
       <c r="D289" s="11"/>
       <c r="E289" s="8"/>
@@ -2852,7 +2971,7 @@
       <c r="G289" s="8"/>
     </row>
     <row r="290">
-      <c r="B290" s="15"/>
+      <c r="B290" s="16"/>
       <c r="C290" s="8"/>
       <c r="D290" s="11"/>
       <c r="E290" s="8"/>
@@ -2860,7 +2979,7 @@
       <c r="G290" s="8"/>
     </row>
     <row r="291">
-      <c r="B291" s="15"/>
+      <c r="B291" s="16"/>
       <c r="C291" s="8"/>
       <c r="D291" s="11"/>
       <c r="E291" s="8"/>
@@ -2868,7 +2987,7 @@
       <c r="G291" s="8"/>
     </row>
     <row r="292">
-      <c r="B292" s="15"/>
+      <c r="B292" s="16"/>
       <c r="C292" s="8"/>
       <c r="D292" s="11"/>
       <c r="E292" s="8"/>
@@ -2876,7 +2995,7 @@
       <c r="G292" s="8"/>
     </row>
     <row r="293">
-      <c r="B293" s="15"/>
+      <c r="B293" s="16"/>
       <c r="C293" s="8"/>
       <c r="D293" s="11"/>
       <c r="E293" s="8"/>
@@ -2884,7 +3003,7 @@
       <c r="G293" s="8"/>
     </row>
     <row r="294">
-      <c r="B294" s="15"/>
+      <c r="B294" s="16"/>
       <c r="C294" s="8"/>
       <c r="D294" s="11"/>
       <c r="E294" s="8"/>
@@ -2892,7 +3011,7 @@
       <c r="G294" s="8"/>
     </row>
     <row r="295">
-      <c r="B295" s="15"/>
+      <c r="B295" s="16"/>
       <c r="C295" s="8"/>
       <c r="D295" s="11"/>
       <c r="E295" s="8"/>
@@ -2900,7 +3019,7 @@
       <c r="G295" s="8"/>
     </row>
     <row r="296">
-      <c r="B296" s="15"/>
+      <c r="B296" s="16"/>
       <c r="C296" s="8"/>
       <c r="D296" s="11"/>
       <c r="E296" s="8"/>
@@ -2908,7 +3027,7 @@
       <c r="G296" s="8"/>
     </row>
     <row r="297">
-      <c r="B297" s="15"/>
+      <c r="B297" s="16"/>
       <c r="C297" s="8"/>
       <c r="D297" s="11"/>
       <c r="E297" s="8"/>
@@ -2916,7 +3035,7 @@
       <c r="G297" s="8"/>
     </row>
     <row r="298">
-      <c r="B298" s="15"/>
+      <c r="B298" s="16"/>
       <c r="C298" s="8"/>
       <c r="D298" s="11"/>
       <c r="E298" s="8"/>
@@ -2924,7 +3043,7 @@
       <c r="G298" s="8"/>
     </row>
     <row r="299">
-      <c r="B299" s="15"/>
+      <c r="B299" s="16"/>
       <c r="C299" s="8"/>
       <c r="D299" s="11"/>
       <c r="E299" s="8"/>
@@ -2932,7 +3051,7 @@
       <c r="G299" s="8"/>
     </row>
     <row r="300">
-      <c r="B300" s="15"/>
+      <c r="B300" s="16"/>
       <c r="C300" s="8"/>
       <c r="D300" s="11"/>
       <c r="E300" s="8"/>
@@ -2940,7 +3059,7 @@
       <c r="G300" s="8"/>
     </row>
     <row r="301">
-      <c r="B301" s="15"/>
+      <c r="B301" s="16"/>
       <c r="C301" s="8"/>
       <c r="D301" s="11"/>
       <c r="E301" s="8"/>
@@ -2948,7 +3067,7 @@
       <c r="G301" s="8"/>
     </row>
     <row r="302">
-      <c r="B302" s="15"/>
+      <c r="B302" s="16"/>
       <c r="C302" s="8"/>
       <c r="D302" s="11"/>
       <c r="E302" s="8"/>
@@ -2956,7 +3075,7 @@
       <c r="G302" s="8"/>
     </row>
     <row r="303">
-      <c r="B303" s="15"/>
+      <c r="B303" s="16"/>
       <c r="C303" s="8"/>
       <c r="D303" s="11"/>
       <c r="E303" s="8"/>
@@ -2964,7 +3083,7 @@
       <c r="G303" s="8"/>
     </row>
     <row r="304">
-      <c r="B304" s="15"/>
+      <c r="B304" s="16"/>
       <c r="C304" s="8"/>
       <c r="D304" s="11"/>
       <c r="E304" s="8"/>
@@ -2972,7 +3091,7 @@
       <c r="G304" s="8"/>
     </row>
     <row r="305">
-      <c r="B305" s="15"/>
+      <c r="B305" s="16"/>
       <c r="C305" s="8"/>
       <c r="D305" s="11"/>
       <c r="E305" s="8"/>
@@ -2980,7 +3099,7 @@
       <c r="G305" s="8"/>
     </row>
     <row r="306">
-      <c r="B306" s="15"/>
+      <c r="B306" s="16"/>
       <c r="C306" s="8"/>
       <c r="D306" s="11"/>
       <c r="E306" s="8"/>
@@ -2988,7 +3107,7 @@
       <c r="G306" s="8"/>
     </row>
     <row r="307">
-      <c r="B307" s="15"/>
+      <c r="B307" s="16"/>
       <c r="C307" s="8"/>
       <c r="D307" s="11"/>
       <c r="E307" s="8"/>
@@ -2996,7 +3115,7 @@
       <c r="G307" s="8"/>
     </row>
     <row r="308">
-      <c r="B308" s="15"/>
+      <c r="B308" s="16"/>
       <c r="C308" s="8"/>
       <c r="D308" s="11"/>
       <c r="E308" s="8"/>
@@ -3004,7 +3123,7 @@
       <c r="G308" s="8"/>
     </row>
     <row r="309">
-      <c r="B309" s="15"/>
+      <c r="B309" s="16"/>
       <c r="C309" s="8"/>
       <c r="D309" s="11"/>
       <c r="E309" s="8"/>
@@ -3012,7 +3131,7 @@
       <c r="G309" s="8"/>
     </row>
     <row r="310">
-      <c r="B310" s="15"/>
+      <c r="B310" s="16"/>
       <c r="C310" s="8"/>
       <c r="D310" s="11"/>
       <c r="E310" s="8"/>
@@ -3020,7 +3139,7 @@
       <c r="G310" s="8"/>
     </row>
     <row r="311">
-      <c r="B311" s="15"/>
+      <c r="B311" s="16"/>
       <c r="C311" s="8"/>
       <c r="D311" s="11"/>
       <c r="E311" s="8"/>
@@ -3028,7 +3147,7 @@
       <c r="G311" s="8"/>
     </row>
     <row r="312">
-      <c r="B312" s="15"/>
+      <c r="B312" s="16"/>
       <c r="C312" s="8"/>
       <c r="D312" s="11"/>
       <c r="E312" s="8"/>
@@ -3036,7 +3155,7 @@
       <c r="G312" s="8"/>
     </row>
     <row r="313">
-      <c r="B313" s="15"/>
+      <c r="B313" s="16"/>
       <c r="C313" s="8"/>
       <c r="D313" s="11"/>
       <c r="E313" s="8"/>
@@ -3044,7 +3163,7 @@
       <c r="G313" s="8"/>
     </row>
     <row r="314">
-      <c r="B314" s="15"/>
+      <c r="B314" s="16"/>
       <c r="C314" s="8"/>
       <c r="D314" s="11"/>
       <c r="E314" s="8"/>
@@ -3052,7 +3171,7 @@
       <c r="G314" s="8"/>
     </row>
     <row r="315">
-      <c r="B315" s="15"/>
+      <c r="B315" s="16"/>
       <c r="C315" s="8"/>
       <c r="D315" s="11"/>
       <c r="E315" s="8"/>
@@ -3060,7 +3179,7 @@
       <c r="G315" s="8"/>
     </row>
     <row r="316">
-      <c r="B316" s="15"/>
+      <c r="B316" s="16"/>
       <c r="C316" s="8"/>
       <c r="D316" s="11"/>
       <c r="E316" s="8"/>
@@ -3068,7 +3187,7 @@
       <c r="G316" s="8"/>
     </row>
     <row r="317">
-      <c r="B317" s="15"/>
+      <c r="B317" s="16"/>
       <c r="C317" s="8"/>
       <c r="D317" s="11"/>
       <c r="E317" s="8"/>
@@ -3076,7 +3195,7 @@
       <c r="G317" s="8"/>
     </row>
     <row r="318">
-      <c r="B318" s="15"/>
+      <c r="B318" s="16"/>
       <c r="C318" s="8"/>
       <c r="D318" s="11"/>
       <c r="E318" s="8"/>
@@ -3084,7 +3203,7 @@
       <c r="G318" s="8"/>
     </row>
     <row r="319">
-      <c r="B319" s="15"/>
+      <c r="B319" s="16"/>
       <c r="C319" s="8"/>
       <c r="D319" s="11"/>
       <c r="E319" s="8"/>
@@ -3092,7 +3211,7 @@
       <c r="G319" s="8"/>
     </row>
     <row r="320">
-      <c r="B320" s="15"/>
+      <c r="B320" s="16"/>
       <c r="C320" s="8"/>
       <c r="D320" s="11"/>
       <c r="E320" s="8"/>
@@ -3100,7 +3219,7 @@
       <c r="G320" s="8"/>
     </row>
     <row r="321">
-      <c r="B321" s="15"/>
+      <c r="B321" s="16"/>
       <c r="C321" s="8"/>
       <c r="D321" s="11"/>
       <c r="E321" s="8"/>
@@ -3108,7 +3227,7 @@
       <c r="G321" s="8"/>
     </row>
     <row r="322">
-      <c r="B322" s="15"/>
+      <c r="B322" s="16"/>
       <c r="C322" s="8"/>
       <c r="D322" s="11"/>
       <c r="E322" s="8"/>
@@ -3116,7 +3235,7 @@
       <c r="G322" s="8"/>
     </row>
     <row r="323">
-      <c r="B323" s="15"/>
+      <c r="B323" s="16"/>
       <c r="C323" s="8"/>
       <c r="D323" s="11"/>
       <c r="E323" s="8"/>
@@ -3124,7 +3243,7 @@
       <c r="G323" s="8"/>
     </row>
     <row r="324">
-      <c r="B324" s="15"/>
+      <c r="B324" s="16"/>
       <c r="C324" s="8"/>
       <c r="D324" s="11"/>
       <c r="E324" s="8"/>
@@ -3132,7 +3251,7 @@
       <c r="G324" s="8"/>
     </row>
     <row r="325">
-      <c r="B325" s="15"/>
+      <c r="B325" s="16"/>
       <c r="C325" s="8"/>
       <c r="D325" s="11"/>
       <c r="E325" s="8"/>
@@ -3140,7 +3259,7 @@
       <c r="G325" s="8"/>
     </row>
     <row r="326">
-      <c r="B326" s="15"/>
+      <c r="B326" s="16"/>
       <c r="C326" s="8"/>
       <c r="D326" s="11"/>
       <c r="E326" s="8"/>
@@ -3148,7 +3267,7 @@
       <c r="G326" s="8"/>
     </row>
     <row r="327">
-      <c r="B327" s="15"/>
+      <c r="B327" s="16"/>
       <c r="C327" s="8"/>
       <c r="D327" s="11"/>
       <c r="E327" s="8"/>
@@ -3156,7 +3275,7 @@
       <c r="G327" s="8"/>
     </row>
     <row r="328">
-      <c r="B328" s="15"/>
+      <c r="B328" s="16"/>
       <c r="C328" s="8"/>
       <c r="D328" s="11"/>
       <c r="E328" s="8"/>
@@ -3164,7 +3283,7 @@
       <c r="G328" s="8"/>
     </row>
     <row r="329">
-      <c r="B329" s="15"/>
+      <c r="B329" s="16"/>
       <c r="C329" s="8"/>
       <c r="D329" s="11"/>
       <c r="E329" s="8"/>
@@ -3172,7 +3291,7 @@
       <c r="G329" s="8"/>
     </row>
     <row r="330">
-      <c r="B330" s="15"/>
+      <c r="B330" s="16"/>
       <c r="C330" s="8"/>
       <c r="D330" s="11"/>
       <c r="E330" s="8"/>
@@ -3180,7 +3299,7 @@
       <c r="G330" s="8"/>
     </row>
     <row r="331">
-      <c r="B331" s="15"/>
+      <c r="B331" s="16"/>
       <c r="C331" s="8"/>
       <c r="D331" s="11"/>
       <c r="E331" s="8"/>
@@ -3188,7 +3307,7 @@
       <c r="G331" s="8"/>
     </row>
     <row r="332">
-      <c r="B332" s="15"/>
+      <c r="B332" s="16"/>
       <c r="C332" s="8"/>
       <c r="D332" s="11"/>
       <c r="E332" s="8"/>
@@ -3196,7 +3315,7 @@
       <c r="G332" s="8"/>
     </row>
     <row r="333">
-      <c r="B333" s="15"/>
+      <c r="B333" s="16"/>
       <c r="C333" s="8"/>
       <c r="D333" s="11"/>
       <c r="E333" s="8"/>
@@ -3204,7 +3323,7 @@
       <c r="G333" s="8"/>
     </row>
     <row r="334">
-      <c r="B334" s="15"/>
+      <c r="B334" s="16"/>
       <c r="C334" s="8"/>
       <c r="D334" s="11"/>
       <c r="E334" s="8"/>
@@ -3212,7 +3331,7 @@
       <c r="G334" s="8"/>
     </row>
     <row r="335">
-      <c r="B335" s="15"/>
+      <c r="B335" s="16"/>
       <c r="C335" s="8"/>
       <c r="D335" s="11"/>
       <c r="E335" s="8"/>
@@ -3220,7 +3339,7 @@
       <c r="G335" s="8"/>
     </row>
     <row r="336">
-      <c r="B336" s="15"/>
+      <c r="B336" s="16"/>
       <c r="C336" s="8"/>
       <c r="D336" s="11"/>
       <c r="E336" s="8"/>
@@ -3228,7 +3347,7 @@
       <c r="G336" s="8"/>
     </row>
     <row r="337">
-      <c r="B337" s="15"/>
+      <c r="B337" s="16"/>
       <c r="C337" s="8"/>
       <c r="D337" s="11"/>
       <c r="E337" s="8"/>
@@ -3236,7 +3355,7 @@
       <c r="G337" s="8"/>
     </row>
     <row r="338">
-      <c r="B338" s="15"/>
+      <c r="B338" s="16"/>
       <c r="C338" s="8"/>
       <c r="D338" s="11"/>
       <c r="E338" s="8"/>
@@ -3244,7 +3363,7 @@
       <c r="G338" s="8"/>
     </row>
     <row r="339">
-      <c r="B339" s="15"/>
+      <c r="B339" s="16"/>
       <c r="C339" s="8"/>
       <c r="D339" s="11"/>
       <c r="E339" s="8"/>
@@ -3252,7 +3371,7 @@
       <c r="G339" s="8"/>
     </row>
     <row r="340">
-      <c r="B340" s="15"/>
+      <c r="B340" s="16"/>
       <c r="C340" s="8"/>
       <c r="D340" s="11"/>
       <c r="E340" s="8"/>
@@ -3260,7 +3379,7 @@
       <c r="G340" s="8"/>
     </row>
     <row r="341">
-      <c r="B341" s="15"/>
+      <c r="B341" s="16"/>
       <c r="C341" s="8"/>
       <c r="D341" s="11"/>
       <c r="E341" s="8"/>
@@ -3268,7 +3387,7 @@
       <c r="G341" s="8"/>
     </row>
     <row r="342">
-      <c r="B342" s="15"/>
+      <c r="B342" s="16"/>
       <c r="C342" s="8"/>
       <c r="D342" s="11"/>
       <c r="E342" s="8"/>
@@ -3276,7 +3395,7 @@
       <c r="G342" s="8"/>
     </row>
     <row r="343">
-      <c r="B343" s="15"/>
+      <c r="B343" s="16"/>
       <c r="C343" s="8"/>
       <c r="D343" s="11"/>
       <c r="E343" s="8"/>
@@ -3284,7 +3403,7 @@
       <c r="G343" s="8"/>
     </row>
     <row r="344">
-      <c r="B344" s="15"/>
+      <c r="B344" s="16"/>
       <c r="C344" s="8"/>
       <c r="D344" s="11"/>
       <c r="E344" s="8"/>
@@ -3292,7 +3411,7 @@
       <c r="G344" s="8"/>
     </row>
     <row r="345">
-      <c r="B345" s="15"/>
+      <c r="B345" s="16"/>
       <c r="C345" s="8"/>
       <c r="D345" s="11"/>
       <c r="E345" s="8"/>
@@ -3300,7 +3419,7 @@
       <c r="G345" s="8"/>
     </row>
     <row r="346">
-      <c r="B346" s="15"/>
+      <c r="B346" s="16"/>
       <c r="C346" s="8"/>
       <c r="D346" s="11"/>
       <c r="E346" s="8"/>
@@ -3308,7 +3427,7 @@
       <c r="G346" s="8"/>
     </row>
     <row r="347">
-      <c r="B347" s="15"/>
+      <c r="B347" s="16"/>
       <c r="C347" s="8"/>
       <c r="D347" s="11"/>
       <c r="E347" s="8"/>
@@ -3316,7 +3435,7 @@
       <c r="G347" s="8"/>
     </row>
     <row r="348">
-      <c r="B348" s="15"/>
+      <c r="B348" s="16"/>
       <c r="C348" s="8"/>
       <c r="D348" s="11"/>
       <c r="E348" s="8"/>
@@ -3324,7 +3443,7 @@
       <c r="G348" s="8"/>
     </row>
     <row r="349">
-      <c r="B349" s="15"/>
+      <c r="B349" s="16"/>
       <c r="C349" s="8"/>
       <c r="D349" s="11"/>
       <c r="E349" s="8"/>
@@ -3332,7 +3451,7 @@
       <c r="G349" s="8"/>
     </row>
     <row r="350">
-      <c r="B350" s="15"/>
+      <c r="B350" s="16"/>
       <c r="C350" s="8"/>
       <c r="D350" s="11"/>
       <c r="E350" s="8"/>
@@ -3340,7 +3459,7 @@
       <c r="G350" s="8"/>
     </row>
     <row r="351">
-      <c r="B351" s="15"/>
+      <c r="B351" s="16"/>
       <c r="C351" s="8"/>
       <c r="D351" s="11"/>
       <c r="E351" s="8"/>
@@ -3348,7 +3467,7 @@
       <c r="G351" s="8"/>
     </row>
     <row r="352">
-      <c r="B352" s="15"/>
+      <c r="B352" s="16"/>
       <c r="C352" s="8"/>
       <c r="D352" s="11"/>
       <c r="E352" s="8"/>
@@ -3356,7 +3475,7 @@
       <c r="G352" s="8"/>
     </row>
     <row r="353">
-      <c r="B353" s="15"/>
+      <c r="B353" s="16"/>
       <c r="C353" s="8"/>
       <c r="D353" s="11"/>
       <c r="E353" s="8"/>
@@ -3364,7 +3483,7 @@
       <c r="G353" s="8"/>
     </row>
     <row r="354">
-      <c r="B354" s="15"/>
+      <c r="B354" s="16"/>
       <c r="C354" s="8"/>
       <c r="D354" s="11"/>
       <c r="E354" s="8"/>
@@ -3372,7 +3491,7 @@
       <c r="G354" s="8"/>
     </row>
     <row r="355">
-      <c r="B355" s="15"/>
+      <c r="B355" s="16"/>
       <c r="C355" s="8"/>
       <c r="D355" s="11"/>
       <c r="E355" s="8"/>
@@ -3380,7 +3499,7 @@
       <c r="G355" s="8"/>
     </row>
     <row r="356">
-      <c r="B356" s="15"/>
+      <c r="B356" s="16"/>
       <c r="C356" s="8"/>
       <c r="D356" s="11"/>
       <c r="E356" s="8"/>
@@ -3388,7 +3507,7 @@
       <c r="G356" s="8"/>
     </row>
     <row r="357">
-      <c r="B357" s="15"/>
+      <c r="B357" s="16"/>
       <c r="C357" s="8"/>
       <c r="D357" s="11"/>
       <c r="E357" s="8"/>
@@ -3396,7 +3515,7 @@
       <c r="G357" s="8"/>
     </row>
     <row r="358">
-      <c r="B358" s="15"/>
+      <c r="B358" s="16"/>
       <c r="C358" s="8"/>
       <c r="D358" s="11"/>
       <c r="E358" s="8"/>
@@ -3404,7 +3523,7 @@
       <c r="G358" s="8"/>
     </row>
     <row r="359">
-      <c r="B359" s="15"/>
+      <c r="B359" s="16"/>
       <c r="C359" s="8"/>
       <c r="D359" s="11"/>
       <c r="E359" s="8"/>
@@ -3412,7 +3531,7 @@
       <c r="G359" s="8"/>
     </row>
     <row r="360">
-      <c r="B360" s="15"/>
+      <c r="B360" s="16"/>
       <c r="C360" s="8"/>
       <c r="D360" s="11"/>
       <c r="E360" s="8"/>
@@ -3420,7 +3539,7 @@
       <c r="G360" s="8"/>
     </row>
     <row r="361">
-      <c r="B361" s="15"/>
+      <c r="B361" s="16"/>
       <c r="C361" s="8"/>
       <c r="D361" s="11"/>
       <c r="E361" s="8"/>
@@ -3428,7 +3547,7 @@
       <c r="G361" s="8"/>
     </row>
     <row r="362">
-      <c r="B362" s="15"/>
+      <c r="B362" s="16"/>
       <c r="C362" s="8"/>
       <c r="D362" s="11"/>
       <c r="E362" s="8"/>
@@ -3436,7 +3555,7 @@
       <c r="G362" s="8"/>
     </row>
     <row r="363">
-      <c r="B363" s="15"/>
+      <c r="B363" s="16"/>
       <c r="C363" s="8"/>
       <c r="D363" s="11"/>
       <c r="E363" s="8"/>
@@ -3444,7 +3563,7 @@
       <c r="G363" s="8"/>
     </row>
     <row r="364">
-      <c r="B364" s="15"/>
+      <c r="B364" s="16"/>
       <c r="C364" s="8"/>
       <c r="D364" s="11"/>
       <c r="E364" s="8"/>
@@ -3452,7 +3571,7 @@
       <c r="G364" s="8"/>
     </row>
     <row r="365">
-      <c r="B365" s="15"/>
+      <c r="B365" s="16"/>
       <c r="C365" s="8"/>
       <c r="D365" s="11"/>
       <c r="E365" s="8"/>
@@ -3460,7 +3579,7 @@
       <c r="G365" s="8"/>
     </row>
     <row r="366">
-      <c r="B366" s="15"/>
+      <c r="B366" s="16"/>
       <c r="C366" s="8"/>
       <c r="D366" s="11"/>
       <c r="E366" s="8"/>
@@ -3468,7 +3587,7 @@
       <c r="G366" s="8"/>
     </row>
     <row r="367">
-      <c r="B367" s="15"/>
+      <c r="B367" s="16"/>
       <c r="C367" s="8"/>
       <c r="D367" s="11"/>
       <c r="E367" s="8"/>
@@ -3476,7 +3595,7 @@
       <c r="G367" s="8"/>
     </row>
     <row r="368">
-      <c r="B368" s="15"/>
+      <c r="B368" s="16"/>
       <c r="C368" s="8"/>
       <c r="D368" s="11"/>
       <c r="E368" s="8"/>
@@ -3484,7 +3603,7 @@
       <c r="G368" s="8"/>
     </row>
     <row r="369">
-      <c r="B369" s="15"/>
+      <c r="B369" s="16"/>
       <c r="C369" s="8"/>
       <c r="D369" s="11"/>
       <c r="E369" s="8"/>
@@ -3492,7 +3611,7 @@
       <c r="G369" s="8"/>
     </row>
     <row r="370">
-      <c r="B370" s="15"/>
+      <c r="B370" s="16"/>
       <c r="C370" s="8"/>
       <c r="D370" s="11"/>
       <c r="E370" s="8"/>
@@ -3500,7 +3619,7 @@
       <c r="G370" s="8"/>
     </row>
     <row r="371">
-      <c r="B371" s="15"/>
+      <c r="B371" s="16"/>
       <c r="C371" s="8"/>
       <c r="D371" s="11"/>
       <c r="E371" s="8"/>
@@ -3508,7 +3627,7 @@
       <c r="G371" s="8"/>
     </row>
     <row r="372">
-      <c r="B372" s="15"/>
+      <c r="B372" s="16"/>
       <c r="C372" s="8"/>
       <c r="D372" s="11"/>
       <c r="E372" s="8"/>
@@ -3516,7 +3635,7 @@
       <c r="G372" s="8"/>
     </row>
     <row r="373">
-      <c r="B373" s="15"/>
+      <c r="B373" s="16"/>
       <c r="C373" s="8"/>
       <c r="D373" s="11"/>
       <c r="E373" s="8"/>
@@ -3524,7 +3643,7 @@
       <c r="G373" s="8"/>
     </row>
     <row r="374">
-      <c r="B374" s="15"/>
+      <c r="B374" s="16"/>
       <c r="C374" s="8"/>
       <c r="D374" s="11"/>
       <c r="E374" s="8"/>
@@ -3532,7 +3651,7 @@
       <c r="G374" s="8"/>
     </row>
     <row r="375">
-      <c r="B375" s="15"/>
+      <c r="B375" s="16"/>
       <c r="C375" s="8"/>
       <c r="D375" s="11"/>
       <c r="E375" s="8"/>
@@ -3540,7 +3659,7 @@
       <c r="G375" s="8"/>
     </row>
     <row r="376">
-      <c r="B376" s="15"/>
+      <c r="B376" s="16"/>
       <c r="C376" s="8"/>
       <c r="D376" s="11"/>
       <c r="E376" s="8"/>
@@ -3548,7 +3667,7 @@
       <c r="G376" s="8"/>
     </row>
     <row r="377">
-      <c r="B377" s="15"/>
+      <c r="B377" s="16"/>
       <c r="C377" s="8"/>
       <c r="D377" s="11"/>
       <c r="E377" s="8"/>
@@ -3556,7 +3675,7 @@
       <c r="G377" s="8"/>
     </row>
     <row r="378">
-      <c r="B378" s="15"/>
+      <c r="B378" s="16"/>
       <c r="C378" s="8"/>
       <c r="D378" s="11"/>
       <c r="E378" s="8"/>
@@ -3564,7 +3683,7 @@
       <c r="G378" s="8"/>
     </row>
     <row r="379">
-      <c r="B379" s="15"/>
+      <c r="B379" s="16"/>
       <c r="C379" s="8"/>
       <c r="D379" s="11"/>
       <c r="E379" s="8"/>
@@ -3572,7 +3691,7 @@
       <c r="G379" s="8"/>
     </row>
     <row r="380">
-      <c r="B380" s="15"/>
+      <c r="B380" s="16"/>
       <c r="C380" s="8"/>
       <c r="D380" s="11"/>
       <c r="E380" s="8"/>
@@ -3580,7 +3699,7 @@
       <c r="G380" s="8"/>
     </row>
     <row r="381">
-      <c r="B381" s="15"/>
+      <c r="B381" s="16"/>
       <c r="C381" s="8"/>
       <c r="D381" s="11"/>
       <c r="E381" s="8"/>
@@ -3588,7 +3707,7 @@
       <c r="G381" s="8"/>
     </row>
     <row r="382">
-      <c r="B382" s="15"/>
+      <c r="B382" s="16"/>
       <c r="C382" s="8"/>
       <c r="D382" s="11"/>
       <c r="E382" s="8"/>
@@ -3596,7 +3715,7 @@
       <c r="G382" s="8"/>
     </row>
     <row r="383">
-      <c r="B383" s="15"/>
+      <c r="B383" s="16"/>
       <c r="C383" s="8"/>
       <c r="D383" s="11"/>
       <c r="E383" s="8"/>
@@ -3604,7 +3723,7 @@
       <c r="G383" s="8"/>
     </row>
     <row r="384">
-      <c r="B384" s="15"/>
+      <c r="B384" s="16"/>
       <c r="C384" s="8"/>
       <c r="D384" s="11"/>
       <c r="E384" s="8"/>
@@ -3612,7 +3731,7 @@
       <c r="G384" s="8"/>
     </row>
     <row r="385">
-      <c r="B385" s="15"/>
+      <c r="B385" s="16"/>
       <c r="C385" s="8"/>
       <c r="D385" s="11"/>
       <c r="E385" s="8"/>
@@ -3620,7 +3739,7 @@
       <c r="G385" s="8"/>
     </row>
     <row r="386">
-      <c r="B386" s="15"/>
+      <c r="B386" s="16"/>
       <c r="C386" s="8"/>
       <c r="D386" s="11"/>
       <c r="E386" s="8"/>
@@ -3628,7 +3747,7 @@
       <c r="G386" s="8"/>
     </row>
     <row r="387">
-      <c r="B387" s="15"/>
+      <c r="B387" s="16"/>
       <c r="C387" s="8"/>
       <c r="D387" s="11"/>
       <c r="E387" s="8"/>
@@ -3636,7 +3755,7 @@
       <c r="G387" s="8"/>
     </row>
     <row r="388">
-      <c r="B388" s="15"/>
+      <c r="B388" s="16"/>
       <c r="C388" s="8"/>
       <c r="D388" s="11"/>
       <c r="E388" s="8"/>
@@ -3644,7 +3763,7 @@
       <c r="G388" s="8"/>
     </row>
     <row r="389">
-      <c r="B389" s="15"/>
+      <c r="B389" s="16"/>
       <c r="C389" s="8"/>
       <c r="D389" s="11"/>
       <c r="E389" s="8"/>
@@ -3652,7 +3771,7 @@
       <c r="G389" s="8"/>
     </row>
     <row r="390">
-      <c r="B390" s="15"/>
+      <c r="B390" s="16"/>
       <c r="C390" s="8"/>
       <c r="D390" s="11"/>
       <c r="E390" s="8"/>
@@ -3660,7 +3779,7 @@
       <c r="G390" s="8"/>
     </row>
     <row r="391">
-      <c r="B391" s="15"/>
+      <c r="B391" s="16"/>
       <c r="C391" s="8"/>
       <c r="D391" s="11"/>
       <c r="E391" s="8"/>
@@ -3668,7 +3787,7 @@
       <c r="G391" s="8"/>
     </row>
     <row r="392">
-      <c r="B392" s="15"/>
+      <c r="B392" s="16"/>
       <c r="C392" s="8"/>
       <c r="D392" s="11"/>
       <c r="E392" s="8"/>
@@ -3676,7 +3795,7 @@
       <c r="G392" s="8"/>
     </row>
     <row r="393">
-      <c r="B393" s="15"/>
+      <c r="B393" s="16"/>
       <c r="C393" s="8"/>
       <c r="D393" s="11"/>
       <c r="E393" s="8"/>
@@ -3684,7 +3803,7 @@
       <c r="G393" s="8"/>
     </row>
     <row r="394">
-      <c r="B394" s="15"/>
+      <c r="B394" s="16"/>
       <c r="C394" s="8"/>
       <c r="D394" s="11"/>
       <c r="E394" s="8"/>
@@ -3692,7 +3811,7 @@
       <c r="G394" s="8"/>
     </row>
     <row r="395">
-      <c r="B395" s="15"/>
+      <c r="B395" s="16"/>
       <c r="C395" s="8"/>
       <c r="D395" s="11"/>
       <c r="E395" s="8"/>
@@ -3700,7 +3819,7 @@
       <c r="G395" s="8"/>
     </row>
     <row r="396">
-      <c r="B396" s="15"/>
+      <c r="B396" s="16"/>
       <c r="C396" s="8"/>
       <c r="D396" s="11"/>
       <c r="E396" s="8"/>
@@ -3708,7 +3827,7 @@
       <c r="G396" s="8"/>
     </row>
     <row r="397">
-      <c r="B397" s="15"/>
+      <c r="B397" s="16"/>
       <c r="C397" s="8"/>
       <c r="D397" s="11"/>
       <c r="E397" s="8"/>
@@ -3716,7 +3835,7 @@
       <c r="G397" s="8"/>
     </row>
     <row r="398">
-      <c r="B398" s="15"/>
+      <c r="B398" s="16"/>
       <c r="C398" s="8"/>
       <c r="D398" s="11"/>
       <c r="E398" s="8"/>
@@ -3724,7 +3843,7 @@
       <c r="G398" s="8"/>
     </row>
     <row r="399">
-      <c r="B399" s="15"/>
+      <c r="B399" s="16"/>
       <c r="C399" s="8"/>
       <c r="D399" s="11"/>
       <c r="E399" s="8"/>
@@ -3732,7 +3851,7 @@
       <c r="G399" s="8"/>
     </row>
     <row r="400">
-      <c r="B400" s="15"/>
+      <c r="B400" s="16"/>
       <c r="C400" s="8"/>
       <c r="D400" s="11"/>
       <c r="E400" s="8"/>
@@ -3740,7 +3859,7 @@
       <c r="G400" s="8"/>
     </row>
     <row r="401">
-      <c r="B401" s="15"/>
+      <c r="B401" s="16"/>
       <c r="C401" s="8"/>
       <c r="D401" s="11"/>
       <c r="E401" s="8"/>
@@ -3748,7 +3867,7 @@
       <c r="G401" s="8"/>
     </row>
     <row r="402">
-      <c r="B402" s="15"/>
+      <c r="B402" s="16"/>
       <c r="C402" s="8"/>
       <c r="D402" s="11"/>
       <c r="E402" s="8"/>
@@ -3756,7 +3875,7 @@
       <c r="G402" s="8"/>
     </row>
     <row r="403">
-      <c r="B403" s="15"/>
+      <c r="B403" s="16"/>
       <c r="C403" s="8"/>
       <c r="D403" s="11"/>
       <c r="E403" s="8"/>
@@ -3764,7 +3883,7 @@
       <c r="G403" s="8"/>
     </row>
     <row r="404">
-      <c r="B404" s="15"/>
+      <c r="B404" s="16"/>
       <c r="C404" s="8"/>
       <c r="D404" s="11"/>
       <c r="E404" s="8"/>
@@ -3772,7 +3891,7 @@
       <c r="G404" s="8"/>
     </row>
     <row r="405">
-      <c r="B405" s="15"/>
+      <c r="B405" s="16"/>
       <c r="C405" s="8"/>
       <c r="D405" s="11"/>
       <c r="E405" s="8"/>
@@ -3780,7 +3899,7 @@
       <c r="G405" s="8"/>
     </row>
     <row r="406">
-      <c r="B406" s="15"/>
+      <c r="B406" s="16"/>
       <c r="C406" s="8"/>
       <c r="D406" s="11"/>
       <c r="E406" s="8"/>
@@ -3788,7 +3907,7 @@
       <c r="G406" s="8"/>
     </row>
     <row r="407">
-      <c r="B407" s="15"/>
+      <c r="B407" s="16"/>
       <c r="C407" s="8"/>
       <c r="D407" s="11"/>
       <c r="E407" s="8"/>
@@ -3796,7 +3915,7 @@
       <c r="G407" s="8"/>
     </row>
     <row r="408">
-      <c r="B408" s="15"/>
+      <c r="B408" s="16"/>
       <c r="C408" s="8"/>
       <c r="D408" s="11"/>
       <c r="E408" s="8"/>
@@ -3804,7 +3923,7 @@
       <c r="G408" s="8"/>
     </row>
     <row r="409">
-      <c r="B409" s="15"/>
+      <c r="B409" s="16"/>
       <c r="C409" s="8"/>
       <c r="D409" s="11"/>
       <c r="E409" s="8"/>
@@ -3812,7 +3931,7 @@
       <c r="G409" s="8"/>
     </row>
     <row r="410">
-      <c r="B410" s="15"/>
+      <c r="B410" s="16"/>
       <c r="C410" s="8"/>
       <c r="D410" s="11"/>
       <c r="E410" s="8"/>
@@ -3820,7 +3939,7 @@
       <c r="G410" s="8"/>
     </row>
     <row r="411">
-      <c r="B411" s="15"/>
+      <c r="B411" s="16"/>
       <c r="C411" s="8"/>
       <c r="D411" s="11"/>
       <c r="E411" s="8"/>
@@ -3828,7 +3947,7 @@
       <c r="G411" s="8"/>
     </row>
     <row r="412">
-      <c r="B412" s="15"/>
+      <c r="B412" s="16"/>
       <c r="C412" s="8"/>
       <c r="D412" s="11"/>
       <c r="E412" s="8"/>
@@ -3836,7 +3955,7 @@
       <c r="G412" s="8"/>
     </row>
     <row r="413">
-      <c r="B413" s="15"/>
+      <c r="B413" s="16"/>
       <c r="C413" s="8"/>
       <c r="D413" s="11"/>
       <c r="E413" s="8"/>
@@ -3844,7 +3963,7 @@
       <c r="G413" s="8"/>
     </row>
     <row r="414">
-      <c r="B414" s="15"/>
+      <c r="B414" s="16"/>
       <c r="C414" s="8"/>
       <c r="D414" s="11"/>
       <c r="E414" s="8"/>
@@ -3852,7 +3971,7 @@
       <c r="G414" s="8"/>
     </row>
     <row r="415">
-      <c r="B415" s="15"/>
+      <c r="B415" s="16"/>
       <c r="C415" s="8"/>
       <c r="D415" s="11"/>
       <c r="E415" s="8"/>
@@ -3860,7 +3979,7 @@
       <c r="G415" s="8"/>
     </row>
     <row r="416">
-      <c r="B416" s="15"/>
+      <c r="B416" s="16"/>
       <c r="C416" s="8"/>
       <c r="D416" s="11"/>
       <c r="E416" s="8"/>
@@ -3868,7 +3987,7 @@
       <c r="G416" s="8"/>
     </row>
     <row r="417">
-      <c r="B417" s="15"/>
+      <c r="B417" s="16"/>
       <c r="C417" s="8"/>
       <c r="D417" s="11"/>
       <c r="E417" s="8"/>
@@ -3876,7 +3995,7 @@
       <c r="G417" s="8"/>
     </row>
     <row r="418">
-      <c r="B418" s="15"/>
+      <c r="B418" s="16"/>
       <c r="C418" s="8"/>
       <c r="D418" s="11"/>
       <c r="E418" s="8"/>
@@ -3884,7 +4003,7 @@
       <c r="G418" s="8"/>
     </row>
     <row r="419">
-      <c r="B419" s="15"/>
+      <c r="B419" s="16"/>
       <c r="C419" s="8"/>
       <c r="D419" s="11"/>
       <c r="E419" s="8"/>
@@ -3892,7 +4011,7 @@
       <c r="G419" s="8"/>
     </row>
     <row r="420">
-      <c r="B420" s="15"/>
+      <c r="B420" s="16"/>
       <c r="C420" s="8"/>
       <c r="D420" s="11"/>
       <c r="E420" s="8"/>
@@ -3900,7 +4019,7 @@
       <c r="G420" s="8"/>
     </row>
     <row r="421">
-      <c r="B421" s="15"/>
+      <c r="B421" s="16"/>
       <c r="C421" s="8"/>
       <c r="D421" s="11"/>
       <c r="E421" s="8"/>
@@ -3908,7 +4027,7 @@
       <c r="G421" s="8"/>
     </row>
     <row r="422">
-      <c r="B422" s="15"/>
+      <c r="B422" s="16"/>
       <c r="C422" s="8"/>
       <c r="D422" s="11"/>
       <c r="E422" s="8"/>
@@ -3916,7 +4035,7 @@
       <c r="G422" s="8"/>
     </row>
     <row r="423">
-      <c r="B423" s="15"/>
+      <c r="B423" s="16"/>
       <c r="C423" s="8"/>
       <c r="D423" s="11"/>
       <c r="E423" s="8"/>
@@ -3924,7 +4043,7 @@
       <c r="G423" s="8"/>
     </row>
     <row r="424">
-      <c r="B424" s="15"/>
+      <c r="B424" s="16"/>
       <c r="C424" s="8"/>
       <c r="D424" s="11"/>
       <c r="E424" s="8"/>
@@ -3932,7 +4051,7 @@
       <c r="G424" s="8"/>
     </row>
     <row r="425">
-      <c r="B425" s="15"/>
+      <c r="B425" s="16"/>
       <c r="C425" s="8"/>
       <c r="D425" s="11"/>
       <c r="E425" s="8"/>
@@ -3940,7 +4059,7 @@
       <c r="G425" s="8"/>
     </row>
     <row r="426">
-      <c r="B426" s="15"/>
+      <c r="B426" s="16"/>
       <c r="C426" s="8"/>
       <c r="D426" s="11"/>
       <c r="E426" s="8"/>
@@ -3948,7 +4067,7 @@
       <c r="G426" s="8"/>
     </row>
     <row r="427">
-      <c r="B427" s="15"/>
+      <c r="B427" s="16"/>
       <c r="C427" s="8"/>
       <c r="D427" s="11"/>
       <c r="E427" s="8"/>
@@ -3956,7 +4075,7 @@
       <c r="G427" s="8"/>
     </row>
     <row r="428">
-      <c r="B428" s="15"/>
+      <c r="B428" s="16"/>
       <c r="C428" s="8"/>
       <c r="D428" s="11"/>
       <c r="E428" s="8"/>
@@ -3964,7 +4083,7 @@
       <c r="G428" s="8"/>
     </row>
     <row r="429">
-      <c r="B429" s="15"/>
+      <c r="B429" s="16"/>
       <c r="C429" s="8"/>
       <c r="D429" s="11"/>
       <c r="E429" s="8"/>
@@ -3972,7 +4091,7 @@
       <c r="G429" s="8"/>
     </row>
     <row r="430">
-      <c r="B430" s="15"/>
+      <c r="B430" s="16"/>
       <c r="C430" s="8"/>
       <c r="D430" s="11"/>
       <c r="E430" s="8"/>
@@ -3980,7 +4099,7 @@
       <c r="G430" s="8"/>
     </row>
     <row r="431">
-      <c r="B431" s="15"/>
+      <c r="B431" s="16"/>
       <c r="C431" s="8"/>
       <c r="D431" s="11"/>
       <c r="E431" s="8"/>
@@ -3988,7 +4107,7 @@
       <c r="G431" s="8"/>
     </row>
     <row r="432">
-      <c r="B432" s="15"/>
+      <c r="B432" s="16"/>
       <c r="C432" s="8"/>
       <c r="D432" s="11"/>
       <c r="E432" s="8"/>
@@ -3996,7 +4115,7 @@
       <c r="G432" s="8"/>
     </row>
     <row r="433">
-      <c r="B433" s="15"/>
+      <c r="B433" s="16"/>
       <c r="C433" s="8"/>
       <c r="D433" s="11"/>
       <c r="E433" s="8"/>
@@ -4004,7 +4123,7 @@
       <c r="G433" s="8"/>
     </row>
     <row r="434">
-      <c r="B434" s="15"/>
+      <c r="B434" s="16"/>
       <c r="C434" s="8"/>
       <c r="D434" s="11"/>
       <c r="E434" s="8"/>
@@ -4012,7 +4131,7 @@
       <c r="G434" s="8"/>
     </row>
     <row r="435">
-      <c r="B435" s="15"/>
+      <c r="B435" s="16"/>
       <c r="C435" s="8"/>
       <c r="D435" s="11"/>
       <c r="E435" s="8"/>
@@ -4020,7 +4139,7 @@
       <c r="G435" s="8"/>
     </row>
     <row r="436">
-      <c r="B436" s="15"/>
+      <c r="B436" s="16"/>
       <c r="C436" s="8"/>
       <c r="D436" s="11"/>
       <c r="E436" s="8"/>
@@ -4028,7 +4147,7 @@
       <c r="G436" s="8"/>
     </row>
     <row r="437">
-      <c r="B437" s="15"/>
+      <c r="B437" s="16"/>
       <c r="C437" s="8"/>
       <c r="D437" s="11"/>
       <c r="E437" s="8"/>
@@ -4036,7 +4155,7 @@
       <c r="G437" s="8"/>
     </row>
     <row r="438">
-      <c r="B438" s="15"/>
+      <c r="B438" s="16"/>
       <c r="C438" s="8"/>
       <c r="D438" s="11"/>
       <c r="E438" s="8"/>
@@ -4044,7 +4163,7 @@
       <c r="G438" s="8"/>
     </row>
     <row r="439">
-      <c r="B439" s="15"/>
+      <c r="B439" s="16"/>
       <c r="C439" s="8"/>
       <c r="D439" s="11"/>
       <c r="E439" s="8"/>
@@ -4052,7 +4171,7 @@
       <c r="G439" s="8"/>
     </row>
     <row r="440">
-      <c r="B440" s="15"/>
+      <c r="B440" s="16"/>
       <c r="C440" s="8"/>
       <c r="D440" s="11"/>
       <c r="E440" s="8"/>
@@ -4060,7 +4179,7 @@
       <c r="G440" s="8"/>
     </row>
     <row r="441">
-      <c r="B441" s="15"/>
+      <c r="B441" s="16"/>
       <c r="C441" s="8"/>
       <c r="D441" s="11"/>
       <c r="E441" s="8"/>
@@ -4068,7 +4187,7 @@
       <c r="G441" s="8"/>
     </row>
     <row r="442">
-      <c r="B442" s="15"/>
+      <c r="B442" s="16"/>
       <c r="C442" s="8"/>
       <c r="D442" s="11"/>
       <c r="E442" s="8"/>
@@ -4076,7 +4195,7 @@
       <c r="G442" s="8"/>
     </row>
     <row r="443">
-      <c r="B443" s="15"/>
+      <c r="B443" s="16"/>
       <c r="C443" s="8"/>
       <c r="D443" s="11"/>
       <c r="E443" s="8"/>
@@ -4084,7 +4203,7 @@
       <c r="G443" s="8"/>
     </row>
     <row r="444">
-      <c r="B444" s="15"/>
+      <c r="B444" s="16"/>
       <c r="C444" s="8"/>
       <c r="D444" s="11"/>
       <c r="E444" s="8"/>
@@ -4092,7 +4211,7 @@
       <c r="G444" s="8"/>
     </row>
     <row r="445">
-      <c r="B445" s="15"/>
+      <c r="B445" s="16"/>
       <c r="C445" s="8"/>
       <c r="D445" s="11"/>
       <c r="E445" s="8"/>
@@ -4100,7 +4219,7 @@
       <c r="G445" s="8"/>
     </row>
     <row r="446">
-      <c r="B446" s="15"/>
+      <c r="B446" s="16"/>
       <c r="C446" s="8"/>
       <c r="D446" s="11"/>
       <c r="E446" s="8"/>
@@ -4108,7 +4227,7 @@
       <c r="G446" s="8"/>
     </row>
     <row r="447">
-      <c r="B447" s="15"/>
+      <c r="B447" s="16"/>
       <c r="C447" s="8"/>
       <c r="D447" s="11"/>
       <c r="E447" s="8"/>
@@ -4116,7 +4235,7 @@
       <c r="G447" s="8"/>
     </row>
     <row r="448">
-      <c r="B448" s="15"/>
+      <c r="B448" s="16"/>
       <c r="C448" s="8"/>
       <c r="D448" s="11"/>
       <c r="E448" s="8"/>
@@ -4124,7 +4243,7 @@
       <c r="G448" s="8"/>
     </row>
     <row r="449">
-      <c r="B449" s="15"/>
+      <c r="B449" s="16"/>
       <c r="C449" s="8"/>
       <c r="D449" s="11"/>
       <c r="E449" s="8"/>
@@ -4132,7 +4251,7 @@
       <c r="G449" s="8"/>
     </row>
     <row r="450">
-      <c r="B450" s="15"/>
+      <c r="B450" s="16"/>
       <c r="C450" s="8"/>
       <c r="D450" s="11"/>
       <c r="E450" s="8"/>
@@ -4140,7 +4259,7 @@
       <c r="G450" s="8"/>
     </row>
     <row r="451">
-      <c r="B451" s="15"/>
+      <c r="B451" s="16"/>
       <c r="C451" s="8"/>
       <c r="D451" s="11"/>
       <c r="E451" s="8"/>
@@ -4148,7 +4267,7 @@
       <c r="G451" s="8"/>
     </row>
     <row r="452">
-      <c r="B452" s="15"/>
+      <c r="B452" s="16"/>
       <c r="C452" s="8"/>
       <c r="D452" s="11"/>
       <c r="E452" s="8"/>
@@ -4156,7 +4275,7 @@
       <c r="G452" s="8"/>
     </row>
     <row r="453">
-      <c r="B453" s="15"/>
+      <c r="B453" s="16"/>
       <c r="C453" s="8"/>
       <c r="D453" s="11"/>
       <c r="E453" s="8"/>
@@ -4164,7 +4283,7 @@
       <c r="G453" s="8"/>
     </row>
     <row r="454">
-      <c r="B454" s="15"/>
+      <c r="B454" s="16"/>
       <c r="C454" s="8"/>
       <c r="D454" s="11"/>
       <c r="E454" s="8"/>
@@ -4172,7 +4291,7 @@
       <c r="G454" s="8"/>
     </row>
     <row r="455">
-      <c r="B455" s="15"/>
+      <c r="B455" s="16"/>
       <c r="C455" s="8"/>
       <c r="D455" s="11"/>
       <c r="E455" s="8"/>
@@ -4180,7 +4299,7 @@
       <c r="G455" s="8"/>
     </row>
     <row r="456">
-      <c r="B456" s="15"/>
+      <c r="B456" s="16"/>
       <c r="C456" s="8"/>
       <c r="D456" s="11"/>
       <c r="E456" s="8"/>
@@ -4188,7 +4307,7 @@
       <c r="G456" s="8"/>
     </row>
     <row r="457">
-      <c r="B457" s="15"/>
+      <c r="B457" s="16"/>
       <c r="C457" s="8"/>
       <c r="D457" s="11"/>
       <c r="E457" s="8"/>
@@ -4196,7 +4315,7 @@
       <c r="G457" s="8"/>
     </row>
     <row r="458">
-      <c r="B458" s="15"/>
+      <c r="B458" s="16"/>
       <c r="C458" s="8"/>
       <c r="D458" s="11"/>
       <c r="E458" s="8"/>
@@ -4204,7 +4323,7 @@
       <c r="G458" s="8"/>
     </row>
     <row r="459">
-      <c r="B459" s="15"/>
+      <c r="B459" s="16"/>
       <c r="C459" s="8"/>
       <c r="D459" s="11"/>
       <c r="E459" s="8"/>
@@ -4212,7 +4331,7 @@
       <c r="G459" s="8"/>
     </row>
     <row r="460">
-      <c r="B460" s="15"/>
+      <c r="B460" s="16"/>
       <c r="C460" s="8"/>
       <c r="D460" s="11"/>
       <c r="E460" s="8"/>
@@ -4220,7 +4339,7 @@
       <c r="G460" s="8"/>
     </row>
     <row r="461">
-      <c r="B461" s="15"/>
+      <c r="B461" s="16"/>
       <c r="C461" s="8"/>
       <c r="D461" s="11"/>
       <c r="E461" s="8"/>
@@ -4228,7 +4347,7 @@
       <c r="G461" s="8"/>
     </row>
     <row r="462">
-      <c r="B462" s="15"/>
+      <c r="B462" s="16"/>
       <c r="C462" s="8"/>
       <c r="D462" s="11"/>
       <c r="E462" s="8"/>
@@ -4236,7 +4355,7 @@
       <c r="G462" s="8"/>
     </row>
     <row r="463">
-      <c r="B463" s="15"/>
+      <c r="B463" s="16"/>
       <c r="C463" s="8"/>
       <c r="D463" s="11"/>
       <c r="E463" s="8"/>
@@ -4244,7 +4363,7 @@
       <c r="G463" s="8"/>
     </row>
     <row r="464">
-      <c r="B464" s="15"/>
+      <c r="B464" s="16"/>
       <c r="C464" s="8"/>
       <c r="D464" s="11"/>
       <c r="E464" s="8"/>
@@ -4252,7 +4371,7 @@
       <c r="G464" s="8"/>
     </row>
     <row r="465">
-      <c r="B465" s="15"/>
+      <c r="B465" s="16"/>
       <c r="C465" s="8"/>
       <c r="D465" s="11"/>
       <c r="E465" s="8"/>
@@ -4260,7 +4379,7 @@
       <c r="G465" s="8"/>
     </row>
     <row r="466">
-      <c r="B466" s="15"/>
+      <c r="B466" s="16"/>
       <c r="C466" s="8"/>
       <c r="D466" s="11"/>
       <c r="E466" s="8"/>
@@ -4268,7 +4387,7 @@
       <c r="G466" s="8"/>
     </row>
     <row r="467">
-      <c r="B467" s="15"/>
+      <c r="B467" s="16"/>
       <c r="C467" s="8"/>
       <c r="D467" s="11"/>
       <c r="E467" s="8"/>
@@ -4276,7 +4395,7 @@
       <c r="G467" s="8"/>
     </row>
     <row r="468">
-      <c r="B468" s="15"/>
+      <c r="B468" s="16"/>
       <c r="C468" s="8"/>
       <c r="D468" s="11"/>
       <c r="E468" s="8"/>
@@ -4284,7 +4403,7 @@
       <c r="G468" s="8"/>
     </row>
     <row r="469">
-      <c r="B469" s="15"/>
+      <c r="B469" s="16"/>
       <c r="C469" s="8"/>
       <c r="D469" s="11"/>
       <c r="E469" s="8"/>
@@ -4292,7 +4411,7 @@
       <c r="G469" s="8"/>
     </row>
     <row r="470">
-      <c r="B470" s="15"/>
+      <c r="B470" s="16"/>
       <c r="C470" s="8"/>
       <c r="D470" s="11"/>
       <c r="E470" s="8"/>
@@ -4300,7 +4419,7 @@
       <c r="G470" s="8"/>
     </row>
     <row r="471">
-      <c r="B471" s="15"/>
+      <c r="B471" s="16"/>
       <c r="C471" s="8"/>
       <c r="D471" s="11"/>
       <c r="E471" s="8"/>
@@ -4308,7 +4427,7 @@
       <c r="G471" s="8"/>
     </row>
     <row r="472">
-      <c r="B472" s="15"/>
+      <c r="B472" s="16"/>
       <c r="C472" s="8"/>
       <c r="D472" s="11"/>
       <c r="E472" s="8"/>
@@ -4316,7 +4435,7 @@
       <c r="G472" s="8"/>
     </row>
     <row r="473">
-      <c r="B473" s="15"/>
+      <c r="B473" s="16"/>
       <c r="C473" s="8"/>
       <c r="D473" s="11"/>
       <c r="E473" s="8"/>
@@ -4324,7 +4443,7 @@
       <c r="G473" s="8"/>
     </row>
     <row r="474">
-      <c r="B474" s="15"/>
+      <c r="B474" s="16"/>
       <c r="C474" s="8"/>
       <c r="D474" s="11"/>
       <c r="E474" s="8"/>
@@ -4332,7 +4451,7 @@
       <c r="G474" s="8"/>
     </row>
     <row r="475">
-      <c r="B475" s="15"/>
+      <c r="B475" s="16"/>
       <c r="C475" s="8"/>
       <c r="D475" s="11"/>
       <c r="E475" s="8"/>
@@ -4340,7 +4459,7 @@
       <c r="G475" s="8"/>
     </row>
     <row r="476">
-      <c r="B476" s="15"/>
+      <c r="B476" s="16"/>
       <c r="C476" s="8"/>
       <c r="D476" s="11"/>
       <c r="E476" s="8"/>
@@ -4348,7 +4467,7 @@
       <c r="G476" s="8"/>
     </row>
     <row r="477">
-      <c r="B477" s="15"/>
+      <c r="B477" s="16"/>
       <c r="C477" s="8"/>
       <c r="D477" s="11"/>
       <c r="E477" s="8"/>
@@ -4356,7 +4475,7 @@
       <c r="G477" s="8"/>
     </row>
     <row r="478">
-      <c r="B478" s="15"/>
+      <c r="B478" s="16"/>
       <c r="C478" s="8"/>
       <c r="D478" s="11"/>
       <c r="E478" s="8"/>
@@ -4364,7 +4483,7 @@
       <c r="G478" s="8"/>
     </row>
     <row r="479">
-      <c r="B479" s="15"/>
+      <c r="B479" s="16"/>
       <c r="C479" s="8"/>
       <c r="D479" s="11"/>
       <c r="E479" s="8"/>
@@ -4372,7 +4491,7 @@
       <c r="G479" s="8"/>
     </row>
     <row r="480">
-      <c r="B480" s="15"/>
+      <c r="B480" s="16"/>
       <c r="C480" s="8"/>
       <c r="D480" s="11"/>
       <c r="E480" s="8"/>
@@ -4380,7 +4499,7 @@
       <c r="G480" s="8"/>
     </row>
     <row r="481">
-      <c r="B481" s="15"/>
+      <c r="B481" s="16"/>
       <c r="C481" s="8"/>
       <c r="D481" s="11"/>
       <c r="E481" s="8"/>
@@ -4388,7 +4507,7 @@
       <c r="G481" s="8"/>
     </row>
     <row r="482">
-      <c r="B482" s="15"/>
+      <c r="B482" s="16"/>
       <c r="C482" s="8"/>
       <c r="D482" s="11"/>
       <c r="E482" s="8"/>
@@ -4396,7 +4515,7 @@
       <c r="G482" s="8"/>
     </row>
     <row r="483">
-      <c r="B483" s="15"/>
+      <c r="B483" s="16"/>
       <c r="C483" s="8"/>
       <c r="D483" s="11"/>
       <c r="E483" s="8"/>
@@ -4404,7 +4523,7 @@
       <c r="G483" s="8"/>
     </row>
     <row r="484">
-      <c r="B484" s="15"/>
+      <c r="B484" s="16"/>
       <c r="C484" s="8"/>
       <c r="D484" s="11"/>
       <c r="E484" s="8"/>
@@ -4412,7 +4531,7 @@
       <c r="G484" s="8"/>
     </row>
     <row r="485">
-      <c r="B485" s="15"/>
+      <c r="B485" s="16"/>
       <c r="C485" s="8"/>
       <c r="D485" s="11"/>
       <c r="E485" s="8"/>
@@ -4420,7 +4539,7 @@
       <c r="G485" s="8"/>
     </row>
     <row r="486">
-      <c r="B486" s="15"/>
+      <c r="B486" s="16"/>
       <c r="C486" s="8"/>
       <c r="D486" s="11"/>
       <c r="E486" s="8"/>
@@ -4428,7 +4547,7 @@
       <c r="G486" s="8"/>
     </row>
     <row r="487">
-      <c r="B487" s="15"/>
+      <c r="B487" s="16"/>
       <c r="C487" s="8"/>
       <c r="D487" s="11"/>
       <c r="E487" s="8"/>
@@ -4436,7 +4555,7 @@
       <c r="G487" s="8"/>
     </row>
     <row r="488">
-      <c r="B488" s="15"/>
+      <c r="B488" s="16"/>
       <c r="C488" s="8"/>
       <c r="D488" s="11"/>
       <c r="E488" s="8"/>
@@ -4444,7 +4563,7 @@
       <c r="G488" s="8"/>
     </row>
     <row r="489">
-      <c r="B489" s="15"/>
+      <c r="B489" s="16"/>
       <c r="C489" s="8"/>
       <c r="D489" s="11"/>
       <c r="E489" s="8"/>
@@ -4452,7 +4571,7 @@
       <c r="G489" s="8"/>
     </row>
     <row r="490">
-      <c r="B490" s="15"/>
+      <c r="B490" s="16"/>
       <c r="C490" s="8"/>
       <c r="D490" s="11"/>
       <c r="E490" s="8"/>
@@ -4460,7 +4579,7 @@
       <c r="G490" s="8"/>
     </row>
     <row r="491">
-      <c r="B491" s="15"/>
+      <c r="B491" s="16"/>
       <c r="C491" s="8"/>
       <c r="D491" s="11"/>
       <c r="E491" s="8"/>
@@ -4468,7 +4587,7 @@
       <c r="G491" s="8"/>
     </row>
     <row r="492">
-      <c r="B492" s="15"/>
+      <c r="B492" s="16"/>
       <c r="C492" s="8"/>
       <c r="D492" s="11"/>
       <c r="E492" s="8"/>
@@ -4476,7 +4595,7 @@
       <c r="G492" s="8"/>
     </row>
     <row r="493">
-      <c r="B493" s="15"/>
+      <c r="B493" s="16"/>
       <c r="C493" s="8"/>
       <c r="D493" s="11"/>
       <c r="E493" s="8"/>
@@ -4484,7 +4603,7 @@
       <c r="G493" s="8"/>
     </row>
     <row r="494">
-      <c r="B494" s="15"/>
+      <c r="B494" s="16"/>
       <c r="C494" s="8"/>
       <c r="D494" s="11"/>
       <c r="E494" s="8"/>
@@ -4492,7 +4611,7 @@
       <c r="G494" s="8"/>
     </row>
     <row r="495">
-      <c r="B495" s="15"/>
+      <c r="B495" s="16"/>
       <c r="C495" s="8"/>
       <c r="D495" s="11"/>
       <c r="E495" s="8"/>
@@ -4500,7 +4619,7 @@
       <c r="G495" s="8"/>
     </row>
     <row r="496">
-      <c r="B496" s="15"/>
+      <c r="B496" s="16"/>
       <c r="C496" s="8"/>
       <c r="D496" s="11"/>
       <c r="E496" s="8"/>
@@ -4508,7 +4627,7 @@
       <c r="G496" s="8"/>
     </row>
     <row r="497">
-      <c r="B497" s="15"/>
+      <c r="B497" s="16"/>
       <c r="C497" s="8"/>
       <c r="D497" s="11"/>
       <c r="E497" s="8"/>
@@ -4516,7 +4635,7 @@
       <c r="G497" s="8"/>
     </row>
     <row r="498">
-      <c r="B498" s="15"/>
+      <c r="B498" s="16"/>
       <c r="C498" s="8"/>
       <c r="D498" s="11"/>
       <c r="E498" s="8"/>
@@ -4524,7 +4643,7 @@
       <c r="G498" s="8"/>
     </row>
     <row r="499">
-      <c r="B499" s="15"/>
+      <c r="B499" s="16"/>
       <c r="C499" s="8"/>
       <c r="D499" s="11"/>
       <c r="E499" s="8"/>
@@ -4532,7 +4651,7 @@
       <c r="G499" s="8"/>
     </row>
     <row r="500">
-      <c r="B500" s="15"/>
+      <c r="B500" s="16"/>
       <c r="C500" s="8"/>
       <c r="D500" s="11"/>
       <c r="E500" s="8"/>
@@ -4540,7 +4659,7 @@
       <c r="G500" s="8"/>
     </row>
     <row r="501">
-      <c r="B501" s="15"/>
+      <c r="B501" s="16"/>
       <c r="C501" s="8"/>
       <c r="D501" s="11"/>
       <c r="E501" s="8"/>
@@ -4548,7 +4667,7 @@
       <c r="G501" s="8"/>
     </row>
     <row r="502">
-      <c r="B502" s="15"/>
+      <c r="B502" s="16"/>
       <c r="C502" s="8"/>
       <c r="D502" s="11"/>
       <c r="E502" s="8"/>
@@ -4556,7 +4675,7 @@
       <c r="G502" s="8"/>
     </row>
     <row r="503">
-      <c r="B503" s="15"/>
+      <c r="B503" s="16"/>
       <c r="C503" s="8"/>
       <c r="D503" s="11"/>
       <c r="E503" s="8"/>
@@ -4564,7 +4683,7 @@
       <c r="G503" s="8"/>
     </row>
     <row r="504">
-      <c r="B504" s="15"/>
+      <c r="B504" s="16"/>
       <c r="C504" s="8"/>
       <c r="D504" s="11"/>
       <c r="E504" s="8"/>
@@ -4572,7 +4691,7 @@
       <c r="G504" s="8"/>
     </row>
     <row r="505">
-      <c r="B505" s="15"/>
+      <c r="B505" s="16"/>
       <c r="C505" s="8"/>
       <c r="D505" s="11"/>
       <c r="E505" s="8"/>
@@ -4580,7 +4699,7 @@
       <c r="G505" s="8"/>
     </row>
     <row r="506">
-      <c r="B506" s="15"/>
+      <c r="B506" s="16"/>
       <c r="C506" s="8"/>
       <c r="D506" s="11"/>
       <c r="E506" s="8"/>
@@ -4588,7 +4707,7 @@
       <c r="G506" s="8"/>
     </row>
     <row r="507">
-      <c r="B507" s="15"/>
+      <c r="B507" s="16"/>
       <c r="C507" s="8"/>
       <c r="D507" s="11"/>
       <c r="E507" s="8"/>
@@ -4596,7 +4715,7 @@
       <c r="G507" s="8"/>
     </row>
     <row r="508">
-      <c r="B508" s="15"/>
+      <c r="B508" s="16"/>
       <c r="C508" s="8"/>
       <c r="D508" s="11"/>
       <c r="E508" s="8"/>
@@ -4604,7 +4723,7 @@
       <c r="G508" s="8"/>
     </row>
     <row r="509">
-      <c r="B509" s="15"/>
+      <c r="B509" s="16"/>
       <c r="C509" s="8"/>
       <c r="D509" s="11"/>
       <c r="E509" s="8"/>
@@ -4612,7 +4731,7 @@
       <c r="G509" s="8"/>
     </row>
     <row r="510">
-      <c r="B510" s="15"/>
+      <c r="B510" s="16"/>
       <c r="C510" s="8"/>
       <c r="D510" s="11"/>
       <c r="E510" s="8"/>
@@ -4620,7 +4739,7 @@
       <c r="G510" s="8"/>
     </row>
     <row r="511">
-      <c r="B511" s="15"/>
+      <c r="B511" s="16"/>
       <c r="C511" s="8"/>
       <c r="D511" s="11"/>
       <c r="E511" s="8"/>
@@ -4628,7 +4747,7 @@
       <c r="G511" s="8"/>
     </row>
     <row r="512">
-      <c r="B512" s="15"/>
+      <c r="B512" s="16"/>
       <c r="C512" s="8"/>
       <c r="D512" s="11"/>
       <c r="E512" s="8"/>
@@ -4636,7 +4755,7 @@
       <c r="G512" s="8"/>
     </row>
     <row r="513">
-      <c r="B513" s="15"/>
+      <c r="B513" s="16"/>
       <c r="C513" s="8"/>
       <c r="D513" s="11"/>
       <c r="E513" s="8"/>
@@ -4644,7 +4763,7 @@
       <c r="G513" s="8"/>
     </row>
     <row r="514">
-      <c r="B514" s="15"/>
+      <c r="B514" s="16"/>
       <c r="C514" s="8"/>
       <c r="D514" s="11"/>
       <c r="E514" s="8"/>
@@ -4652,7 +4771,7 @@
       <c r="G514" s="8"/>
     </row>
     <row r="515">
-      <c r="B515" s="15"/>
+      <c r="B515" s="16"/>
       <c r="C515" s="8"/>
       <c r="D515" s="11"/>
       <c r="E515" s="8"/>
@@ -4660,7 +4779,7 @@
       <c r="G515" s="8"/>
     </row>
     <row r="516">
-      <c r="B516" s="15"/>
+      <c r="B516" s="16"/>
       <c r="C516" s="8"/>
       <c r="D516" s="11"/>
       <c r="E516" s="8"/>
@@ -4668,7 +4787,7 @@
       <c r="G516" s="8"/>
     </row>
     <row r="517">
-      <c r="B517" s="15"/>
+      <c r="B517" s="16"/>
       <c r="C517" s="8"/>
       <c r="D517" s="11"/>
       <c r="E517" s="8"/>
@@ -4676,7 +4795,7 @@
       <c r="G517" s="8"/>
     </row>
     <row r="518">
-      <c r="B518" s="15"/>
+      <c r="B518" s="16"/>
       <c r="C518" s="8"/>
       <c r="D518" s="11"/>
       <c r="E518" s="8"/>
@@ -4684,7 +4803,7 @@
       <c r="G518" s="8"/>
     </row>
     <row r="519">
-      <c r="B519" s="15"/>
+      <c r="B519" s="16"/>
       <c r="C519" s="8"/>
       <c r="D519" s="11"/>
       <c r="E519" s="8"/>
@@ -4692,7 +4811,7 @@
       <c r="G519" s="8"/>
     </row>
     <row r="520">
-      <c r="B520" s="15"/>
+      <c r="B520" s="16"/>
       <c r="C520" s="8"/>
       <c r="D520" s="11"/>
       <c r="E520" s="8"/>
@@ -4700,7 +4819,7 @@
       <c r="G520" s="8"/>
     </row>
     <row r="521">
-      <c r="B521" s="15"/>
+      <c r="B521" s="16"/>
       <c r="C521" s="8"/>
       <c r="D521" s="11"/>
       <c r="E521" s="8"/>
@@ -4708,7 +4827,7 @@
       <c r="G521" s="8"/>
     </row>
     <row r="522">
-      <c r="B522" s="15"/>
+      <c r="B522" s="16"/>
       <c r="C522" s="8"/>
       <c r="D522" s="11"/>
       <c r="E522" s="8"/>
@@ -4716,7 +4835,7 @@
       <c r="G522" s="8"/>
     </row>
     <row r="523">
-      <c r="B523" s="15"/>
+      <c r="B523" s="16"/>
       <c r="C523" s="8"/>
       <c r="D523" s="11"/>
       <c r="E523" s="8"/>
@@ -4724,7 +4843,7 @@
       <c r="G523" s="8"/>
     </row>
     <row r="524">
-      <c r="B524" s="15"/>
+      <c r="B524" s="16"/>
       <c r="C524" s="8"/>
       <c r="D524" s="11"/>
       <c r="E524" s="8"/>
@@ -4732,7 +4851,7 @@
       <c r="G524" s="8"/>
     </row>
     <row r="525">
-      <c r="B525" s="15"/>
+      <c r="B525" s="16"/>
       <c r="C525" s="8"/>
       <c r="D525" s="11"/>
       <c r="E525" s="8"/>
@@ -4740,7 +4859,7 @@
       <c r="G525" s="8"/>
     </row>
     <row r="526">
-      <c r="B526" s="15"/>
+      <c r="B526" s="16"/>
       <c r="C526" s="8"/>
       <c r="D526" s="11"/>
       <c r="E526" s="8"/>
@@ -4748,7 +4867,7 @@
       <c r="G526" s="8"/>
     </row>
     <row r="527">
-      <c r="B527" s="15"/>
+      <c r="B527" s="16"/>
       <c r="C527" s="8"/>
       <c r="D527" s="11"/>
       <c r="E527" s="8"/>
@@ -4756,7 +4875,7 @@
       <c r="G527" s="8"/>
     </row>
     <row r="528">
-      <c r="B528" s="15"/>
+      <c r="B528" s="16"/>
       <c r="C528" s="8"/>
       <c r="D528" s="11"/>
       <c r="E528" s="8"/>
@@ -4764,7 +4883,7 @@
       <c r="G528" s="8"/>
     </row>
     <row r="529">
-      <c r="B529" s="15"/>
+      <c r="B529" s="16"/>
       <c r="C529" s="8"/>
       <c r="D529" s="11"/>
       <c r="E529" s="8"/>
@@ -4772,7 +4891,7 @@
       <c r="G529" s="8"/>
     </row>
     <row r="530">
-      <c r="B530" s="15"/>
+      <c r="B530" s="16"/>
       <c r="C530" s="8"/>
       <c r="D530" s="11"/>
       <c r="E530" s="8"/>
@@ -4780,7 +4899,7 @@
       <c r="G530" s="8"/>
     </row>
     <row r="531">
-      <c r="B531" s="15"/>
+      <c r="B531" s="16"/>
       <c r="C531" s="8"/>
       <c r="D531" s="11"/>
       <c r="E531" s="8"/>
@@ -4788,7 +4907,7 @@
       <c r="G531" s="8"/>
     </row>
     <row r="532">
-      <c r="B532" s="15"/>
+      <c r="B532" s="16"/>
       <c r="C532" s="8"/>
       <c r="D532" s="11"/>
       <c r="E532" s="8"/>
@@ -4796,7 +4915,7 @@
       <c r="G532" s="8"/>
     </row>
     <row r="533">
-      <c r="B533" s="15"/>
+      <c r="B533" s="16"/>
       <c r="C533" s="8"/>
       <c r="D533" s="11"/>
       <c r="E533" s="8"/>
@@ -4804,7 +4923,7 @@
       <c r="G533" s="8"/>
     </row>
     <row r="534">
-      <c r="B534" s="15"/>
+      <c r="B534" s="16"/>
       <c r="C534" s="8"/>
       <c r="D534" s="11"/>
       <c r="E534" s="8"/>
@@ -4812,7 +4931,7 @@
       <c r="G534" s="8"/>
     </row>
     <row r="535">
-      <c r="B535" s="15"/>
+      <c r="B535" s="16"/>
       <c r="C535" s="8"/>
       <c r="D535" s="11"/>
       <c r="E535" s="8"/>
@@ -4820,7 +4939,7 @@
       <c r="G535" s="8"/>
     </row>
     <row r="536">
-      <c r="B536" s="15"/>
+      <c r="B536" s="16"/>
       <c r="C536" s="8"/>
       <c r="D536" s="11"/>
       <c r="E536" s="8"/>
@@ -4828,7 +4947,7 @@
       <c r="G536" s="8"/>
     </row>
     <row r="537">
-      <c r="B537" s="15"/>
+      <c r="B537" s="16"/>
       <c r="C537" s="8"/>
       <c r="D537" s="11"/>
       <c r="E537" s="8"/>
@@ -4836,7 +4955,7 @@
       <c r="G537" s="8"/>
     </row>
     <row r="538">
-      <c r="B538" s="15"/>
+      <c r="B538" s="16"/>
       <c r="C538" s="8"/>
       <c r="D538" s="11"/>
       <c r="E538" s="8"/>
@@ -4844,7 +4963,7 @@
       <c r="G538" s="8"/>
     </row>
     <row r="539">
-      <c r="B539" s="15"/>
+      <c r="B539" s="16"/>
       <c r="C539" s="8"/>
       <c r="D539" s="11"/>
       <c r="E539" s="8"/>
@@ -4852,7 +4971,7 @@
       <c r="G539" s="8"/>
     </row>
     <row r="540">
-      <c r="B540" s="15"/>
+      <c r="B540" s="16"/>
       <c r="C540" s="8"/>
       <c r="D540" s="11"/>
       <c r="E540" s="8"/>
@@ -4860,7 +4979,7 @@
       <c r="G540" s="8"/>
     </row>
     <row r="541">
-      <c r="B541" s="15"/>
+      <c r="B541" s="16"/>
       <c r="C541" s="8"/>
       <c r="D541" s="11"/>
       <c r="E541" s="8"/>
@@ -4868,7 +4987,7 @@
       <c r="G541" s="8"/>
     </row>
     <row r="542">
-      <c r="B542" s="15"/>
+      <c r="B542" s="16"/>
       <c r="C542" s="8"/>
       <c r="D542" s="11"/>
       <c r="E542" s="8"/>
@@ -4876,7 +4995,7 @@
       <c r="G542" s="8"/>
     </row>
     <row r="543">
-      <c r="B543" s="15"/>
+      <c r="B543" s="16"/>
       <c r="C543" s="8"/>
       <c r="D543" s="11"/>
       <c r="E543" s="8"/>
@@ -4884,7 +5003,7 @@
       <c r="G543" s="8"/>
     </row>
     <row r="544">
-      <c r="B544" s="15"/>
+      <c r="B544" s="16"/>
       <c r="C544" s="8"/>
       <c r="D544" s="11"/>
       <c r="E544" s="8"/>
@@ -4892,7 +5011,7 @@
       <c r="G544" s="8"/>
     </row>
     <row r="545">
-      <c r="B545" s="15"/>
+      <c r="B545" s="16"/>
       <c r="C545" s="8"/>
       <c r="D545" s="11"/>
       <c r="E545" s="8"/>
@@ -4900,7 +5019,7 @@
       <c r="G545" s="8"/>
     </row>
     <row r="546">
-      <c r="B546" s="15"/>
+      <c r="B546" s="16"/>
       <c r="C546" s="8"/>
       <c r="D546" s="11"/>
       <c r="E546" s="8"/>
@@ -4908,7 +5027,7 @@
       <c r="G546" s="8"/>
     </row>
     <row r="547">
-      <c r="B547" s="15"/>
+      <c r="B547" s="16"/>
       <c r="C547" s="8"/>
       <c r="D547" s="11"/>
       <c r="E547" s="8"/>
@@ -4916,7 +5035,7 @@
       <c r="G547" s="8"/>
     </row>
     <row r="548">
-      <c r="B548" s="15"/>
+      <c r="B548" s="16"/>
       <c r="C548" s="8"/>
       <c r="D548" s="11"/>
       <c r="E548" s="8"/>
@@ -4924,7 +5043,7 @@
       <c r="G548" s="8"/>
     </row>
     <row r="549">
-      <c r="B549" s="15"/>
+      <c r="B549" s="16"/>
       <c r="C549" s="8"/>
       <c r="D549" s="11"/>
       <c r="E549" s="8"/>
@@ -4932,7 +5051,7 @@
       <c r="G549" s="8"/>
     </row>
     <row r="550">
-      <c r="B550" s="15"/>
+      <c r="B550" s="16"/>
       <c r="C550" s="8"/>
       <c r="D550" s="11"/>
       <c r="E550" s="8"/>
@@ -4940,7 +5059,7 @@
       <c r="G550" s="8"/>
     </row>
     <row r="551">
-      <c r="B551" s="15"/>
+      <c r="B551" s="16"/>
       <c r="C551" s="8"/>
       <c r="D551" s="11"/>
       <c r="E551" s="8"/>
@@ -4948,7 +5067,7 @@
       <c r="G551" s="8"/>
     </row>
     <row r="552">
-      <c r="B552" s="15"/>
+      <c r="B552" s="16"/>
       <c r="C552" s="8"/>
       <c r="D552" s="11"/>
       <c r="E552" s="8"/>
@@ -4956,7 +5075,7 @@
       <c r="G552" s="8"/>
     </row>
     <row r="553">
-      <c r="B553" s="15"/>
+      <c r="B553" s="16"/>
       <c r="C553" s="8"/>
       <c r="D553" s="11"/>
       <c r="E553" s="8"/>
@@ -4964,7 +5083,7 @@
       <c r="G553" s="8"/>
     </row>
     <row r="554">
-      <c r="B554" s="15"/>
+      <c r="B554" s="16"/>
       <c r="C554" s="8"/>
       <c r="D554" s="11"/>
       <c r="E554" s="8"/>
@@ -4972,7 +5091,7 @@
       <c r="G554" s="8"/>
     </row>
     <row r="555">
-      <c r="B555" s="15"/>
+      <c r="B555" s="16"/>
       <c r="C555" s="8"/>
       <c r="D555" s="11"/>
       <c r="E555" s="8"/>
@@ -4980,7 +5099,7 @@
       <c r="G555" s="8"/>
     </row>
     <row r="556">
-      <c r="B556" s="15"/>
+      <c r="B556" s="16"/>
       <c r="C556" s="8"/>
       <c r="D556" s="11"/>
       <c r="E556" s="8"/>
@@ -4988,7 +5107,7 @@
       <c r="G556" s="8"/>
     </row>
     <row r="557">
-      <c r="B557" s="15"/>
+      <c r="B557" s="16"/>
       <c r="C557" s="8"/>
       <c r="D557" s="11"/>
       <c r="E557" s="8"/>
@@ -4996,7 +5115,7 @@
       <c r="G557" s="8"/>
     </row>
     <row r="558">
-      <c r="B558" s="15"/>
+      <c r="B558" s="16"/>
       <c r="C558" s="8"/>
       <c r="D558" s="11"/>
       <c r="E558" s="8"/>
@@ -5004,7 +5123,7 @@
       <c r="G558" s="8"/>
     </row>
     <row r="559">
-      <c r="B559" s="15"/>
+      <c r="B559" s="16"/>
       <c r="C559" s="8"/>
       <c r="D559" s="11"/>
       <c r="E559" s="8"/>
@@ -5012,7 +5131,7 @@
       <c r="G559" s="8"/>
     </row>
     <row r="560">
-      <c r="B560" s="15"/>
+      <c r="B560" s="16"/>
       <c r="C560" s="8"/>
       <c r="D560" s="11"/>
       <c r="E560" s="8"/>
@@ -5020,7 +5139,7 @@
       <c r="G560" s="8"/>
     </row>
     <row r="561">
-      <c r="B561" s="15"/>
+      <c r="B561" s="16"/>
       <c r="C561" s="8"/>
       <c r="D561" s="11"/>
       <c r="E561" s="8"/>
@@ -5028,7 +5147,7 @@
       <c r="G561" s="8"/>
     </row>
     <row r="562">
-      <c r="B562" s="15"/>
+      <c r="B562" s="16"/>
       <c r="C562" s="8"/>
       <c r="D562" s="11"/>
       <c r="E562" s="8"/>
@@ -5036,7 +5155,7 @@
       <c r="G562" s="8"/>
     </row>
     <row r="563">
-      <c r="B563" s="15"/>
+      <c r="B563" s="16"/>
       <c r="C563" s="8"/>
       <c r="D563" s="11"/>
       <c r="E563" s="8"/>
@@ -5044,7 +5163,7 @@
       <c r="G563" s="8"/>
     </row>
     <row r="564">
-      <c r="B564" s="15"/>
+      <c r="B564" s="16"/>
       <c r="C564" s="8"/>
       <c r="D564" s="11"/>
       <c r="E564" s="8"/>
@@ -5052,7 +5171,7 @@
       <c r="G564" s="8"/>
     </row>
     <row r="565">
-      <c r="B565" s="15"/>
+      <c r="B565" s="16"/>
       <c r="C565" s="8"/>
       <c r="D565" s="11"/>
       <c r="E565" s="8"/>
@@ -5060,7 +5179,7 @@
       <c r="G565" s="8"/>
     </row>
     <row r="566">
-      <c r="B566" s="15"/>
+      <c r="B566" s="16"/>
       <c r="C566" s="8"/>
       <c r="D566" s="11"/>
       <c r="E566" s="8"/>
@@ -5068,7 +5187,7 @@
       <c r="G566" s="8"/>
     </row>
     <row r="567">
-      <c r="B567" s="15"/>
+      <c r="B567" s="16"/>
       <c r="C567" s="8"/>
       <c r="D567" s="11"/>
       <c r="E567" s="8"/>
@@ -5076,7 +5195,7 @@
       <c r="G567" s="8"/>
     </row>
     <row r="568">
-      <c r="B568" s="15"/>
+      <c r="B568" s="16"/>
       <c r="C568" s="8"/>
       <c r="D568" s="11"/>
       <c r="E568" s="8"/>
@@ -5084,7 +5203,7 @@
       <c r="G568" s="8"/>
     </row>
     <row r="569">
-      <c r="B569" s="15"/>
+      <c r="B569" s="16"/>
       <c r="C569" s="8"/>
       <c r="D569" s="11"/>
       <c r="E569" s="8"/>
@@ -5092,7 +5211,7 @@
       <c r="G569" s="8"/>
     </row>
     <row r="570">
-      <c r="B570" s="15"/>
+      <c r="B570" s="16"/>
       <c r="C570" s="8"/>
       <c r="D570" s="11"/>
       <c r="E570" s="8"/>
@@ -5100,7 +5219,7 @@
       <c r="G570" s="8"/>
     </row>
     <row r="571">
-      <c r="B571" s="15"/>
+      <c r="B571" s="16"/>
       <c r="C571" s="8"/>
       <c r="D571" s="11"/>
       <c r="E571" s="8"/>
@@ -5108,7 +5227,7 @@
       <c r="G571" s="8"/>
     </row>
     <row r="572">
-      <c r="B572" s="15"/>
+      <c r="B572" s="16"/>
       <c r="C572" s="8"/>
       <c r="D572" s="11"/>
       <c r="E572" s="8"/>
@@ -5116,7 +5235,7 @@
       <c r="G572" s="8"/>
     </row>
     <row r="573">
-      <c r="B573" s="15"/>
+      <c r="B573" s="16"/>
       <c r="C573" s="8"/>
       <c r="D573" s="11"/>
       <c r="E573" s="8"/>
@@ -5124,7 +5243,7 @@
       <c r="G573" s="8"/>
     </row>
     <row r="574">
-      <c r="B574" s="15"/>
+      <c r="B574" s="16"/>
       <c r="C574" s="8"/>
       <c r="D574" s="11"/>
       <c r="E574" s="8"/>
@@ -5132,7 +5251,7 @@
       <c r="G574" s="8"/>
     </row>
     <row r="575">
-      <c r="B575" s="15"/>
+      <c r="B575" s="16"/>
       <c r="C575" s="8"/>
       <c r="D575" s="11"/>
       <c r="E575" s="8"/>
@@ -5140,7 +5259,7 @@
       <c r="G575" s="8"/>
     </row>
     <row r="576">
-      <c r="B576" s="15"/>
+      <c r="B576" s="16"/>
       <c r="C576" s="8"/>
       <c r="D576" s="11"/>
       <c r="E576" s="8"/>
@@ -5148,7 +5267,7 @@
       <c r="G576" s="8"/>
     </row>
     <row r="577">
-      <c r="B577" s="15"/>
+      <c r="B577" s="16"/>
       <c r="C577" s="8"/>
       <c r="D577" s="11"/>
       <c r="E577" s="8"/>
@@ -5156,7 +5275,7 @@
       <c r="G577" s="8"/>
     </row>
     <row r="578">
-      <c r="B578" s="15"/>
+      <c r="B578" s="16"/>
       <c r="C578" s="8"/>
       <c r="D578" s="11"/>
       <c r="E578" s="8"/>
@@ -5164,7 +5283,7 @@
       <c r="G578" s="8"/>
     </row>
     <row r="579">
-      <c r="B579" s="15"/>
+      <c r="B579" s="16"/>
       <c r="C579" s="8"/>
       <c r="D579" s="11"/>
       <c r="E579" s="8"/>
@@ -5172,7 +5291,7 @@
       <c r="G579" s="8"/>
     </row>
     <row r="580">
-      <c r="B580" s="15"/>
+      <c r="B580" s="16"/>
       <c r="C580" s="8"/>
       <c r="D580" s="11"/>
       <c r="E580" s="8"/>
@@ -5180,7 +5299,7 @@
       <c r="G580" s="8"/>
     </row>
     <row r="581">
-      <c r="B581" s="15"/>
+      <c r="B581" s="16"/>
       <c r="C581" s="8"/>
       <c r="D581" s="11"/>
       <c r="E581" s="8"/>
@@ -5188,7 +5307,7 @@
       <c r="G581" s="8"/>
     </row>
     <row r="582">
-      <c r="B582" s="15"/>
+      <c r="B582" s="16"/>
       <c r="C582" s="8"/>
       <c r="D582" s="11"/>
       <c r="E582" s="8"/>
@@ -5196,7 +5315,7 @@
       <c r="G582" s="8"/>
     </row>
     <row r="583">
-      <c r="B583" s="15"/>
+      <c r="B583" s="16"/>
       <c r="C583" s="8"/>
       <c r="D583" s="11"/>
       <c r="E583" s="8"/>
@@ -5204,7 +5323,7 @@
       <c r="G583" s="8"/>
     </row>
     <row r="584">
-      <c r="B584" s="15"/>
+      <c r="B584" s="16"/>
       <c r="C584" s="8"/>
       <c r="D584" s="11"/>
       <c r="E584" s="8"/>
@@ -5212,7 +5331,7 @@
       <c r="G584" s="8"/>
     </row>
     <row r="585">
-      <c r="B585" s="15"/>
+      <c r="B585" s="16"/>
       <c r="C585" s="8"/>
       <c r="D585" s="11"/>
       <c r="E585" s="8"/>
@@ -5220,7 +5339,7 @@
       <c r="G585" s="8"/>
     </row>
     <row r="586">
-      <c r="B586" s="15"/>
+      <c r="B586" s="16"/>
       <c r="C586" s="8"/>
       <c r="D586" s="11"/>
       <c r="E586" s="8"/>
@@ -5228,7 +5347,7 @@
       <c r="G586" s="8"/>
     </row>
     <row r="587">
-      <c r="B587" s="15"/>
+      <c r="B587" s="16"/>
       <c r="C587" s="8"/>
       <c r="D587" s="11"/>
       <c r="E587" s="8"/>
@@ -5236,7 +5355,7 @@
       <c r="G587" s="8"/>
     </row>
     <row r="588">
-      <c r="B588" s="15"/>
+      <c r="B588" s="16"/>
       <c r="C588" s="8"/>
       <c r="D588" s="11"/>
       <c r="E588" s="8"/>
@@ -5244,7 +5363,7 @@
       <c r="G588" s="8"/>
     </row>
     <row r="589">
-      <c r="B589" s="15"/>
+      <c r="B589" s="16"/>
       <c r="C589" s="8"/>
       <c r="D589" s="11"/>
       <c r="E589" s="8"/>
@@ -5252,7 +5371,7 @@
       <c r="G589" s="8"/>
     </row>
     <row r="590">
-      <c r="B590" s="15"/>
+      <c r="B590" s="16"/>
       <c r="C590" s="8"/>
       <c r="D590" s="11"/>
       <c r="E590" s="8"/>
@@ -5260,7 +5379,7 @@
       <c r="G590" s="8"/>
     </row>
     <row r="591">
-      <c r="B591" s="15"/>
+      <c r="B591" s="16"/>
       <c r="C591" s="8"/>
       <c r="D591" s="11"/>
       <c r="E591" s="8"/>
@@ -5268,7 +5387,7 @@
       <c r="G591" s="8"/>
     </row>
     <row r="592">
-      <c r="B592" s="15"/>
+      <c r="B592" s="16"/>
       <c r="C592" s="8"/>
       <c r="D592" s="11"/>
       <c r="E592" s="8"/>
@@ -5276,7 +5395,7 @@
       <c r="G592" s="8"/>
     </row>
     <row r="593">
-      <c r="B593" s="15"/>
+      <c r="B593" s="16"/>
       <c r="C593" s="8"/>
       <c r="D593" s="11"/>
       <c r="E593" s="8"/>
@@ -5284,7 +5403,7 @@
       <c r="G593" s="8"/>
     </row>
     <row r="594">
-      <c r="B594" s="15"/>
+      <c r="B594" s="16"/>
       <c r="C594" s="8"/>
       <c r="D594" s="11"/>
       <c r="E594" s="8"/>
@@ -5292,7 +5411,7 @@
       <c r="G594" s="8"/>
     </row>
     <row r="595">
-      <c r="B595" s="15"/>
+      <c r="B595" s="16"/>
       <c r="C595" s="8"/>
       <c r="D595" s="11"/>
       <c r="E595" s="8"/>
@@ -5300,7 +5419,7 @@
       <c r="G595" s="8"/>
     </row>
     <row r="596">
-      <c r="B596" s="15"/>
+      <c r="B596" s="16"/>
       <c r="C596" s="8"/>
       <c r="D596" s="11"/>
       <c r="E596" s="8"/>
@@ -5308,7 +5427,7 @@
       <c r="G596" s="8"/>
     </row>
     <row r="597">
-      <c r="B597" s="15"/>
+      <c r="B597" s="16"/>
       <c r="C597" s="8"/>
       <c r="D597" s="11"/>
       <c r="E597" s="8"/>
@@ -5316,7 +5435,7 @@
       <c r="G597" s="8"/>
     </row>
     <row r="598">
-      <c r="B598" s="15"/>
+      <c r="B598" s="16"/>
       <c r="C598" s="8"/>
       <c r="D598" s="11"/>
       <c r="E598" s="8"/>
@@ -5324,7 +5443,7 @@
       <c r="G598" s="8"/>
     </row>
     <row r="599">
-      <c r="B599" s="15"/>
+      <c r="B599" s="16"/>
       <c r="C599" s="8"/>
       <c r="D599" s="11"/>
       <c r="E599" s="8"/>
@@ -5332,7 +5451,7 @@
       <c r="G599" s="8"/>
     </row>
     <row r="600">
-      <c r="B600" s="15"/>
+      <c r="B600" s="16"/>
       <c r="C600" s="8"/>
       <c r="D600" s="11"/>
       <c r="E600" s="8"/>
@@ -5340,7 +5459,7 @@
       <c r="G600" s="8"/>
     </row>
     <row r="601">
-      <c r="B601" s="15"/>
+      <c r="B601" s="16"/>
       <c r="C601" s="8"/>
       <c r="D601" s="11"/>
       <c r="E601" s="8"/>
@@ -5348,7 +5467,7 @@
       <c r="G601" s="8"/>
     </row>
     <row r="602">
-      <c r="B602" s="15"/>
+      <c r="B602" s="16"/>
       <c r="C602" s="8"/>
       <c r="D602" s="11"/>
       <c r="E602" s="8"/>
@@ -5356,7 +5475,7 @@
       <c r="G602" s="8"/>
     </row>
     <row r="603">
-      <c r="B603" s="15"/>
+      <c r="B603" s="16"/>
       <c r="C603" s="8"/>
       <c r="D603" s="11"/>
       <c r="E603" s="8"/>
@@ -5364,7 +5483,7 @@
       <c r="G603" s="8"/>
     </row>
     <row r="604">
-      <c r="B604" s="15"/>
+      <c r="B604" s="16"/>
       <c r="C604" s="8"/>
       <c r="D604" s="11"/>
       <c r="E604" s="8"/>
@@ -5372,7 +5491,7 @@
       <c r="G604" s="8"/>
     </row>
     <row r="605">
-      <c r="B605" s="15"/>
+      <c r="B605" s="16"/>
       <c r="C605" s="8"/>
       <c r="D605" s="11"/>
       <c r="E605" s="8"/>
@@ -5380,7 +5499,7 @@
       <c r="G605" s="8"/>
     </row>
     <row r="606">
-      <c r="B606" s="15"/>
+      <c r="B606" s="16"/>
       <c r="C606" s="8"/>
       <c r="D606" s="11"/>
       <c r="E606" s="8"/>
@@ -5388,7 +5507,7 @@
       <c r="G606" s="8"/>
     </row>
     <row r="607">
-      <c r="B607" s="15"/>
+      <c r="B607" s="16"/>
       <c r="C607" s="8"/>
       <c r="D607" s="11"/>
       <c r="E607" s="8"/>
@@ -5396,7 +5515,7 @@
       <c r="G607" s="8"/>
     </row>
     <row r="608">
-      <c r="B608" s="15"/>
+      <c r="B608" s="16"/>
       <c r="C608" s="8"/>
       <c r="D608" s="11"/>
       <c r="E608" s="8"/>
@@ -5404,7 +5523,7 @@
       <c r="G608" s="8"/>
     </row>
     <row r="609">
-      <c r="B609" s="15"/>
+      <c r="B609" s="16"/>
       <c r="C609" s="8"/>
       <c r="D609" s="11"/>
       <c r="E609" s="8"/>
@@ -5412,7 +5531,7 @@
       <c r="G609" s="8"/>
     </row>
     <row r="610">
-      <c r="B610" s="15"/>
+      <c r="B610" s="16"/>
       <c r="C610" s="8"/>
       <c r="D610" s="11"/>
       <c r="E610" s="8"/>
@@ -5420,7 +5539,7 @@
       <c r="G610" s="8"/>
     </row>
     <row r="611">
-      <c r="B611" s="15"/>
+      <c r="B611" s="16"/>
       <c r="C611" s="8"/>
       <c r="D611" s="11"/>
       <c r="E611" s="8"/>
@@ -5428,7 +5547,7 @@
       <c r="G611" s="8"/>
     </row>
     <row r="612">
-      <c r="B612" s="15"/>
+      <c r="B612" s="16"/>
       <c r="C612" s="8"/>
       <c r="D612" s="11"/>
       <c r="E612" s="8"/>
@@ -5436,7 +5555,7 @@
       <c r="G612" s="8"/>
     </row>
     <row r="613">
-      <c r="B613" s="15"/>
+      <c r="B613" s="16"/>
       <c r="C613" s="8"/>
       <c r="D613" s="11"/>
       <c r="E613" s="8"/>
@@ -5444,7 +5563,7 @@
       <c r="G613" s="8"/>
     </row>
     <row r="614">
-      <c r="B614" s="15"/>
+      <c r="B614" s="16"/>
       <c r="C614" s="8"/>
       <c r="D614" s="11"/>
       <c r="E614" s="8"/>
@@ -5452,7 +5571,7 @@
       <c r="G614" s="8"/>
     </row>
     <row r="615">
-      <c r="B615" s="15"/>
+      <c r="B615" s="16"/>
       <c r="C615" s="8"/>
       <c r="D615" s="11"/>
       <c r="E615" s="8"/>
@@ -5460,7 +5579,7 @@
       <c r="G615" s="8"/>
     </row>
     <row r="616">
-      <c r="B616" s="15"/>
+      <c r="B616" s="16"/>
       <c r="C616" s="8"/>
       <c r="D616" s="11"/>
       <c r="E616" s="8"/>
@@ -5468,7 +5587,7 @@
       <c r="G616" s="8"/>
     </row>
     <row r="617">
-      <c r="B617" s="15"/>
+      <c r="B617" s="16"/>
       <c r="C617" s="8"/>
       <c r="D617" s="11"/>
       <c r="E617" s="8"/>
@@ -5476,7 +5595,7 @@
       <c r="G617" s="8"/>
     </row>
     <row r="618">
-      <c r="B618" s="15"/>
+      <c r="B618" s="16"/>
       <c r="C618" s="8"/>
       <c r="D618" s="11"/>
       <c r="E618" s="8"/>
@@ -5484,7 +5603,7 @@
       <c r="G618" s="8"/>
     </row>
     <row r="619">
-      <c r="B619" s="15"/>
+      <c r="B619" s="16"/>
       <c r="C619" s="8"/>
       <c r="D619" s="11"/>
       <c r="E619" s="8"/>
@@ -5492,7 +5611,7 @@
       <c r="G619" s="8"/>
     </row>
     <row r="620">
-      <c r="B620" s="15"/>
+      <c r="B620" s="16"/>
       <c r="C620" s="8"/>
       <c r="D620" s="11"/>
       <c r="E620" s="8"/>
@@ -5500,7 +5619,7 @@
       <c r="G620" s="8"/>
     </row>
     <row r="621">
-      <c r="B621" s="15"/>
+      <c r="B621" s="16"/>
       <c r="C621" s="8"/>
       <c r="D621" s="11"/>
       <c r="E621" s="8"/>
@@ -5508,7 +5627,7 @@
       <c r="G621" s="8"/>
     </row>
     <row r="622">
-      <c r="B622" s="15"/>
+      <c r="B622" s="16"/>
       <c r="C622" s="8"/>
       <c r="D622" s="11"/>
       <c r="E622" s="8"/>
@@ -5516,7 +5635,7 @@
       <c r="G622" s="8"/>
     </row>
     <row r="623">
-      <c r="B623" s="15"/>
+      <c r="B623" s="16"/>
       <c r="C623" s="8"/>
       <c r="D623" s="11"/>
       <c r="E623" s="8"/>
@@ -5524,7 +5643,7 @@
       <c r="G623" s="8"/>
     </row>
     <row r="624">
-      <c r="B624" s="15"/>
+      <c r="B624" s="16"/>
       <c r="C624" s="8"/>
       <c r="D624" s="11"/>
       <c r="E624" s="8"/>
@@ -5532,7 +5651,7 @@
       <c r="G624" s="8"/>
     </row>
     <row r="625">
-      <c r="B625" s="15"/>
+      <c r="B625" s="16"/>
       <c r="C625" s="8"/>
       <c r="D625" s="11"/>
       <c r="E625" s="8"/>
@@ -5540,7 +5659,7 @@
       <c r="G625" s="8"/>
     </row>
     <row r="626">
-      <c r="B626" s="15"/>
+      <c r="B626" s="16"/>
       <c r="C626" s="8"/>
       <c r="D626" s="11"/>
       <c r="E626" s="8"/>
@@ -5548,7 +5667,7 @@
       <c r="G626" s="8"/>
     </row>
     <row r="627">
-      <c r="B627" s="15"/>
+      <c r="B627" s="16"/>
       <c r="C627" s="8"/>
       <c r="D627" s="11"/>
       <c r="E627" s="8"/>
@@ -5556,7 +5675,7 @@
       <c r="G627" s="8"/>
     </row>
     <row r="628">
-      <c r="B628" s="15"/>
+      <c r="B628" s="16"/>
       <c r="C628" s="8"/>
       <c r="D628" s="11"/>
       <c r="E628" s="8"/>
@@ -5564,7 +5683,7 @@
       <c r="G628" s="8"/>
     </row>
     <row r="629">
-      <c r="B629" s="15"/>
+      <c r="B629" s="16"/>
       <c r="C629" s="8"/>
       <c r="D629" s="11"/>
       <c r="E629" s="8"/>
@@ -5572,7 +5691,7 @@
       <c r="G629" s="8"/>
     </row>
     <row r="630">
-      <c r="B630" s="15"/>
+      <c r="B630" s="16"/>
       <c r="C630" s="8"/>
       <c r="D630" s="11"/>
       <c r="E630" s="8"/>
@@ -5580,7 +5699,7 @@
       <c r="G630" s="8"/>
     </row>
     <row r="631">
-      <c r="B631" s="15"/>
+      <c r="B631" s="16"/>
       <c r="C631" s="8"/>
       <c r="D631" s="11"/>
       <c r="E631" s="8"/>
@@ -5588,7 +5707,7 @@
       <c r="G631" s="8"/>
     </row>
     <row r="632">
-      <c r="B632" s="15"/>
+      <c r="B632" s="16"/>
       <c r="C632" s="8"/>
       <c r="D632" s="11"/>
       <c r="E632" s="8"/>
@@ -5596,7 +5715,7 @@
       <c r="G632" s="8"/>
     </row>
     <row r="633">
-      <c r="B633" s="15"/>
+      <c r="B633" s="16"/>
       <c r="C633" s="8"/>
       <c r="D633" s="11"/>
       <c r="E633" s="8"/>
@@ -5604,7 +5723,7 @@
       <c r="G633" s="8"/>
     </row>
     <row r="634">
-      <c r="B634" s="15"/>
+      <c r="B634" s="16"/>
       <c r="C634" s="8"/>
       <c r="D634" s="11"/>
       <c r="E634" s="8"/>
@@ -5612,7 +5731,7 @@
       <c r="G634" s="8"/>
     </row>
     <row r="635">
-      <c r="B635" s="15"/>
+      <c r="B635" s="16"/>
       <c r="C635" s="8"/>
       <c r="D635" s="11"/>
       <c r="E635" s="8"/>
@@ -5620,7 +5739,7 @@
       <c r="G635" s="8"/>
     </row>
     <row r="636">
-      <c r="B636" s="15"/>
+      <c r="B636" s="16"/>
       <c r="C636" s="8"/>
       <c r="D636" s="11"/>
       <c r="E636" s="8"/>
@@ -5628,7 +5747,7 @@
       <c r="G636" s="8"/>
     </row>
     <row r="637">
-      <c r="B637" s="15"/>
+      <c r="B637" s="16"/>
       <c r="C637" s="8"/>
       <c r="D637" s="11"/>
       <c r="E637" s="8"/>
@@ -5636,7 +5755,7 @@
       <c r="G637" s="8"/>
     </row>
     <row r="638">
-      <c r="B638" s="15"/>
+      <c r="B638" s="16"/>
       <c r="C638" s="8"/>
       <c r="D638" s="11"/>
       <c r="E638" s="8"/>
@@ -5644,7 +5763,7 @@
       <c r="G638" s="8"/>
     </row>
     <row r="639">
-      <c r="B639" s="15"/>
+      <c r="B639" s="16"/>
       <c r="C639" s="8"/>
       <c r="D639" s="11"/>
       <c r="E639" s="8"/>
@@ -5652,7 +5771,7 @@
       <c r="G639" s="8"/>
     </row>
     <row r="640">
-      <c r="B640" s="15"/>
+      <c r="B640" s="16"/>
       <c r="C640" s="8"/>
       <c r="D640" s="11"/>
       <c r="E640" s="8"/>
@@ -5660,7 +5779,7 @@
       <c r="G640" s="8"/>
     </row>
     <row r="641">
-      <c r="B641" s="15"/>
+      <c r="B641" s="16"/>
       <c r="C641" s="8"/>
       <c r="D641" s="11"/>
       <c r="E641" s="8"/>
@@ -5668,7 +5787,7 @@
       <c r="G641" s="8"/>
     </row>
     <row r="642">
-      <c r="B642" s="15"/>
+      <c r="B642" s="16"/>
       <c r="C642" s="8"/>
       <c r="D642" s="11"/>
       <c r="E642" s="8"/>
@@ -5676,7 +5795,7 @@
       <c r="G642" s="8"/>
     </row>
     <row r="643">
-      <c r="B643" s="15"/>
+      <c r="B643" s="16"/>
       <c r="C643" s="8"/>
       <c r="D643" s="11"/>
       <c r="E643" s="8"/>
@@ -5684,7 +5803,7 @@
       <c r="G643" s="8"/>
     </row>
     <row r="644">
-      <c r="B644" s="15"/>
+      <c r="B644" s="16"/>
       <c r="C644" s="8"/>
       <c r="D644" s="11"/>
       <c r="E644" s="8"/>
@@ -5692,7 +5811,7 @@
       <c r="G644" s="8"/>
     </row>
     <row r="645">
-      <c r="B645" s="15"/>
+      <c r="B645" s="16"/>
       <c r="C645" s="8"/>
       <c r="D645" s="11"/>
       <c r="E645" s="8"/>
@@ -5700,7 +5819,7 @@
       <c r="G645" s="8"/>
     </row>
     <row r="646">
-      <c r="B646" s="15"/>
+      <c r="B646" s="16"/>
       <c r="C646" s="8"/>
       <c r="D646" s="11"/>
       <c r="E646" s="8"/>
@@ -5708,7 +5827,7 @@
       <c r="G646" s="8"/>
     </row>
     <row r="647">
-      <c r="B647" s="15"/>
+      <c r="B647" s="16"/>
       <c r="C647" s="8"/>
       <c r="D647" s="11"/>
       <c r="E647" s="8"/>
@@ -5716,7 +5835,7 @@
       <c r="G647" s="8"/>
     </row>
     <row r="648">
-      <c r="B648" s="15"/>
+      <c r="B648" s="16"/>
       <c r="C648" s="8"/>
       <c r="D648" s="11"/>
       <c r="E648" s="8"/>
@@ -5724,7 +5843,7 @@
       <c r="G648" s="8"/>
     </row>
     <row r="649">
-      <c r="B649" s="15"/>
+      <c r="B649" s="16"/>
       <c r="C649" s="8"/>
       <c r="D649" s="11"/>
       <c r="E649" s="8"/>
@@ -5732,7 +5851,7 @@
       <c r="G649" s="8"/>
     </row>
     <row r="650">
-      <c r="B650" s="15"/>
+      <c r="B650" s="16"/>
       <c r="C650" s="8"/>
       <c r="D650" s="11"/>
       <c r="E650" s="8"/>
@@ -5740,7 +5859,7 @@
       <c r="G650" s="8"/>
     </row>
     <row r="651">
-      <c r="B651" s="15"/>
+      <c r="B651" s="16"/>
       <c r="C651" s="8"/>
       <c r="D651" s="11"/>
       <c r="E651" s="8"/>
@@ -5748,7 +5867,7 @@
       <c r="G651" s="8"/>
     </row>
     <row r="652">
-      <c r="B652" s="15"/>
+      <c r="B652" s="16"/>
       <c r="C652" s="8"/>
       <c r="D652" s="11"/>
       <c r="E652" s="8"/>
@@ -5756,7 +5875,7 @@
       <c r="G652" s="8"/>
     </row>
     <row r="653">
-      <c r="B653" s="15"/>
+      <c r="B653" s="16"/>
       <c r="C653" s="8"/>
       <c r="D653" s="11"/>
       <c r="E653" s="8"/>
@@ -5764,7 +5883,7 @@
       <c r="G653" s="8"/>
     </row>
     <row r="654">
-      <c r="B654" s="15"/>
+      <c r="B654" s="16"/>
       <c r="C654" s="8"/>
       <c r="D654" s="11"/>
       <c r="E654" s="8"/>
@@ -5772,7 +5891,7 @@
       <c r="G654" s="8"/>
     </row>
     <row r="655">
-      <c r="B655" s="15"/>
+      <c r="B655" s="16"/>
       <c r="C655" s="8"/>
       <c r="D655" s="11"/>
       <c r="E655" s="8"/>
@@ -5780,7 +5899,7 @@
       <c r="G655" s="8"/>
     </row>
     <row r="656">
-      <c r="B656" s="15"/>
+      <c r="B656" s="16"/>
       <c r="C656" s="8"/>
       <c r="D656" s="11"/>
       <c r="E656" s="8"/>
@@ -5788,7 +5907,7 @@
       <c r="G656" s="8"/>
     </row>
     <row r="657">
-      <c r="B657" s="15"/>
+      <c r="B657" s="16"/>
       <c r="C657" s="8"/>
       <c r="D657" s="11"/>
       <c r="E657" s="8"/>
@@ -5796,7 +5915,7 @@
       <c r="G657" s="8"/>
     </row>
     <row r="658">
-      <c r="B658" s="15"/>
+      <c r="B658" s="16"/>
       <c r="C658" s="8"/>
       <c r="D658" s="11"/>
       <c r="E658" s="8"/>
@@ -5804,7 +5923,7 @@
       <c r="G658" s="8"/>
     </row>
     <row r="659">
-      <c r="B659" s="15"/>
+      <c r="B659" s="16"/>
       <c r="C659" s="8"/>
       <c r="D659" s="11"/>
       <c r="E659" s="8"/>
@@ -5812,7 +5931,7 @@
       <c r="G659" s="8"/>
     </row>
     <row r="660">
-      <c r="B660" s="15"/>
+      <c r="B660" s="16"/>
       <c r="C660" s="8"/>
       <c r="D660" s="11"/>
       <c r="E660" s="8"/>
@@ -5820,7 +5939,7 @@
       <c r="G660" s="8"/>
     </row>
     <row r="661">
-      <c r="B661" s="15"/>
+      <c r="B661" s="16"/>
       <c r="C661" s="8"/>
       <c r="D661" s="11"/>
       <c r="E661" s="8"/>
@@ -5828,7 +5947,7 @@
       <c r="G661" s="8"/>
     </row>
     <row r="662">
-      <c r="B662" s="15"/>
+      <c r="B662" s="16"/>
       <c r="C662" s="8"/>
       <c r="D662" s="11"/>
       <c r="E662" s="8"/>
@@ -5836,7 +5955,7 @@
       <c r="G662" s="8"/>
     </row>
     <row r="663">
-      <c r="B663" s="15"/>
+      <c r="B663" s="16"/>
       <c r="C663" s="8"/>
       <c r="D663" s="11"/>
       <c r="E663" s="8"/>
@@ -5844,7 +5963,7 @@
       <c r="G663" s="8"/>
     </row>
     <row r="664">
-      <c r="B664" s="15"/>
+      <c r="B664" s="16"/>
       <c r="C664" s="8"/>
       <c r="D664" s="11"/>
       <c r="E664" s="8"/>
@@ -5852,7 +5971,7 @@
       <c r="G664" s="8"/>
     </row>
     <row r="665">
-      <c r="B665" s="15"/>
+      <c r="B665" s="16"/>
       <c r="C665" s="8"/>
       <c r="D665" s="11"/>
       <c r="E665" s="8"/>
@@ -5860,7 +5979,7 @@
       <c r="G665" s="8"/>
     </row>
     <row r="666">
-      <c r="B666" s="15"/>
+      <c r="B666" s="16"/>
       <c r="C666" s="8"/>
       <c r="D666" s="11"/>
       <c r="E666" s="8"/>
@@ -5868,7 +5987,7 @@
       <c r="G666" s="8"/>
     </row>
     <row r="667">
-      <c r="B667" s="15"/>
+      <c r="B667" s="16"/>
       <c r="C667" s="8"/>
       <c r="D667" s="11"/>
       <c r="E667" s="8"/>
@@ -5876,7 +5995,7 @@
       <c r="G667" s="8"/>
     </row>
     <row r="668">
-      <c r="B668" s="15"/>
+      <c r="B668" s="16"/>
       <c r="C668" s="8"/>
       <c r="D668" s="11"/>
       <c r="E668" s="8"/>
@@ -5884,7 +6003,7 @@
       <c r="G668" s="8"/>
     </row>
     <row r="669">
-      <c r="B669" s="15"/>
+      <c r="B669" s="16"/>
       <c r="C669" s="8"/>
       <c r="D669" s="11"/>
       <c r="E669" s="8"/>
@@ -5892,7 +6011,7 @@
       <c r="G669" s="8"/>
     </row>
     <row r="670">
-      <c r="B670" s="15"/>
+      <c r="B670" s="16"/>
       <c r="C670" s="8"/>
       <c r="D670" s="11"/>
       <c r="E670" s="8"/>
@@ -5900,7 +6019,7 @@
       <c r="G670" s="8"/>
     </row>
     <row r="671">
-      <c r="B671" s="15"/>
+      <c r="B671" s="16"/>
       <c r="C671" s="8"/>
       <c r="D671" s="11"/>
       <c r="E671" s="8"/>
@@ -5908,7 +6027,7 @@
       <c r="G671" s="8"/>
     </row>
     <row r="672">
-      <c r="B672" s="15"/>
+      <c r="B672" s="16"/>
       <c r="C672" s="8"/>
       <c r="D672" s="11"/>
       <c r="E672" s="8"/>
@@ -5916,7 +6035,7 @@
       <c r="G672" s="8"/>
     </row>
     <row r="673">
-      <c r="B673" s="15"/>
+      <c r="B673" s="16"/>
       <c r="C673" s="8"/>
       <c r="D673" s="11"/>
       <c r="E673" s="8"/>
@@ -5924,7 +6043,7 @@
       <c r="G673" s="8"/>
     </row>
     <row r="674">
-      <c r="B674" s="15"/>
+      <c r="B674" s="16"/>
       <c r="C674" s="8"/>
       <c r="D674" s="11"/>
       <c r="E674" s="8"/>
@@ -5932,7 +6051,7 @@
       <c r="G674" s="8"/>
     </row>
     <row r="675">
-      <c r="B675" s="15"/>
+      <c r="B675" s="16"/>
       <c r="C675" s="8"/>
       <c r="D675" s="11"/>
       <c r="E675" s="8"/>
@@ -5940,7 +6059,7 @@
       <c r="G675" s="8"/>
     </row>
     <row r="676">
-      <c r="B676" s="15"/>
+      <c r="B676" s="16"/>
       <c r="C676" s="8"/>
       <c r="D676" s="11"/>
       <c r="E676" s="8"/>
@@ -5948,7 +6067,7 @@
       <c r="G676" s="8"/>
     </row>
     <row r="677">
-      <c r="B677" s="15"/>
+      <c r="B677" s="16"/>
       <c r="C677" s="8"/>
       <c r="D677" s="11"/>
       <c r="E677" s="8"/>
@@ -5956,7 +6075,7 @@
       <c r="G677" s="8"/>
     </row>
     <row r="678">
-      <c r="B678" s="15"/>
+      <c r="B678" s="16"/>
       <c r="C678" s="8"/>
       <c r="D678" s="11"/>
       <c r="E678" s="8"/>
@@ -5964,7 +6083,7 @@
       <c r="G678" s="8"/>
     </row>
     <row r="679">
-      <c r="B679" s="15"/>
+      <c r="B679" s="16"/>
       <c r="C679" s="8"/>
       <c r="D679" s="11"/>
       <c r="E679" s="8"/>
@@ -5972,7 +6091,7 @@
       <c r="G679" s="8"/>
     </row>
     <row r="680">
-      <c r="B680" s="15"/>
+      <c r="B680" s="16"/>
       <c r="C680" s="8"/>
       <c r="D680" s="11"/>
       <c r="E680" s="8"/>
@@ -5980,7 +6099,7 @@
       <c r="G680" s="8"/>
     </row>
     <row r="681">
-      <c r="B681" s="15"/>
+      <c r="B681" s="16"/>
       <c r="C681" s="8"/>
       <c r="D681" s="11"/>
       <c r="E681" s="8"/>
@@ -5988,7 +6107,7 @@
       <c r="G681" s="8"/>
     </row>
     <row r="682">
-      <c r="B682" s="15"/>
+      <c r="B682" s="16"/>
       <c r="C682" s="8"/>
       <c r="D682" s="11"/>
       <c r="E682" s="8"/>
@@ -5996,7 +6115,7 @@
       <c r="G682" s="8"/>
     </row>
     <row r="683">
-      <c r="B683" s="15"/>
+      <c r="B683" s="16"/>
       <c r="C683" s="8"/>
       <c r="D683" s="11"/>
       <c r="E683" s="8"/>
@@ -6004,7 +6123,7 @@
       <c r="G683" s="8"/>
     </row>
     <row r="684">
-      <c r="B684" s="15"/>
+      <c r="B684" s="16"/>
       <c r="C684" s="8"/>
       <c r="D684" s="11"/>
       <c r="E684" s="8"/>
@@ -6012,7 +6131,7 @@
       <c r="G684" s="8"/>
     </row>
     <row r="685">
-      <c r="B685" s="15"/>
+      <c r="B685" s="16"/>
       <c r="C685" s="8"/>
       <c r="D685" s="11"/>
       <c r="E685" s="8"/>
@@ -6020,7 +6139,7 @@
       <c r="G685" s="8"/>
     </row>
     <row r="686">
-      <c r="B686" s="15"/>
+      <c r="B686" s="16"/>
       <c r="C686" s="8"/>
       <c r="D686" s="11"/>
       <c r="E686" s="8"/>
@@ -6028,7 +6147,7 @@
       <c r="G686" s="8"/>
     </row>
     <row r="687">
-      <c r="B687" s="15"/>
+      <c r="B687" s="16"/>
       <c r="C687" s="8"/>
       <c r="D687" s="11"/>
       <c r="E687" s="8"/>
@@ -6036,7 +6155,7 @@
       <c r="G687" s="8"/>
     </row>
     <row r="688">
-      <c r="B688" s="15"/>
+      <c r="B688" s="16"/>
       <c r="C688" s="8"/>
       <c r="D688" s="11"/>
       <c r="E688" s="8"/>
@@ -6044,7 +6163,7 @@
       <c r="G688" s="8"/>
     </row>
     <row r="689">
-      <c r="B689" s="15"/>
+      <c r="B689" s="16"/>
       <c r="C689" s="8"/>
       <c r="D689" s="11"/>
       <c r="E689" s="8"/>
@@ -6052,7 +6171,7 @@
       <c r="G689" s="8"/>
     </row>
     <row r="690">
-      <c r="B690" s="15"/>
+      <c r="B690" s="16"/>
       <c r="C690" s="8"/>
       <c r="D690" s="11"/>
       <c r="E690" s="8"/>
@@ -6060,7 +6179,7 @@
       <c r="G690" s="8"/>
     </row>
     <row r="691">
-      <c r="B691" s="15"/>
+      <c r="B691" s="16"/>
       <c r="C691" s="8"/>
       <c r="D691" s="11"/>
       <c r="E691" s="8"/>
@@ -6068,7 +6187,7 @@
       <c r="G691" s="8"/>
     </row>
     <row r="692">
-      <c r="B692" s="15"/>
+      <c r="B692" s="16"/>
       <c r="C692" s="8"/>
       <c r="D692" s="11"/>
       <c r="E692" s="8"/>
@@ -6076,7 +6195,7 @@
       <c r="G692" s="8"/>
     </row>
     <row r="693">
-      <c r="B693" s="15"/>
+      <c r="B693" s="16"/>
       <c r="C693" s="8"/>
       <c r="D693" s="11"/>
       <c r="E693" s="8"/>
@@ -6084,7 +6203,7 @@
       <c r="G693" s="8"/>
     </row>
     <row r="694">
-      <c r="B694" s="15"/>
+      <c r="B694" s="16"/>
       <c r="C694" s="8"/>
       <c r="D694" s="11"/>
       <c r="E694" s="8"/>
@@ -6092,7 +6211,7 @@
       <c r="G694" s="8"/>
     </row>
     <row r="695">
-      <c r="B695" s="15"/>
+      <c r="B695" s="16"/>
       <c r="C695" s="8"/>
       <c r="D695" s="11"/>
       <c r="E695" s="8"/>
@@ -6100,7 +6219,7 @@
       <c r="G695" s="8"/>
     </row>
     <row r="696">
-      <c r="B696" s="15"/>
+      <c r="B696" s="16"/>
       <c r="C696" s="8"/>
       <c r="D696" s="11"/>
       <c r="E696" s="8"/>
@@ -6108,7 +6227,7 @@
       <c r="G696" s="8"/>
     </row>
     <row r="697">
-      <c r="B697" s="15"/>
+      <c r="B697" s="16"/>
       <c r="C697" s="8"/>
       <c r="D697" s="11"/>
       <c r="E697" s="8"/>
@@ -6116,7 +6235,7 @@
       <c r="G697" s="8"/>
     </row>
     <row r="698">
-      <c r="B698" s="15"/>
+      <c r="B698" s="16"/>
       <c r="C698" s="8"/>
       <c r="D698" s="11"/>
       <c r="E698" s="8"/>
@@ -6124,7 +6243,7 @@
       <c r="G698" s="8"/>
     </row>
     <row r="699">
-      <c r="B699" s="15"/>
+      <c r="B699" s="16"/>
       <c r="C699" s="8"/>
       <c r="D699" s="11"/>
       <c r="E699" s="8"/>
@@ -6132,7 +6251,7 @@
       <c r="G699" s="8"/>
     </row>
     <row r="700">
-      <c r="B700" s="15"/>
+      <c r="B700" s="16"/>
       <c r="C700" s="8"/>
       <c r="D700" s="11"/>
       <c r="E700" s="8"/>
@@ -6140,7 +6259,7 @@
       <c r="G700" s="8"/>
     </row>
     <row r="701">
-      <c r="B701" s="15"/>
+      <c r="B701" s="16"/>
       <c r="C701" s="8"/>
       <c r="D701" s="11"/>
       <c r="E701" s="8"/>
@@ -6148,7 +6267,7 @@
       <c r="G701" s="8"/>
     </row>
     <row r="702">
-      <c r="B702" s="15"/>
+      <c r="B702" s="16"/>
       <c r="C702" s="8"/>
       <c r="D702" s="11"/>
       <c r="E702" s="8"/>
@@ -6156,7 +6275,7 @@
       <c r="G702" s="8"/>
     </row>
     <row r="703">
-      <c r="B703" s="15"/>
+      <c r="B703" s="16"/>
       <c r="C703" s="8"/>
       <c r="D703" s="11"/>
       <c r="E703" s="8"/>
@@ -6164,7 +6283,7 @@
       <c r="G703" s="8"/>
     </row>
     <row r="704">
-      <c r="B704" s="15"/>
+      <c r="B704" s="16"/>
       <c r="C704" s="8"/>
       <c r="D704" s="11"/>
       <c r="E704" s="8"/>
@@ -6172,7 +6291,7 @@
       <c r="G704" s="8"/>
     </row>
     <row r="705">
-      <c r="B705" s="15"/>
+      <c r="B705" s="16"/>
       <c r="C705" s="8"/>
       <c r="D705" s="11"/>
       <c r="E705" s="8"/>
@@ -6180,7 +6299,7 @@
       <c r="G705" s="8"/>
     </row>
     <row r="706">
-      <c r="B706" s="15"/>
+      <c r="B706" s="16"/>
       <c r="C706" s="8"/>
       <c r="D706" s="11"/>
       <c r="E706" s="8"/>
@@ -6188,7 +6307,7 @@
       <c r="G706" s="8"/>
     </row>
     <row r="707">
-      <c r="B707" s="15"/>
+      <c r="B707" s="16"/>
       <c r="C707" s="8"/>
       <c r="D707" s="11"/>
       <c r="E707" s="8"/>
@@ -6196,7 +6315,7 @@
       <c r="G707" s="8"/>
     </row>
     <row r="708">
-      <c r="B708" s="15"/>
+      <c r="B708" s="16"/>
       <c r="C708" s="8"/>
       <c r="D708" s="11"/>
       <c r="E708" s="8"/>
@@ -6204,7 +6323,7 @@
       <c r="G708" s="8"/>
     </row>
     <row r="709">
-      <c r="B709" s="15"/>
+      <c r="B709" s="16"/>
       <c r="C709" s="8"/>
       <c r="D709" s="11"/>
       <c r="E709" s="8"/>
@@ -6212,7 +6331,7 @@
       <c r="G709" s="8"/>
     </row>
     <row r="710">
-      <c r="B710" s="15"/>
+      <c r="B710" s="16"/>
       <c r="C710" s="8"/>
       <c r="D710" s="11"/>
       <c r="E710" s="8"/>
@@ -6220,7 +6339,7 @@
       <c r="G710" s="8"/>
     </row>
     <row r="711">
-      <c r="B711" s="15"/>
+      <c r="B711" s="16"/>
       <c r="C711" s="8"/>
       <c r="D711" s="11"/>
       <c r="E711" s="8"/>
@@ -6228,7 +6347,7 @@
       <c r="G711" s="8"/>
     </row>
     <row r="712">
-      <c r="B712" s="15"/>
+      <c r="B712" s="16"/>
       <c r="C712" s="8"/>
       <c r="D712" s="11"/>
       <c r="E712" s="8"/>
@@ -6236,7 +6355,7 @@
       <c r="G712" s="8"/>
     </row>
     <row r="713">
-      <c r="B713" s="15"/>
+      <c r="B713" s="16"/>
       <c r="C713" s="8"/>
       <c r="D713" s="11"/>
       <c r="E713" s="8"/>
@@ -6244,7 +6363,7 @@
       <c r="G713" s="8"/>
     </row>
     <row r="714">
-      <c r="B714" s="15"/>
+      <c r="B714" s="16"/>
       <c r="C714" s="8"/>
       <c r="D714" s="11"/>
       <c r="E714" s="8"/>
@@ -6252,7 +6371,7 @@
       <c r="G714" s="8"/>
     </row>
     <row r="715">
-      <c r="B715" s="15"/>
+      <c r="B715" s="16"/>
       <c r="C715" s="8"/>
       <c r="D715" s="11"/>
       <c r="E715" s="8"/>
@@ -6260,7 +6379,7 @@
       <c r="G715" s="8"/>
     </row>
     <row r="716">
-      <c r="B716" s="15"/>
+      <c r="B716" s="16"/>
       <c r="C716" s="8"/>
       <c r="D716" s="11"/>
       <c r="E716" s="8"/>
@@ -6268,7 +6387,7 @@
       <c r="G716" s="8"/>
     </row>
     <row r="717">
-      <c r="B717" s="15"/>
+      <c r="B717" s="16"/>
       <c r="C717" s="8"/>
       <c r="D717" s="11"/>
       <c r="E717" s="8"/>
@@ -6276,7 +6395,7 @@
       <c r="G717" s="8"/>
     </row>
     <row r="718">
-      <c r="B718" s="15"/>
+      <c r="B718" s="16"/>
       <c r="C718" s="8"/>
       <c r="D718" s="11"/>
       <c r="E718" s="8"/>
@@ -6284,7 +6403,7 @@
       <c r="G718" s="8"/>
     </row>
     <row r="719">
-      <c r="B719" s="15"/>
+      <c r="B719" s="16"/>
       <c r="C719" s="8"/>
       <c r="D719" s="11"/>
       <c r="E719" s="8"/>
@@ -6292,7 +6411,7 @@
       <c r="G719" s="8"/>
     </row>
     <row r="720">
-      <c r="B720" s="15"/>
+      <c r="B720" s="16"/>
       <c r="C720" s="8"/>
       <c r="D720" s="11"/>
       <c r="E720" s="8"/>
@@ -6300,7 +6419,7 @@
       <c r="G720" s="8"/>
     </row>
     <row r="721">
-      <c r="B721" s="15"/>
+      <c r="B721" s="16"/>
       <c r="C721" s="8"/>
       <c r="D721" s="11"/>
       <c r="E721" s="8"/>
@@ -6308,7 +6427,7 @@
       <c r="G721" s="8"/>
     </row>
     <row r="722">
-      <c r="B722" s="15"/>
+      <c r="B722" s="16"/>
       <c r="C722" s="8"/>
       <c r="D722" s="11"/>
       <c r="E722" s="8"/>
@@ -6316,7 +6435,7 @@
       <c r="G722" s="8"/>
     </row>
     <row r="723">
-      <c r="B723" s="15"/>
+      <c r="B723" s="16"/>
       <c r="C723" s="8"/>
       <c r="D723" s="11"/>
       <c r="E723" s="8"/>
@@ -6324,7 +6443,7 @@
       <c r="G723" s="8"/>
     </row>
     <row r="724">
-      <c r="B724" s="15"/>
+      <c r="B724" s="16"/>
       <c r="C724" s="8"/>
       <c r="D724" s="11"/>
       <c r="E724" s="8"/>
@@ -6332,7 +6451,7 @@
       <c r="G724" s="8"/>
     </row>
     <row r="725">
-      <c r="B725" s="15"/>
+      <c r="B725" s="16"/>
       <c r="C725" s="8"/>
       <c r="D725" s="11"/>
       <c r="E725" s="8"/>
@@ -6340,7 +6459,7 @@
       <c r="G725" s="8"/>
     </row>
     <row r="726">
-      <c r="B726" s="15"/>
+      <c r="B726" s="16"/>
       <c r="C726" s="8"/>
       <c r="D726" s="11"/>
       <c r="E726" s="8"/>
@@ -6348,7 +6467,7 @@
       <c r="G726" s="8"/>
     </row>
     <row r="727">
-      <c r="B727" s="15"/>
+      <c r="B727" s="16"/>
       <c r="C727" s="8"/>
       <c r="D727" s="11"/>
       <c r="E727" s="8"/>
@@ -6356,7 +6475,7 @@
       <c r="G727" s="8"/>
     </row>
     <row r="728">
-      <c r="B728" s="15"/>
+      <c r="B728" s="16"/>
       <c r="C728" s="8"/>
       <c r="D728" s="11"/>
       <c r="E728" s="8"/>
@@ -6364,7 +6483,7 @@
       <c r="G728" s="8"/>
     </row>
     <row r="729">
-      <c r="B729" s="15"/>
+      <c r="B729" s="16"/>
       <c r="C729" s="8"/>
       <c r="D729" s="11"/>
       <c r="E729" s="8"/>
@@ -6372,7 +6491,7 @@
       <c r="G729" s="8"/>
     </row>
     <row r="730">
-      <c r="B730" s="15"/>
+      <c r="B730" s="16"/>
       <c r="C730" s="8"/>
       <c r="D730" s="11"/>
       <c r="E730" s="8"/>
@@ -6380,7 +6499,7 @@
       <c r="G730" s="8"/>
     </row>
     <row r="731">
-      <c r="B731" s="15"/>
+      <c r="B731" s="16"/>
       <c r="C731" s="8"/>
       <c r="D731" s="11"/>
       <c r="E731" s="8"/>
@@ -6388,7 +6507,7 @@
       <c r="G731" s="8"/>
     </row>
     <row r="732">
-      <c r="B732" s="15"/>
+      <c r="B732" s="16"/>
       <c r="C732" s="8"/>
       <c r="D732" s="11"/>
       <c r="E732" s="8"/>
@@ -6396,7 +6515,7 @@
       <c r="G732" s="8"/>
     </row>
     <row r="733">
-      <c r="B733" s="15"/>
+      <c r="B733" s="16"/>
       <c r="C733" s="8"/>
       <c r="D733" s="11"/>
       <c r="E733" s="8"/>
@@ -6404,7 +6523,7 @@
       <c r="G733" s="8"/>
     </row>
     <row r="734">
-      <c r="B734" s="15"/>
+      <c r="B734" s="16"/>
       <c r="C734" s="8"/>
       <c r="D734" s="11"/>
       <c r="E734" s="8"/>
@@ -6412,7 +6531,7 @@
       <c r="G734" s="8"/>
     </row>
     <row r="735">
-      <c r="B735" s="15"/>
+      <c r="B735" s="16"/>
       <c r="C735" s="8"/>
       <c r="D735" s="11"/>
       <c r="E735" s="8"/>
@@ -6420,7 +6539,7 @@
       <c r="G735" s="8"/>
     </row>
     <row r="736">
-      <c r="B736" s="15"/>
+      <c r="B736" s="16"/>
       <c r="C736" s="8"/>
       <c r="D736" s="11"/>
       <c r="E736" s="8"/>
@@ -6428,7 +6547,7 @@
       <c r="G736" s="8"/>
     </row>
     <row r="737">
-      <c r="B737" s="15"/>
+      <c r="B737" s="16"/>
       <c r="C737" s="8"/>
       <c r="D737" s="11"/>
       <c r="E737" s="8"/>
@@ -6436,7 +6555,7 @@
       <c r="G737" s="8"/>
     </row>
     <row r="738">
-      <c r="B738" s="15"/>
+      <c r="B738" s="16"/>
       <c r="C738" s="8"/>
       <c r="D738" s="11"/>
       <c r="E738" s="8"/>
@@ -6444,7 +6563,7 @@
       <c r="G738" s="8"/>
     </row>
     <row r="739">
-      <c r="B739" s="15"/>
+      <c r="B739" s="16"/>
       <c r="C739" s="8"/>
       <c r="D739" s="11"/>
       <c r="E739" s="8"/>
@@ -6452,7 +6571,7 @@
       <c r="G739" s="8"/>
     </row>
     <row r="740">
-      <c r="B740" s="15"/>
+      <c r="B740" s="16"/>
       <c r="C740" s="8"/>
       <c r="D740" s="11"/>
       <c r="E740" s="8"/>
@@ -6460,7 +6579,7 @@
       <c r="G740" s="8"/>
     </row>
     <row r="741">
-      <c r="B741" s="15"/>
+      <c r="B741" s="16"/>
       <c r="C741" s="8"/>
       <c r="D741" s="11"/>
       <c r="E741" s="8"/>
@@ -6468,7 +6587,7 @@
       <c r="G741" s="8"/>
     </row>
     <row r="742">
-      <c r="B742" s="15"/>
+      <c r="B742" s="16"/>
       <c r="C742" s="8"/>
       <c r="D742" s="11"/>
       <c r="E742" s="8"/>
@@ -6476,7 +6595,7 @@
       <c r="G742" s="8"/>
     </row>
     <row r="743">
-      <c r="B743" s="15"/>
+      <c r="B743" s="16"/>
       <c r="C743" s="8"/>
       <c r="D743" s="11"/>
       <c r="E743" s="8"/>
@@ -6484,7 +6603,7 @@
       <c r="G743" s="8"/>
     </row>
     <row r="744">
-      <c r="B744" s="15"/>
+      <c r="B744" s="16"/>
       <c r="C744" s="8"/>
       <c r="D744" s="11"/>
       <c r="E744" s="8"/>
@@ -6492,7 +6611,7 @@
       <c r="G744" s="8"/>
     </row>
     <row r="745">
-      <c r="B745" s="15"/>
+      <c r="B745" s="16"/>
       <c r="C745" s="8"/>
       <c r="D745" s="11"/>
       <c r="E745" s="8"/>
@@ -6500,7 +6619,7 @@
       <c r="G745" s="8"/>
     </row>
     <row r="746">
-      <c r="B746" s="15"/>
+      <c r="B746" s="16"/>
       <c r="C746" s="8"/>
       <c r="D746" s="11"/>
       <c r="E746" s="8"/>
@@ -6508,7 +6627,7 @@
       <c r="G746" s="8"/>
     </row>
     <row r="747">
-      <c r="B747" s="15"/>
+      <c r="B747" s="16"/>
       <c r="C747" s="8"/>
       <c r="D747" s="11"/>
       <c r="E747" s="8"/>
@@ -6516,7 +6635,7 @@
       <c r="G747" s="8"/>
     </row>
     <row r="748">
-      <c r="B748" s="15"/>
+      <c r="B748" s="16"/>
       <c r="C748" s="8"/>
       <c r="D748" s="11"/>
       <c r="E748" s="8"/>
@@ -6524,7 +6643,7 @@
       <c r="G748" s="8"/>
     </row>
     <row r="749">
-      <c r="B749" s="15"/>
+      <c r="B749" s="16"/>
       <c r="C749" s="8"/>
       <c r="D749" s="11"/>
       <c r="E749" s="8"/>
@@ -6532,7 +6651,7 @@
       <c r="G749" s="8"/>
     </row>
     <row r="750">
-      <c r="B750" s="15"/>
+      <c r="B750" s="16"/>
       <c r="C750" s="8"/>
       <c r="D750" s="11"/>
       <c r="E750" s="8"/>
@@ -6540,7 +6659,7 @@
       <c r="G750" s="8"/>
     </row>
     <row r="751">
-      <c r="B751" s="15"/>
+      <c r="B751" s="16"/>
       <c r="C751" s="8"/>
       <c r="D751" s="11"/>
       <c r="E751" s="8"/>
@@ -6548,7 +6667,7 @@
       <c r="G751" s="8"/>
     </row>
     <row r="752">
-      <c r="B752" s="15"/>
+      <c r="B752" s="16"/>
       <c r="C752" s="8"/>
       <c r="D752" s="11"/>
       <c r="E752" s="8"/>
@@ -6556,7 +6675,7 @@
       <c r="G752" s="8"/>
     </row>
     <row r="753">
-      <c r="B753" s="15"/>
+      <c r="B753" s="16"/>
       <c r="C753" s="8"/>
       <c r="D753" s="11"/>
       <c r="E753" s="8"/>
@@ -6564,7 +6683,7 @@
       <c r="G753" s="8"/>
     </row>
     <row r="754">
-      <c r="B754" s="15"/>
+      <c r="B754" s="16"/>
       <c r="C754" s="8"/>
       <c r="D754" s="11"/>
       <c r="E754" s="8"/>
@@ -6572,7 +6691,7 @@
       <c r="G754" s="8"/>
     </row>
     <row r="755">
-      <c r="B755" s="15"/>
+      <c r="B755" s="16"/>
       <c r="C755" s="8"/>
       <c r="D755" s="11"/>
       <c r="E755" s="8"/>
@@ -6580,7 +6699,7 @@
       <c r="G755" s="8"/>
     </row>
     <row r="756">
-      <c r="B756" s="15"/>
+      <c r="B756" s="16"/>
       <c r="C756" s="8"/>
       <c r="D756" s="11"/>
       <c r="E756" s="8"/>
@@ -6588,7 +6707,7 @@
       <c r="G756" s="8"/>
     </row>
     <row r="757">
-      <c r="B757" s="15"/>
+      <c r="B757" s="16"/>
       <c r="C757" s="8"/>
       <c r="D757" s="11"/>
       <c r="E757" s="8"/>
@@ -6596,7 +6715,7 @@
       <c r="G757" s="8"/>
     </row>
     <row r="758">
-      <c r="B758" s="15"/>
+      <c r="B758" s="16"/>
       <c r="C758" s="8"/>
       <c r="D758" s="11"/>
       <c r="E758" s="8"/>
@@ -6604,7 +6723,7 @@
       <c r="G758" s="8"/>
     </row>
     <row r="759">
-      <c r="B759" s="15"/>
+      <c r="B759" s="16"/>
       <c r="C759" s="8"/>
       <c r="D759" s="11"/>
       <c r="E759" s="8"/>
@@ -6612,7 +6731,7 @@
       <c r="G759" s="8"/>
     </row>
     <row r="760">
-      <c r="B760" s="15"/>
+      <c r="B760" s="16"/>
       <c r="C760" s="8"/>
       <c r="D760" s="11"/>
       <c r="E760" s="8"/>
@@ -6620,7 +6739,7 @@
       <c r="G760" s="8"/>
     </row>
     <row r="761">
-      <c r="B761" s="15"/>
+      <c r="B761" s="16"/>
       <c r="C761" s="8"/>
       <c r="D761" s="11"/>
       <c r="E761" s="8"/>
@@ -6628,7 +6747,7 @@
       <c r="G761" s="8"/>
     </row>
     <row r="762">
-      <c r="B762" s="15"/>
+      <c r="B762" s="16"/>
       <c r="C762" s="8"/>
       <c r="D762" s="11"/>
       <c r="E762" s="8"/>
@@ -6636,7 +6755,7 @@
       <c r="G762" s="8"/>
     </row>
     <row r="763">
-      <c r="B763" s="15"/>
+      <c r="B763" s="16"/>
       <c r="C763" s="8"/>
       <c r="D763" s="11"/>
       <c r="E763" s="8"/>
@@ -6644,7 +6763,7 @@
       <c r="G763" s="8"/>
     </row>
     <row r="764">
-      <c r="B764" s="15"/>
+      <c r="B764" s="16"/>
       <c r="C764" s="8"/>
       <c r="D764" s="11"/>
       <c r="E764" s="8"/>
@@ -6652,7 +6771,7 @@
       <c r="G764" s="8"/>
     </row>
     <row r="765">
-      <c r="B765" s="15"/>
+      <c r="B765" s="16"/>
       <c r="C765" s="8"/>
       <c r="D765" s="11"/>
       <c r="E765" s="8"/>
@@ -6660,7 +6779,7 @@
       <c r="G765" s="8"/>
     </row>
     <row r="766">
-      <c r="B766" s="15"/>
+      <c r="B766" s="16"/>
       <c r="C766" s="8"/>
       <c r="D766" s="11"/>
       <c r="E766" s="8"/>
@@ -6668,7 +6787,7 @@
       <c r="G766" s="8"/>
     </row>
     <row r="767">
-      <c r="B767" s="15"/>
+      <c r="B767" s="16"/>
       <c r="C767" s="8"/>
       <c r="D767" s="11"/>
       <c r="E767" s="8"/>
@@ -6676,7 +6795,7 @@
       <c r="G767" s="8"/>
     </row>
     <row r="768">
-      <c r="B768" s="15"/>
+      <c r="B768" s="16"/>
       <c r="C768" s="8"/>
       <c r="D768" s="11"/>
       <c r="E768" s="8"/>
@@ -6684,7 +6803,7 @@
       <c r="G768" s="8"/>
     </row>
     <row r="769">
-      <c r="B769" s="15"/>
+      <c r="B769" s="16"/>
       <c r="C769" s="8"/>
       <c r="D769" s="11"/>
       <c r="E769" s="8"/>
@@ -6692,7 +6811,7 @@
       <c r="G769" s="8"/>
     </row>
     <row r="770">
-      <c r="B770" s="15"/>
+      <c r="B770" s="16"/>
       <c r="C770" s="8"/>
       <c r="D770" s="11"/>
       <c r="E770" s="8"/>
@@ -6700,7 +6819,7 @@
       <c r="G770" s="8"/>
     </row>
     <row r="771">
-      <c r="B771" s="15"/>
+      <c r="B771" s="16"/>
       <c r="C771" s="8"/>
       <c r="D771" s="11"/>
       <c r="E771" s="8"/>
@@ -6708,7 +6827,7 @@
       <c r="G771" s="8"/>
     </row>
     <row r="772">
-      <c r="B772" s="15"/>
+      <c r="B772" s="16"/>
       <c r="C772" s="8"/>
       <c r="D772" s="11"/>
       <c r="E772" s="8"/>
@@ -6716,7 +6835,7 @@
       <c r="G772" s="8"/>
     </row>
     <row r="773">
-      <c r="B773" s="15"/>
+      <c r="B773" s="16"/>
       <c r="C773" s="8"/>
       <c r="D773" s="11"/>
       <c r="E773" s="8"/>
@@ -6724,7 +6843,7 @@
       <c r="G773" s="8"/>
     </row>
     <row r="774">
-      <c r="B774" s="15"/>
+      <c r="B774" s="16"/>
       <c r="C774" s="8"/>
       <c r="D774" s="11"/>
       <c r="E774" s="8"/>
@@ -6732,7 +6851,7 @@
       <c r="G774" s="8"/>
     </row>
     <row r="775">
-      <c r="B775" s="15"/>
+      <c r="B775" s="16"/>
       <c r="C775" s="8"/>
       <c r="D775" s="11"/>
       <c r="E775" s="8"/>
@@ -6740,7 +6859,7 @@
       <c r="G775" s="8"/>
     </row>
     <row r="776">
-      <c r="B776" s="15"/>
+      <c r="B776" s="16"/>
       <c r="C776" s="8"/>
       <c r="D776" s="11"/>
       <c r="E776" s="8"/>
@@ -6748,7 +6867,7 @@
       <c r="G776" s="8"/>
     </row>
     <row r="777">
-      <c r="B777" s="15"/>
+      <c r="B777" s="16"/>
       <c r="C777" s="8"/>
       <c r="D777" s="11"/>
       <c r="E777" s="8"/>
@@ -6756,7 +6875,7 @@
       <c r="G777" s="8"/>
     </row>
     <row r="778">
-      <c r="B778" s="15"/>
+      <c r="B778" s="16"/>
       <c r="C778" s="8"/>
       <c r="D778" s="11"/>
       <c r="E778" s="8"/>
@@ -6764,7 +6883,7 @@
       <c r="G778" s="8"/>
     </row>
     <row r="779">
-      <c r="B779" s="15"/>
+      <c r="B779" s="16"/>
       <c r="C779" s="8"/>
       <c r="D779" s="11"/>
       <c r="E779" s="8"/>
@@ -6772,7 +6891,7 @@
       <c r="G779" s="8"/>
     </row>
     <row r="780">
-      <c r="B780" s="15"/>
+      <c r="B780" s="16"/>
       <c r="C780" s="8"/>
       <c r="D780" s="11"/>
       <c r="E780" s="8"/>
@@ -6780,7 +6899,7 @@
       <c r="G780" s="8"/>
     </row>
     <row r="781">
-      <c r="B781" s="15"/>
+      <c r="B781" s="16"/>
       <c r="C781" s="8"/>
       <c r="D781" s="11"/>
       <c r="E781" s="8"/>
@@ -6788,7 +6907,7 @@
       <c r="G781" s="8"/>
     </row>
     <row r="782">
-      <c r="B782" s="15"/>
+      <c r="B782" s="16"/>
       <c r="C782" s="8"/>
       <c r="D782" s="11"/>
       <c r="E782" s="8"/>
@@ -6796,7 +6915,7 @@
       <c r="G782" s="8"/>
     </row>
     <row r="783">
-      <c r="B783" s="15"/>
+      <c r="B783" s="16"/>
       <c r="C783" s="8"/>
       <c r="D783" s="11"/>
       <c r="E783" s="8"/>
@@ -6804,7 +6923,7 @@
       <c r="G783" s="8"/>
     </row>
     <row r="784">
-      <c r="B784" s="15"/>
+      <c r="B784" s="16"/>
       <c r="C784" s="8"/>
       <c r="D784" s="11"/>
       <c r="E784" s="8"/>
@@ -6812,7 +6931,7 @@
       <c r="G784" s="8"/>
     </row>
     <row r="785">
-      <c r="B785" s="15"/>
+      <c r="B785" s="16"/>
       <c r="C785" s="8"/>
       <c r="D785" s="11"/>
       <c r="E785" s="8"/>
@@ -6820,7 +6939,7 @@
       <c r="G785" s="8"/>
     </row>
     <row r="786">
-      <c r="B786" s="15"/>
+      <c r="B786" s="16"/>
       <c r="C786" s="8"/>
       <c r="D786" s="11"/>
       <c r="E786" s="8"/>
@@ -6828,7 +6947,7 @@
       <c r="G786" s="8"/>
     </row>
     <row r="787">
-      <c r="B787" s="15"/>
+      <c r="B787" s="16"/>
       <c r="C787" s="8"/>
       <c r="D787" s="11"/>
       <c r="E787" s="8"/>
@@ -6836,7 +6955,7 @@
       <c r="G787" s="8"/>
     </row>
     <row r="788">
-      <c r="B788" s="15"/>
+      <c r="B788" s="16"/>
       <c r="C788" s="8"/>
       <c r="D788" s="11"/>
       <c r="E788" s="8"/>
@@ -6844,7 +6963,7 @@
       <c r="G788" s="8"/>
     </row>
     <row r="789">
-      <c r="B789" s="15"/>
+      <c r="B789" s="16"/>
       <c r="C789" s="8"/>
       <c r="D789" s="11"/>
       <c r="E789" s="8"/>
@@ -6852,7 +6971,7 @@
       <c r="G789" s="8"/>
     </row>
     <row r="790">
-      <c r="B790" s="15"/>
+      <c r="B790" s="16"/>
       <c r="C790" s="8"/>
       <c r="D790" s="11"/>
       <c r="E790" s="8"/>
@@ -6860,7 +6979,7 @@
       <c r="G790" s="8"/>
     </row>
     <row r="791">
-      <c r="B791" s="15"/>
+      <c r="B791" s="16"/>
       <c r="C791" s="8"/>
       <c r="D791" s="11"/>
       <c r="E791" s="8"/>
@@ -6868,7 +6987,7 @@
       <c r="G791" s="8"/>
     </row>
     <row r="792">
-      <c r="B792" s="15"/>
+      <c r="B792" s="16"/>
       <c r="C792" s="8"/>
       <c r="D792" s="11"/>
       <c r="E792" s="8"/>
@@ -6876,7 +6995,7 @@
       <c r="G792" s="8"/>
     </row>
     <row r="793">
-      <c r="B793" s="15"/>
+      <c r="B793" s="16"/>
       <c r="C793" s="8"/>
       <c r="D793" s="11"/>
       <c r="E793" s="8"/>
@@ -6884,7 +7003,7 @@
       <c r="G793" s="8"/>
     </row>
     <row r="794">
-      <c r="B794" s="15"/>
+      <c r="B794" s="16"/>
       <c r="C794" s="8"/>
       <c r="D794" s="11"/>
       <c r="E794" s="8"/>
@@ -6892,7 +7011,7 @@
       <c r="G794" s="8"/>
     </row>
     <row r="795">
-      <c r="B795" s="15"/>
+      <c r="B795" s="16"/>
       <c r="C795" s="8"/>
       <c r="D795" s="11"/>
       <c r="E795" s="8"/>
@@ -6900,7 +7019,7 @@
       <c r="G795" s="8"/>
     </row>
     <row r="796">
-      <c r="B796" s="15"/>
+      <c r="B796" s="16"/>
       <c r="C796" s="8"/>
       <c r="D796" s="11"/>
       <c r="E796" s="8"/>
@@ -6908,7 +7027,7 @@
       <c r="G796" s="8"/>
     </row>
     <row r="797">
-      <c r="B797" s="15"/>
+      <c r="B797" s="16"/>
       <c r="C797" s="8"/>
       <c r="D797" s="11"/>
       <c r="E797" s="8"/>
@@ -6916,7 +7035,7 @@
       <c r="G797" s="8"/>
     </row>
     <row r="798">
-      <c r="B798" s="15"/>
+      <c r="B798" s="16"/>
       <c r="C798" s="8"/>
       <c r="D798" s="11"/>
       <c r="E798" s="8"/>
@@ -6924,7 +7043,7 @@
       <c r="G798" s="8"/>
     </row>
     <row r="799">
-      <c r="B799" s="15"/>
+      <c r="B799" s="16"/>
       <c r="C799" s="8"/>
       <c r="D799" s="11"/>
       <c r="E799" s="8"/>
@@ -6932,7 +7051,7 @@
       <c r="G799" s="8"/>
     </row>
     <row r="800">
-      <c r="B800" s="15"/>
+      <c r="B800" s="16"/>
       <c r="C800" s="8"/>
       <c r="D800" s="11"/>
       <c r="E800" s="8"/>
@@ -6940,7 +7059,7 @@
       <c r="G800" s="8"/>
     </row>
     <row r="801">
-      <c r="B801" s="15"/>
+      <c r="B801" s="16"/>
       <c r="C801" s="8"/>
       <c r="D801" s="11"/>
       <c r="E801" s="8"/>
@@ -6948,7 +7067,7 @@
       <c r="G801" s="8"/>
     </row>
     <row r="802">
-      <c r="B802" s="15"/>
+      <c r="B802" s="16"/>
       <c r="C802" s="8"/>
       <c r="D802" s="11"/>
       <c r="E802" s="8"/>
@@ -6956,7 +7075,7 @@
       <c r="G802" s="8"/>
     </row>
     <row r="803">
-      <c r="B803" s="15"/>
+      <c r="B803" s="16"/>
       <c r="C803" s="8"/>
       <c r="D803" s="11"/>
       <c r="E803" s="8"/>
@@ -6964,7 +7083,7 @@
       <c r="G803" s="8"/>
     </row>
     <row r="804">
-      <c r="B804" s="15"/>
+      <c r="B804" s="16"/>
       <c r="C804" s="8"/>
       <c r="D804" s="11"/>
       <c r="E804" s="8"/>
@@ -6972,7 +7091,7 @@
       <c r="G804" s="8"/>
     </row>
     <row r="805">
-      <c r="B805" s="15"/>
+      <c r="B805" s="16"/>
       <c r="C805" s="8"/>
       <c r="D805" s="11"/>
       <c r="E805" s="8"/>
@@ -6980,7 +7099,7 @@
       <c r="G805" s="8"/>
     </row>
     <row r="806">
-      <c r="B806" s="15"/>
+      <c r="B806" s="16"/>
       <c r="C806" s="8"/>
       <c r="D806" s="11"/>
       <c r="E806" s="8"/>
@@ -6988,7 +7107,7 @@
       <c r="G806" s="8"/>
     </row>
     <row r="807">
-      <c r="B807" s="15"/>
+      <c r="B807" s="16"/>
       <c r="C807" s="8"/>
       <c r="D807" s="11"/>
       <c r="E807" s="8"/>
@@ -6996,7 +7115,7 @@
       <c r="G807" s="8"/>
     </row>
     <row r="808">
-      <c r="B808" s="15"/>
+      <c r="B808" s="16"/>
       <c r="C808" s="8"/>
       <c r="D808" s="11"/>
       <c r="E808" s="8"/>
@@ -7004,7 +7123,7 @@
       <c r="G808" s="8"/>
     </row>
     <row r="809">
-      <c r="B809" s="15"/>
+      <c r="B809" s="16"/>
       <c r="C809" s="8"/>
       <c r="D809" s="11"/>
       <c r="E809" s="8"/>
@@ -7012,7 +7131,7 @@
       <c r="G809" s="8"/>
     </row>
     <row r="810">
-      <c r="B810" s="15"/>
+      <c r="B810" s="16"/>
       <c r="C810" s="8"/>
       <c r="D810" s="11"/>
       <c r="E810" s="8"/>
@@ -7020,7 +7139,7 @@
       <c r="G810" s="8"/>
     </row>
     <row r="811">
-      <c r="B811" s="15"/>
+      <c r="B811" s="16"/>
       <c r="C811" s="8"/>
       <c r="D811" s="11"/>
       <c r="E811" s="8"/>
@@ -7028,7 +7147,7 @@
       <c r="G811" s="8"/>
     </row>
     <row r="812">
-      <c r="B812" s="15"/>
+      <c r="B812" s="16"/>
       <c r="C812" s="8"/>
       <c r="D812" s="11"/>
       <c r="E812" s="8"/>
@@ -7036,7 +7155,7 @@
       <c r="G812" s="8"/>
     </row>
     <row r="813">
-      <c r="B813" s="15"/>
+      <c r="B813" s="16"/>
       <c r="C813" s="8"/>
       <c r="D813" s="11"/>
       <c r="E813" s="8"/>
@@ -7044,7 +7163,7 @@
       <c r="G813" s="8"/>
     </row>
     <row r="814">
-      <c r="B814" s="15"/>
+      <c r="B814" s="16"/>
       <c r="C814" s="8"/>
       <c r="D814" s="11"/>
       <c r="E814" s="8"/>
@@ -7052,7 +7171,7 @@
       <c r="G814" s="8"/>
     </row>
     <row r="815">
-      <c r="B815" s="15"/>
+      <c r="B815" s="16"/>
       <c r="C815" s="8"/>
       <c r="D815" s="11"/>
       <c r="E815" s="8"/>
@@ -7060,7 +7179,7 @@
       <c r="G815" s="8"/>
     </row>
     <row r="816">
-      <c r="B816" s="15"/>
+      <c r="B816" s="16"/>
       <c r="C816" s="8"/>
       <c r="D816" s="11"/>
       <c r="E816" s="8"/>
@@ -7068,7 +7187,7 @@
       <c r="G816" s="8"/>
     </row>
     <row r="817">
-      <c r="B817" s="15"/>
+      <c r="B817" s="16"/>
       <c r="C817" s="8"/>
       <c r="D817" s="11"/>
       <c r="E817" s="8"/>
@@ -7076,7 +7195,7 @@
       <c r="G817" s="8"/>
     </row>
     <row r="818">
-      <c r="B818" s="15"/>
+      <c r="B818" s="16"/>
       <c r="C818" s="8"/>
       <c r="D818" s="11"/>
       <c r="E818" s="8"/>
@@ -7084,7 +7203,7 @@
       <c r="G818" s="8"/>
     </row>
     <row r="819">
-      <c r="B819" s="15"/>
+      <c r="B819" s="16"/>
       <c r="C819" s="8"/>
       <c r="D819" s="11"/>
       <c r="E819" s="8"/>
@@ -7092,7 +7211,7 @@
       <c r="G819" s="8"/>
     </row>
     <row r="820">
-      <c r="B820" s="15"/>
+      <c r="B820" s="16"/>
       <c r="C820" s="8"/>
       <c r="D820" s="11"/>
       <c r="E820" s="8"/>
@@ -7100,7 +7219,7 @@
       <c r="G820" s="8"/>
     </row>
     <row r="821">
-      <c r="B821" s="15"/>
+      <c r="B821" s="16"/>
       <c r="C821" s="8"/>
       <c r="D821" s="11"/>
       <c r="E821" s="8"/>
@@ -7108,7 +7227,7 @@
       <c r="G821" s="8"/>
     </row>
     <row r="822">
-      <c r="B822" s="15"/>
+      <c r="B822" s="16"/>
       <c r="C822" s="8"/>
       <c r="D822" s="11"/>
       <c r="E822" s="8"/>
@@ -7116,7 +7235,7 @@
       <c r="G822" s="8"/>
     </row>
     <row r="823">
-      <c r="B823" s="15"/>
+      <c r="B823" s="16"/>
       <c r="C823" s="8"/>
       <c r="D823" s="11"/>
       <c r="E823" s="8"/>
@@ -7124,7 +7243,7 @@
       <c r="G823" s="8"/>
     </row>
     <row r="824">
-      <c r="B824" s="15"/>
+      <c r="B824" s="16"/>
       <c r="C824" s="8"/>
       <c r="D824" s="11"/>
       <c r="E824" s="8"/>
@@ -7132,7 +7251,7 @@
       <c r="G824" s="8"/>
     </row>
     <row r="825">
-      <c r="B825" s="15"/>
+      <c r="B825" s="16"/>
       <c r="C825" s="8"/>
       <c r="D825" s="11"/>
       <c r="E825" s="8"/>
@@ -7140,7 +7259,7 @@
       <c r="G825" s="8"/>
     </row>
     <row r="826">
-      <c r="B826" s="15"/>
+      <c r="B826" s="16"/>
       <c r="C826" s="8"/>
       <c r="D826" s="11"/>
       <c r="E826" s="8"/>
@@ -7148,7 +7267,7 @@
       <c r="G826" s="8"/>
     </row>
     <row r="827">
-      <c r="B827" s="15"/>
+      <c r="B827" s="16"/>
       <c r="C827" s="8"/>
       <c r="D827" s="11"/>
       <c r="E827" s="8"/>
@@ -7156,7 +7275,7 @@
       <c r="G827" s="8"/>
     </row>
     <row r="828">
-      <c r="B828" s="15"/>
+      <c r="B828" s="16"/>
       <c r="C828" s="8"/>
       <c r="D828" s="11"/>
       <c r="E828" s="8"/>
@@ -7164,7 +7283,7 @@
       <c r="G828" s="8"/>
     </row>
     <row r="829">
-      <c r="B829" s="15"/>
+      <c r="B829" s="16"/>
       <c r="C829" s="8"/>
       <c r="D829" s="11"/>
       <c r="E829" s="8"/>
@@ -7172,7 +7291,7 @@
       <c r="G829" s="8"/>
     </row>
     <row r="830">
-      <c r="B830" s="15"/>
+      <c r="B830" s="16"/>
       <c r="C830" s="8"/>
       <c r="D830" s="11"/>
       <c r="E830" s="8"/>
@@ -7180,7 +7299,7 @@
       <c r="G830" s="8"/>
     </row>
     <row r="831">
-      <c r="B831" s="15"/>
+      <c r="B831" s="16"/>
       <c r="C831" s="8"/>
       <c r="D831" s="11"/>
       <c r="E831" s="8"/>
@@ -7188,7 +7307,7 @@
       <c r="G831" s="8"/>
     </row>
     <row r="832">
-      <c r="B832" s="15"/>
+      <c r="B832" s="16"/>
       <c r="C832" s="8"/>
       <c r="D832" s="11"/>
       <c r="E832" s="8"/>
@@ -7196,7 +7315,7 @@
       <c r="G832" s="8"/>
     </row>
     <row r="833">
-      <c r="B833" s="15"/>
+      <c r="B833" s="16"/>
       <c r="C833" s="8"/>
       <c r="D833" s="11"/>
       <c r="E833" s="8"/>
@@ -7204,7 +7323,7 @@
       <c r="G833" s="8"/>
     </row>
     <row r="834">
-      <c r="B834" s="15"/>
+      <c r="B834" s="16"/>
       <c r="C834" s="8"/>
       <c r="D834" s="11"/>
       <c r="E834" s="8"/>
@@ -7212,7 +7331,7 @@
       <c r="G834" s="8"/>
     </row>
     <row r="835">
-      <c r="B835" s="15"/>
+      <c r="B835" s="16"/>
       <c r="C835" s="8"/>
       <c r="D835" s="11"/>
       <c r="E835" s="8"/>
@@ -7220,7 +7339,7 @@
       <c r="G835" s="8"/>
     </row>
     <row r="836">
-      <c r="B836" s="15"/>
+      <c r="B836" s="16"/>
       <c r="C836" s="8"/>
       <c r="D836" s="11"/>
       <c r="E836" s="8"/>
@@ -7228,7 +7347,7 @@
       <c r="G836" s="8"/>
     </row>
     <row r="837">
-      <c r="B837" s="15"/>
+      <c r="B837" s="16"/>
       <c r="C837" s="8"/>
       <c r="D837" s="11"/>
       <c r="E837" s="8"/>
@@ -7236,7 +7355,7 @@
       <c r="G837" s="8"/>
     </row>
     <row r="838">
-      <c r="B838" s="15"/>
+      <c r="B838" s="16"/>
       <c r="C838" s="8"/>
       <c r="D838" s="11"/>
       <c r="E838" s="8"/>
@@ -7244,7 +7363,7 @@
       <c r="G838" s="8"/>
     </row>
     <row r="839">
-      <c r="B839" s="15"/>
+      <c r="B839" s="16"/>
       <c r="C839" s="8"/>
       <c r="D839" s="11"/>
       <c r="E839" s="8"/>
@@ -7252,7 +7371,7 @@
       <c r="G839" s="8"/>
     </row>
     <row r="840">
-      <c r="B840" s="15"/>
+      <c r="B840" s="16"/>
       <c r="C840" s="8"/>
       <c r="D840" s="11"/>
       <c r="E840" s="8"/>
@@ -7260,7 +7379,7 @@
       <c r="G840" s="8"/>
     </row>
     <row r="841">
-      <c r="B841" s="15"/>
+      <c r="B841" s="16"/>
       <c r="C841" s="8"/>
       <c r="D841" s="11"/>
       <c r="E841" s="8"/>
@@ -7268,7 +7387,7 @@
       <c r="G841" s="8"/>
     </row>
     <row r="842">
-      <c r="B842" s="15"/>
+      <c r="B842" s="16"/>
       <c r="C842" s="8"/>
       <c r="D842" s="11"/>
       <c r="E842" s="8"/>
@@ -7276,7 +7395,7 @@
       <c r="G842" s="8"/>
     </row>
     <row r="843">
-      <c r="B843" s="15"/>
+      <c r="B843" s="16"/>
       <c r="C843" s="8"/>
       <c r="D843" s="11"/>
       <c r="E843" s="8"/>
@@ -7284,7 +7403,7 @@
       <c r="G843" s="8"/>
     </row>
     <row r="844">
-      <c r="B844" s="15"/>
+      <c r="B844" s="16"/>
       <c r="C844" s="8"/>
       <c r="D844" s="11"/>
       <c r="E844" s="8"/>
@@ -7292,7 +7411,7 @@
       <c r="G844" s="8"/>
     </row>
     <row r="845">
-      <c r="B845" s="15"/>
+      <c r="B845" s="16"/>
       <c r="C845" s="8"/>
       <c r="D845" s="11"/>
       <c r="E845" s="8"/>
@@ -7300,7 +7419,7 @@
       <c r="G845" s="8"/>
     </row>
     <row r="846">
-      <c r="B846" s="15"/>
+      <c r="B846" s="16"/>
       <c r="C846" s="8"/>
       <c r="D846" s="11"/>
       <c r="E846" s="8"/>
@@ -7308,7 +7427,7 @@
       <c r="G846" s="8"/>
     </row>
     <row r="847">
-      <c r="B847" s="15"/>
+      <c r="B847" s="16"/>
       <c r="C847" s="8"/>
       <c r="D847" s="11"/>
       <c r="E847" s="8"/>
@@ -7316,7 +7435,7 @@
       <c r="G847" s="8"/>
     </row>
     <row r="848">
-      <c r="B848" s="15"/>
+      <c r="B848" s="16"/>
       <c r="C848" s="8"/>
       <c r="D848" s="11"/>
       <c r="E848" s="8"/>
@@ -7324,7 +7443,7 @@
       <c r="G848" s="8"/>
     </row>
     <row r="849">
-      <c r="B849" s="15"/>
+      <c r="B849" s="16"/>
       <c r="C849" s="8"/>
       <c r="D849" s="11"/>
       <c r="E849" s="8"/>
@@ -7332,7 +7451,7 @@
       <c r="G849" s="8"/>
     </row>
     <row r="850">
-      <c r="B850" s="15"/>
+      <c r="B850" s="16"/>
       <c r="C850" s="8"/>
       <c r="D850" s="11"/>
       <c r="E850" s="8"/>
@@ -7340,7 +7459,7 @@
       <c r="G850" s="8"/>
     </row>
     <row r="851">
-      <c r="B851" s="15"/>
+      <c r="B851" s="16"/>
       <c r="C851" s="8"/>
       <c r="D851" s="11"/>
       <c r="E851" s="8"/>
@@ -7348,7 +7467,7 @@
       <c r="G851" s="8"/>
     </row>
     <row r="852">
-      <c r="B852" s="15"/>
+      <c r="B852" s="16"/>
       <c r="C852" s="8"/>
       <c r="D852" s="11"/>
       <c r="E852" s="8"/>
@@ -7356,7 +7475,7 @@
       <c r="G852" s="8"/>
     </row>
     <row r="853">
-      <c r="B853" s="15"/>
+      <c r="B853" s="16"/>
       <c r="C853" s="8"/>
       <c r="D853" s="11"/>
       <c r="E853" s="8"/>
@@ -7364,7 +7483,7 @@
       <c r="G853" s="8"/>
     </row>
     <row r="854">
-      <c r="B854" s="15"/>
+      <c r="B854" s="16"/>
       <c r="C854" s="8"/>
       <c r="D854" s="11"/>
       <c r="E854" s="8"/>
@@ -7372,7 +7491,7 @@
       <c r="G854" s="8"/>
     </row>
     <row r="855">
-      <c r="B855" s="15"/>
+      <c r="B855" s="16"/>
       <c r="C855" s="8"/>
       <c r="D855" s="11"/>
       <c r="E855" s="8"/>
@@ -7380,7 +7499,7 @@
       <c r="G855" s="8"/>
     </row>
     <row r="856">
-      <c r="B856" s="15"/>
+      <c r="B856" s="16"/>
       <c r="C856" s="8"/>
       <c r="D856" s="11"/>
       <c r="E856" s="8"/>
@@ -7388,7 +7507,7 @@
       <c r="G856" s="8"/>
     </row>
     <row r="857">
-      <c r="B857" s="15"/>
+      <c r="B857" s="16"/>
       <c r="C857" s="8"/>
       <c r="D857" s="11"/>
       <c r="E857" s="8"/>
@@ -7396,7 +7515,7 @@
       <c r="G857" s="8"/>
     </row>
     <row r="858">
-      <c r="B858" s="15"/>
+      <c r="B858" s="16"/>
       <c r="C858" s="8"/>
       <c r="D858" s="11"/>
       <c r="E858" s="8"/>
@@ -7404,7 +7523,7 @@
       <c r="G858" s="8"/>
     </row>
     <row r="859">
-      <c r="B859" s="15"/>
+      <c r="B859" s="16"/>
       <c r="C859" s="8"/>
       <c r="D859" s="11"/>
       <c r="E859" s="8"/>
@@ -7412,7 +7531,7 @@
       <c r="G859" s="8"/>
     </row>
     <row r="860">
-      <c r="B860" s="15"/>
+      <c r="B860" s="16"/>
       <c r="C860" s="8"/>
       <c r="D860" s="11"/>
       <c r="E860" s="8"/>
@@ -7420,7 +7539,7 @@
       <c r="G860" s="8"/>
     </row>
     <row r="861">
-      <c r="B861" s="15"/>
+      <c r="B861" s="16"/>
       <c r="C861" s="8"/>
       <c r="D861" s="11"/>
       <c r="E861" s="8"/>
@@ -7428,7 +7547,7 @@
       <c r="G861" s="8"/>
     </row>
     <row r="862">
-      <c r="B862" s="15"/>
+      <c r="B862" s="16"/>
       <c r="C862" s="8"/>
       <c r="D862" s="11"/>
       <c r="E862" s="8"/>
@@ -7436,7 +7555,7 @@
       <c r="G862" s="8"/>
     </row>
     <row r="863">
-      <c r="B863" s="15"/>
+      <c r="B863" s="16"/>
       <c r="C863" s="8"/>
       <c r="D863" s="11"/>
       <c r="E863" s="8"/>
@@ -7444,7 +7563,7 @@
       <c r="G863" s="8"/>
     </row>
     <row r="864">
-      <c r="B864" s="15"/>
+      <c r="B864" s="16"/>
       <c r="C864" s="8"/>
       <c r="D864" s="11"/>
       <c r="E864" s="8"/>
@@ -7452,7 +7571,7 @@
       <c r="G864" s="8"/>
     </row>
     <row r="865">
-      <c r="B865" s="15"/>
+      <c r="B865" s="16"/>
       <c r="C865" s="8"/>
       <c r="D865" s="11"/>
       <c r="E865" s="8"/>
@@ -7460,7 +7579,7 @@
       <c r="G865" s="8"/>
     </row>
     <row r="866">
-      <c r="B866" s="15"/>
+      <c r="B866" s="16"/>
       <c r="C866" s="8"/>
       <c r="D866" s="11"/>
       <c r="E866" s="8"/>
@@ -7468,7 +7587,7 @@
       <c r="G866" s="8"/>
     </row>
     <row r="867">
-      <c r="B867" s="15"/>
+      <c r="B867" s="16"/>
       <c r="C867" s="8"/>
       <c r="D867" s="11"/>
       <c r="E867" s="8"/>
@@ -7476,7 +7595,7 @@
       <c r="G867" s="8"/>
     </row>
     <row r="868">
-      <c r="B868" s="15"/>
+      <c r="B868" s="16"/>
       <c r="C868" s="8"/>
       <c r="D868" s="11"/>
       <c r="E868" s="8"/>
@@ -7484,7 +7603,7 @@
       <c r="G868" s="8"/>
     </row>
     <row r="869">
-      <c r="B869" s="15"/>
+      <c r="B869" s="16"/>
       <c r="C869" s="8"/>
       <c r="D869" s="11"/>
       <c r="E869" s="8"/>
@@ -7492,7 +7611,7 @@
       <c r="G869" s="8"/>
     </row>
     <row r="870">
-      <c r="B870" s="15"/>
+      <c r="B870" s="16"/>
       <c r="C870" s="8"/>
       <c r="D870" s="11"/>
       <c r="E870" s="8"/>
@@ -7500,7 +7619,7 @@
       <c r="G870" s="8"/>
     </row>
     <row r="871">
-      <c r="B871" s="15"/>
+      <c r="B871" s="16"/>
       <c r="C871" s="8"/>
       <c r="D871" s="11"/>
       <c r="E871" s="8"/>
@@ -7508,7 +7627,7 @@
       <c r="G871" s="8"/>
     </row>
     <row r="872">
-      <c r="B872" s="15"/>
+      <c r="B872" s="16"/>
       <c r="C872" s="8"/>
       <c r="D872" s="11"/>
       <c r="E872" s="8"/>
@@ -7516,7 +7635,7 @@
       <c r="G872" s="8"/>
     </row>
     <row r="873">
-      <c r="B873" s="15"/>
+      <c r="B873" s="16"/>
       <c r="C873" s="8"/>
       <c r="D873" s="11"/>
       <c r="E873" s="8"/>
@@ -7524,7 +7643,7 @@
       <c r="G873" s="8"/>
     </row>
     <row r="874">
-      <c r="B874" s="15"/>
+      <c r="B874" s="16"/>
       <c r="C874" s="8"/>
       <c r="D874" s="11"/>
       <c r="E874" s="8"/>
@@ -7532,7 +7651,7 @@
       <c r="G874" s="8"/>
     </row>
     <row r="875">
-      <c r="B875" s="15"/>
+      <c r="B875" s="16"/>
       <c r="C875" s="8"/>
       <c r="D875" s="11"/>
       <c r="E875" s="8"/>
@@ -7540,7 +7659,7 @@
       <c r="G875" s="8"/>
     </row>
     <row r="876">
-      <c r="B876" s="15"/>
+      <c r="B876" s="16"/>
       <c r="C876" s="8"/>
       <c r="D876" s="11"/>
       <c r="E876" s="8"/>
@@ -7548,7 +7667,7 @@
       <c r="G876" s="8"/>
     </row>
     <row r="877">
-      <c r="B877" s="15"/>
+      <c r="B877" s="16"/>
       <c r="C877" s="8"/>
       <c r="D877" s="11"/>
       <c r="E877" s="8"/>
@@ -7556,7 +7675,7 @@
       <c r="G877" s="8"/>
     </row>
     <row r="878">
-      <c r="B878" s="15"/>
+      <c r="B878" s="16"/>
       <c r="C878" s="8"/>
       <c r="D878" s="11"/>
       <c r="E878" s="8"/>
@@ -7564,7 +7683,7 @@
       <c r="G878" s="8"/>
     </row>
     <row r="879">
-      <c r="B879" s="15"/>
+      <c r="B879" s="16"/>
       <c r="C879" s="8"/>
       <c r="D879" s="11"/>
       <c r="E879" s="8"/>
@@ -7572,7 +7691,7 @@
       <c r="G879" s="8"/>
     </row>
     <row r="880">
-      <c r="B880" s="15"/>
+      <c r="B880" s="16"/>
       <c r="C880" s="8"/>
       <c r="D880" s="11"/>
       <c r="E880" s="8"/>
@@ -7580,7 +7699,7 @@
       <c r="G880" s="8"/>
     </row>
     <row r="881">
-      <c r="B881" s="15"/>
+      <c r="B881" s="16"/>
       <c r="C881" s="8"/>
       <c r="D881" s="11"/>
       <c r="E881" s="8"/>
@@ -7588,7 +7707,7 @@
       <c r="G881" s="8"/>
     </row>
     <row r="882">
-      <c r="B882" s="15"/>
+      <c r="B882" s="16"/>
       <c r="C882" s="8"/>
       <c r="D882" s="11"/>
       <c r="E882" s="8"/>
@@ -7596,7 +7715,7 @@
       <c r="G882" s="8"/>
     </row>
     <row r="883">
-      <c r="B883" s="15"/>
+      <c r="B883" s="16"/>
       <c r="C883" s="8"/>
       <c r="D883" s="11"/>
       <c r="E883" s="8"/>
@@ -7604,7 +7723,7 @@
       <c r="G883" s="8"/>
     </row>
     <row r="884">
-      <c r="B884" s="15"/>
+      <c r="B884" s="16"/>
       <c r="C884" s="8"/>
       <c r="D884" s="11"/>
       <c r="E884" s="8"/>
@@ -7612,7 +7731,7 @@
       <c r="G884" s="8"/>
     </row>
     <row r="885">
-      <c r="B885" s="15"/>
+      <c r="B885" s="16"/>
       <c r="C885" s="8"/>
       <c r="D885" s="11"/>
       <c r="E885" s="8"/>
@@ -7620,7 +7739,7 @@
       <c r="G885" s="8"/>
     </row>
     <row r="886">
-      <c r="B886" s="15"/>
+      <c r="B886" s="16"/>
       <c r="C886" s="8"/>
       <c r="D886" s="11"/>
       <c r="E886" s="8"/>
@@ -7628,7 +7747,7 @@
       <c r="G886" s="8"/>
     </row>
     <row r="887">
-      <c r="B887" s="15"/>
+      <c r="B887" s="16"/>
       <c r="C887" s="8"/>
       <c r="D887" s="11"/>
       <c r="E887" s="8"/>
@@ -7636,7 +7755,7 @@
       <c r="G887" s="8"/>
     </row>
     <row r="888">
-      <c r="B888" s="15"/>
+      <c r="B888" s="16"/>
       <c r="C888" s="8"/>
       <c r="D888" s="11"/>
       <c r="E888" s="8"/>
@@ -7644,7 +7763,7 @@
       <c r="G888" s="8"/>
     </row>
     <row r="889">
-      <c r="B889" s="15"/>
+      <c r="B889" s="16"/>
       <c r="C889" s="8"/>
       <c r="D889" s="11"/>
       <c r="E889" s="8"/>
@@ -7652,7 +7771,7 @@
       <c r="G889" s="8"/>
     </row>
     <row r="890">
-      <c r="B890" s="15"/>
+      <c r="B890" s="16"/>
       <c r="C890" s="8"/>
       <c r="D890" s="11"/>
       <c r="E890" s="8"/>
@@ -7660,7 +7779,7 @@
       <c r="G890" s="8"/>
     </row>
     <row r="891">
-      <c r="B891" s="15"/>
+      <c r="B891" s="16"/>
       <c r="C891" s="8"/>
       <c r="D891" s="11"/>
       <c r="E891" s="8"/>
@@ -7668,7 +7787,7 @@
       <c r="G891" s="8"/>
     </row>
     <row r="892">
-      <c r="B892" s="15"/>
+      <c r="B892" s="16"/>
       <c r="C892" s="8"/>
       <c r="D892" s="11"/>
       <c r="E892" s="8"/>
@@ -7676,7 +7795,7 @@
       <c r="G892" s="8"/>
     </row>
     <row r="893">
-      <c r="B893" s="15"/>
+      <c r="B893" s="16"/>
       <c r="C893" s="8"/>
       <c r="D893" s="11"/>
       <c r="E893" s="8"/>
@@ -7684,7 +7803,7 @@
       <c r="G893" s="8"/>
     </row>
     <row r="894">
-      <c r="B894" s="15"/>
+      <c r="B894" s="16"/>
       <c r="C894" s="8"/>
       <c r="D894" s="11"/>
       <c r="E894" s="8"/>
@@ -7692,7 +7811,7 @@
       <c r="G894" s="8"/>
     </row>
     <row r="895">
-      <c r="B895" s="15"/>
+      <c r="B895" s="16"/>
       <c r="C895" s="8"/>
       <c r="D895" s="11"/>
       <c r="E895" s="8"/>
@@ -7700,7 +7819,7 @@
       <c r="G895" s="8"/>
     </row>
     <row r="896">
-      <c r="B896" s="15"/>
+      <c r="B896" s="16"/>
       <c r="C896" s="8"/>
       <c r="D896" s="11"/>
       <c r="E896" s="8"/>
@@ -7708,7 +7827,7 @@
       <c r="G896" s="8"/>
     </row>
     <row r="897">
-      <c r="B897" s="15"/>
+      <c r="B897" s="16"/>
       <c r="C897" s="8"/>
       <c r="D897" s="11"/>
       <c r="E897" s="8"/>
@@ -7716,7 +7835,7 @@
       <c r="G897" s="8"/>
     </row>
     <row r="898">
-      <c r="B898" s="15"/>
+      <c r="B898" s="16"/>
       <c r="C898" s="8"/>
       <c r="D898" s="11"/>
       <c r="E898" s="8"/>
@@ -7724,7 +7843,7 @@
       <c r="G898" s="8"/>
     </row>
     <row r="899">
-      <c r="B899" s="15"/>
+      <c r="B899" s="16"/>
       <c r="C899" s="8"/>
       <c r="D899" s="11"/>
       <c r="E899" s="8"/>
@@ -7732,7 +7851,7 @@
       <c r="G899" s="8"/>
     </row>
     <row r="900">
-      <c r="B900" s="15"/>
+      <c r="B900" s="16"/>
       <c r="C900" s="8"/>
       <c r="D900" s="11"/>
       <c r="E900" s="8"/>
@@ -7740,7 +7859,7 @@
       <c r="G900" s="8"/>
     </row>
     <row r="901">
-      <c r="B901" s="15"/>
+      <c r="B901" s="16"/>
       <c r="C901" s="8"/>
       <c r="D901" s="11"/>
       <c r="E901" s="8"/>
@@ -7748,7 +7867,7 @@
       <c r="G901" s="8"/>
     </row>
     <row r="902">
-      <c r="B902" s="15"/>
+      <c r="B902" s="16"/>
       <c r="C902" s="8"/>
       <c r="D902" s="11"/>
       <c r="E902" s="8"/>
@@ -7756,7 +7875,7 @@
       <c r="G902" s="8"/>
     </row>
     <row r="903">
-      <c r="B903" s="15"/>
+      <c r="B903" s="16"/>
       <c r="C903" s="8"/>
       <c r="D903" s="11"/>
       <c r="E903" s="8"/>
@@ -7764,7 +7883,7 @@
       <c r="G903" s="8"/>
     </row>
     <row r="904">
-      <c r="B904" s="15"/>
+      <c r="B904" s="16"/>
       <c r="C904" s="8"/>
       <c r="D904" s="11"/>
       <c r="E904" s="8"/>
@@ -7772,7 +7891,7 @@
       <c r="G904" s="8"/>
     </row>
     <row r="905">
-      <c r="B905" s="15"/>
+      <c r="B905" s="16"/>
       <c r="C905" s="8"/>
       <c r="D905" s="11"/>
       <c r="E905" s="8"/>
@@ -7780,7 +7899,7 @@
       <c r="G905" s="8"/>
     </row>
     <row r="906">
-      <c r="B906" s="15"/>
+      <c r="B906" s="16"/>
       <c r="C906" s="8"/>
       <c r="D906" s="11"/>
       <c r="E906" s="8"/>
@@ -7788,7 +7907,7 @@
       <c r="G906" s="8"/>
     </row>
     <row r="907">
-      <c r="B907" s="15"/>
+      <c r="B907" s="16"/>
       <c r="C907" s="8"/>
       <c r="D907" s="11"/>
       <c r="E907" s="8"/>
@@ -7796,7 +7915,7 @@
       <c r="G907" s="8"/>
     </row>
     <row r="908">
-      <c r="B908" s="15"/>
+      <c r="B908" s="16"/>
       <c r="C908" s="8"/>
       <c r="D908" s="11"/>
       <c r="E908" s="8"/>
@@ -7804,7 +7923,7 @@
       <c r="G908" s="8"/>
     </row>
     <row r="909">
-      <c r="B909" s="15"/>
+      <c r="B909" s="16"/>
       <c r="C909" s="8"/>
       <c r="D909" s="11"/>
       <c r="E909" s="8"/>
@@ -7812,7 +7931,7 @@
       <c r="G909" s="8"/>
     </row>
     <row r="910">
-      <c r="B910" s="15"/>
+      <c r="B910" s="16"/>
       <c r="C910" s="8"/>
       <c r="D910" s="11"/>
       <c r="E910" s="8"/>
@@ -7820,7 +7939,7 @@
       <c r="G910" s="8"/>
     </row>
     <row r="911">
-      <c r="B911" s="15"/>
+      <c r="B911" s="16"/>
       <c r="C911" s="8"/>
       <c r="D911" s="11"/>
       <c r="E911" s="8"/>
@@ -7828,7 +7947,7 @@
       <c r="G911" s="8"/>
     </row>
     <row r="912">
-      <c r="B912" s="15"/>
+      <c r="B912" s="16"/>
       <c r="C912" s="8"/>
       <c r="D912" s="11"/>
       <c r="E912" s="8"/>
@@ -7836,7 +7955,7 @@
       <c r="G912" s="8"/>
     </row>
     <row r="913">
-      <c r="B913" s="15"/>
+      <c r="B913" s="16"/>
       <c r="C913" s="8"/>
       <c r="D913" s="11"/>
       <c r="E913" s="8"/>
@@ -7844,7 +7963,7 @@
       <c r="G913" s="8"/>
     </row>
     <row r="914">
-      <c r="B914" s="15"/>
+      <c r="B914" s="16"/>
       <c r="C914" s="8"/>
       <c r="D914" s="11"/>
       <c r="E914" s="8"/>
@@ -7852,7 +7971,7 @@
       <c r="G914" s="8"/>
     </row>
     <row r="915">
-      <c r="B915" s="15"/>
+      <c r="B915" s="16"/>
       <c r="C915" s="8"/>
       <c r="D915" s="11"/>
       <c r="E915" s="8"/>
@@ -7860,7 +7979,7 @@
       <c r="G915" s="8"/>
     </row>
     <row r="916">
-      <c r="B916" s="15"/>
+      <c r="B916" s="16"/>
       <c r="C916" s="8"/>
       <c r="D916" s="11"/>
       <c r="E916" s="8"/>
@@ -7868,7 +7987,7 @@
       <c r="G916" s="8"/>
     </row>
     <row r="917">
-      <c r="B917" s="15"/>
+      <c r="B917" s="16"/>
       <c r="C917" s="8"/>
       <c r="D917" s="11"/>
       <c r="E917" s="8"/>
@@ -7876,7 +7995,7 @@
       <c r="G917" s="8"/>
     </row>
     <row r="918">
-      <c r="B918" s="15"/>
+      <c r="B918" s="16"/>
       <c r="C918" s="8"/>
       <c r="D918" s="11"/>
       <c r="E918" s="8"/>
@@ -7884,7 +8003,7 @@
       <c r="G918" s="8"/>
     </row>
     <row r="919">
-      <c r="B919" s="15"/>
+      <c r="B919" s="16"/>
       <c r="C919" s="8"/>
       <c r="D919" s="11"/>
       <c r="E919" s="8"/>
@@ -7892,7 +8011,7 @@
       <c r="G919" s="8"/>
     </row>
     <row r="920">
-      <c r="B920" s="15"/>
+      <c r="B920" s="16"/>
       <c r="C920" s="8"/>
       <c r="D920" s="11"/>
       <c r="E920" s="8"/>
@@ -7900,7 +8019,7 @@
       <c r="G920" s="8"/>
     </row>
     <row r="921">
-      <c r="B921" s="15"/>
+      <c r="B921" s="16"/>
       <c r="C921" s="8"/>
       <c r="D921" s="11"/>
       <c r="E921" s="8"/>
@@ -7908,7 +8027,7 @@
       <c r="G921" s="8"/>
     </row>
     <row r="922">
-      <c r="B922" s="15"/>
+      <c r="B922" s="16"/>
       <c r="C922" s="8"/>
       <c r="D922" s="11"/>
       <c r="E922" s="8"/>
@@ -7916,7 +8035,7 @@
       <c r="G922" s="8"/>
     </row>
     <row r="923">
-      <c r="B923" s="15"/>
+      <c r="B923" s="16"/>
       <c r="C923" s="8"/>
       <c r="D923" s="11"/>
       <c r="E923" s="8"/>
@@ -7924,7 +8043,7 @@
       <c r="G923" s="8"/>
     </row>
     <row r="924">
-      <c r="B924" s="15"/>
+      <c r="B924" s="16"/>
       <c r="C924" s="8"/>
       <c r="D924" s="11"/>
       <c r="E924" s="8"/>
@@ -7932,7 +8051,7 @@
       <c r="G924" s="8"/>
     </row>
     <row r="925">
-      <c r="B925" s="15"/>
+      <c r="B925" s="16"/>
       <c r="C925" s="8"/>
       <c r="D925" s="11"/>
       <c r="E925" s="8"/>
@@ -7940,7 +8059,7 @@
       <c r="G925" s="8"/>
     </row>
     <row r="926">
-      <c r="B926" s="15"/>
+      <c r="B926" s="16"/>
       <c r="C926" s="8"/>
       <c r="D926" s="11"/>
       <c r="E926" s="8"/>
@@ -7948,7 +8067,7 @@
       <c r="G926" s="8"/>
     </row>
     <row r="927">
-      <c r="B927" s="15"/>
+      <c r="B927" s="16"/>
       <c r="C927" s="8"/>
       <c r="D927" s="11"/>
       <c r="E927" s="8"/>
@@ -7956,7 +8075,7 @@
       <c r="G927" s="8"/>
     </row>
     <row r="928">
-      <c r="B928" s="15"/>
+      <c r="B928" s="16"/>
       <c r="C928" s="8"/>
       <c r="D928" s="11"/>
       <c r="E928" s="8"/>
@@ -7964,7 +8083,7 @@
       <c r="G928" s="8"/>
     </row>
     <row r="929">
-      <c r="B929" s="15"/>
+      <c r="B929" s="16"/>
       <c r="C929" s="8"/>
       <c r="D929" s="11"/>
       <c r="E929" s="8"/>
@@ -7972,7 +8091,7 @@
       <c r="G929" s="8"/>
     </row>
     <row r="930">
-      <c r="B930" s="15"/>
+      <c r="B930" s="16"/>
       <c r="C930" s="8"/>
       <c r="D930" s="11"/>
       <c r="E930" s="8"/>
@@ -7980,7 +8099,7 @@
       <c r="G930" s="8"/>
     </row>
     <row r="931">
-      <c r="B931" s="15"/>
+      <c r="B931" s="16"/>
       <c r="C931" s="8"/>
       <c r="D931" s="11"/>
       <c r="E931" s="8"/>
@@ -7988,7 +8107,7 @@
       <c r="G931" s="8"/>
     </row>
     <row r="932">
-      <c r="B932" s="15"/>
+      <c r="B932" s="16"/>
       <c r="C932" s="8"/>
       <c r="D932" s="11"/>
       <c r="E932" s="8"/>
@@ -7996,7 +8115,7 @@
       <c r="G932" s="8"/>
     </row>
     <row r="933">
-      <c r="B933" s="15"/>
+      <c r="B933" s="16"/>
       <c r="C933" s="8"/>
       <c r="D933" s="11"/>
       <c r="E933" s="8"/>
@@ -8004,7 +8123,7 @@
       <c r="G933" s="8"/>
     </row>
     <row r="934">
-      <c r="B934" s="15"/>
+      <c r="B934" s="16"/>
       <c r="C934" s="8"/>
       <c r="D934" s="11"/>
       <c r="E934" s="8"/>
@@ -8012,7 +8131,7 @@
       <c r="G934" s="8"/>
     </row>
     <row r="935">
-      <c r="B935" s="15"/>
+      <c r="B935" s="16"/>
       <c r="C935" s="8"/>
       <c r="D935" s="11"/>
       <c r="E935" s="8"/>
@@ -8020,7 +8139,7 @@
       <c r="G935" s="8"/>
     </row>
     <row r="936">
-      <c r="B936" s="15"/>
+      <c r="B936" s="16"/>
       <c r="C936" s="8"/>
       <c r="D936" s="11"/>
       <c r="E936" s="8"/>
@@ -8028,7 +8147,7 @@
       <c r="G936" s="8"/>
     </row>
     <row r="937">
-      <c r="B937" s="15"/>
+      <c r="B937" s="16"/>
       <c r="C937" s="8"/>
       <c r="D937" s="11"/>
       <c r="E937" s="8"/>
@@ -8036,7 +8155,7 @@
       <c r="G937" s="8"/>
     </row>
     <row r="938">
-      <c r="B938" s="15"/>
+      <c r="B938" s="16"/>
       <c r="C938" s="8"/>
       <c r="D938" s="11"/>
       <c r="E938" s="8"/>
@@ -8044,7 +8163,7 @@
       <c r="G938" s="8"/>
     </row>
     <row r="939">
-      <c r="B939" s="15"/>
+      <c r="B939" s="16"/>
       <c r="C939" s="8"/>
       <c r="D939" s="11"/>
       <c r="E939" s="8"/>
@@ -8052,7 +8171,7 @@
       <c r="G939" s="8"/>
     </row>
     <row r="940">
-      <c r="B940" s="15"/>
+      <c r="B940" s="16"/>
       <c r="C940" s="8"/>
       <c r="D940" s="11"/>
       <c r="E940" s="8"/>
@@ -8060,7 +8179,7 @@
       <c r="G940" s="8"/>
     </row>
     <row r="941">
-      <c r="B941" s="15"/>
+      <c r="B941" s="16"/>
       <c r="C941" s="8"/>
       <c r="D941" s="11"/>
       <c r="E941" s="8"/>
@@ -8068,7 +8187,7 @@
       <c r="G941" s="8"/>
     </row>
     <row r="942">
-      <c r="B942" s="15"/>
+      <c r="B942" s="16"/>
       <c r="C942" s="8"/>
       <c r="D942" s="11"/>
       <c r="E942" s="8"/>
@@ -8076,7 +8195,7 @@
       <c r="G942" s="8"/>
     </row>
     <row r="943">
-      <c r="B943" s="15"/>
+      <c r="B943" s="16"/>
       <c r="C943" s="8"/>
       <c r="D943" s="11"/>
       <c r="E943" s="8"/>
@@ -8084,7 +8203,7 @@
       <c r="G943" s="8"/>
     </row>
     <row r="944">
-      <c r="B944" s="15"/>
+      <c r="B944" s="16"/>
       <c r="C944" s="8"/>
       <c r="D944" s="11"/>
       <c r="E944" s="8"/>
@@ -8092,7 +8211,7 @@
       <c r="G944" s="8"/>
     </row>
     <row r="945">
-      <c r="B945" s="15"/>
+      <c r="B945" s="16"/>
       <c r="C945" s="8"/>
       <c r="D945" s="11"/>
       <c r="E945" s="8"/>
@@ -8100,7 +8219,7 @@
       <c r="G945" s="8"/>
     </row>
     <row r="946">
-      <c r="B946" s="15"/>
+      <c r="B946" s="16"/>
       <c r="C946" s="8"/>
       <c r="D946" s="11"/>
       <c r="E946" s="8"/>
@@ -8108,7 +8227,7 @@
       <c r="G946" s="8"/>
     </row>
     <row r="947">
-      <c r="B947" s="15"/>
+      <c r="B947" s="16"/>
       <c r="C947" s="8"/>
       <c r="D947" s="11"/>
       <c r="E947" s="8"/>
@@ -8116,7 +8235,7 @@
       <c r="G947" s="8"/>
     </row>
     <row r="948">
-      <c r="B948" s="15"/>
+      <c r="B948" s="16"/>
       <c r="C948" s="8"/>
       <c r="D948" s="11"/>
       <c r="E948" s="8"/>
@@ -8124,7 +8243,7 @@
       <c r="G948" s="8"/>
     </row>
     <row r="949">
-      <c r="B949" s="15"/>
+      <c r="B949" s="16"/>
       <c r="C949" s="8"/>
       <c r="D949" s="11"/>
       <c r="E949" s="8"/>
@@ -8132,7 +8251,7 @@
       <c r="G949" s="8"/>
     </row>
     <row r="950">
-      <c r="B950" s="15"/>
+      <c r="B950" s="16"/>
       <c r="C950" s="8"/>
       <c r="D950" s="11"/>
       <c r="E950" s="8"/>
@@ -8140,7 +8259,7 @@
       <c r="G950" s="8"/>
     </row>
     <row r="951">
-      <c r="B951" s="15"/>
+      <c r="B951" s="16"/>
       <c r="C951" s="8"/>
       <c r="D951" s="11"/>
       <c r="E951" s="8"/>
@@ -8148,7 +8267,7 @@
       <c r="G951" s="8"/>
     </row>
     <row r="952">
-      <c r="B952" s="15"/>
+      <c r="B952" s="16"/>
       <c r="C952" s="8"/>
       <c r="D952" s="11"/>
       <c r="E952" s="8"/>
@@ -8156,7 +8275,7 @@
       <c r="G952" s="8"/>
     </row>
     <row r="953">
-      <c r="B953" s="15"/>
+      <c r="B953" s="16"/>
       <c r="C953" s="8"/>
       <c r="D953" s="11"/>
       <c r="E953" s="8"/>
@@ -8164,7 +8283,7 @@
       <c r="G953" s="8"/>
     </row>
     <row r="954">
-      <c r="B954" s="15"/>
+      <c r="B954" s="16"/>
       <c r="C954" s="8"/>
       <c r="D954" s="11"/>
       <c r="E954" s="8"/>
@@ -8172,7 +8291,7 @@
       <c r="G954" s="8"/>
     </row>
     <row r="955">
-      <c r="B955" s="15"/>
+      <c r="B955" s="16"/>
       <c r="C955" s="8"/>
       <c r="D955" s="11"/>
       <c r="E955" s="8"/>
@@ -8180,7 +8299,7 @@
       <c r="G955" s="8"/>
     </row>
     <row r="956">
-      <c r="B956" s="15"/>
+      <c r="B956" s="16"/>
       <c r="C956" s="8"/>
       <c r="D956" s="11"/>
       <c r="E956" s="8"/>
@@ -8188,7 +8307,7 @@
       <c r="G956" s="8"/>
     </row>
     <row r="957">
-      <c r="B957" s="15"/>
+      <c r="B957" s="16"/>
       <c r="C957" s="8"/>
       <c r="D957" s="11"/>
       <c r="E957" s="8"/>
@@ -8196,7 +8315,7 @@
       <c r="G957" s="8"/>
     </row>
     <row r="958">
-      <c r="B958" s="15"/>
+      <c r="B958" s="16"/>
       <c r="C958" s="8"/>
       <c r="D958" s="11"/>
       <c r="E958" s="8"/>
@@ -8204,7 +8323,7 @@
       <c r="G958" s="8"/>
     </row>
     <row r="959">
-      <c r="B959" s="15"/>
+      <c r="B959" s="16"/>
       <c r="C959" s="8"/>
       <c r="D959" s="11"/>
       <c r="E959" s="8"/>
@@ -8212,7 +8331,7 @@
       <c r="G959" s="8"/>
     </row>
     <row r="960">
-      <c r="B960" s="15"/>
+      <c r="B960" s="16"/>
       <c r="C960" s="8"/>
       <c r="D960" s="11"/>
       <c r="E960" s="8"/>
@@ -8220,7 +8339,7 @@
       <c r="G960" s="8"/>
     </row>
     <row r="961">
-      <c r="B961" s="15"/>
+      <c r="B961" s="16"/>
       <c r="C961" s="8"/>
       <c r="D961" s="11"/>
       <c r="E961" s="8"/>
@@ -8228,7 +8347,7 @@
       <c r="G961" s="8"/>
     </row>
     <row r="962">
-      <c r="B962" s="15"/>
+      <c r="B962" s="16"/>
       <c r="C962" s="8"/>
       <c r="D962" s="11"/>
       <c r="E962" s="8"/>
@@ -8236,7 +8355,7 @@
       <c r="G962" s="8"/>
     </row>
     <row r="963">
-      <c r="B963" s="15"/>
+      <c r="B963" s="16"/>
       <c r="C963" s="8"/>
       <c r="D963" s="11"/>
       <c r="E963" s="8"/>
@@ -8244,7 +8363,7 @@
       <c r="G963" s="8"/>
     </row>
     <row r="964">
-      <c r="B964" s="15"/>
+      <c r="B964" s="16"/>
       <c r="C964" s="8"/>
       <c r="D964" s="11"/>
       <c r="E964" s="8"/>
@@ -8252,7 +8371,7 @@
       <c r="G964" s="8"/>
     </row>
     <row r="965">
-      <c r="B965" s="15"/>
+      <c r="B965" s="16"/>
       <c r="C965" s="8"/>
       <c r="D965" s="11"/>
       <c r="E965" s="8"/>
@@ -8260,7 +8379,7 @@
       <c r="G965" s="8"/>
     </row>
     <row r="966">
-      <c r="B966" s="15"/>
+      <c r="B966" s="16"/>
       <c r="C966" s="8"/>
       <c r="D966" s="11"/>
       <c r="E966" s="8"/>
@@ -8268,7 +8387,7 @@
       <c r="G966" s="8"/>
     </row>
     <row r="967">
-      <c r="B967" s="15"/>
+      <c r="B967" s="16"/>
       <c r="C967" s="8"/>
       <c r="D967" s="11"/>
       <c r="E967" s="8"/>
@@ -8276,7 +8395,7 @@
       <c r="G967" s="8"/>
     </row>
     <row r="968">
-      <c r="B968" s="15"/>
+      <c r="B968" s="16"/>
       <c r="C968" s="8"/>
       <c r="D968" s="11"/>
       <c r="E968" s="8"/>
@@ -8284,7 +8403,7 @@
       <c r="G968" s="8"/>
     </row>
     <row r="969">
-      <c r="B969" s="15"/>
+      <c r="B969" s="16"/>
       <c r="C969" s="8"/>
       <c r="D969" s="11"/>
       <c r="E969" s="8"/>
@@ -8292,7 +8411,7 @@
       <c r="G969" s="8"/>
     </row>
     <row r="970">
-      <c r="B970" s="15"/>
+      <c r="B970" s="16"/>
       <c r="C970" s="8"/>
       <c r="D970" s="11"/>
       <c r="E970" s="8"/>
@@ -8300,7 +8419,7 @@
       <c r="G970" s="8"/>
     </row>
     <row r="971">
-      <c r="B971" s="15"/>
+      <c r="B971" s="16"/>
       <c r="C971" s="8"/>
       <c r="D971" s="11"/>
       <c r="E971" s="8"/>
@@ -8308,7 +8427,7 @@
       <c r="G971" s="8"/>
     </row>
     <row r="972">
-      <c r="B972" s="15"/>
+      <c r="B972" s="16"/>
       <c r="C972" s="8"/>
       <c r="D972" s="11"/>
       <c r="E972" s="8"/>
@@ -8316,7 +8435,7 @@
       <c r="G972" s="8"/>
     </row>
     <row r="973">
-      <c r="B973" s="15"/>
+      <c r="B973" s="16"/>
       <c r="C973" s="8"/>
       <c r="D973" s="11"/>
       <c r="E973" s="8"/>
@@ -8324,7 +8443,7 @@
       <c r="G973" s="8"/>
     </row>
     <row r="974">
-      <c r="B974" s="15"/>
+      <c r="B974" s="16"/>
       <c r="C974" s="8"/>
       <c r="D974" s="11"/>
       <c r="E974" s="8"/>
@@ -8332,7 +8451,7 @@
       <c r="G974" s="8"/>
     </row>
     <row r="975">
-      <c r="B975" s="15"/>
+      <c r="B975" s="16"/>
       <c r="C975" s="8"/>
       <c r="D975" s="11"/>
       <c r="E975" s="8"/>
@@ -8340,7 +8459,7 @@
       <c r="G975" s="8"/>
     </row>
     <row r="976">
-      <c r="B976" s="15"/>
+      <c r="B976" s="16"/>
       <c r="C976" s="8"/>
       <c r="D976" s="11"/>
       <c r="E976" s="8"/>
@@ -8348,7 +8467,7 @@
       <c r="G976" s="8"/>
     </row>
     <row r="977">
-      <c r="B977" s="15"/>
+      <c r="B977" s="16"/>
       <c r="C977" s="8"/>
       <c r="D977" s="11"/>
       <c r="E977" s="8"/>
@@ -8356,7 +8475,7 @@
       <c r="G977" s="8"/>
     </row>
     <row r="978">
-      <c r="B978" s="15"/>
+      <c r="B978" s="16"/>
       <c r="C978" s="8"/>
       <c r="D978" s="11"/>
       <c r="E978" s="8"/>
@@ -8364,7 +8483,7 @@
       <c r="G978" s="8"/>
     </row>
     <row r="979">
-      <c r="B979" s="15"/>
+      <c r="B979" s="16"/>
       <c r="C979" s="8"/>
       <c r="D979" s="11"/>
       <c r="E979" s="8"/>
@@ -8372,7 +8491,7 @@
       <c r="G979" s="8"/>
     </row>
     <row r="980">
-      <c r="B980" s="15"/>
+      <c r="B980" s="16"/>
       <c r="C980" s="8"/>
       <c r="D980" s="11"/>
       <c r="E980" s="8"/>
@@ -8380,7 +8499,7 @@
       <c r="G980" s="8"/>
     </row>
     <row r="981">
-      <c r="B981" s="15"/>
+      <c r="B981" s="16"/>
       <c r="C981" s="8"/>
       <c r="D981" s="11"/>
       <c r="E981" s="8"/>
@@ -8388,7 +8507,7 @@
       <c r="G981" s="8"/>
     </row>
     <row r="982">
-      <c r="B982" s="15"/>
+      <c r="B982" s="16"/>
       <c r="C982" s="8"/>
       <c r="D982" s="11"/>
       <c r="E982" s="8"/>
@@ -8396,7 +8515,7 @@
       <c r="G982" s="8"/>
     </row>
     <row r="983">
-      <c r="B983" s="15"/>
+      <c r="B983" s="16"/>
       <c r="C983" s="8"/>
       <c r="D983" s="11"/>
       <c r="E983" s="8"/>
@@ -8404,7 +8523,7 @@
       <c r="G983" s="8"/>
     </row>
     <row r="984">
-      <c r="B984" s="15"/>
+      <c r="B984" s="16"/>
       <c r="C984" s="8"/>
       <c r="D984" s="11"/>
       <c r="E984" s="8"/>
@@ -8412,7 +8531,7 @@
       <c r="G984" s="8"/>
     </row>
     <row r="985">
-      <c r="B985" s="15"/>
+      <c r="B985" s="16"/>
       <c r="C985" s="8"/>
       <c r="D985" s="11"/>
       <c r="E985" s="8"/>
@@ -8420,7 +8539,7 @@
       <c r="G985" s="8"/>
     </row>
     <row r="986">
-      <c r="B986" s="15"/>
+      <c r="B986" s="16"/>
       <c r="C986" s="8"/>
       <c r="D986" s="11"/>
       <c r="E986" s="8"/>
@@ -8428,7 +8547,7 @@
       <c r="G986" s="8"/>
     </row>
     <row r="987">
-      <c r="B987" s="15"/>
+      <c r="B987" s="16"/>
       <c r="C987" s="8"/>
       <c r="D987" s="11"/>
       <c r="E987" s="8"/>
@@ -8436,7 +8555,7 @@
       <c r="G987" s="8"/>
     </row>
     <row r="988">
-      <c r="B988" s="15"/>
+      <c r="B988" s="16"/>
       <c r="C988" s="8"/>
       <c r="D988" s="11"/>
       <c r="E988" s="8"/>
@@ -8444,7 +8563,7 @@
       <c r="G988" s="8"/>
     </row>
     <row r="989">
-      <c r="B989" s="15"/>
+      <c r="B989" s="16"/>
       <c r="C989" s="8"/>
       <c r="D989" s="11"/>
       <c r="E989" s="8"/>
@@ -8452,7 +8571,7 @@
       <c r="G989" s="8"/>
     </row>
     <row r="990">
-      <c r="B990" s="15"/>
+      <c r="B990" s="16"/>
       <c r="C990" s="8"/>
       <c r="D990" s="11"/>
       <c r="E990" s="8"/>
@@ -8460,7 +8579,7 @@
       <c r="G990" s="8"/>
     </row>
     <row r="991">
-      <c r="B991" s="15"/>
+      <c r="B991" s="16"/>
       <c r="C991" s="8"/>
       <c r="D991" s="11"/>
       <c r="E991" s="8"/>
@@ -8468,7 +8587,7 @@
       <c r="G991" s="8"/>
     </row>
     <row r="992">
-      <c r="B992" s="15"/>
+      <c r="B992" s="16"/>
       <c r="C992" s="8"/>
       <c r="D992" s="11"/>
       <c r="E992" s="8"/>
@@ -8476,7 +8595,7 @@
       <c r="G992" s="8"/>
     </row>
     <row r="993">
-      <c r="B993" s="15"/>
+      <c r="B993" s="16"/>
       <c r="C993" s="8"/>
       <c r="D993" s="11"/>
       <c r="E993" s="8"/>
@@ -8484,7 +8603,7 @@
       <c r="G993" s="8"/>
     </row>
     <row r="994">
-      <c r="B994" s="15"/>
+      <c r="B994" s="16"/>
       <c r="C994" s="8"/>
       <c r="D994" s="11"/>
       <c r="E994" s="8"/>
@@ -8492,7 +8611,7 @@
       <c r="G994" s="8"/>
     </row>
     <row r="995">
-      <c r="B995" s="15"/>
+      <c r="B995" s="16"/>
       <c r="C995" s="8"/>
       <c r="D995" s="11"/>
       <c r="E995" s="8"/>
@@ -8500,7 +8619,7 @@
       <c r="G995" s="8"/>
     </row>
     <row r="996">
-      <c r="B996" s="15"/>
+      <c r="B996" s="16"/>
       <c r="C996" s="8"/>
       <c r="D996" s="11"/>
       <c r="E996" s="8"/>
@@ -8508,7 +8627,7 @@
       <c r="G996" s="8"/>
     </row>
     <row r="997">
-      <c r="B997" s="15"/>
+      <c r="B997" s="16"/>
       <c r="C997" s="8"/>
       <c r="D997" s="11"/>
       <c r="E997" s="8"/>
@@ -8516,7 +8635,7 @@
       <c r="G997" s="8"/>
     </row>
     <row r="998">
-      <c r="B998" s="15"/>
+      <c r="B998" s="16"/>
       <c r="C998" s="8"/>
       <c r="D998" s="11"/>
       <c r="E998" s="8"/>
@@ -8524,7 +8643,7 @@
       <c r="G998" s="8"/>
     </row>
     <row r="999">
-      <c r="B999" s="15"/>
+      <c r="B999" s="16"/>
       <c r="C999" s="8"/>
       <c r="D999" s="11"/>
       <c r="E999" s="8"/>
@@ -8532,7 +8651,7 @@
       <c r="G999" s="8"/>
     </row>
     <row r="1000">
-      <c r="B1000" s="15"/>
+      <c r="B1000" s="16"/>
       <c r="C1000" s="8"/>
       <c r="D1000" s="11"/>
       <c r="E1000" s="8"/>
@@ -8540,7 +8659,7 @@
       <c r="G1000" s="8"/>
     </row>
     <row r="1001">
-      <c r="B1001" s="15"/>
+      <c r="B1001" s="16"/>
       <c r="C1001" s="8"/>
       <c r="D1001" s="11"/>
       <c r="E1001" s="8"/>
@@ -8548,29 +8667,28 @@
       <c r="G1001" s="8"/>
     </row>
     <row r="1002">
-      <c r="B1002" s="15"/>
+      <c r="B1002" s="16"/>
       <c r="C1002" s="8"/>
       <c r="D1002" s="11"/>
       <c r="E1002" s="8"/>
       <c r="F1002" s="8"/>
       <c r="G1002" s="8"/>
     </row>
-    <row r="1003">
-      <c r="B1003" s="15"/>
-      <c r="C1003" s="8"/>
-      <c r="D1003" s="11"/>
-      <c r="E1003" s="8"/>
-      <c r="F1003" s="8"/>
-      <c r="G1003" s="8"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="90591a250/=xst4ec" ref="C4"/>
-    <hyperlink r:id="rId2" location="90576a102/=xsshuh" ref="C5"/>
-    <hyperlink r:id="rId3" location="91166a210/=xsshhz" ref="C6"/>
-    <hyperlink r:id="rId4" ref="C11"/>
-    <hyperlink r:id="rId5" ref="C19"/>
+    <hyperlink r:id="rId1" location="90591a250/=xst4ec" ref="C5"/>
+    <hyperlink r:id="rId2" location="90576a102/=xsshuh" ref="C6"/>
+    <hyperlink r:id="rId3" location="91166a210/=xsshhz" ref="C7"/>
+    <hyperlink r:id="rId4" ref="C9"/>
+    <hyperlink r:id="rId5" ref="C12"/>
+    <hyperlink r:id="rId6" ref="C19"/>
+    <hyperlink r:id="rId7" location="product-description-iframe" ref="C20"/>
+    <hyperlink r:id="rId8" ref="C21"/>
+    <hyperlink r:id="rId9" ref="C22"/>
+    <hyperlink r:id="rId10" ref="C23"/>
+    <hyperlink r:id="rId11" ref="C24"/>
+    <hyperlink r:id="rId12" ref="C25"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>PART</t>
   </si>
@@ -43,13 +43,19 @@
     <t>EA</t>
   </si>
   <si>
-    <t>Steel Rods</t>
+    <t>Steel Rods 08x375 mm</t>
   </si>
   <si>
     <t>McMaster-CARR</t>
   </si>
   <si>
-    <t>Threaded Rods</t>
+    <t>Steel Rods 08x341 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel Rods 08x320 mm </t>
+  </si>
+  <si>
+    <t>M5 Threaded Rods</t>
   </si>
   <si>
     <t>M3 Hex Nut</t>
@@ -58,7 +64,7 @@
     <t>PK</t>
   </si>
   <si>
-    <t>M3 Nylon-Insert Locknut</t>
+    <t>M3 Nylon-Locknut</t>
   </si>
   <si>
     <t>M3 Flat Washer</t>
@@ -97,6 +103,9 @@
     <t>Mechanical Endstop</t>
   </si>
   <si>
+    <t>Easy RepRap</t>
+  </si>
+  <si>
     <t>14 Gauge Black Wire</t>
   </si>
   <si>
@@ -124,9 +133,6 @@
     <t>GT2 belt and pulley set</t>
   </si>
   <si>
-    <t>Easy RepRap</t>
-  </si>
-  <si>
     <t>MK8 Drive Gear</t>
   </si>
   <si>
@@ -143,6 +149,12 @@
   </si>
   <si>
     <t>SE 784EC Digital Caliper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3 Stud Thermistor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D CAM </t>
   </si>
 </sst>
 </file>
@@ -163,12 +175,12 @@
     </font>
     <font/>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF333333"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -245,10 +257,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -345,7 +357,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="11" t="str">
-        <f t="shared" ref="G2:G3" si="1">D2*E2</f>
+        <f t="shared" ref="G2:G28" si="1">D2*E2</f>
         <v>$41.44</v>
       </c>
     </row>
@@ -357,9 +369,11 @@
         <v>11</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E3" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>9</v>
@@ -373,12 +387,23 @@
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.00</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
@@ -387,276 +412,288 @@
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="D5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.00</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.00</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13" t="str">
         <f>HYPERLINK("http://www.mcmaster.com/#90591a250/=xst4ec","90591A250")</f>
         <v>90591A250</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D7" s="14">
         <v>2.06</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E7" s="10">
         <v>1.0</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="11" t="str">
-        <f t="shared" ref="G5:G25" si="2">D5*E5</f>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>$2.06</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C8" s="13" t="str">
         <f>HYPERLINK("http://www.mcmaster.com/#90576a102/=xsshuh","90576A102")</f>
         <v>90576A102</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D8" s="9">
         <v>3.27</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E8" s="10">
         <v>1.0</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="F8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>$3.27</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C9" s="13" t="str">
         <f>HYPERLINK("http://www.mcmaster.com/#91166a210/=xsshhz","91166A210")</f>
         <v>91166A210</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D9" s="9">
         <v>1.61</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E9" s="10">
         <v>1.0</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="F9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>$1.61</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9">
+    <row r="10">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9">
         <v>8.0</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E10" s="10">
         <v>2.0</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="G10" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>$16.00</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="14" t="str">
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="13" t="str">
         <f>HYPERLINK("http://www.vxb.com/page/bearings/PROD/8mmLinearMotionSystems/Kit179960","Kit179960")</f>
         <v>Kit179960</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D11" s="9">
         <v>24.95</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E11" s="10">
         <v>1.0</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="F11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>$24.95</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$0.00</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$0.00</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.00</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="14" t="str">
+      <c r="B13" s="16"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.00</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="13" t="str">
         <f>HYPERLINK("http://www.panucatt.com/azteeg_X5_mini_reprap_3d_printer_controller_p/ax5mini.htm","AX5MINI")</f>
         <v>AX5MINI</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D14" s="9">
         <v>109.0</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E14" s="10">
         <v>1.0</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="G14" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>$109.00</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9">
-        <v>5.39</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$5.39</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$0.00</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="9">
-        <v>0.22</v>
+        <v>5.39</v>
       </c>
       <c r="E15" s="10">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G15" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$2.20</v>
+        <f t="shared" si="1"/>
+        <v>$5.39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="C16" s="13" t="str">
+        <f>HYPERLINK("http://www.amazon.com/gp/product/B00G2E6UZC/ref=pd_lpo_sbs_dp_ss_1?pf_rd_p=1944687502&amp;pf_rd_s=lpo-top-stripe-1&amp;pf_rd_t=201&amp;pf_rd_i=B00EVOTVY2&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=0MEB5ZHP3EWNKZSQXCGF","ES3RL")</f>
+        <v>ES3RL</v>
+      </c>
       <c r="D16" s="9">
-        <v>0.22</v>
+        <v>8.99</v>
       </c>
       <c r="E16" s="10">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G16" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$2.20</v>
+        <f t="shared" si="1"/>
+        <v>$8.99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9">
-        <v>46.0</v>
+        <v>0.22</v>
       </c>
       <c r="E17" s="10">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G17" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$46.00</v>
+        <f t="shared" si="1"/>
+        <v>$2.20</v>
       </c>
     </row>
     <row r="18">
@@ -664,21 +701,21 @@
         <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
-        <v>79.0</v>
+        <v>0.22</v>
       </c>
       <c r="E18" s="10">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G18" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$79.00</v>
+        <f t="shared" si="1"/>
+        <v>$2.20</v>
       </c>
     </row>
     <row r="19">
@@ -686,49 +723,43 @@
         <v>35</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="14" t="str">
-        <f>HYPERLINK("http://www.3dmakerworld.com/nema17-stepper-motor","1124090")</f>
-        <v>1124090</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C19" s="8"/>
       <c r="D19" s="9">
-        <v>14.5</v>
+        <v>46.0</v>
       </c>
       <c r="E19" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$72.50</v>
+        <f t="shared" si="1"/>
+        <v>$46.00</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="14" t="str">
-        <f>HYPERLINK("http://www.amazon.com/Easy-RepRap-Pulley-Printers-MendelMax/dp/B00ICM8ATG/ref=sr_1_2?s=industrial&amp;ie=UTF8&amp;qid=1435992613&amp;sr=1-2&amp;keywords=GT2+Belt+Pulley#product-description-iframe","GT2-20T")</f>
-        <v>GT2-20T</v>
-      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="9">
-        <v>17.99</v>
+        <v>79.0</v>
       </c>
       <c r="E20" s="10">
         <v>1.0</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G20" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$17.99</v>
+        <f t="shared" si="1"/>
+        <v>$79.00</v>
       </c>
     </row>
     <row r="21">
@@ -736,64 +767,64 @@
         <v>38</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="13" t="str">
+        <f>HYPERLINK("http://www.3dmakerworld.com/nema17-stepper-motor","1124090")</f>
+        <v>1124090</v>
+      </c>
+      <c r="D21" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="E21" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$72.50</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="14" t="str">
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="13" t="str">
+        <f>HYPERLINK("http://www.amazon.com/Easy-RepRap-Pulley-Printers-MendelMax/dp/B00ICM8ATG/ref=sr_1_2?s=industrial&amp;ie=UTF8&amp;qid=1435992613&amp;sr=1-2&amp;keywords=GT2+Belt+Pulley#product-description-iframe","GT2-20T")</f>
+        <v>GT2-20T</v>
+      </c>
+      <c r="D22" s="9">
+        <v>17.99</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$17.99</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="13" t="str">
         <f>HYPERLINK("http://www.amazon.com/gp/product/B00THZK97I?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o01_s00","MK8GEAR")</f>
         <v>MK8GEAR</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D23" s="9">
         <v>7.95</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$7.95</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="14" t="str">
-        <f>HYPERLINK("http://www.amazon.com/gp/product/B00THZJE8S?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o01_s00","ABP01KIT2")</f>
-        <v>ABP01KIT2</v>
-      </c>
-      <c r="D22" s="9">
-        <v>45.95</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$45.95</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="14" t="str">
-        <f>HYPERLINK("http://www.amazon.com/gp/product/B0012EI6KE?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o04_s00","P007-010")</f>
-        <v>P007-010</v>
-      </c>
-      <c r="D23" s="9">
-        <v>11.81</v>
       </c>
       <c r="E23" s="10">
         <v>1.0</v>
@@ -802,8 +833,8 @@
         <v>9</v>
       </c>
       <c r="G23" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$11.81</v>
+        <f t="shared" si="1"/>
+        <v>$7.95</v>
       </c>
     </row>
     <row r="24">
@@ -811,14 +842,14 @@
         <v>42</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="14" t="str">
-        <f>HYPERLINK("http://www.homedepot.com/p/WD-40-3-in-1-3-oz-Multi-Purpose-Precision-Lubricant-Liquid-Oil-100353/203732387?keyword=3+in+1+multipurpose+oil","203732387")</f>
-        <v>203732387</v>
+        <v>41</v>
+      </c>
+      <c r="C24" s="13" t="str">
+        <f>HYPERLINK("http://www.amazon.com/gp/product/B00THZJE8S?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o01_s00","ABP01KIT2")</f>
+        <v>ABP01KIT2</v>
       </c>
       <c r="D24" s="9">
-        <v>2.28</v>
+        <v>45.95</v>
       </c>
       <c r="E24" s="10">
         <v>1.0</v>
@@ -827,8 +858,8 @@
         <v>9</v>
       </c>
       <c r="G24" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>$2.28</v>
+        <f t="shared" si="1"/>
+        <v>$45.95</v>
       </c>
     </row>
     <row r="25">
@@ -836,48 +867,100 @@
         <v>43</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="14" t="str">
+        <v>28</v>
+      </c>
+      <c r="C25" s="13" t="str">
+        <f>HYPERLINK("http://www.amazon.com/gp/product/B0012EI6KE?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o04_s00","P007-010")</f>
+        <v>P007-010</v>
+      </c>
+      <c r="D25" s="9">
+        <v>11.81</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$11.81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="13" t="str">
+        <f>HYPERLINK("http://www.homedepot.com/p/WD-40-3-in-1-3-oz-Multi-Purpose-Precision-Lubricant-Liquid-Oil-100353/203732387?keyword=3+in+1+multipurpose+oil","203732387")</f>
+        <v>203732387</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2.28</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$2.28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="13" t="str">
         <f>HYPERLINK("http://www.amazon.com/gp/product/B0002JFMIO?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o08_s02","784EC")</f>
         <v>784EC</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D27" s="9">
         <v>11.75</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E27" s="10">
         <v>1.0</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="G27" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>$11.75</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="16"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="16"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
     <row r="28">
-      <c r="B28" s="16"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="A28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="13" t="str">
+        <f>HYPERLINK("http://www.amazon.com/gp/product/B00THZJIY8?psc=1&amp;redirect=true&amp;ref_=oh_aui_detailpage_o00_s00","HEXTHERM")</f>
+        <v>HEXTHERM</v>
+      </c>
+      <c r="D28" s="9">
+        <v>11.95</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>$11.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" s="16"/>
@@ -901,10 +984,7 @@
       <c r="D31" s="11"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="11" t="str">
-        <f>SUM(G2:G30)</f>
-        <v>$503.35</v>
-      </c>
+      <c r="G31" s="8"/>
     </row>
     <row r="32">
       <c r="B32" s="16"/>
@@ -920,7 +1000,10 @@
       <c r="D33" s="11"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="11" t="str">
+        <f>SUM(G2:G32)</f>
+        <v>$524.29</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" s="16"/>
@@ -7586,1109 +7669,23 @@
       <c r="F866" s="8"/>
       <c r="G866" s="8"/>
     </row>
-    <row r="867">
-      <c r="B867" s="16"/>
-      <c r="C867" s="8"/>
-      <c r="D867" s="11"/>
-      <c r="E867" s="8"/>
-      <c r="F867" s="8"/>
-      <c r="G867" s="8"/>
-    </row>
-    <row r="868">
-      <c r="B868" s="16"/>
-      <c r="C868" s="8"/>
-      <c r="D868" s="11"/>
-      <c r="E868" s="8"/>
-      <c r="F868" s="8"/>
-      <c r="G868" s="8"/>
-    </row>
-    <row r="869">
-      <c r="B869" s="16"/>
-      <c r="C869" s="8"/>
-      <c r="D869" s="11"/>
-      <c r="E869" s="8"/>
-      <c r="F869" s="8"/>
-      <c r="G869" s="8"/>
-    </row>
-    <row r="870">
-      <c r="B870" s="16"/>
-      <c r="C870" s="8"/>
-      <c r="D870" s="11"/>
-      <c r="E870" s="8"/>
-      <c r="F870" s="8"/>
-      <c r="G870" s="8"/>
-    </row>
-    <row r="871">
-      <c r="B871" s="16"/>
-      <c r="C871" s="8"/>
-      <c r="D871" s="11"/>
-      <c r="E871" s="8"/>
-      <c r="F871" s="8"/>
-      <c r="G871" s="8"/>
-    </row>
-    <row r="872">
-      <c r="B872" s="16"/>
-      <c r="C872" s="8"/>
-      <c r="D872" s="11"/>
-      <c r="E872" s="8"/>
-      <c r="F872" s="8"/>
-      <c r="G872" s="8"/>
-    </row>
-    <row r="873">
-      <c r="B873" s="16"/>
-      <c r="C873" s="8"/>
-      <c r="D873" s="11"/>
-      <c r="E873" s="8"/>
-      <c r="F873" s="8"/>
-      <c r="G873" s="8"/>
-    </row>
-    <row r="874">
-      <c r="B874" s="16"/>
-      <c r="C874" s="8"/>
-      <c r="D874" s="11"/>
-      <c r="E874" s="8"/>
-      <c r="F874" s="8"/>
-      <c r="G874" s="8"/>
-    </row>
-    <row r="875">
-      <c r="B875" s="16"/>
-      <c r="C875" s="8"/>
-      <c r="D875" s="11"/>
-      <c r="E875" s="8"/>
-      <c r="F875" s="8"/>
-      <c r="G875" s="8"/>
-    </row>
-    <row r="876">
-      <c r="B876" s="16"/>
-      <c r="C876" s="8"/>
-      <c r="D876" s="11"/>
-      <c r="E876" s="8"/>
-      <c r="F876" s="8"/>
-      <c r="G876" s="8"/>
-    </row>
-    <row r="877">
-      <c r="B877" s="16"/>
-      <c r="C877" s="8"/>
-      <c r="D877" s="11"/>
-      <c r="E877" s="8"/>
-      <c r="F877" s="8"/>
-      <c r="G877" s="8"/>
-    </row>
-    <row r="878">
-      <c r="B878" s="16"/>
-      <c r="C878" s="8"/>
-      <c r="D878" s="11"/>
-      <c r="E878" s="8"/>
-      <c r="F878" s="8"/>
-      <c r="G878" s="8"/>
-    </row>
-    <row r="879">
-      <c r="B879" s="16"/>
-      <c r="C879" s="8"/>
-      <c r="D879" s="11"/>
-      <c r="E879" s="8"/>
-      <c r="F879" s="8"/>
-      <c r="G879" s="8"/>
-    </row>
-    <row r="880">
-      <c r="B880" s="16"/>
-      <c r="C880" s="8"/>
-      <c r="D880" s="11"/>
-      <c r="E880" s="8"/>
-      <c r="F880" s="8"/>
-      <c r="G880" s="8"/>
-    </row>
-    <row r="881">
-      <c r="B881" s="16"/>
-      <c r="C881" s="8"/>
-      <c r="D881" s="11"/>
-      <c r="E881" s="8"/>
-      <c r="F881" s="8"/>
-      <c r="G881" s="8"/>
-    </row>
-    <row r="882">
-      <c r="B882" s="16"/>
-      <c r="C882" s="8"/>
-      <c r="D882" s="11"/>
-      <c r="E882" s="8"/>
-      <c r="F882" s="8"/>
-      <c r="G882" s="8"/>
-    </row>
-    <row r="883">
-      <c r="B883" s="16"/>
-      <c r="C883" s="8"/>
-      <c r="D883" s="11"/>
-      <c r="E883" s="8"/>
-      <c r="F883" s="8"/>
-      <c r="G883" s="8"/>
-    </row>
-    <row r="884">
-      <c r="B884" s="16"/>
-      <c r="C884" s="8"/>
-      <c r="D884" s="11"/>
-      <c r="E884" s="8"/>
-      <c r="F884" s="8"/>
-      <c r="G884" s="8"/>
-    </row>
-    <row r="885">
-      <c r="B885" s="16"/>
-      <c r="C885" s="8"/>
-      <c r="D885" s="11"/>
-      <c r="E885" s="8"/>
-      <c r="F885" s="8"/>
-      <c r="G885" s="8"/>
-    </row>
-    <row r="886">
-      <c r="B886" s="16"/>
-      <c r="C886" s="8"/>
-      <c r="D886" s="11"/>
-      <c r="E886" s="8"/>
-      <c r="F886" s="8"/>
-      <c r="G886" s="8"/>
-    </row>
-    <row r="887">
-      <c r="B887" s="16"/>
-      <c r="C887" s="8"/>
-      <c r="D887" s="11"/>
-      <c r="E887" s="8"/>
-      <c r="F887" s="8"/>
-      <c r="G887" s="8"/>
-    </row>
-    <row r="888">
-      <c r="B888" s="16"/>
-      <c r="C888" s="8"/>
-      <c r="D888" s="11"/>
-      <c r="E888" s="8"/>
-      <c r="F888" s="8"/>
-      <c r="G888" s="8"/>
-    </row>
-    <row r="889">
-      <c r="B889" s="16"/>
-      <c r="C889" s="8"/>
-      <c r="D889" s="11"/>
-      <c r="E889" s="8"/>
-      <c r="F889" s="8"/>
-      <c r="G889" s="8"/>
-    </row>
-    <row r="890">
-      <c r="B890" s="16"/>
-      <c r="C890" s="8"/>
-      <c r="D890" s="11"/>
-      <c r="E890" s="8"/>
-      <c r="F890" s="8"/>
-      <c r="G890" s="8"/>
-    </row>
-    <row r="891">
-      <c r="B891" s="16"/>
-      <c r="C891" s="8"/>
-      <c r="D891" s="11"/>
-      <c r="E891" s="8"/>
-      <c r="F891" s="8"/>
-      <c r="G891" s="8"/>
-    </row>
-    <row r="892">
-      <c r="B892" s="16"/>
-      <c r="C892" s="8"/>
-      <c r="D892" s="11"/>
-      <c r="E892" s="8"/>
-      <c r="F892" s="8"/>
-      <c r="G892" s="8"/>
-    </row>
-    <row r="893">
-      <c r="B893" s="16"/>
-      <c r="C893" s="8"/>
-      <c r="D893" s="11"/>
-      <c r="E893" s="8"/>
-      <c r="F893" s="8"/>
-      <c r="G893" s="8"/>
-    </row>
-    <row r="894">
-      <c r="B894" s="16"/>
-      <c r="C894" s="8"/>
-      <c r="D894" s="11"/>
-      <c r="E894" s="8"/>
-      <c r="F894" s="8"/>
-      <c r="G894" s="8"/>
-    </row>
-    <row r="895">
-      <c r="B895" s="16"/>
-      <c r="C895" s="8"/>
-      <c r="D895" s="11"/>
-      <c r="E895" s="8"/>
-      <c r="F895" s="8"/>
-      <c r="G895" s="8"/>
-    </row>
-    <row r="896">
-      <c r="B896" s="16"/>
-      <c r="C896" s="8"/>
-      <c r="D896" s="11"/>
-      <c r="E896" s="8"/>
-      <c r="F896" s="8"/>
-      <c r="G896" s="8"/>
-    </row>
-    <row r="897">
-      <c r="B897" s="16"/>
-      <c r="C897" s="8"/>
-      <c r="D897" s="11"/>
-      <c r="E897" s="8"/>
-      <c r="F897" s="8"/>
-      <c r="G897" s="8"/>
-    </row>
-    <row r="898">
-      <c r="B898" s="16"/>
-      <c r="C898" s="8"/>
-      <c r="D898" s="11"/>
-      <c r="E898" s="8"/>
-      <c r="F898" s="8"/>
-      <c r="G898" s="8"/>
-    </row>
-    <row r="899">
-      <c r="B899" s="16"/>
-      <c r="C899" s="8"/>
-      <c r="D899" s="11"/>
-      <c r="E899" s="8"/>
-      <c r="F899" s="8"/>
-      <c r="G899" s="8"/>
-    </row>
-    <row r="900">
-      <c r="B900" s="16"/>
-      <c r="C900" s="8"/>
-      <c r="D900" s="11"/>
-      <c r="E900" s="8"/>
-      <c r="F900" s="8"/>
-      <c r="G900" s="8"/>
-    </row>
-    <row r="901">
-      <c r="B901" s="16"/>
-      <c r="C901" s="8"/>
-      <c r="D901" s="11"/>
-      <c r="E901" s="8"/>
-      <c r="F901" s="8"/>
-      <c r="G901" s="8"/>
-    </row>
-    <row r="902">
-      <c r="B902" s="16"/>
-      <c r="C902" s="8"/>
-      <c r="D902" s="11"/>
-      <c r="E902" s="8"/>
-      <c r="F902" s="8"/>
-      <c r="G902" s="8"/>
-    </row>
-    <row r="903">
-      <c r="B903" s="16"/>
-      <c r="C903" s="8"/>
-      <c r="D903" s="11"/>
-      <c r="E903" s="8"/>
-      <c r="F903" s="8"/>
-      <c r="G903" s="8"/>
-    </row>
-    <row r="904">
-      <c r="B904" s="16"/>
-      <c r="C904" s="8"/>
-      <c r="D904" s="11"/>
-      <c r="E904" s="8"/>
-      <c r="F904" s="8"/>
-      <c r="G904" s="8"/>
-    </row>
-    <row r="905">
-      <c r="B905" s="16"/>
-      <c r="C905" s="8"/>
-      <c r="D905" s="11"/>
-      <c r="E905" s="8"/>
-      <c r="F905" s="8"/>
-      <c r="G905" s="8"/>
-    </row>
-    <row r="906">
-      <c r="B906" s="16"/>
-      <c r="C906" s="8"/>
-      <c r="D906" s="11"/>
-      <c r="E906" s="8"/>
-      <c r="F906" s="8"/>
-      <c r="G906" s="8"/>
-    </row>
-    <row r="907">
-      <c r="B907" s="16"/>
-      <c r="C907" s="8"/>
-      <c r="D907" s="11"/>
-      <c r="E907" s="8"/>
-      <c r="F907" s="8"/>
-      <c r="G907" s="8"/>
-    </row>
-    <row r="908">
-      <c r="B908" s="16"/>
-      <c r="C908" s="8"/>
-      <c r="D908" s="11"/>
-      <c r="E908" s="8"/>
-      <c r="F908" s="8"/>
-      <c r="G908" s="8"/>
-    </row>
-    <row r="909">
-      <c r="B909" s="16"/>
-      <c r="C909" s="8"/>
-      <c r="D909" s="11"/>
-      <c r="E909" s="8"/>
-      <c r="F909" s="8"/>
-      <c r="G909" s="8"/>
-    </row>
-    <row r="910">
-      <c r="B910" s="16"/>
-      <c r="C910" s="8"/>
-      <c r="D910" s="11"/>
-      <c r="E910" s="8"/>
-      <c r="F910" s="8"/>
-      <c r="G910" s="8"/>
-    </row>
-    <row r="911">
-      <c r="B911" s="16"/>
-      <c r="C911" s="8"/>
-      <c r="D911" s="11"/>
-      <c r="E911" s="8"/>
-      <c r="F911" s="8"/>
-      <c r="G911" s="8"/>
-    </row>
-    <row r="912">
-      <c r="B912" s="16"/>
-      <c r="C912" s="8"/>
-      <c r="D912" s="11"/>
-      <c r="E912" s="8"/>
-      <c r="F912" s="8"/>
-      <c r="G912" s="8"/>
-    </row>
-    <row r="913">
-      <c r="B913" s="16"/>
-      <c r="C913" s="8"/>
-      <c r="D913" s="11"/>
-      <c r="E913" s="8"/>
-      <c r="F913" s="8"/>
-      <c r="G913" s="8"/>
-    </row>
-    <row r="914">
-      <c r="B914" s="16"/>
-      <c r="C914" s="8"/>
-      <c r="D914" s="11"/>
-      <c r="E914" s="8"/>
-      <c r="F914" s="8"/>
-      <c r="G914" s="8"/>
-    </row>
-    <row r="915">
-      <c r="B915" s="16"/>
-      <c r="C915" s="8"/>
-      <c r="D915" s="11"/>
-      <c r="E915" s="8"/>
-      <c r="F915" s="8"/>
-      <c r="G915" s="8"/>
-    </row>
-    <row r="916">
-      <c r="B916" s="16"/>
-      <c r="C916" s="8"/>
-      <c r="D916" s="11"/>
-      <c r="E916" s="8"/>
-      <c r="F916" s="8"/>
-      <c r="G916" s="8"/>
-    </row>
-    <row r="917">
-      <c r="B917" s="16"/>
-      <c r="C917" s="8"/>
-      <c r="D917" s="11"/>
-      <c r="E917" s="8"/>
-      <c r="F917" s="8"/>
-      <c r="G917" s="8"/>
-    </row>
-    <row r="918">
-      <c r="B918" s="16"/>
-      <c r="C918" s="8"/>
-      <c r="D918" s="11"/>
-      <c r="E918" s="8"/>
-      <c r="F918" s="8"/>
-      <c r="G918" s="8"/>
-    </row>
-    <row r="919">
-      <c r="B919" s="16"/>
-      <c r="C919" s="8"/>
-      <c r="D919" s="11"/>
-      <c r="E919" s="8"/>
-      <c r="F919" s="8"/>
-      <c r="G919" s="8"/>
-    </row>
-    <row r="920">
-      <c r="B920" s="16"/>
-      <c r="C920" s="8"/>
-      <c r="D920" s="11"/>
-      <c r="E920" s="8"/>
-      <c r="F920" s="8"/>
-      <c r="G920" s="8"/>
-    </row>
-    <row r="921">
-      <c r="B921" s="16"/>
-      <c r="C921" s="8"/>
-      <c r="D921" s="11"/>
-      <c r="E921" s="8"/>
-      <c r="F921" s="8"/>
-      <c r="G921" s="8"/>
-    </row>
-    <row r="922">
-      <c r="B922" s="16"/>
-      <c r="C922" s="8"/>
-      <c r="D922" s="11"/>
-      <c r="E922" s="8"/>
-      <c r="F922" s="8"/>
-      <c r="G922" s="8"/>
-    </row>
-    <row r="923">
-      <c r="B923" s="16"/>
-      <c r="C923" s="8"/>
-      <c r="D923" s="11"/>
-      <c r="E923" s="8"/>
-      <c r="F923" s="8"/>
-      <c r="G923" s="8"/>
-    </row>
-    <row r="924">
-      <c r="B924" s="16"/>
-      <c r="C924" s="8"/>
-      <c r="D924" s="11"/>
-      <c r="E924" s="8"/>
-      <c r="F924" s="8"/>
-      <c r="G924" s="8"/>
-    </row>
-    <row r="925">
-      <c r="B925" s="16"/>
-      <c r="C925" s="8"/>
-      <c r="D925" s="11"/>
-      <c r="E925" s="8"/>
-      <c r="F925" s="8"/>
-      <c r="G925" s="8"/>
-    </row>
-    <row r="926">
-      <c r="B926" s="16"/>
-      <c r="C926" s="8"/>
-      <c r="D926" s="11"/>
-      <c r="E926" s="8"/>
-      <c r="F926" s="8"/>
-      <c r="G926" s="8"/>
-    </row>
-    <row r="927">
-      <c r="B927" s="16"/>
-      <c r="C927" s="8"/>
-      <c r="D927" s="11"/>
-      <c r="E927" s="8"/>
-      <c r="F927" s="8"/>
-      <c r="G927" s="8"/>
-    </row>
-    <row r="928">
-      <c r="B928" s="16"/>
-      <c r="C928" s="8"/>
-      <c r="D928" s="11"/>
-      <c r="E928" s="8"/>
-      <c r="F928" s="8"/>
-      <c r="G928" s="8"/>
-    </row>
-    <row r="929">
-      <c r="B929" s="16"/>
-      <c r="C929" s="8"/>
-      <c r="D929" s="11"/>
-      <c r="E929" s="8"/>
-      <c r="F929" s="8"/>
-      <c r="G929" s="8"/>
-    </row>
-    <row r="930">
-      <c r="B930" s="16"/>
-      <c r="C930" s="8"/>
-      <c r="D930" s="11"/>
-      <c r="E930" s="8"/>
-      <c r="F930" s="8"/>
-      <c r="G930" s="8"/>
-    </row>
-    <row r="931">
-      <c r="B931" s="16"/>
-      <c r="C931" s="8"/>
-      <c r="D931" s="11"/>
-      <c r="E931" s="8"/>
-      <c r="F931" s="8"/>
-      <c r="G931" s="8"/>
-    </row>
-    <row r="932">
-      <c r="B932" s="16"/>
-      <c r="C932" s="8"/>
-      <c r="D932" s="11"/>
-      <c r="E932" s="8"/>
-      <c r="F932" s="8"/>
-      <c r="G932" s="8"/>
-    </row>
-    <row r="933">
-      <c r="B933" s="16"/>
-      <c r="C933" s="8"/>
-      <c r="D933" s="11"/>
-      <c r="E933" s="8"/>
-      <c r="F933" s="8"/>
-      <c r="G933" s="8"/>
-    </row>
-    <row r="934">
-      <c r="B934" s="16"/>
-      <c r="C934" s="8"/>
-      <c r="D934" s="11"/>
-      <c r="E934" s="8"/>
-      <c r="F934" s="8"/>
-      <c r="G934" s="8"/>
-    </row>
-    <row r="935">
-      <c r="B935" s="16"/>
-      <c r="C935" s="8"/>
-      <c r="D935" s="11"/>
-      <c r="E935" s="8"/>
-      <c r="F935" s="8"/>
-      <c r="G935" s="8"/>
-    </row>
-    <row r="936">
-      <c r="B936" s="16"/>
-      <c r="C936" s="8"/>
-      <c r="D936" s="11"/>
-      <c r="E936" s="8"/>
-      <c r="F936" s="8"/>
-      <c r="G936" s="8"/>
-    </row>
-    <row r="937">
-      <c r="B937" s="16"/>
-      <c r="C937" s="8"/>
-      <c r="D937" s="11"/>
-      <c r="E937" s="8"/>
-      <c r="F937" s="8"/>
-      <c r="G937" s="8"/>
-    </row>
-    <row r="938">
-      <c r="B938" s="16"/>
-      <c r="C938" s="8"/>
-      <c r="D938" s="11"/>
-      <c r="E938" s="8"/>
-      <c r="F938" s="8"/>
-      <c r="G938" s="8"/>
-    </row>
-    <row r="939">
-      <c r="B939" s="16"/>
-      <c r="C939" s="8"/>
-      <c r="D939" s="11"/>
-      <c r="E939" s="8"/>
-      <c r="F939" s="8"/>
-      <c r="G939" s="8"/>
-    </row>
-    <row r="940">
-      <c r="B940" s="16"/>
-      <c r="C940" s="8"/>
-      <c r="D940" s="11"/>
-      <c r="E940" s="8"/>
-      <c r="F940" s="8"/>
-      <c r="G940" s="8"/>
-    </row>
-    <row r="941">
-      <c r="B941" s="16"/>
-      <c r="C941" s="8"/>
-      <c r="D941" s="11"/>
-      <c r="E941" s="8"/>
-      <c r="F941" s="8"/>
-      <c r="G941" s="8"/>
-    </row>
-    <row r="942">
-      <c r="B942" s="16"/>
-      <c r="C942" s="8"/>
-      <c r="D942" s="11"/>
-      <c r="E942" s="8"/>
-      <c r="F942" s="8"/>
-      <c r="G942" s="8"/>
-    </row>
-    <row r="943">
-      <c r="B943" s="16"/>
-      <c r="C943" s="8"/>
-      <c r="D943" s="11"/>
-      <c r="E943" s="8"/>
-      <c r="F943" s="8"/>
-      <c r="G943" s="8"/>
-    </row>
-    <row r="944">
-      <c r="B944" s="16"/>
-      <c r="C944" s="8"/>
-      <c r="D944" s="11"/>
-      <c r="E944" s="8"/>
-      <c r="F944" s="8"/>
-      <c r="G944" s="8"/>
-    </row>
-    <row r="945">
-      <c r="B945" s="16"/>
-      <c r="C945" s="8"/>
-      <c r="D945" s="11"/>
-      <c r="E945" s="8"/>
-      <c r="F945" s="8"/>
-      <c r="G945" s="8"/>
-    </row>
-    <row r="946">
-      <c r="B946" s="16"/>
-      <c r="C946" s="8"/>
-      <c r="D946" s="11"/>
-      <c r="E946" s="8"/>
-      <c r="F946" s="8"/>
-      <c r="G946" s="8"/>
-    </row>
-    <row r="947">
-      <c r="B947" s="16"/>
-      <c r="C947" s="8"/>
-      <c r="D947" s="11"/>
-      <c r="E947" s="8"/>
-      <c r="F947" s="8"/>
-      <c r="G947" s="8"/>
-    </row>
-    <row r="948">
-      <c r="B948" s="16"/>
-      <c r="C948" s="8"/>
-      <c r="D948" s="11"/>
-      <c r="E948" s="8"/>
-      <c r="F948" s="8"/>
-      <c r="G948" s="8"/>
-    </row>
-    <row r="949">
-      <c r="B949" s="16"/>
-      <c r="C949" s="8"/>
-      <c r="D949" s="11"/>
-      <c r="E949" s="8"/>
-      <c r="F949" s="8"/>
-      <c r="G949" s="8"/>
-    </row>
-    <row r="950">
-      <c r="B950" s="16"/>
-      <c r="C950" s="8"/>
-      <c r="D950" s="11"/>
-      <c r="E950" s="8"/>
-      <c r="F950" s="8"/>
-      <c r="G950" s="8"/>
-    </row>
-    <row r="951">
-      <c r="B951" s="16"/>
-      <c r="C951" s="8"/>
-      <c r="D951" s="11"/>
-      <c r="E951" s="8"/>
-      <c r="F951" s="8"/>
-      <c r="G951" s="8"/>
-    </row>
-    <row r="952">
-      <c r="B952" s="16"/>
-      <c r="C952" s="8"/>
-      <c r="D952" s="11"/>
-      <c r="E952" s="8"/>
-      <c r="F952" s="8"/>
-      <c r="G952" s="8"/>
-    </row>
-    <row r="953">
-      <c r="B953" s="16"/>
-      <c r="C953" s="8"/>
-      <c r="D953" s="11"/>
-      <c r="E953" s="8"/>
-      <c r="F953" s="8"/>
-      <c r="G953" s="8"/>
-    </row>
-    <row r="954">
-      <c r="B954" s="16"/>
-      <c r="C954" s="8"/>
-      <c r="D954" s="11"/>
-      <c r="E954" s="8"/>
-      <c r="F954" s="8"/>
-      <c r="G954" s="8"/>
-    </row>
-    <row r="955">
-      <c r="B955" s="16"/>
-      <c r="C955" s="8"/>
-      <c r="D955" s="11"/>
-      <c r="E955" s="8"/>
-      <c r="F955" s="8"/>
-      <c r="G955" s="8"/>
-    </row>
-    <row r="956">
-      <c r="B956" s="16"/>
-      <c r="C956" s="8"/>
-      <c r="D956" s="11"/>
-      <c r="E956" s="8"/>
-      <c r="F956" s="8"/>
-      <c r="G956" s="8"/>
-    </row>
-    <row r="957">
-      <c r="B957" s="16"/>
-      <c r="C957" s="8"/>
-      <c r="D957" s="11"/>
-      <c r="E957" s="8"/>
-      <c r="F957" s="8"/>
-      <c r="G957" s="8"/>
-    </row>
-    <row r="958">
-      <c r="B958" s="16"/>
-      <c r="C958" s="8"/>
-      <c r="D958" s="11"/>
-      <c r="E958" s="8"/>
-      <c r="F958" s="8"/>
-      <c r="G958" s="8"/>
-    </row>
-    <row r="959">
-      <c r="B959" s="16"/>
-      <c r="C959" s="8"/>
-      <c r="D959" s="11"/>
-      <c r="E959" s="8"/>
-      <c r="F959" s="8"/>
-      <c r="G959" s="8"/>
-    </row>
-    <row r="960">
-      <c r="B960" s="16"/>
-      <c r="C960" s="8"/>
-      <c r="D960" s="11"/>
-      <c r="E960" s="8"/>
-      <c r="F960" s="8"/>
-      <c r="G960" s="8"/>
-    </row>
-    <row r="961">
-      <c r="B961" s="16"/>
-      <c r="C961" s="8"/>
-      <c r="D961" s="11"/>
-      <c r="E961" s="8"/>
-      <c r="F961" s="8"/>
-      <c r="G961" s="8"/>
-    </row>
-    <row r="962">
-      <c r="B962" s="16"/>
-      <c r="C962" s="8"/>
-      <c r="D962" s="11"/>
-      <c r="E962" s="8"/>
-      <c r="F962" s="8"/>
-      <c r="G962" s="8"/>
-    </row>
-    <row r="963">
-      <c r="B963" s="16"/>
-      <c r="C963" s="8"/>
-      <c r="D963" s="11"/>
-      <c r="E963" s="8"/>
-      <c r="F963" s="8"/>
-      <c r="G963" s="8"/>
-    </row>
-    <row r="964">
-      <c r="B964" s="16"/>
-      <c r="C964" s="8"/>
-      <c r="D964" s="11"/>
-      <c r="E964" s="8"/>
-      <c r="F964" s="8"/>
-      <c r="G964" s="8"/>
-    </row>
-    <row r="965">
-      <c r="B965" s="16"/>
-      <c r="C965" s="8"/>
-      <c r="D965" s="11"/>
-      <c r="E965" s="8"/>
-      <c r="F965" s="8"/>
-      <c r="G965" s="8"/>
-    </row>
-    <row r="966">
-      <c r="B966" s="16"/>
-      <c r="C966" s="8"/>
-      <c r="D966" s="11"/>
-      <c r="E966" s="8"/>
-      <c r="F966" s="8"/>
-      <c r="G966" s="8"/>
-    </row>
-    <row r="967">
-      <c r="B967" s="16"/>
-      <c r="C967" s="8"/>
-      <c r="D967" s="11"/>
-      <c r="E967" s="8"/>
-      <c r="F967" s="8"/>
-      <c r="G967" s="8"/>
-    </row>
-    <row r="968">
-      <c r="B968" s="16"/>
-      <c r="C968" s="8"/>
-      <c r="D968" s="11"/>
-      <c r="E968" s="8"/>
-      <c r="F968" s="8"/>
-      <c r="G968" s="8"/>
-    </row>
-    <row r="969">
-      <c r="B969" s="16"/>
-      <c r="C969" s="8"/>
-      <c r="D969" s="11"/>
-      <c r="E969" s="8"/>
-      <c r="F969" s="8"/>
-      <c r="G969" s="8"/>
-    </row>
-    <row r="970">
-      <c r="B970" s="16"/>
-      <c r="C970" s="8"/>
-      <c r="D970" s="11"/>
-      <c r="E970" s="8"/>
-      <c r="F970" s="8"/>
-      <c r="G970" s="8"/>
-    </row>
-    <row r="971">
-      <c r="B971" s="16"/>
-      <c r="C971" s="8"/>
-      <c r="D971" s="11"/>
-      <c r="E971" s="8"/>
-      <c r="F971" s="8"/>
-      <c r="G971" s="8"/>
-    </row>
-    <row r="972">
-      <c r="B972" s="16"/>
-      <c r="C972" s="8"/>
-      <c r="D972" s="11"/>
-      <c r="E972" s="8"/>
-      <c r="F972" s="8"/>
-      <c r="G972" s="8"/>
-    </row>
-    <row r="973">
-      <c r="B973" s="16"/>
-      <c r="C973" s="8"/>
-      <c r="D973" s="11"/>
-      <c r="E973" s="8"/>
-      <c r="F973" s="8"/>
-      <c r="G973" s="8"/>
-    </row>
-    <row r="974">
-      <c r="B974" s="16"/>
-      <c r="C974" s="8"/>
-      <c r="D974" s="11"/>
-      <c r="E974" s="8"/>
-      <c r="F974" s="8"/>
-      <c r="G974" s="8"/>
-    </row>
-    <row r="975">
-      <c r="B975" s="16"/>
-      <c r="C975" s="8"/>
-      <c r="D975" s="11"/>
-      <c r="E975" s="8"/>
-      <c r="F975" s="8"/>
-      <c r="G975" s="8"/>
-    </row>
-    <row r="976">
-      <c r="B976" s="16"/>
-      <c r="C976" s="8"/>
-      <c r="D976" s="11"/>
-      <c r="E976" s="8"/>
-      <c r="F976" s="8"/>
-      <c r="G976" s="8"/>
-    </row>
-    <row r="977">
-      <c r="B977" s="16"/>
-      <c r="C977" s="8"/>
-      <c r="D977" s="11"/>
-      <c r="E977" s="8"/>
-      <c r="F977" s="8"/>
-      <c r="G977" s="8"/>
-    </row>
-    <row r="978">
-      <c r="B978" s="16"/>
-      <c r="C978" s="8"/>
-      <c r="D978" s="11"/>
-      <c r="E978" s="8"/>
-      <c r="F978" s="8"/>
-      <c r="G978" s="8"/>
-    </row>
-    <row r="979">
-      <c r="B979" s="16"/>
-      <c r="C979" s="8"/>
-      <c r="D979" s="11"/>
-      <c r="E979" s="8"/>
-      <c r="F979" s="8"/>
-      <c r="G979" s="8"/>
-    </row>
-    <row r="980">
-      <c r="B980" s="16"/>
-      <c r="C980" s="8"/>
-      <c r="D980" s="11"/>
-      <c r="E980" s="8"/>
-      <c r="F980" s="8"/>
-      <c r="G980" s="8"/>
-    </row>
-    <row r="981">
-      <c r="B981" s="16"/>
-      <c r="C981" s="8"/>
-      <c r="D981" s="11"/>
-      <c r="E981" s="8"/>
-      <c r="F981" s="8"/>
-      <c r="G981" s="8"/>
-    </row>
-    <row r="982">
-      <c r="B982" s="16"/>
-      <c r="C982" s="8"/>
-      <c r="D982" s="11"/>
-      <c r="E982" s="8"/>
-      <c r="F982" s="8"/>
-      <c r="G982" s="8"/>
-    </row>
-    <row r="983">
-      <c r="B983" s="16"/>
-      <c r="C983" s="8"/>
-      <c r="D983" s="11"/>
-      <c r="E983" s="8"/>
-      <c r="F983" s="8"/>
-      <c r="G983" s="8"/>
-    </row>
-    <row r="984">
-      <c r="B984" s="16"/>
-      <c r="C984" s="8"/>
-      <c r="D984" s="11"/>
-      <c r="E984" s="8"/>
-      <c r="F984" s="8"/>
-      <c r="G984" s="8"/>
-    </row>
-    <row r="985">
-      <c r="B985" s="16"/>
-      <c r="C985" s="8"/>
-      <c r="D985" s="11"/>
-      <c r="E985" s="8"/>
-      <c r="F985" s="8"/>
-      <c r="G985" s="8"/>
-    </row>
-    <row r="986">
-      <c r="B986" s="16"/>
-      <c r="C986" s="8"/>
-      <c r="D986" s="11"/>
-      <c r="E986" s="8"/>
-      <c r="F986" s="8"/>
-      <c r="G986" s="8"/>
-    </row>
-    <row r="987">
-      <c r="B987" s="16"/>
-      <c r="C987" s="8"/>
-      <c r="D987" s="11"/>
-      <c r="E987" s="8"/>
-      <c r="F987" s="8"/>
-      <c r="G987" s="8"/>
-    </row>
-    <row r="988">
-      <c r="B988" s="16"/>
-      <c r="C988" s="8"/>
-      <c r="D988" s="11"/>
-      <c r="E988" s="8"/>
-      <c r="F988" s="8"/>
-      <c r="G988" s="8"/>
-    </row>
-    <row r="989">
-      <c r="B989" s="16"/>
-      <c r="C989" s="8"/>
-      <c r="D989" s="11"/>
-      <c r="E989" s="8"/>
-      <c r="F989" s="8"/>
-      <c r="G989" s="8"/>
-    </row>
-    <row r="990">
-      <c r="B990" s="16"/>
-      <c r="C990" s="8"/>
-      <c r="D990" s="11"/>
-      <c r="E990" s="8"/>
-      <c r="F990" s="8"/>
-      <c r="G990" s="8"/>
-    </row>
-    <row r="991">
-      <c r="B991" s="16"/>
-      <c r="C991" s="8"/>
-      <c r="D991" s="11"/>
-      <c r="E991" s="8"/>
-      <c r="F991" s="8"/>
-      <c r="G991" s="8"/>
-    </row>
-    <row r="992">
-      <c r="B992" s="16"/>
-      <c r="C992" s="8"/>
-      <c r="D992" s="11"/>
-      <c r="E992" s="8"/>
-      <c r="F992" s="8"/>
-      <c r="G992" s="8"/>
-    </row>
-    <row r="993">
-      <c r="B993" s="16"/>
-      <c r="C993" s="8"/>
-      <c r="D993" s="11"/>
-      <c r="E993" s="8"/>
-      <c r="F993" s="8"/>
-      <c r="G993" s="8"/>
-    </row>
-    <row r="994">
-      <c r="B994" s="16"/>
-      <c r="C994" s="8"/>
-      <c r="D994" s="11"/>
-      <c r="E994" s="8"/>
-      <c r="F994" s="8"/>
-      <c r="G994" s="8"/>
-    </row>
-    <row r="995">
-      <c r="B995" s="16"/>
-      <c r="C995" s="8"/>
-      <c r="D995" s="11"/>
-      <c r="E995" s="8"/>
-      <c r="F995" s="8"/>
-      <c r="G995" s="8"/>
-    </row>
-    <row r="996">
-      <c r="B996" s="16"/>
-      <c r="C996" s="8"/>
-      <c r="D996" s="11"/>
-      <c r="E996" s="8"/>
-      <c r="F996" s="8"/>
-      <c r="G996" s="8"/>
-    </row>
-    <row r="997">
-      <c r="B997" s="16"/>
-      <c r="C997" s="8"/>
-      <c r="D997" s="11"/>
-      <c r="E997" s="8"/>
-      <c r="F997" s="8"/>
-      <c r="G997" s="8"/>
-    </row>
-    <row r="998">
-      <c r="B998" s="16"/>
-      <c r="C998" s="8"/>
-      <c r="D998" s="11"/>
-      <c r="E998" s="8"/>
-      <c r="F998" s="8"/>
-      <c r="G998" s="8"/>
-    </row>
-    <row r="999">
-      <c r="B999" s="16"/>
-      <c r="C999" s="8"/>
-      <c r="D999" s="11"/>
-      <c r="E999" s="8"/>
-      <c r="F999" s="8"/>
-      <c r="G999" s="8"/>
-    </row>
-    <row r="1000">
-      <c r="B1000" s="16"/>
-      <c r="C1000" s="8"/>
-      <c r="D1000" s="11"/>
-      <c r="E1000" s="8"/>
-      <c r="F1000" s="8"/>
-      <c r="G1000" s="8"/>
-    </row>
-    <row r="1001">
-      <c r="B1001" s="16"/>
-      <c r="C1001" s="8"/>
-      <c r="D1001" s="11"/>
-      <c r="E1001" s="8"/>
-      <c r="F1001" s="8"/>
-      <c r="G1001" s="8"/>
-    </row>
-    <row r="1002">
-      <c r="B1002" s="16"/>
-      <c r="C1002" s="8"/>
-      <c r="D1002" s="11"/>
-      <c r="E1002" s="8"/>
-      <c r="F1002" s="8"/>
-      <c r="G1002" s="8"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="90591a250/=xst4ec" ref="C5"/>
-    <hyperlink r:id="rId2" location="90576a102/=xsshuh" ref="C6"/>
-    <hyperlink r:id="rId3" location="91166a210/=xsshhz" ref="C7"/>
-    <hyperlink r:id="rId4" ref="C9"/>
-    <hyperlink r:id="rId5" ref="C12"/>
-    <hyperlink r:id="rId6" ref="C19"/>
-    <hyperlink r:id="rId7" location="product-description-iframe" ref="C20"/>
-    <hyperlink r:id="rId8" ref="C21"/>
-    <hyperlink r:id="rId9" ref="C22"/>
-    <hyperlink r:id="rId10" ref="C23"/>
-    <hyperlink r:id="rId11" ref="C24"/>
-    <hyperlink r:id="rId12" ref="C25"/>
+    <hyperlink r:id="rId1" location="90591a250/=xst4ec" ref="C7"/>
+    <hyperlink r:id="rId2" location="90576a102/=xsshuh" ref="C8"/>
+    <hyperlink r:id="rId3" location="91166a210/=xsshhz" ref="C9"/>
+    <hyperlink r:id="rId4" ref="C11"/>
+    <hyperlink r:id="rId5" ref="C14"/>
+    <hyperlink r:id="rId6" ref="C16"/>
+    <hyperlink r:id="rId7" ref="C21"/>
+    <hyperlink r:id="rId8" location="product-description-iframe" ref="C22"/>
+    <hyperlink r:id="rId9" ref="C23"/>
+    <hyperlink r:id="rId10" ref="C24"/>
+    <hyperlink r:id="rId11" ref="C25"/>
+    <hyperlink r:id="rId12" ref="C26"/>
+    <hyperlink r:id="rId13" ref="C27"/>
+    <hyperlink r:id="rId14" ref="C28"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>